--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>593200</v>
+        <v>756400</v>
       </c>
       <c r="E8" s="3">
-        <v>590500</v>
+        <v>696000</v>
       </c>
       <c r="F8" s="3">
-        <v>678300</v>
+        <v>598400</v>
       </c>
       <c r="G8" s="3">
-        <v>675100</v>
+        <v>595700</v>
       </c>
       <c r="H8" s="3">
-        <v>582600</v>
+        <v>684300</v>
       </c>
       <c r="I8" s="3">
+        <v>681000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>587700</v>
+      </c>
+      <c r="K8" s="3">
         <v>536000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>592000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>570200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>515000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>514000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>623600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>569500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>418400</v>
+        <v>536100</v>
       </c>
       <c r="E9" s="3">
-        <v>414500</v>
+        <v>488100</v>
       </c>
       <c r="F9" s="3">
-        <v>469000</v>
+        <v>422100</v>
       </c>
       <c r="G9" s="3">
-        <v>473300</v>
+        <v>418100</v>
       </c>
       <c r="H9" s="3">
-        <v>421200</v>
+        <v>473100</v>
       </c>
       <c r="I9" s="3">
+        <v>477500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>424900</v>
+      </c>
+      <c r="K9" s="3">
         <v>369700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>404000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>390700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>359000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>352100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>440400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>410000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>174800</v>
+        <v>220300</v>
       </c>
       <c r="E10" s="3">
-        <v>176000</v>
+        <v>207900</v>
       </c>
       <c r="F10" s="3">
-        <v>209400</v>
+        <v>176300</v>
       </c>
       <c r="G10" s="3">
-        <v>201700</v>
+        <v>177500</v>
       </c>
       <c r="H10" s="3">
-        <v>161400</v>
+        <v>211200</v>
       </c>
       <c r="I10" s="3">
+        <v>203500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>162800</v>
+      </c>
+      <c r="K10" s="3">
         <v>166300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>188100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>179500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>156000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>161900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>183200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>159500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F14" s="3">
         <v>1900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
-        <v>49200</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>49600</v>
+      </c>
+      <c r="I14" s="3">
         <v>6600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>4500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>6700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>22900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>6100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>12900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>23800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>518500</v>
+        <v>671300</v>
       </c>
       <c r="E17" s="3">
-        <v>509100</v>
+        <v>600100</v>
       </c>
       <c r="F17" s="3">
-        <v>618300</v>
+        <v>523000</v>
       </c>
       <c r="G17" s="3">
-        <v>589300</v>
+        <v>513600</v>
       </c>
       <c r="H17" s="3">
-        <v>518500</v>
+        <v>623700</v>
       </c>
       <c r="I17" s="3">
+        <v>594400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>523000</v>
+      </c>
+      <c r="K17" s="3">
         <v>470600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>496500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>516500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>445200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>449500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>535300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>538800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>74800</v>
+        <v>85100</v>
       </c>
       <c r="E18" s="3">
-        <v>81400</v>
+        <v>95900</v>
       </c>
       <c r="F18" s="3">
-        <v>60100</v>
+        <v>75400</v>
       </c>
       <c r="G18" s="3">
-        <v>85800</v>
+        <v>82100</v>
       </c>
       <c r="H18" s="3">
-        <v>64100</v>
+        <v>60600</v>
       </c>
       <c r="I18" s="3">
+        <v>86500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K18" s="3">
         <v>65400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>95500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>53700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>69800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>64500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>88400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>30800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-19700</v>
+        <v>3400</v>
       </c>
       <c r="E20" s="3">
-        <v>-500</v>
+        <v>13000</v>
       </c>
       <c r="F20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>13100</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-6700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>5500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>73500</v>
+        <v>108200</v>
       </c>
       <c r="E21" s="3">
-        <v>99100</v>
+        <v>129100</v>
       </c>
       <c r="F21" s="3">
-        <v>78200</v>
+        <v>90300</v>
       </c>
       <c r="G21" s="3">
-        <v>112800</v>
+        <v>100000</v>
       </c>
       <c r="H21" s="3">
-        <v>77000</v>
+        <v>78900</v>
       </c>
       <c r="I21" s="3">
+        <v>113800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K21" s="3">
         <v>71000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>112000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>63300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>84600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>75500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>103300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>43300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>16700</v>
       </c>
       <c r="E22" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>16200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>16400</v>
+      </c>
+      <c r="H22" s="3">
         <v>16300</v>
       </c>
-      <c r="F22" s="3">
-        <v>16100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>34900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>12500</v>
-      </c>
       <c r="I22" s="3">
+        <v>35200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K22" s="3">
         <v>13000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>12200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>17800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>12600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>36600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>19400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>23000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55100</v>
+        <v>71800</v>
       </c>
       <c r="E23" s="3">
-        <v>64600</v>
+        <v>68000</v>
       </c>
       <c r="F23" s="3">
-        <v>43800</v>
+        <v>55600</v>
       </c>
       <c r="G23" s="3">
-        <v>63900</v>
+        <v>65100</v>
       </c>
       <c r="H23" s="3">
-        <v>50800</v>
+        <v>44200</v>
       </c>
       <c r="I23" s="3">
+        <v>64500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K23" s="3">
         <v>45800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>88800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>34200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>60100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>28300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>69500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12100</v>
+        <v>19300</v>
       </c>
       <c r="E24" s="3">
-        <v>13800</v>
+        <v>17200</v>
       </c>
       <c r="F24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I24" s="3">
         <v>19300</v>
       </c>
-      <c r="G24" s="3">
-        <v>19100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K24" s="3">
         <v>11700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>20300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>13100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>6600</v>
       </c>
       <c r="N24" s="3">
         <v>13100</v>
       </c>
       <c r="O24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="P24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>7200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>43000</v>
+        <v>52500</v>
       </c>
       <c r="E26" s="3">
-        <v>50700</v>
+        <v>50800</v>
       </c>
       <c r="F26" s="3">
-        <v>24500</v>
+        <v>43400</v>
       </c>
       <c r="G26" s="3">
-        <v>44800</v>
+        <v>51200</v>
       </c>
       <c r="H26" s="3">
-        <v>39900</v>
+        <v>24700</v>
       </c>
       <c r="I26" s="3">
+        <v>45200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K26" s="3">
         <v>34000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>68500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>30600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>47000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>21700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>56300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>43000</v>
+        <v>52600</v>
       </c>
       <c r="E27" s="3">
         <v>50900</v>
       </c>
       <c r="F27" s="3">
-        <v>24600</v>
+        <v>43400</v>
       </c>
       <c r="G27" s="3">
-        <v>45100</v>
+        <v>51400</v>
       </c>
       <c r="H27" s="3">
-        <v>40300</v>
+        <v>24800</v>
       </c>
       <c r="I27" s="3">
+        <v>45500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K27" s="3">
         <v>34000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>68500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>30600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>47000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>21700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>56300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>19700</v>
+        <v>-3400</v>
       </c>
       <c r="E32" s="3">
-        <v>500</v>
+        <v>-13000</v>
       </c>
       <c r="F32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>600</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>6700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-5500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>43000</v>
+        <v>52600</v>
       </c>
       <c r="E33" s="3">
         <v>50900</v>
       </c>
       <c r="F33" s="3">
-        <v>24600</v>
+        <v>43400</v>
       </c>
       <c r="G33" s="3">
-        <v>45100</v>
+        <v>51400</v>
       </c>
       <c r="H33" s="3">
-        <v>40300</v>
+        <v>24800</v>
       </c>
       <c r="I33" s="3">
+        <v>45500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K33" s="3">
         <v>34000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>68500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>30600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>47000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>21700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>56300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>43000</v>
+        <v>52600</v>
       </c>
       <c r="E35" s="3">
         <v>50900</v>
       </c>
       <c r="F35" s="3">
-        <v>24600</v>
+        <v>43400</v>
       </c>
       <c r="G35" s="3">
-        <v>45100</v>
+        <v>51400</v>
       </c>
       <c r="H35" s="3">
-        <v>40300</v>
+        <v>24800</v>
       </c>
       <c r="I35" s="3">
+        <v>45500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K35" s="3">
         <v>34000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>68500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>30600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>47000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>21700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>56300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,63 +2138,71 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>792200</v>
+        <v>888800</v>
       </c>
       <c r="E41" s="3">
-        <v>790200</v>
+        <v>914900</v>
       </c>
       <c r="F41" s="3">
-        <v>826900</v>
+        <v>799000</v>
       </c>
       <c r="G41" s="3">
-        <v>359600</v>
+        <v>797100</v>
       </c>
       <c r="H41" s="3">
-        <v>172200</v>
+        <v>834100</v>
       </c>
       <c r="I41" s="3">
+        <v>362700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>173700</v>
+      </c>
+      <c r="K41" s="3">
         <v>443200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>432100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>245900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>199800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>337200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>436200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>386800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27500</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+        <v>27700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>27700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>27700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2037,11 +2216,11 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2055,316 +2234,364 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>169100</v>
+        <v>307700</v>
       </c>
       <c r="E43" s="3">
-        <v>208900</v>
+        <v>228900</v>
       </c>
       <c r="F43" s="3">
-        <v>209300</v>
+        <v>170600</v>
       </c>
       <c r="G43" s="3">
-        <v>190900</v>
+        <v>210800</v>
       </c>
       <c r="H43" s="3">
-        <v>225600</v>
+        <v>211100</v>
       </c>
       <c r="I43" s="3">
+        <v>192600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>227600</v>
+      </c>
+      <c r="K43" s="3">
         <v>181300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>189800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>165000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>159700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>143100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>170000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>159300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>430700</v>
+        <v>291400</v>
       </c>
       <c r="E44" s="3">
-        <v>378500</v>
+        <v>358000</v>
       </c>
       <c r="F44" s="3">
-        <v>372800</v>
+        <v>434500</v>
       </c>
       <c r="G44" s="3">
-        <v>376100</v>
+        <v>381800</v>
       </c>
       <c r="H44" s="3">
-        <v>414600</v>
+        <v>376000</v>
       </c>
       <c r="I44" s="3">
+        <v>379400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>418200</v>
+      </c>
+      <c r="K44" s="3">
         <v>366200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>315000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>344300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>370900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>346900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>350700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>381500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>54400</v>
+        <v>41000</v>
       </c>
       <c r="E45" s="3">
-        <v>47700</v>
+        <v>43600</v>
       </c>
       <c r="F45" s="3">
-        <v>50900</v>
+        <v>54900</v>
       </c>
       <c r="G45" s="3">
-        <v>102000</v>
+        <v>48100</v>
       </c>
       <c r="H45" s="3">
-        <v>100600</v>
+        <v>51400</v>
       </c>
       <c r="I45" s="3">
+        <v>102900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>101500</v>
+      </c>
+      <c r="K45" s="3">
         <v>103300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>86400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>85200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>89500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>86700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>102500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>98100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1473800</v>
+        <v>1556600</v>
       </c>
       <c r="E46" s="3">
-        <v>1425300</v>
+        <v>1573100</v>
       </c>
       <c r="F46" s="3">
-        <v>1459900</v>
+        <v>1486700</v>
       </c>
       <c r="G46" s="3">
-        <v>1028600</v>
+        <v>1437800</v>
       </c>
       <c r="H46" s="3">
-        <v>913000</v>
+        <v>1472700</v>
       </c>
       <c r="I46" s="3">
+        <v>1037600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>921000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1093900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1023300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>840500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>820000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>913900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1059400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1025700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F47" s="3">
         <v>2300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2500</v>
       </c>
-      <c r="F47" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I47" s="3">
         <v>2900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>457400</v>
+        <v>458900</v>
       </c>
       <c r="E48" s="3">
-        <v>460400</v>
+        <v>467900</v>
       </c>
       <c r="F48" s="3">
-        <v>469500</v>
+        <v>461400</v>
       </c>
       <c r="G48" s="3">
-        <v>383000</v>
+        <v>464400</v>
       </c>
       <c r="H48" s="3">
-        <v>376200</v>
+        <v>473600</v>
       </c>
       <c r="I48" s="3">
+        <v>386300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>379500</v>
+      </c>
+      <c r="K48" s="3">
         <v>352500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>315600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>331400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>329400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>327400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>345700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>350000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4332200</v>
+        <v>4374800</v>
       </c>
       <c r="E49" s="3">
-        <v>4333700</v>
+        <v>4370600</v>
       </c>
       <c r="F49" s="3">
-        <v>4333600</v>
+        <v>4370000</v>
       </c>
       <c r="G49" s="3">
-        <v>4335100</v>
+        <v>4371600</v>
       </c>
       <c r="H49" s="3">
-        <v>4332300</v>
+        <v>4371500</v>
       </c>
       <c r="I49" s="3">
+        <v>4373000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4370100</v>
+      </c>
+      <c r="K49" s="3">
         <v>4073100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3809500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3893300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3892200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3894300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4074200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4075700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>133600</v>
+        <v>137500</v>
       </c>
       <c r="E52" s="3">
-        <v>113800</v>
+        <v>126200</v>
       </c>
       <c r="F52" s="3">
-        <v>106700</v>
+        <v>134800</v>
       </c>
       <c r="G52" s="3">
-        <v>114600</v>
+        <v>114700</v>
       </c>
       <c r="H52" s="3">
-        <v>99400</v>
+        <v>107700</v>
       </c>
       <c r="I52" s="3">
+        <v>115600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K52" s="3">
         <v>94400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>97200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>93000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>97300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>89600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>76300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>76200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6399400</v>
+        <v>6529400</v>
       </c>
       <c r="E54" s="3">
-        <v>6335700</v>
+        <v>6539800</v>
       </c>
       <c r="F54" s="3">
-        <v>6372500</v>
+        <v>6455300</v>
       </c>
       <c r="G54" s="3">
-        <v>5864200</v>
+        <v>6391100</v>
       </c>
       <c r="H54" s="3">
-        <v>5724000</v>
+        <v>6428200</v>
       </c>
       <c r="I54" s="3">
+        <v>5915500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5774000</v>
+      </c>
+      <c r="K54" s="3">
         <v>5617500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5249400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5163100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5140300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5226700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5556000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5528100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>551200</v>
+        <v>602200</v>
       </c>
       <c r="E57" s="3">
-        <v>569900</v>
+        <v>581700</v>
       </c>
       <c r="F57" s="3">
-        <v>631000</v>
+        <v>556000</v>
       </c>
       <c r="G57" s="3">
-        <v>627600</v>
+        <v>574800</v>
       </c>
       <c r="H57" s="3">
-        <v>541000</v>
+        <v>636500</v>
       </c>
       <c r="I57" s="3">
+        <v>633100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>545700</v>
+      </c>
+      <c r="K57" s="3">
         <v>529300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>521400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>535800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>515200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>534900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>540500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>554900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29200</v>
+        <v>26100</v>
       </c>
       <c r="E58" s="3">
-        <v>28800</v>
+        <v>30700</v>
       </c>
       <c r="F58" s="3">
-        <v>44800</v>
+        <v>29500</v>
       </c>
       <c r="G58" s="3">
-        <v>23500</v>
+        <v>29000</v>
       </c>
       <c r="H58" s="3">
-        <v>7200</v>
+        <v>45200</v>
       </c>
       <c r="I58" s="3">
+        <v>23700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K58" s="3">
         <v>6800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4900</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>284600</v>
+        <v>301200</v>
       </c>
       <c r="E59" s="3">
-        <v>271000</v>
+        <v>299300</v>
       </c>
       <c r="F59" s="3">
-        <v>272700</v>
+        <v>287100</v>
       </c>
       <c r="G59" s="3">
-        <v>271200</v>
+        <v>273400</v>
       </c>
       <c r="H59" s="3">
-        <v>279600</v>
+        <v>275100</v>
       </c>
       <c r="I59" s="3">
+        <v>273600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>282000</v>
+      </c>
+      <c r="K59" s="3">
         <v>269100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>261700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>248100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>279200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>295300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>321900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>329100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>865000</v>
+        <v>929500</v>
       </c>
       <c r="E60" s="3">
-        <v>869600</v>
+        <v>911700</v>
       </c>
       <c r="F60" s="3">
-        <v>948600</v>
+        <v>872600</v>
       </c>
       <c r="G60" s="3">
-        <v>922300</v>
+        <v>877200</v>
       </c>
       <c r="H60" s="3">
-        <v>827800</v>
+        <v>956900</v>
       </c>
       <c r="I60" s="3">
+        <v>930400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>835000</v>
+      </c>
+      <c r="K60" s="3">
         <v>805300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>787000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>787500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>799000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>835100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>862400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>884000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2053700</v>
+        <v>2063800</v>
       </c>
       <c r="E61" s="3">
-        <v>2015900</v>
+        <v>2046400</v>
       </c>
       <c r="F61" s="3">
-        <v>2036900</v>
+        <v>2071700</v>
       </c>
       <c r="G61" s="3">
-        <v>1913700</v>
+        <v>2033600</v>
       </c>
       <c r="H61" s="3">
-        <v>1935600</v>
+        <v>2054700</v>
       </c>
       <c r="I61" s="3">
+        <v>1930400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1952500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1933700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1624100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1565300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1575000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1596100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1703400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1704100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>741700</v>
+        <v>706400</v>
       </c>
       <c r="E62" s="3">
-        <v>740700</v>
+        <v>750000</v>
       </c>
       <c r="F62" s="3">
-        <v>701600</v>
+        <v>748200</v>
       </c>
       <c r="G62" s="3">
-        <v>767300</v>
+        <v>747200</v>
       </c>
       <c r="H62" s="3">
-        <v>760900</v>
+        <v>707800</v>
       </c>
       <c r="I62" s="3">
+        <v>774000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>767600</v>
+      </c>
+      <c r="K62" s="3">
         <v>720500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>734000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>731600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>725600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>699100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>707100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>706800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3659200</v>
+        <v>3699700</v>
       </c>
       <c r="E66" s="3">
-        <v>3625000</v>
+        <v>3706700</v>
       </c>
       <c r="F66" s="3">
-        <v>3686100</v>
+        <v>3691200</v>
       </c>
       <c r="G66" s="3">
-        <v>3602400</v>
+        <v>3656700</v>
       </c>
       <c r="H66" s="3">
-        <v>3523700</v>
+        <v>3718300</v>
       </c>
       <c r="I66" s="3">
+        <v>3633900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3554500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3459500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3145100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3084500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3099600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3130400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3272900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3294900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2647100</v>
+        <v>2724300</v>
       </c>
       <c r="E72" s="3">
-        <v>2622600</v>
+        <v>2742700</v>
       </c>
       <c r="F72" s="3">
-        <v>2582700</v>
+        <v>2670200</v>
       </c>
       <c r="G72" s="3">
-        <v>2154900</v>
+        <v>2645500</v>
       </c>
       <c r="H72" s="3">
-        <v>2092300</v>
+        <v>2605300</v>
       </c>
       <c r="I72" s="3">
+        <v>2173800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2110600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2048900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2011800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1988600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1959700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2006100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2182600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2124700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2740200</v>
+        <v>2829700</v>
       </c>
       <c r="E76" s="3">
-        <v>2710600</v>
+        <v>2833100</v>
       </c>
       <c r="F76" s="3">
-        <v>2686400</v>
+        <v>2764100</v>
       </c>
       <c r="G76" s="3">
-        <v>2261800</v>
+        <v>2734300</v>
       </c>
       <c r="H76" s="3">
-        <v>2200300</v>
+        <v>2709900</v>
       </c>
       <c r="I76" s="3">
+        <v>2281500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2219500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2158000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2104300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2078600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2040700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2096300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2283100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2233200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>43000</v>
+        <v>52600</v>
       </c>
       <c r="E81" s="3">
         <v>50900</v>
       </c>
       <c r="F81" s="3">
-        <v>24600</v>
+        <v>43400</v>
       </c>
       <c r="G81" s="3">
-        <v>45100</v>
+        <v>51400</v>
       </c>
       <c r="H81" s="3">
-        <v>40300</v>
+        <v>24800</v>
       </c>
       <c r="I81" s="3">
+        <v>45500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K81" s="3">
         <v>34000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>68500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>30600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>47000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>21700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>56300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18300</v>
+        <v>19700</v>
       </c>
       <c r="E83" s="3">
-        <v>18300</v>
+        <v>20300</v>
       </c>
       <c r="F83" s="3">
-        <v>18200</v>
+        <v>18500</v>
       </c>
       <c r="G83" s="3">
-        <v>13900</v>
+        <v>18500</v>
       </c>
       <c r="H83" s="3">
-        <v>13600</v>
+        <v>18400</v>
       </c>
       <c r="I83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K83" s="3">
         <v>12300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>11000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>11200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>10700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>14400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>15600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>54500</v>
+        <v>106000</v>
       </c>
       <c r="E89" s="3">
-        <v>27600</v>
+        <v>155000</v>
       </c>
       <c r="F89" s="3">
-        <v>110700</v>
+        <v>54900</v>
       </c>
       <c r="G89" s="3">
-        <v>231200</v>
+        <v>27800</v>
       </c>
       <c r="H89" s="3">
+        <v>111600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>233300</v>
+      </c>
+      <c r="J89" s="3">
         <v>2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>30100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>89500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>82200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-20000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>78100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>80600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>115200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12200</v>
+        <v>-10600</v>
       </c>
       <c r="E91" s="3">
-        <v>-10400</v>
+        <v>-23100</v>
       </c>
       <c r="F91" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-6400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-10000</v>
-      </c>
       <c r="I91" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-13500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-10300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-11200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-28400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-40500</v>
+        <v>-11700</v>
       </c>
       <c r="E94" s="3">
-        <v>-12400</v>
+        <v>-19800</v>
       </c>
       <c r="F94" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="H94" s="3">
         <v>-8500</v>
       </c>
-      <c r="G94" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-262300</v>
-      </c>
       <c r="I94" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-264600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-266000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-15800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-10300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-12700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-9400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-28400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-13900</v>
+        <v>-105600</v>
       </c>
       <c r="E100" s="3">
-        <v>-48200</v>
+        <v>-25100</v>
       </c>
       <c r="F100" s="3">
-        <v>363100</v>
+        <v>-14100</v>
       </c>
       <c r="G100" s="3">
-        <v>-13600</v>
+        <v>-48600</v>
       </c>
       <c r="H100" s="3">
-        <v>-9200</v>
+        <v>366300</v>
       </c>
       <c r="I100" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K100" s="3">
         <v>248700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>106500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-16800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-105400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-131000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-18900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-22200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-3500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-14100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>6700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>114400</v>
+      </c>
+      <c r="F102" s="3">
         <v>1900</v>
       </c>
-      <c r="E102" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="F102" s="3">
-        <v>467300</v>
-      </c>
       <c r="G102" s="3">
-        <v>187400</v>
+        <v>-37000</v>
       </c>
       <c r="H102" s="3">
-        <v>-271000</v>
+        <v>471400</v>
       </c>
       <c r="I102" s="3">
+        <v>189100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-273400</v>
+      </c>
+      <c r="K102" s="3">
         <v>10900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>191700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>46100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-137300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-79800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>49400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>71300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>756400</v>
+        <v>708600</v>
       </c>
       <c r="E8" s="3">
-        <v>696000</v>
+        <v>807800</v>
       </c>
       <c r="F8" s="3">
-        <v>598400</v>
+        <v>743300</v>
       </c>
       <c r="G8" s="3">
-        <v>595700</v>
+        <v>639100</v>
       </c>
       <c r="H8" s="3">
-        <v>684300</v>
+        <v>636200</v>
       </c>
       <c r="I8" s="3">
-        <v>681000</v>
+        <v>730800</v>
       </c>
       <c r="J8" s="3">
+        <v>727200</v>
+      </c>
+      <c r="K8" s="3">
         <v>587700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>536000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>592000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>570200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>515000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>514000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>623600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>569500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>536100</v>
+        <v>494100</v>
       </c>
       <c r="E9" s="3">
-        <v>488100</v>
+        <v>572500</v>
       </c>
       <c r="F9" s="3">
-        <v>422100</v>
+        <v>521300</v>
       </c>
       <c r="G9" s="3">
-        <v>418100</v>
+        <v>450800</v>
       </c>
       <c r="H9" s="3">
-        <v>473100</v>
+        <v>446500</v>
       </c>
       <c r="I9" s="3">
-        <v>477500</v>
+        <v>505200</v>
       </c>
       <c r="J9" s="3">
+        <v>509900</v>
+      </c>
+      <c r="K9" s="3">
         <v>424900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>369700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>404000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>390700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>359000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>352100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>440400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>410000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>220300</v>
+        <v>214500</v>
       </c>
       <c r="E10" s="3">
-        <v>207900</v>
+        <v>235300</v>
       </c>
       <c r="F10" s="3">
-        <v>176300</v>
+        <v>222000</v>
       </c>
       <c r="G10" s="3">
-        <v>177500</v>
+        <v>188300</v>
       </c>
       <c r="H10" s="3">
-        <v>211200</v>
+        <v>189600</v>
       </c>
       <c r="I10" s="3">
-        <v>203500</v>
+        <v>225600</v>
       </c>
       <c r="J10" s="3">
+        <v>217300</v>
+      </c>
+      <c r="K10" s="3">
         <v>162800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>166300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>188100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>179500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>156000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>161900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>183200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>159500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>22800</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="3">
-        <v>5100</v>
+        <v>24400</v>
       </c>
       <c r="F14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="3">
         <v>1900</v>
       </c>
-      <c r="G14" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H14" s="3">
-        <v>49600</v>
-      </c>
       <c r="I14" s="3">
-        <v>6600</v>
+        <v>53000</v>
       </c>
       <c r="J14" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K14" s="3">
         <v>4500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>23800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>671300</v>
+        <v>595600</v>
       </c>
       <c r="E17" s="3">
-        <v>600100</v>
+        <v>717000</v>
       </c>
       <c r="F17" s="3">
+        <v>640900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>558600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>548500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>666100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>634900</v>
+      </c>
+      <c r="K17" s="3">
         <v>523000</v>
       </c>
-      <c r="G17" s="3">
-        <v>513600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>623700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>594400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>523000</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>470600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>496500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>516500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>445200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>449500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>535300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>538800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>85100</v>
+        <v>113000</v>
       </c>
       <c r="E18" s="3">
-        <v>95900</v>
+        <v>90800</v>
       </c>
       <c r="F18" s="3">
-        <v>75400</v>
+        <v>102400</v>
       </c>
       <c r="G18" s="3">
-        <v>82100</v>
+        <v>80600</v>
       </c>
       <c r="H18" s="3">
-        <v>60600</v>
+        <v>87700</v>
       </c>
       <c r="I18" s="3">
-        <v>86500</v>
+        <v>64700</v>
       </c>
       <c r="J18" s="3">
+        <v>92400</v>
+      </c>
+      <c r="K18" s="3">
         <v>64700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>65400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>53700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>69800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>64500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>30800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3400</v>
+        <v>-1100</v>
       </c>
       <c r="E20" s="3">
-        <v>13000</v>
+        <v>3700</v>
       </c>
       <c r="F20" s="3">
-        <v>-3700</v>
+        <v>13800</v>
       </c>
       <c r="G20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>13200</v>
-      </c>
       <c r="J20" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>108200</v>
+        <v>131900</v>
       </c>
       <c r="E21" s="3">
-        <v>129100</v>
+        <v>115600</v>
       </c>
       <c r="F21" s="3">
-        <v>90300</v>
+        <v>137900</v>
       </c>
       <c r="G21" s="3">
-        <v>100000</v>
+        <v>96400</v>
       </c>
       <c r="H21" s="3">
-        <v>78900</v>
+        <v>106800</v>
       </c>
       <c r="I21" s="3">
-        <v>113800</v>
+        <v>84200</v>
       </c>
       <c r="J21" s="3">
+        <v>121500</v>
+      </c>
+      <c r="K21" s="3">
         <v>77600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>71000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>112000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>63300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>84600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>75500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>103300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>43300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16700</v>
+        <v>18500</v>
       </c>
       <c r="E22" s="3">
-        <v>40900</v>
+        <v>17900</v>
       </c>
       <c r="F22" s="3">
-        <v>16200</v>
+        <v>43600</v>
       </c>
       <c r="G22" s="3">
-        <v>16400</v>
+        <v>17300</v>
       </c>
       <c r="H22" s="3">
-        <v>16300</v>
+        <v>17500</v>
       </c>
       <c r="I22" s="3">
-        <v>35200</v>
+        <v>17400</v>
       </c>
       <c r="J22" s="3">
+        <v>37600</v>
+      </c>
+      <c r="K22" s="3">
         <v>12600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>13000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>36600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>71800</v>
+        <v>93400</v>
       </c>
       <c r="E23" s="3">
-        <v>68000</v>
+        <v>76700</v>
       </c>
       <c r="F23" s="3">
-        <v>55600</v>
+        <v>72600</v>
       </c>
       <c r="G23" s="3">
-        <v>65100</v>
+        <v>59400</v>
       </c>
       <c r="H23" s="3">
-        <v>44200</v>
+        <v>69600</v>
       </c>
       <c r="I23" s="3">
-        <v>64500</v>
+        <v>47200</v>
       </c>
       <c r="J23" s="3">
+        <v>68800</v>
+      </c>
+      <c r="K23" s="3">
         <v>51300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>88800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>60100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>28300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>69500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="E24" s="3">
-        <v>17200</v>
+        <v>20600</v>
       </c>
       <c r="F24" s="3">
-        <v>12200</v>
+        <v>18300</v>
       </c>
       <c r="G24" s="3">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="H24" s="3">
-        <v>19500</v>
+        <v>14900</v>
       </c>
       <c r="I24" s="3">
-        <v>19300</v>
+        <v>20800</v>
       </c>
       <c r="J24" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K24" s="3">
         <v>11100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>52500</v>
+        <v>74000</v>
       </c>
       <c r="E26" s="3">
-        <v>50800</v>
+        <v>56100</v>
       </c>
       <c r="F26" s="3">
-        <v>43400</v>
+        <v>54300</v>
       </c>
       <c r="G26" s="3">
-        <v>51200</v>
+        <v>46400</v>
       </c>
       <c r="H26" s="3">
-        <v>24700</v>
+        <v>54600</v>
       </c>
       <c r="I26" s="3">
-        <v>45200</v>
+        <v>26400</v>
       </c>
       <c r="J26" s="3">
+        <v>48300</v>
+      </c>
+      <c r="K26" s="3">
         <v>40200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>68500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>47000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>56300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>52600</v>
+        <v>74000</v>
       </c>
       <c r="E27" s="3">
-        <v>50900</v>
+        <v>56200</v>
       </c>
       <c r="F27" s="3">
-        <v>43400</v>
+        <v>54400</v>
       </c>
       <c r="G27" s="3">
-        <v>51400</v>
+        <v>46400</v>
       </c>
       <c r="H27" s="3">
-        <v>24800</v>
+        <v>54900</v>
       </c>
       <c r="I27" s="3">
-        <v>45500</v>
+        <v>26500</v>
       </c>
       <c r="J27" s="3">
+        <v>48600</v>
+      </c>
+      <c r="K27" s="3">
         <v>40600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>68500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>47000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>56300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3400</v>
+        <v>1100</v>
       </c>
       <c r="E32" s="3">
-        <v>-13000</v>
+        <v>-3700</v>
       </c>
       <c r="F32" s="3">
-        <v>3700</v>
+        <v>-13800</v>
       </c>
       <c r="G32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-13200</v>
-      </c>
       <c r="J32" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>52600</v>
+        <v>74000</v>
       </c>
       <c r="E33" s="3">
-        <v>50900</v>
+        <v>56200</v>
       </c>
       <c r="F33" s="3">
-        <v>43400</v>
+        <v>54400</v>
       </c>
       <c r="G33" s="3">
-        <v>51400</v>
+        <v>46400</v>
       </c>
       <c r="H33" s="3">
-        <v>24800</v>
+        <v>54900</v>
       </c>
       <c r="I33" s="3">
-        <v>45500</v>
+        <v>26500</v>
       </c>
       <c r="J33" s="3">
+        <v>48600</v>
+      </c>
+      <c r="K33" s="3">
         <v>40600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>34000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>68500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>47000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>56300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>52600</v>
+        <v>74000</v>
       </c>
       <c r="E35" s="3">
-        <v>50900</v>
+        <v>56200</v>
       </c>
       <c r="F35" s="3">
-        <v>43400</v>
+        <v>54400</v>
       </c>
       <c r="G35" s="3">
-        <v>51400</v>
+        <v>46400</v>
       </c>
       <c r="H35" s="3">
-        <v>24800</v>
+        <v>54900</v>
       </c>
       <c r="I35" s="3">
-        <v>45500</v>
+        <v>26500</v>
       </c>
       <c r="J35" s="3">
+        <v>48600</v>
+      </c>
+      <c r="K35" s="3">
         <v>40600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>34000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>68500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>47000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>56300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,72 +2226,76 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>888800</v>
+        <v>1106200</v>
       </c>
       <c r="E41" s="3">
-        <v>914900</v>
+        <v>949300</v>
       </c>
       <c r="F41" s="3">
-        <v>799000</v>
+        <v>977100</v>
       </c>
       <c r="G41" s="3">
-        <v>797100</v>
+        <v>853300</v>
       </c>
       <c r="H41" s="3">
-        <v>834100</v>
+        <v>851300</v>
       </c>
       <c r="I41" s="3">
-        <v>362700</v>
+        <v>890800</v>
       </c>
       <c r="J41" s="3">
+        <v>387400</v>
+      </c>
+      <c r="K41" s="3">
         <v>173700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>443200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>432100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>245900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>199800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>337200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>436200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>386800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27700</v>
+        <v>29700</v>
       </c>
       <c r="E42" s="3">
-        <v>27700</v>
+        <v>29600</v>
       </c>
       <c r="F42" s="3">
-        <v>27700</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
+        <v>29600</v>
+      </c>
+      <c r="G42" s="3">
+        <v>29600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2222,8 +2312,8 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>307700</v>
+        <v>236200</v>
       </c>
       <c r="E43" s="3">
-        <v>228900</v>
+        <v>328600</v>
       </c>
       <c r="F43" s="3">
-        <v>170600</v>
+        <v>244500</v>
       </c>
       <c r="G43" s="3">
-        <v>210800</v>
+        <v>182200</v>
       </c>
       <c r="H43" s="3">
-        <v>211100</v>
+        <v>225100</v>
       </c>
       <c r="I43" s="3">
-        <v>192600</v>
+        <v>225500</v>
       </c>
       <c r="J43" s="3">
+        <v>205700</v>
+      </c>
+      <c r="K43" s="3">
         <v>227600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>181300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>189800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>165000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>159700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>143100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>170000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>159300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>291400</v>
+        <v>349000</v>
       </c>
       <c r="E44" s="3">
-        <v>358000</v>
+        <v>311200</v>
       </c>
       <c r="F44" s="3">
-        <v>434500</v>
+        <v>382300</v>
       </c>
       <c r="G44" s="3">
-        <v>381800</v>
+        <v>464100</v>
       </c>
       <c r="H44" s="3">
-        <v>376000</v>
+        <v>407700</v>
       </c>
       <c r="I44" s="3">
-        <v>379400</v>
+        <v>401600</v>
       </c>
       <c r="J44" s="3">
+        <v>405100</v>
+      </c>
+      <c r="K44" s="3">
         <v>418200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>366200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>315000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>344300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>370900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>346900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>350700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>381500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41000</v>
+        <v>36800</v>
       </c>
       <c r="E45" s="3">
-        <v>43600</v>
+        <v>43800</v>
       </c>
       <c r="F45" s="3">
+        <v>46600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>58700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>51300</v>
+      </c>
+      <c r="I45" s="3">
         <v>54900</v>
       </c>
-      <c r="G45" s="3">
-        <v>48100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>51400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>102900</v>
-      </c>
       <c r="J45" s="3">
+        <v>109900</v>
+      </c>
+      <c r="K45" s="3">
         <v>101500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>103300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>86400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>85200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>89500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>86700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>102500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>98100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1556600</v>
+        <v>1757900</v>
       </c>
       <c r="E46" s="3">
-        <v>1573100</v>
+        <v>1662400</v>
       </c>
       <c r="F46" s="3">
-        <v>1486700</v>
+        <v>1680100</v>
       </c>
       <c r="G46" s="3">
-        <v>1437800</v>
+        <v>1587800</v>
       </c>
       <c r="H46" s="3">
-        <v>1472700</v>
+        <v>1535500</v>
       </c>
       <c r="I46" s="3">
-        <v>1037600</v>
+        <v>1572800</v>
       </c>
       <c r="J46" s="3">
+        <v>1108100</v>
+      </c>
+      <c r="K46" s="3">
         <v>921000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1093900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1023300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>840500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>820000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>913900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1059400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1025700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2449,149 +2554,158 @@
         <v>1700</v>
       </c>
       <c r="E47" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="F47" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G47" s="3">
         <v>2500</v>
       </c>
       <c r="H47" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I47" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K47" s="3">
         <v>3200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4800</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1500</v>
       </c>
       <c r="O47" s="3">
         <v>1500</v>
       </c>
       <c r="P47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="Q47" s="3">
         <v>500</v>
       </c>
       <c r="R47" s="3">
+        <v>500</v>
+      </c>
+      <c r="S47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>458900</v>
+        <v>490900</v>
       </c>
       <c r="E48" s="3">
-        <v>467900</v>
+        <v>490100</v>
       </c>
       <c r="F48" s="3">
-        <v>461400</v>
+        <v>499700</v>
       </c>
       <c r="G48" s="3">
-        <v>464400</v>
+        <v>492800</v>
       </c>
       <c r="H48" s="3">
-        <v>473600</v>
+        <v>496000</v>
       </c>
       <c r="I48" s="3">
-        <v>386300</v>
+        <v>505800</v>
       </c>
       <c r="J48" s="3">
+        <v>412600</v>
+      </c>
+      <c r="K48" s="3">
         <v>379500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>352500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>315600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>331400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>329400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>327400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>345700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>350000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4374800</v>
+        <v>4670100</v>
       </c>
       <c r="E49" s="3">
-        <v>4370600</v>
+        <v>4672200</v>
       </c>
       <c r="F49" s="3">
-        <v>4370000</v>
+        <v>4667700</v>
       </c>
       <c r="G49" s="3">
-        <v>4371600</v>
+        <v>4667100</v>
       </c>
       <c r="H49" s="3">
-        <v>4371500</v>
+        <v>4668800</v>
       </c>
       <c r="I49" s="3">
-        <v>4373000</v>
+        <v>4668700</v>
       </c>
       <c r="J49" s="3">
+        <v>4670300</v>
+      </c>
+      <c r="K49" s="3">
         <v>4370100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4073100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3809500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3893300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3892200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3894300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4074200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4075700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>137500</v>
+        <v>160600</v>
       </c>
       <c r="E52" s="3">
-        <v>126200</v>
+        <v>146800</v>
       </c>
       <c r="F52" s="3">
-        <v>134800</v>
+        <v>134700</v>
       </c>
       <c r="G52" s="3">
-        <v>114700</v>
+        <v>144000</v>
       </c>
       <c r="H52" s="3">
-        <v>107700</v>
+        <v>122500</v>
       </c>
       <c r="I52" s="3">
-        <v>115600</v>
+        <v>115000</v>
       </c>
       <c r="J52" s="3">
+        <v>123500</v>
+      </c>
+      <c r="K52" s="3">
         <v>100200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>94400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>97200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>93000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>97300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>89600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>76300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>76200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6529400</v>
+        <v>7081200</v>
       </c>
       <c r="E54" s="3">
-        <v>6539800</v>
+        <v>6973300</v>
       </c>
       <c r="F54" s="3">
-        <v>6455300</v>
+        <v>6984400</v>
       </c>
       <c r="G54" s="3">
-        <v>6391100</v>
+        <v>6894200</v>
       </c>
       <c r="H54" s="3">
-        <v>6428200</v>
+        <v>6825600</v>
       </c>
       <c r="I54" s="3">
-        <v>5915500</v>
+        <v>6865200</v>
       </c>
       <c r="J54" s="3">
+        <v>6317600</v>
+      </c>
+      <c r="K54" s="3">
         <v>5774000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5617500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5249400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5163100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5140300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5226700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5556000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5528100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>602200</v>
+        <v>673700</v>
       </c>
       <c r="E57" s="3">
-        <v>581700</v>
+        <v>643100</v>
       </c>
       <c r="F57" s="3">
-        <v>556000</v>
+        <v>621300</v>
       </c>
       <c r="G57" s="3">
-        <v>574800</v>
+        <v>593800</v>
       </c>
       <c r="H57" s="3">
-        <v>636500</v>
+        <v>613900</v>
       </c>
       <c r="I57" s="3">
-        <v>633100</v>
+        <v>679800</v>
       </c>
       <c r="J57" s="3">
+        <v>676100</v>
+      </c>
+      <c r="K57" s="3">
         <v>545700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>529300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>521400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>535800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>515200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>534900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>540500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>554900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26100</v>
+        <v>27800</v>
       </c>
       <c r="E58" s="3">
-        <v>30700</v>
+        <v>27900</v>
       </c>
       <c r="F58" s="3">
-        <v>29500</v>
+        <v>32800</v>
       </c>
       <c r="G58" s="3">
-        <v>29000</v>
+        <v>31500</v>
       </c>
       <c r="H58" s="3">
-        <v>45200</v>
+        <v>31000</v>
       </c>
       <c r="I58" s="3">
-        <v>23700</v>
+        <v>48300</v>
       </c>
       <c r="J58" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K58" s="3">
         <v>7300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4900</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>301200</v>
+        <v>345500</v>
       </c>
       <c r="E59" s="3">
-        <v>299300</v>
+        <v>321600</v>
       </c>
       <c r="F59" s="3">
-        <v>287100</v>
+        <v>319600</v>
       </c>
       <c r="G59" s="3">
-        <v>273400</v>
+        <v>306600</v>
       </c>
       <c r="H59" s="3">
-        <v>275100</v>
+        <v>291900</v>
       </c>
       <c r="I59" s="3">
-        <v>273600</v>
+        <v>293800</v>
       </c>
       <c r="J59" s="3">
+        <v>292200</v>
+      </c>
+      <c r="K59" s="3">
         <v>282000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>269100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>261700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>248100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>279200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>295300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>321900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>329100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>929500</v>
+        <v>1047000</v>
       </c>
       <c r="E60" s="3">
-        <v>911700</v>
+        <v>992700</v>
       </c>
       <c r="F60" s="3">
-        <v>872600</v>
+        <v>973600</v>
       </c>
       <c r="G60" s="3">
-        <v>877200</v>
+        <v>931900</v>
       </c>
       <c r="H60" s="3">
-        <v>956900</v>
+        <v>936900</v>
       </c>
       <c r="I60" s="3">
-        <v>930400</v>
+        <v>1021900</v>
       </c>
       <c r="J60" s="3">
+        <v>993600</v>
+      </c>
+      <c r="K60" s="3">
         <v>835000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>805300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>787000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>787500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>799000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>835100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>862400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>884000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2063800</v>
+        <v>2177600</v>
       </c>
       <c r="E61" s="3">
-        <v>2046400</v>
+        <v>2204100</v>
       </c>
       <c r="F61" s="3">
-        <v>2071700</v>
+        <v>2185500</v>
       </c>
       <c r="G61" s="3">
-        <v>2033600</v>
+        <v>2212500</v>
       </c>
       <c r="H61" s="3">
-        <v>2054700</v>
+        <v>2171800</v>
       </c>
       <c r="I61" s="3">
-        <v>1930400</v>
+        <v>2194400</v>
       </c>
       <c r="J61" s="3">
+        <v>2061700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1952500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1933700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1624100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1565300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1575000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1596100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1703400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1704100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>706400</v>
+        <v>812900</v>
       </c>
       <c r="E62" s="3">
-        <v>750000</v>
+        <v>754500</v>
       </c>
       <c r="F62" s="3">
-        <v>748200</v>
+        <v>800900</v>
       </c>
       <c r="G62" s="3">
-        <v>747200</v>
+        <v>799000</v>
       </c>
       <c r="H62" s="3">
-        <v>707800</v>
+        <v>798000</v>
       </c>
       <c r="I62" s="3">
-        <v>774000</v>
+        <v>755900</v>
       </c>
       <c r="J62" s="3">
+        <v>826600</v>
+      </c>
+      <c r="K62" s="3">
         <v>767600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>720500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>734000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>731600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>725600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>699100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>707100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>706800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3699700</v>
+        <v>4037500</v>
       </c>
       <c r="E66" s="3">
-        <v>3706700</v>
+        <v>3951200</v>
       </c>
       <c r="F66" s="3">
-        <v>3691200</v>
+        <v>3958700</v>
       </c>
       <c r="G66" s="3">
-        <v>3656700</v>
+        <v>3942100</v>
       </c>
       <c r="H66" s="3">
-        <v>3718300</v>
+        <v>3905300</v>
       </c>
       <c r="I66" s="3">
-        <v>3633900</v>
+        <v>3971100</v>
       </c>
       <c r="J66" s="3">
+        <v>3881000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3554500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3459500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3145100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3084500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3099600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3130400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3272900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3294900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2724300</v>
+        <v>2940500</v>
       </c>
       <c r="E72" s="3">
-        <v>2742700</v>
+        <v>2909500</v>
       </c>
       <c r="F72" s="3">
-        <v>2670200</v>
+        <v>2929200</v>
       </c>
       <c r="G72" s="3">
-        <v>2645500</v>
+        <v>2851700</v>
       </c>
       <c r="H72" s="3">
-        <v>2605300</v>
+        <v>2825400</v>
       </c>
       <c r="I72" s="3">
-        <v>2173800</v>
+        <v>2782400</v>
       </c>
       <c r="J72" s="3">
+        <v>2321600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2110600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2048900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2011800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1988600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1959700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2006100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2182600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2124700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2829700</v>
+        <v>3043700</v>
       </c>
       <c r="E76" s="3">
-        <v>2833100</v>
+        <v>3022100</v>
       </c>
       <c r="F76" s="3">
-        <v>2764100</v>
+        <v>3025700</v>
       </c>
       <c r="G76" s="3">
-        <v>2734300</v>
+        <v>2952000</v>
       </c>
       <c r="H76" s="3">
-        <v>2709900</v>
+        <v>2920200</v>
       </c>
       <c r="I76" s="3">
-        <v>2281500</v>
+        <v>2894100</v>
       </c>
       <c r="J76" s="3">
+        <v>2436700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2219500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2158000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2104300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2078600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2040700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2096300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2283100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2233200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>52600</v>
+        <v>74000</v>
       </c>
       <c r="E81" s="3">
-        <v>50900</v>
+        <v>56200</v>
       </c>
       <c r="F81" s="3">
-        <v>43400</v>
+        <v>54400</v>
       </c>
       <c r="G81" s="3">
-        <v>51400</v>
+        <v>46400</v>
       </c>
       <c r="H81" s="3">
-        <v>24800</v>
+        <v>54900</v>
       </c>
       <c r="I81" s="3">
-        <v>45500</v>
+        <v>26500</v>
       </c>
       <c r="J81" s="3">
+        <v>48600</v>
+      </c>
+      <c r="K81" s="3">
         <v>40600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>34000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>68500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>47000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>56300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="E83" s="3">
-        <v>20300</v>
+        <v>21100</v>
       </c>
       <c r="F83" s="3">
-        <v>18500</v>
+        <v>21600</v>
       </c>
       <c r="G83" s="3">
-        <v>18500</v>
+        <v>19800</v>
       </c>
       <c r="H83" s="3">
-        <v>18400</v>
+        <v>19800</v>
       </c>
       <c r="I83" s="3">
-        <v>14100</v>
+        <v>19600</v>
       </c>
       <c r="J83" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K83" s="3">
         <v>13700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>106000</v>
+        <v>242800</v>
       </c>
       <c r="E89" s="3">
-        <v>155000</v>
+        <v>113200</v>
       </c>
       <c r="F89" s="3">
-        <v>54900</v>
+        <v>165500</v>
       </c>
       <c r="G89" s="3">
-        <v>27800</v>
+        <v>58700</v>
       </c>
       <c r="H89" s="3">
-        <v>111600</v>
+        <v>29700</v>
       </c>
       <c r="I89" s="3">
-        <v>233300</v>
+        <v>119200</v>
       </c>
       <c r="J89" s="3">
+        <v>249100</v>
+      </c>
+      <c r="K89" s="3">
         <v>2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>89500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>82200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>78100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>80600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>115200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10600</v>
+        <v>-16600</v>
       </c>
       <c r="E91" s="3">
-        <v>-23100</v>
+        <v>-11400</v>
       </c>
       <c r="F91" s="3">
-        <v>-12300</v>
+        <v>-24700</v>
       </c>
       <c r="G91" s="3">
-        <v>-10500</v>
+        <v>-13100</v>
       </c>
       <c r="H91" s="3">
-        <v>-6400</v>
+        <v>-11200</v>
       </c>
       <c r="I91" s="3">
-        <v>-19100</v>
+        <v>-6900</v>
       </c>
       <c r="J91" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11700</v>
+        <v>-16600</v>
       </c>
       <c r="E94" s="3">
-        <v>-19800</v>
+        <v>-12500</v>
       </c>
       <c r="F94" s="3">
-        <v>-40900</v>
+        <v>-21200</v>
       </c>
       <c r="G94" s="3">
-        <v>-12500</v>
+        <v>-43600</v>
       </c>
       <c r="H94" s="3">
-        <v>-8500</v>
+        <v>-13400</v>
       </c>
       <c r="I94" s="3">
-        <v>-30100</v>
+        <v>-9100</v>
       </c>
       <c r="J94" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-264600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-266000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-105600</v>
+        <v>-67200</v>
       </c>
       <c r="E100" s="3">
-        <v>-25100</v>
+        <v>-112700</v>
       </c>
       <c r="F100" s="3">
-        <v>-14100</v>
+        <v>-26900</v>
       </c>
       <c r="G100" s="3">
-        <v>-48600</v>
+        <v>-15000</v>
       </c>
       <c r="H100" s="3">
-        <v>366300</v>
+        <v>-51900</v>
       </c>
       <c r="I100" s="3">
-        <v>-13700</v>
+        <v>391200</v>
       </c>
       <c r="J100" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>248700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>106500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-105400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-131000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13300</v>
+        <v>-2100</v>
       </c>
       <c r="E101" s="3">
-        <v>4400</v>
+        <v>-14200</v>
       </c>
       <c r="F101" s="3">
-        <v>1900</v>
+        <v>4700</v>
       </c>
       <c r="G101" s="3">
-        <v>-3700</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>2000</v>
+        <v>-3900</v>
       </c>
       <c r="I101" s="3">
-        <v>-300</v>
+        <v>2100</v>
       </c>
       <c r="J101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-14100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-24600</v>
+        <v>157000</v>
       </c>
       <c r="E102" s="3">
-        <v>114400</v>
+        <v>-26300</v>
       </c>
       <c r="F102" s="3">
-        <v>1900</v>
+        <v>122200</v>
       </c>
       <c r="G102" s="3">
-        <v>-37000</v>
+        <v>2000</v>
       </c>
       <c r="H102" s="3">
-        <v>471400</v>
+        <v>-39500</v>
       </c>
       <c r="I102" s="3">
-        <v>189100</v>
+        <v>503400</v>
       </c>
       <c r="J102" s="3">
+        <v>201900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-273400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>191700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>46100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-137300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-79800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>49400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>71300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>708600</v>
+        <v>689400</v>
       </c>
       <c r="E8" s="3">
-        <v>807800</v>
+        <v>716500</v>
       </c>
       <c r="F8" s="3">
-        <v>743300</v>
+        <v>816900</v>
       </c>
       <c r="G8" s="3">
-        <v>639100</v>
+        <v>751700</v>
       </c>
       <c r="H8" s="3">
-        <v>636200</v>
+        <v>646300</v>
       </c>
       <c r="I8" s="3">
-        <v>730800</v>
+        <v>643300</v>
       </c>
       <c r="J8" s="3">
+        <v>739000</v>
+      </c>
+      <c r="K8" s="3">
         <v>727200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>587700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>536000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>592000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>570200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>515000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>514000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>623600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>569500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>494100</v>
+        <v>479800</v>
       </c>
       <c r="E9" s="3">
-        <v>572500</v>
+        <v>499700</v>
       </c>
       <c r="F9" s="3">
-        <v>521300</v>
+        <v>579000</v>
       </c>
       <c r="G9" s="3">
-        <v>450800</v>
+        <v>527200</v>
       </c>
       <c r="H9" s="3">
-        <v>446500</v>
+        <v>455900</v>
       </c>
       <c r="I9" s="3">
-        <v>505200</v>
+        <v>451600</v>
       </c>
       <c r="J9" s="3">
+        <v>510900</v>
+      </c>
+      <c r="K9" s="3">
         <v>509900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>424900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>369700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>404000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>390700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>359000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>352100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>440400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>410000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>214500</v>
+        <v>209600</v>
       </c>
       <c r="E10" s="3">
-        <v>235300</v>
+        <v>216900</v>
       </c>
       <c r="F10" s="3">
-        <v>222000</v>
+        <v>237900</v>
       </c>
       <c r="G10" s="3">
-        <v>188300</v>
+        <v>224500</v>
       </c>
       <c r="H10" s="3">
-        <v>189600</v>
+        <v>190400</v>
       </c>
       <c r="I10" s="3">
-        <v>225600</v>
+        <v>191800</v>
       </c>
       <c r="J10" s="3">
+        <v>228100</v>
+      </c>
+      <c r="K10" s="3">
         <v>217300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>162800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>166300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>188100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>179500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>156000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>161900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>183200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>159500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3">
-        <v>24400</v>
-      </c>
       <c r="F14" s="3">
-        <v>5400</v>
+        <v>24600</v>
       </c>
       <c r="G14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3">
-        <v>53000</v>
-      </c>
       <c r="J14" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K14" s="3">
         <v>7100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>23800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>595600</v>
+        <v>585300</v>
       </c>
       <c r="E17" s="3">
-        <v>717000</v>
+        <v>602300</v>
       </c>
       <c r="F17" s="3">
-        <v>640900</v>
+        <v>725000</v>
       </c>
       <c r="G17" s="3">
-        <v>558600</v>
+        <v>648100</v>
       </c>
       <c r="H17" s="3">
-        <v>548500</v>
+        <v>564800</v>
       </c>
       <c r="I17" s="3">
-        <v>666100</v>
+        <v>554700</v>
       </c>
       <c r="J17" s="3">
+        <v>673600</v>
+      </c>
+      <c r="K17" s="3">
         <v>634900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>523000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>470600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>496500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>516500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>445200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>449500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>535300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>538800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>113000</v>
+        <v>104100</v>
       </c>
       <c r="E18" s="3">
-        <v>90800</v>
+        <v>114200</v>
       </c>
       <c r="F18" s="3">
-        <v>102400</v>
+        <v>91900</v>
       </c>
       <c r="G18" s="3">
-        <v>80600</v>
+        <v>103600</v>
       </c>
       <c r="H18" s="3">
-        <v>87700</v>
+        <v>81500</v>
       </c>
       <c r="I18" s="3">
+        <v>88600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>92400</v>
+      </c>
+      <c r="L18" s="3">
         <v>64700</v>
       </c>
-      <c r="J18" s="3">
-        <v>92400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>64700</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>65400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>95500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>53700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>69800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>64500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>88400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>30800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
-        <v>13800</v>
-      </c>
       <c r="G20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>131900</v>
+        <v>123600</v>
       </c>
       <c r="E21" s="3">
-        <v>115600</v>
+        <v>133400</v>
       </c>
       <c r="F21" s="3">
-        <v>137900</v>
+        <v>116900</v>
       </c>
       <c r="G21" s="3">
-        <v>96400</v>
+        <v>139500</v>
       </c>
       <c r="H21" s="3">
-        <v>106800</v>
+        <v>97500</v>
       </c>
       <c r="I21" s="3">
-        <v>84200</v>
+        <v>108000</v>
       </c>
       <c r="J21" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K21" s="3">
         <v>121500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>77600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>71000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>112000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>63300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>84600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>75500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>103300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>43300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18500</v>
+        <v>18100</v>
       </c>
       <c r="E22" s="3">
-        <v>17900</v>
+        <v>18700</v>
       </c>
       <c r="F22" s="3">
-        <v>43600</v>
+        <v>18100</v>
       </c>
       <c r="G22" s="3">
-        <v>17300</v>
+        <v>44100</v>
       </c>
       <c r="H22" s="3">
         <v>17500</v>
       </c>
       <c r="I22" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="J22" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K22" s="3">
         <v>37600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>36600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>93400</v>
+        <v>85300</v>
       </c>
       <c r="E23" s="3">
-        <v>76700</v>
+        <v>94500</v>
       </c>
       <c r="F23" s="3">
-        <v>72600</v>
+        <v>77500</v>
       </c>
       <c r="G23" s="3">
-        <v>59400</v>
+        <v>73400</v>
       </c>
       <c r="H23" s="3">
-        <v>69600</v>
+        <v>60000</v>
       </c>
       <c r="I23" s="3">
-        <v>47200</v>
+        <v>70300</v>
       </c>
       <c r="J23" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K23" s="3">
         <v>68800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>45800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>88800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>60100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>28300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>69500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19400</v>
+        <v>17800</v>
       </c>
       <c r="E24" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>20800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>18500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K24" s="3">
         <v>20600</v>
       </c>
-      <c r="F24" s="3">
-        <v>18300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>13000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>14900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>20800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>20600</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>74000</v>
+        <v>67500</v>
       </c>
       <c r="E26" s="3">
-        <v>56100</v>
+        <v>74900</v>
       </c>
       <c r="F26" s="3">
-        <v>54300</v>
+        <v>56700</v>
       </c>
       <c r="G26" s="3">
-        <v>46400</v>
+        <v>54900</v>
       </c>
       <c r="H26" s="3">
-        <v>54600</v>
+        <v>46900</v>
       </c>
       <c r="I26" s="3">
-        <v>26400</v>
+        <v>55300</v>
       </c>
       <c r="J26" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K26" s="3">
         <v>48300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>40200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>34000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>68500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>47000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>21700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>56300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>74000</v>
+        <v>67500</v>
       </c>
       <c r="E27" s="3">
-        <v>56200</v>
+        <v>74900</v>
       </c>
       <c r="F27" s="3">
-        <v>54400</v>
+        <v>56800</v>
       </c>
       <c r="G27" s="3">
-        <v>46400</v>
+        <v>55000</v>
       </c>
       <c r="H27" s="3">
-        <v>54900</v>
+        <v>46900</v>
       </c>
       <c r="I27" s="3">
-        <v>26500</v>
+        <v>55500</v>
       </c>
       <c r="J27" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K27" s="3">
         <v>48600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>40600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>68500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>47000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>56300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-13800</v>
-      </c>
       <c r="G32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="H32" s="3">
         <v>3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>74000</v>
+        <v>67500</v>
       </c>
       <c r="E33" s="3">
-        <v>56200</v>
+        <v>74900</v>
       </c>
       <c r="F33" s="3">
-        <v>54400</v>
+        <v>56800</v>
       </c>
       <c r="G33" s="3">
-        <v>46400</v>
+        <v>55000</v>
       </c>
       <c r="H33" s="3">
-        <v>54900</v>
+        <v>46900</v>
       </c>
       <c r="I33" s="3">
-        <v>26500</v>
+        <v>55500</v>
       </c>
       <c r="J33" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K33" s="3">
         <v>48600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>40600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>34000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>68500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>30600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>47000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>21700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>56300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>74000</v>
+        <v>67500</v>
       </c>
       <c r="E35" s="3">
-        <v>56200</v>
+        <v>74900</v>
       </c>
       <c r="F35" s="3">
-        <v>54400</v>
+        <v>56800</v>
       </c>
       <c r="G35" s="3">
-        <v>46400</v>
+        <v>55000</v>
       </c>
       <c r="H35" s="3">
-        <v>54900</v>
+        <v>46900</v>
       </c>
       <c r="I35" s="3">
-        <v>26500</v>
+        <v>55500</v>
       </c>
       <c r="J35" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K35" s="3">
         <v>48600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>40600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>34000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>68500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>30600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>47000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>21700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>56300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,78 +2313,82 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1106200</v>
+        <v>660500</v>
       </c>
       <c r="E41" s="3">
-        <v>949300</v>
+        <v>1118700</v>
       </c>
       <c r="F41" s="3">
-        <v>977100</v>
+        <v>960000</v>
       </c>
       <c r="G41" s="3">
-        <v>853300</v>
+        <v>988100</v>
       </c>
       <c r="H41" s="3">
-        <v>851300</v>
+        <v>862900</v>
       </c>
       <c r="I41" s="3">
-        <v>890800</v>
+        <v>860900</v>
       </c>
       <c r="J41" s="3">
+        <v>900900</v>
+      </c>
+      <c r="K41" s="3">
         <v>387400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>173700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>443200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>432100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>245900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>199800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>337200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>436200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>386800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29700</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>29600</v>
+        <v>30000</v>
       </c>
       <c r="F42" s="3">
-        <v>29600</v>
+        <v>29900</v>
       </c>
       <c r="G42" s="3">
-        <v>29600</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+        <v>29900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>29900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -2315,8 +2405,8 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>236200</v>
+        <v>242900</v>
       </c>
       <c r="E43" s="3">
-        <v>328600</v>
+        <v>238900</v>
       </c>
       <c r="F43" s="3">
-        <v>244500</v>
+        <v>332300</v>
       </c>
       <c r="G43" s="3">
-        <v>182200</v>
+        <v>247300</v>
       </c>
       <c r="H43" s="3">
-        <v>225100</v>
+        <v>184200</v>
       </c>
       <c r="I43" s="3">
-        <v>225500</v>
+        <v>227600</v>
       </c>
       <c r="J43" s="3">
+        <v>228000</v>
+      </c>
+      <c r="K43" s="3">
         <v>205700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>227600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>181300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>189800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>165000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>159700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>143100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>170000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>159300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>349000</v>
+        <v>428700</v>
       </c>
       <c r="E44" s="3">
-        <v>311200</v>
+        <v>352900</v>
       </c>
       <c r="F44" s="3">
-        <v>382300</v>
+        <v>314700</v>
       </c>
       <c r="G44" s="3">
-        <v>464100</v>
+        <v>386600</v>
       </c>
       <c r="H44" s="3">
-        <v>407700</v>
+        <v>469300</v>
       </c>
       <c r="I44" s="3">
-        <v>401600</v>
+        <v>412300</v>
       </c>
       <c r="J44" s="3">
+        <v>406100</v>
+      </c>
+      <c r="K44" s="3">
         <v>405100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>418200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>366200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>315000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>344300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>370900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>346900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>350700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>381500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36800</v>
+        <v>34100</v>
       </c>
       <c r="E45" s="3">
-        <v>43800</v>
+        <v>37200</v>
       </c>
       <c r="F45" s="3">
-        <v>46600</v>
+        <v>44300</v>
       </c>
       <c r="G45" s="3">
-        <v>58700</v>
+        <v>47100</v>
       </c>
       <c r="H45" s="3">
-        <v>51300</v>
+        <v>59300</v>
       </c>
       <c r="I45" s="3">
-        <v>54900</v>
+        <v>51900</v>
       </c>
       <c r="J45" s="3">
+        <v>55500</v>
+      </c>
+      <c r="K45" s="3">
         <v>109900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>101500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>103300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>86400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>85200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>89500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>86700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>102500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>98100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1757900</v>
+        <v>1366300</v>
       </c>
       <c r="E46" s="3">
-        <v>1662400</v>
+        <v>1777700</v>
       </c>
       <c r="F46" s="3">
-        <v>1680100</v>
+        <v>1681100</v>
       </c>
       <c r="G46" s="3">
-        <v>1587800</v>
+        <v>1699000</v>
       </c>
       <c r="H46" s="3">
-        <v>1535500</v>
+        <v>1605700</v>
       </c>
       <c r="I46" s="3">
-        <v>1572800</v>
+        <v>1552800</v>
       </c>
       <c r="J46" s="3">
+        <v>1590500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1108100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>921000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1093900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1023300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>840500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>820000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>913900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1059400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1025700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1800</v>
       </c>
-      <c r="F47" s="3">
-        <v>2200</v>
-      </c>
       <c r="G47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H47" s="3">
         <v>2500</v>
       </c>
-      <c r="H47" s="3">
-        <v>2700</v>
-      </c>
       <c r="I47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J47" s="3">
         <v>3000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4800</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1500</v>
       </c>
       <c r="P47" s="3">
         <v>1500</v>
       </c>
       <c r="Q47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="R47" s="3">
         <v>500</v>
       </c>
       <c r="S47" s="3">
+        <v>500</v>
+      </c>
+      <c r="T47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>490900</v>
+        <v>496800</v>
       </c>
       <c r="E48" s="3">
-        <v>490100</v>
+        <v>496400</v>
       </c>
       <c r="F48" s="3">
-        <v>499700</v>
+        <v>495600</v>
       </c>
       <c r="G48" s="3">
-        <v>492800</v>
+        <v>505300</v>
       </c>
       <c r="H48" s="3">
-        <v>496000</v>
+        <v>498300</v>
       </c>
       <c r="I48" s="3">
-        <v>505800</v>
+        <v>501600</v>
       </c>
       <c r="J48" s="3">
+        <v>511500</v>
+      </c>
+      <c r="K48" s="3">
         <v>412600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>379500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>352500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>315600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>331400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>329400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>327400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>345700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>350000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4670100</v>
+        <v>4721600</v>
       </c>
       <c r="E49" s="3">
-        <v>4672200</v>
+        <v>4722600</v>
       </c>
       <c r="F49" s="3">
-        <v>4667700</v>
+        <v>4724800</v>
       </c>
       <c r="G49" s="3">
-        <v>4667100</v>
+        <v>4720200</v>
       </c>
       <c r="H49" s="3">
-        <v>4668800</v>
+        <v>4719600</v>
       </c>
       <c r="I49" s="3">
-        <v>4668700</v>
+        <v>4721300</v>
       </c>
       <c r="J49" s="3">
+        <v>4721200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4670300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4370100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4073100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3809500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3893300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3892200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3894300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4074200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4075700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>160600</v>
+        <v>156300</v>
       </c>
       <c r="E52" s="3">
-        <v>146800</v>
+        <v>162400</v>
       </c>
       <c r="F52" s="3">
-        <v>134700</v>
+        <v>148400</v>
       </c>
       <c r="G52" s="3">
-        <v>144000</v>
+        <v>136200</v>
       </c>
       <c r="H52" s="3">
-        <v>122500</v>
+        <v>145600</v>
       </c>
       <c r="I52" s="3">
-        <v>115000</v>
+        <v>123900</v>
       </c>
       <c r="J52" s="3">
+        <v>116300</v>
+      </c>
+      <c r="K52" s="3">
         <v>123500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>94400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>97200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>93000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>97300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>89600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>76300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>76200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7081200</v>
+        <v>6742500</v>
       </c>
       <c r="E54" s="3">
-        <v>6973300</v>
+        <v>7160800</v>
       </c>
       <c r="F54" s="3">
-        <v>6984400</v>
+        <v>7051700</v>
       </c>
       <c r="G54" s="3">
-        <v>6894200</v>
+        <v>7063000</v>
       </c>
       <c r="H54" s="3">
-        <v>6825600</v>
+        <v>6971700</v>
       </c>
       <c r="I54" s="3">
-        <v>6865200</v>
+        <v>6902300</v>
       </c>
       <c r="J54" s="3">
+        <v>6942400</v>
+      </c>
+      <c r="K54" s="3">
         <v>6317600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5774000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5617500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5249400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5163100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5140300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5226700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5556000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5528100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>673700</v>
+        <v>675600</v>
       </c>
       <c r="E57" s="3">
-        <v>643100</v>
+        <v>681200</v>
       </c>
       <c r="F57" s="3">
-        <v>621300</v>
+        <v>650400</v>
       </c>
       <c r="G57" s="3">
-        <v>593800</v>
+        <v>628200</v>
       </c>
       <c r="H57" s="3">
-        <v>613900</v>
+        <v>600500</v>
       </c>
       <c r="I57" s="3">
-        <v>679800</v>
+        <v>620800</v>
       </c>
       <c r="J57" s="3">
+        <v>687500</v>
+      </c>
+      <c r="K57" s="3">
         <v>676100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>545700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>529300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>521400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>535800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>515200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>534900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>540500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>554900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27800</v>
+        <v>28500</v>
       </c>
       <c r="E58" s="3">
-        <v>27900</v>
+        <v>28100</v>
       </c>
       <c r="F58" s="3">
-        <v>32800</v>
+        <v>28200</v>
       </c>
       <c r="G58" s="3">
-        <v>31500</v>
+        <v>33100</v>
       </c>
       <c r="H58" s="3">
-        <v>31000</v>
+        <v>31800</v>
       </c>
       <c r="I58" s="3">
-        <v>48300</v>
+        <v>31300</v>
       </c>
       <c r="J58" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K58" s="3">
         <v>25300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4900</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>345500</v>
+        <v>368500</v>
       </c>
       <c r="E59" s="3">
-        <v>321600</v>
+        <v>349400</v>
       </c>
       <c r="F59" s="3">
-        <v>319600</v>
+        <v>325200</v>
       </c>
       <c r="G59" s="3">
-        <v>306600</v>
+        <v>323200</v>
       </c>
       <c r="H59" s="3">
-        <v>291900</v>
+        <v>310100</v>
       </c>
       <c r="I59" s="3">
-        <v>293800</v>
+        <v>295200</v>
       </c>
       <c r="J59" s="3">
+        <v>297100</v>
+      </c>
+      <c r="K59" s="3">
         <v>292200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>282000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>269100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>261700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>248100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>279200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>295300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>321900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>329100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1047000</v>
+        <v>1072600</v>
       </c>
       <c r="E60" s="3">
-        <v>992700</v>
+        <v>1058800</v>
       </c>
       <c r="F60" s="3">
-        <v>973600</v>
+        <v>1003900</v>
       </c>
       <c r="G60" s="3">
-        <v>931900</v>
+        <v>984600</v>
       </c>
       <c r="H60" s="3">
-        <v>936900</v>
+        <v>942400</v>
       </c>
       <c r="I60" s="3">
-        <v>1021900</v>
+        <v>947400</v>
       </c>
       <c r="J60" s="3">
+        <v>1033400</v>
+      </c>
+      <c r="K60" s="3">
         <v>993600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>835000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>805300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>787000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>787500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>799000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>835100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>862400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>884000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2177600</v>
+        <v>2161700</v>
       </c>
       <c r="E61" s="3">
-        <v>2204100</v>
+        <v>2202100</v>
       </c>
       <c r="F61" s="3">
-        <v>2185500</v>
+        <v>2228900</v>
       </c>
       <c r="G61" s="3">
-        <v>2212500</v>
+        <v>2210100</v>
       </c>
       <c r="H61" s="3">
-        <v>2171800</v>
+        <v>2237400</v>
       </c>
       <c r="I61" s="3">
-        <v>2194400</v>
+        <v>2196200</v>
       </c>
       <c r="J61" s="3">
+        <v>2219100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2061700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1952500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1933700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1624100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1565300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1575000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1596100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1703400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1704100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>812900</v>
+        <v>860100</v>
       </c>
       <c r="E62" s="3">
-        <v>754500</v>
+        <v>822000</v>
       </c>
       <c r="F62" s="3">
-        <v>800900</v>
+        <v>762900</v>
       </c>
       <c r="G62" s="3">
-        <v>799000</v>
+        <v>809900</v>
       </c>
       <c r="H62" s="3">
-        <v>798000</v>
+        <v>808000</v>
       </c>
       <c r="I62" s="3">
-        <v>755900</v>
+        <v>807000</v>
       </c>
       <c r="J62" s="3">
+        <v>764400</v>
+      </c>
+      <c r="K62" s="3">
         <v>826600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>767600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>720500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>734000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>731600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>725600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>699100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>707100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>706800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4037500</v>
+        <v>4094400</v>
       </c>
       <c r="E66" s="3">
-        <v>3951200</v>
+        <v>4082900</v>
       </c>
       <c r="F66" s="3">
-        <v>3958700</v>
+        <v>3995700</v>
       </c>
       <c r="G66" s="3">
-        <v>3942100</v>
+        <v>4003200</v>
       </c>
       <c r="H66" s="3">
-        <v>3905300</v>
+        <v>3986500</v>
       </c>
       <c r="I66" s="3">
-        <v>3971100</v>
+        <v>3949300</v>
       </c>
       <c r="J66" s="3">
+        <v>4015800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3881000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3554500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3459500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3145100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3084500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3099600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3130400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3272900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3294900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2940500</v>
+        <v>2556400</v>
       </c>
       <c r="E72" s="3">
-        <v>2909500</v>
+        <v>2973500</v>
       </c>
       <c r="F72" s="3">
-        <v>2929200</v>
+        <v>2942200</v>
       </c>
       <c r="G72" s="3">
-        <v>2851700</v>
+        <v>2962200</v>
       </c>
       <c r="H72" s="3">
-        <v>2825400</v>
+        <v>2883800</v>
       </c>
       <c r="I72" s="3">
-        <v>2782400</v>
+        <v>2857100</v>
       </c>
       <c r="J72" s="3">
+        <v>2813700</v>
+      </c>
+      <c r="K72" s="3">
         <v>2321600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2110600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2048900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2011800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1988600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1959700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2006100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2182600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2124700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3043700</v>
+        <v>2648100</v>
       </c>
       <c r="E76" s="3">
-        <v>3022100</v>
+        <v>3077900</v>
       </c>
       <c r="F76" s="3">
-        <v>3025700</v>
+        <v>3056100</v>
       </c>
       <c r="G76" s="3">
-        <v>2952000</v>
+        <v>3059800</v>
       </c>
       <c r="H76" s="3">
-        <v>2920200</v>
+        <v>2985200</v>
       </c>
       <c r="I76" s="3">
-        <v>2894100</v>
+        <v>2953100</v>
       </c>
       <c r="J76" s="3">
+        <v>2926600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2436700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2219500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2158000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2104300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2078600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2040700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2096300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2283100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2233200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>74000</v>
+        <v>67500</v>
       </c>
       <c r="E81" s="3">
-        <v>56200</v>
+        <v>74900</v>
       </c>
       <c r="F81" s="3">
-        <v>54400</v>
+        <v>56800</v>
       </c>
       <c r="G81" s="3">
-        <v>46400</v>
+        <v>55000</v>
       </c>
       <c r="H81" s="3">
-        <v>54900</v>
+        <v>46900</v>
       </c>
       <c r="I81" s="3">
-        <v>26500</v>
+        <v>55500</v>
       </c>
       <c r="J81" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K81" s="3">
         <v>48600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>40600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>34000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>68500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>30600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>47000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>21700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>56300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>21300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>21900</v>
+      </c>
+      <c r="H83" s="3">
         <v>20000</v>
       </c>
-      <c r="E83" s="3">
-        <v>21100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>21600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>19800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>19800</v>
-      </c>
       <c r="I83" s="3">
-        <v>19600</v>
+        <v>20000</v>
       </c>
       <c r="J83" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K83" s="3">
         <v>15000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>242800</v>
+        <v>24300</v>
       </c>
       <c r="E89" s="3">
-        <v>113200</v>
+        <v>245600</v>
       </c>
       <c r="F89" s="3">
-        <v>165500</v>
+        <v>114500</v>
       </c>
       <c r="G89" s="3">
-        <v>58700</v>
+        <v>167300</v>
       </c>
       <c r="H89" s="3">
-        <v>29700</v>
+        <v>59300</v>
       </c>
       <c r="I89" s="3">
-        <v>119200</v>
+        <v>30000</v>
       </c>
       <c r="J89" s="3">
+        <v>120600</v>
+      </c>
+      <c r="K89" s="3">
         <v>249100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>89500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>82200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>78100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>80600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>115200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="E91" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-11400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-24700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-11200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="R91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="T91" s="3">
         <v>-6900</v>
       </c>
-      <c r="J91" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-6900</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16600</v>
+        <v>13800</v>
       </c>
       <c r="E94" s="3">
-        <v>-12500</v>
+        <v>-16700</v>
       </c>
       <c r="F94" s="3">
-        <v>-21200</v>
+        <v>-12700</v>
       </c>
       <c r="G94" s="3">
-        <v>-43600</v>
+        <v>-21400</v>
       </c>
       <c r="H94" s="3">
-        <v>-13400</v>
+        <v>-44100</v>
       </c>
       <c r="I94" s="3">
-        <v>-9100</v>
+        <v>-13500</v>
       </c>
       <c r="J94" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-32200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-264600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-266000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-67200</v>
+        <v>-492400</v>
       </c>
       <c r="E100" s="3">
-        <v>-112700</v>
+        <v>-67900</v>
       </c>
       <c r="F100" s="3">
-        <v>-26900</v>
+        <v>-114000</v>
       </c>
       <c r="G100" s="3">
-        <v>-15000</v>
+        <v>-27200</v>
       </c>
       <c r="H100" s="3">
-        <v>-51900</v>
+        <v>-15200</v>
       </c>
       <c r="I100" s="3">
-        <v>391200</v>
+        <v>-52500</v>
       </c>
       <c r="J100" s="3">
+        <v>395600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-14700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>248700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>106500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-105400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-131000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2100</v>
+        <v>-3800</v>
       </c>
       <c r="E101" s="3">
-        <v>-14200</v>
+        <v>-2200</v>
       </c>
       <c r="F101" s="3">
-        <v>4700</v>
+        <v>-14400</v>
       </c>
       <c r="G101" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3900</v>
       </c>
-      <c r="I101" s="3">
-        <v>2100</v>
-      </c>
       <c r="J101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>157000</v>
+        <v>-458100</v>
       </c>
       <c r="E102" s="3">
-        <v>-26300</v>
+        <v>158700</v>
       </c>
       <c r="F102" s="3">
-        <v>122200</v>
+        <v>-26600</v>
       </c>
       <c r="G102" s="3">
+        <v>123600</v>
+      </c>
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
-        <v>-39500</v>
-      </c>
       <c r="I102" s="3">
-        <v>503400</v>
+        <v>-40000</v>
       </c>
       <c r="J102" s="3">
+        <v>509100</v>
+      </c>
+      <c r="K102" s="3">
         <v>201900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-273400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>191700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>46100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-137300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-79800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>49400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>71300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>689400</v>
+        <v>773700</v>
       </c>
       <c r="E8" s="3">
-        <v>716500</v>
+        <v>678000</v>
       </c>
       <c r="F8" s="3">
-        <v>816900</v>
+        <v>704700</v>
       </c>
       <c r="G8" s="3">
-        <v>751700</v>
+        <v>803400</v>
       </c>
       <c r="H8" s="3">
-        <v>646300</v>
+        <v>739200</v>
       </c>
       <c r="I8" s="3">
-        <v>643300</v>
+        <v>635600</v>
       </c>
       <c r="J8" s="3">
+        <v>632700</v>
+      </c>
+      <c r="K8" s="3">
         <v>739000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>727200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>587700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>536000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>592000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>570200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>515000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>514000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>623600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>569500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>479800</v>
+        <v>530100</v>
       </c>
       <c r="E9" s="3">
-        <v>499700</v>
+        <v>471900</v>
       </c>
       <c r="F9" s="3">
-        <v>579000</v>
+        <v>491400</v>
       </c>
       <c r="G9" s="3">
-        <v>527200</v>
+        <v>569400</v>
       </c>
       <c r="H9" s="3">
-        <v>455900</v>
+        <v>518400</v>
       </c>
       <c r="I9" s="3">
-        <v>451600</v>
+        <v>448300</v>
       </c>
       <c r="J9" s="3">
+        <v>444100</v>
+      </c>
+      <c r="K9" s="3">
         <v>510900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>509900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>424900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>369700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>404000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>390700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>359000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>352100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>440400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>410000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>209600</v>
+        <v>243600</v>
       </c>
       <c r="E10" s="3">
-        <v>216900</v>
+        <v>206100</v>
       </c>
       <c r="F10" s="3">
-        <v>237900</v>
+        <v>213300</v>
       </c>
       <c r="G10" s="3">
-        <v>224500</v>
+        <v>234000</v>
       </c>
       <c r="H10" s="3">
-        <v>190400</v>
+        <v>220800</v>
       </c>
       <c r="I10" s="3">
-        <v>191800</v>
+        <v>187300</v>
       </c>
       <c r="J10" s="3">
+        <v>188600</v>
+      </c>
+      <c r="K10" s="3">
         <v>228100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>217300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>162800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>166300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>188100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>179500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>156000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>161900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>183200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>159500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1064,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3000</v>
+        <v>-7900</v>
       </c>
       <c r="E14" s="3">
-        <v>5000</v>
+        <v>2900</v>
       </c>
       <c r="F14" s="3">
-        <v>24600</v>
+        <v>4900</v>
       </c>
       <c r="G14" s="3">
-        <v>5500</v>
+        <v>24200</v>
       </c>
       <c r="H14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>53600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>23800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>585300</v>
+        <v>656200</v>
       </c>
       <c r="E17" s="3">
-        <v>602300</v>
+        <v>575600</v>
       </c>
       <c r="F17" s="3">
-        <v>725000</v>
+        <v>592300</v>
       </c>
       <c r="G17" s="3">
-        <v>648100</v>
+        <v>713000</v>
       </c>
       <c r="H17" s="3">
-        <v>564800</v>
+        <v>637400</v>
       </c>
       <c r="I17" s="3">
-        <v>554700</v>
+        <v>555500</v>
       </c>
       <c r="J17" s="3">
+        <v>545500</v>
+      </c>
+      <c r="K17" s="3">
         <v>673600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>634900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>523000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>470600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>496500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>516500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>445200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>449500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>535300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>538800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>104100</v>
+        <v>117500</v>
       </c>
       <c r="E18" s="3">
-        <v>114200</v>
+        <v>102300</v>
       </c>
       <c r="F18" s="3">
-        <v>91900</v>
+        <v>112300</v>
       </c>
       <c r="G18" s="3">
-        <v>103600</v>
+        <v>90300</v>
       </c>
       <c r="H18" s="3">
-        <v>81500</v>
+        <v>101900</v>
       </c>
       <c r="I18" s="3">
-        <v>88600</v>
+        <v>80100</v>
       </c>
       <c r="J18" s="3">
+        <v>87200</v>
+      </c>
+      <c r="K18" s="3">
         <v>65400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>92400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>64700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>65400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>95500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>53700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>69800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>64500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>88400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>30800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
-        <v>3700</v>
-      </c>
       <c r="G20" s="3">
-        <v>14000</v>
+        <v>3600</v>
       </c>
       <c r="H20" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>123600</v>
+        <v>138000</v>
       </c>
       <c r="E21" s="3">
-        <v>133400</v>
+        <v>121500</v>
       </c>
       <c r="F21" s="3">
-        <v>116900</v>
+        <v>131200</v>
       </c>
       <c r="G21" s="3">
-        <v>139500</v>
+        <v>114900</v>
       </c>
       <c r="H21" s="3">
-        <v>97500</v>
+        <v>137200</v>
       </c>
       <c r="I21" s="3">
-        <v>108000</v>
+        <v>95900</v>
       </c>
       <c r="J21" s="3">
+        <v>106200</v>
+      </c>
+      <c r="K21" s="3">
         <v>85200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>121500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>77600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>71000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>112000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>63300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>84600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>75500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>103300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>43300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18100</v>
+        <v>24600</v>
       </c>
       <c r="E22" s="3">
-        <v>18700</v>
+        <v>17800</v>
       </c>
       <c r="F22" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="G22" s="3">
-        <v>44100</v>
+        <v>17800</v>
       </c>
       <c r="H22" s="3">
-        <v>17500</v>
+        <v>43400</v>
       </c>
       <c r="I22" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="J22" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K22" s="3">
         <v>17600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>37600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>36600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>85300</v>
+        <v>94600</v>
       </c>
       <c r="E23" s="3">
-        <v>94500</v>
+        <v>83900</v>
       </c>
       <c r="F23" s="3">
-        <v>77500</v>
+        <v>92900</v>
       </c>
       <c r="G23" s="3">
-        <v>73400</v>
+        <v>76200</v>
       </c>
       <c r="H23" s="3">
-        <v>60000</v>
+        <v>72200</v>
       </c>
       <c r="I23" s="3">
-        <v>70300</v>
+        <v>59100</v>
       </c>
       <c r="J23" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K23" s="3">
         <v>47700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>51300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>45800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>88800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>60100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>28300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>69500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17800</v>
+        <v>25500</v>
       </c>
       <c r="E24" s="3">
-        <v>19600</v>
+        <v>17500</v>
       </c>
       <c r="F24" s="3">
-        <v>20800</v>
+        <v>19300</v>
       </c>
       <c r="G24" s="3">
-        <v>18500</v>
+        <v>20500</v>
       </c>
       <c r="H24" s="3">
-        <v>13200</v>
+        <v>18200</v>
       </c>
       <c r="I24" s="3">
-        <v>15100</v>
+        <v>12900</v>
       </c>
       <c r="J24" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K24" s="3">
         <v>21100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="E26" s="3">
-        <v>74900</v>
+        <v>66300</v>
       </c>
       <c r="F26" s="3">
-        <v>56700</v>
+        <v>73600</v>
       </c>
       <c r="G26" s="3">
-        <v>54900</v>
+        <v>55800</v>
       </c>
       <c r="H26" s="3">
-        <v>46900</v>
+        <v>54000</v>
       </c>
       <c r="I26" s="3">
-        <v>55300</v>
+        <v>46100</v>
       </c>
       <c r="J26" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K26" s="3">
         <v>26700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>40200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>34000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>68500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>47000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>21700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>56300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="E27" s="3">
-        <v>74900</v>
+        <v>66300</v>
       </c>
       <c r="F27" s="3">
-        <v>56800</v>
+        <v>73600</v>
       </c>
       <c r="G27" s="3">
-        <v>55000</v>
+        <v>55900</v>
       </c>
       <c r="H27" s="3">
-        <v>46900</v>
+        <v>54100</v>
       </c>
       <c r="I27" s="3">
-        <v>55500</v>
+        <v>46100</v>
       </c>
       <c r="J27" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K27" s="3">
         <v>26800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>40600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>68500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>47000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>21700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>56300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-3700</v>
-      </c>
       <c r="G32" s="3">
-        <v>-14000</v>
+        <v>-3600</v>
       </c>
       <c r="H32" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="I32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="E33" s="3">
-        <v>74900</v>
+        <v>66300</v>
       </c>
       <c r="F33" s="3">
-        <v>56800</v>
+        <v>73600</v>
       </c>
       <c r="G33" s="3">
-        <v>55000</v>
+        <v>55900</v>
       </c>
       <c r="H33" s="3">
-        <v>46900</v>
+        <v>54100</v>
       </c>
       <c r="I33" s="3">
-        <v>55500</v>
+        <v>46100</v>
       </c>
       <c r="J33" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K33" s="3">
         <v>26800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>40600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>68500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>30600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>21700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>56300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="E35" s="3">
-        <v>74900</v>
+        <v>66300</v>
       </c>
       <c r="F35" s="3">
-        <v>56800</v>
+        <v>73600</v>
       </c>
       <c r="G35" s="3">
-        <v>55000</v>
+        <v>55900</v>
       </c>
       <c r="H35" s="3">
-        <v>46900</v>
+        <v>54100</v>
       </c>
       <c r="I35" s="3">
-        <v>55500</v>
+        <v>46100</v>
       </c>
       <c r="J35" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K35" s="3">
         <v>26800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>40600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>68500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>30600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>21700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>56300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,84 +2399,88 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>660500</v>
+        <v>462400</v>
       </c>
       <c r="E41" s="3">
-        <v>1118700</v>
+        <v>649600</v>
       </c>
       <c r="F41" s="3">
-        <v>960000</v>
+        <v>1100200</v>
       </c>
       <c r="G41" s="3">
-        <v>988100</v>
+        <v>944100</v>
       </c>
       <c r="H41" s="3">
-        <v>862900</v>
+        <v>971700</v>
       </c>
       <c r="I41" s="3">
-        <v>860900</v>
+        <v>848700</v>
       </c>
       <c r="J41" s="3">
+        <v>846700</v>
+      </c>
+      <c r="K41" s="3">
         <v>900900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>387400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>173700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>443200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>432100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>245900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>199800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>337200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>436200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>386800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>29400</v>
       </c>
       <c r="E42" s="3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>29900</v>
+        <v>29500</v>
       </c>
       <c r="G42" s="3">
-        <v>29900</v>
+        <v>29400</v>
       </c>
       <c r="H42" s="3">
-        <v>29900</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>29400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>29400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2408,8 +2497,8 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2426,400 +2515,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>242900</v>
+        <v>217600</v>
       </c>
       <c r="E43" s="3">
         <v>238900</v>
       </c>
       <c r="F43" s="3">
-        <v>332300</v>
+        <v>234900</v>
       </c>
       <c r="G43" s="3">
-        <v>247300</v>
+        <v>326800</v>
       </c>
       <c r="H43" s="3">
-        <v>184200</v>
+        <v>243200</v>
       </c>
       <c r="I43" s="3">
+        <v>181200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>223900</v>
+      </c>
+      <c r="K43" s="3">
+        <v>228000</v>
+      </c>
+      <c r="L43" s="3">
+        <v>205700</v>
+      </c>
+      <c r="M43" s="3">
         <v>227600</v>
       </c>
-      <c r="J43" s="3">
-        <v>228000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>205700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>227600</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>181300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>189800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>165000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>159700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>143100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>170000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>159300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>428700</v>
+        <v>403700</v>
       </c>
       <c r="E44" s="3">
-        <v>352900</v>
+        <v>421600</v>
       </c>
       <c r="F44" s="3">
-        <v>314700</v>
+        <v>347000</v>
       </c>
       <c r="G44" s="3">
-        <v>386600</v>
+        <v>309500</v>
       </c>
       <c r="H44" s="3">
-        <v>469300</v>
+        <v>380200</v>
       </c>
       <c r="I44" s="3">
-        <v>412300</v>
+        <v>461500</v>
       </c>
       <c r="J44" s="3">
+        <v>405500</v>
+      </c>
+      <c r="K44" s="3">
         <v>406100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>405100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>418200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>366200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>315000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>344300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>370900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>346900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>350700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>381500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34100</v>
+        <v>24700</v>
       </c>
       <c r="E45" s="3">
-        <v>37200</v>
+        <v>33500</v>
       </c>
       <c r="F45" s="3">
-        <v>44300</v>
+        <v>36600</v>
       </c>
       <c r="G45" s="3">
-        <v>47100</v>
+        <v>43500</v>
       </c>
       <c r="H45" s="3">
-        <v>59300</v>
+        <v>46400</v>
       </c>
       <c r="I45" s="3">
-        <v>51900</v>
+        <v>58300</v>
       </c>
       <c r="J45" s="3">
+        <v>51100</v>
+      </c>
+      <c r="K45" s="3">
         <v>55500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>109900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>101500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>103300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>86400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>85200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>89500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>86700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>102500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>98100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1366300</v>
+        <v>1137900</v>
       </c>
       <c r="E46" s="3">
-        <v>1777700</v>
+        <v>1343700</v>
       </c>
       <c r="F46" s="3">
-        <v>1681100</v>
+        <v>1748200</v>
       </c>
       <c r="G46" s="3">
-        <v>1699000</v>
+        <v>1653300</v>
       </c>
       <c r="H46" s="3">
-        <v>1605700</v>
+        <v>1670800</v>
       </c>
       <c r="I46" s="3">
-        <v>1552800</v>
+        <v>1579100</v>
       </c>
       <c r="J46" s="3">
+        <v>1527100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1590500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1108100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>921000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1093900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1023300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>840500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>820000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>913900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1059400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1025700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E47" s="3">
         <v>1400</v>
       </c>
-      <c r="E47" s="3">
-        <v>1700</v>
-      </c>
       <c r="F47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G47" s="3">
         <v>1800</v>
       </c>
-      <c r="G47" s="3">
-        <v>2300</v>
-      </c>
       <c r="H47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I47" s="3">
         <v>2500</v>
       </c>
-      <c r="I47" s="3">
-        <v>2800</v>
-      </c>
       <c r="J47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K47" s="3">
         <v>3000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4800</v>
-      </c>
-      <c r="P47" s="3">
-        <v>1500</v>
       </c>
       <c r="Q47" s="3">
         <v>1500</v>
       </c>
       <c r="R47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="S47" s="3">
         <v>500</v>
       </c>
       <c r="T47" s="3">
+        <v>500</v>
+      </c>
+      <c r="U47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>496800</v>
+        <v>496700</v>
       </c>
       <c r="E48" s="3">
-        <v>496400</v>
+        <v>488600</v>
       </c>
       <c r="F48" s="3">
-        <v>495600</v>
+        <v>488200</v>
       </c>
       <c r="G48" s="3">
-        <v>505300</v>
+        <v>487400</v>
       </c>
       <c r="H48" s="3">
-        <v>498300</v>
+        <v>496900</v>
       </c>
       <c r="I48" s="3">
-        <v>501600</v>
+        <v>490100</v>
       </c>
       <c r="J48" s="3">
+        <v>493300</v>
+      </c>
+      <c r="K48" s="3">
         <v>511500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>412600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>379500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>352500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>315600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>331400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>329400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>327400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>345700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>350000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4721600</v>
+        <v>4766900</v>
       </c>
       <c r="E49" s="3">
-        <v>4722600</v>
+        <v>4643500</v>
       </c>
       <c r="F49" s="3">
-        <v>4724800</v>
+        <v>4644400</v>
       </c>
       <c r="G49" s="3">
-        <v>4720200</v>
+        <v>4646500</v>
       </c>
       <c r="H49" s="3">
-        <v>4719600</v>
+        <v>4642100</v>
       </c>
       <c r="I49" s="3">
-        <v>4721300</v>
+        <v>4641500</v>
       </c>
       <c r="J49" s="3">
+        <v>4643100</v>
+      </c>
+      <c r="K49" s="3">
         <v>4721200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4670300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4370100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4073100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3809500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3893300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3892200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3894300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4074200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4075700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>156300</v>
+        <v>153800</v>
       </c>
       <c r="E52" s="3">
-        <v>162400</v>
+        <v>153800</v>
       </c>
       <c r="F52" s="3">
-        <v>148400</v>
+        <v>159800</v>
       </c>
       <c r="G52" s="3">
-        <v>136200</v>
+        <v>146000</v>
       </c>
       <c r="H52" s="3">
-        <v>145600</v>
+        <v>134000</v>
       </c>
       <c r="I52" s="3">
-        <v>123900</v>
+        <v>143200</v>
       </c>
       <c r="J52" s="3">
+        <v>121900</v>
+      </c>
+      <c r="K52" s="3">
         <v>116300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>123500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>94400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>97200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>93000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>97300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>89600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>76300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>76200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6742500</v>
+        <v>6556500</v>
       </c>
       <c r="E54" s="3">
-        <v>7160800</v>
+        <v>6630900</v>
       </c>
       <c r="F54" s="3">
-        <v>7051700</v>
+        <v>7042300</v>
       </c>
       <c r="G54" s="3">
-        <v>7063000</v>
+        <v>6935000</v>
       </c>
       <c r="H54" s="3">
-        <v>6971700</v>
+        <v>6946100</v>
       </c>
       <c r="I54" s="3">
-        <v>6902300</v>
+        <v>6856300</v>
       </c>
       <c r="J54" s="3">
+        <v>6788100</v>
+      </c>
+      <c r="K54" s="3">
         <v>6942400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6317600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5774000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5617500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5249400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5163100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5140300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5226700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5556000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5528100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>675600</v>
+        <v>760400</v>
       </c>
       <c r="E57" s="3">
-        <v>681200</v>
+        <v>664400</v>
       </c>
       <c r="F57" s="3">
-        <v>650400</v>
+        <v>670000</v>
       </c>
       <c r="G57" s="3">
-        <v>628200</v>
+        <v>639600</v>
       </c>
       <c r="H57" s="3">
-        <v>600500</v>
+        <v>617800</v>
       </c>
       <c r="I57" s="3">
-        <v>620800</v>
+        <v>590600</v>
       </c>
       <c r="J57" s="3">
+        <v>610600</v>
+      </c>
+      <c r="K57" s="3">
         <v>687500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>676100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>545700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>529300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>521400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>535800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>515200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>534900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>540500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>554900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28500</v>
+        <v>26500</v>
       </c>
       <c r="E58" s="3">
-        <v>28100</v>
+        <v>28000</v>
       </c>
       <c r="F58" s="3">
-        <v>28200</v>
+        <v>27600</v>
       </c>
       <c r="G58" s="3">
-        <v>33100</v>
+        <v>27800</v>
       </c>
       <c r="H58" s="3">
-        <v>31800</v>
+        <v>32600</v>
       </c>
       <c r="I58" s="3">
         <v>31300</v>
       </c>
       <c r="J58" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K58" s="3">
         <v>48800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4900</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>368500</v>
+        <v>291000</v>
       </c>
       <c r="E59" s="3">
-        <v>349400</v>
+        <v>362400</v>
       </c>
       <c r="F59" s="3">
-        <v>325200</v>
+        <v>343600</v>
       </c>
       <c r="G59" s="3">
-        <v>323200</v>
+        <v>319900</v>
       </c>
       <c r="H59" s="3">
-        <v>310100</v>
+        <v>317900</v>
       </c>
       <c r="I59" s="3">
-        <v>295200</v>
+        <v>304900</v>
       </c>
       <c r="J59" s="3">
+        <v>290300</v>
+      </c>
+      <c r="K59" s="3">
         <v>297100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>292200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>282000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>269100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>261700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>248100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>279200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>295300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>321900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>329100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1072600</v>
+        <v>1077900</v>
       </c>
       <c r="E60" s="3">
-        <v>1058800</v>
+        <v>1054900</v>
       </c>
       <c r="F60" s="3">
-        <v>1003900</v>
+        <v>1041200</v>
       </c>
       <c r="G60" s="3">
-        <v>984600</v>
+        <v>987200</v>
       </c>
       <c r="H60" s="3">
-        <v>942400</v>
+        <v>968300</v>
       </c>
       <c r="I60" s="3">
-        <v>947400</v>
+        <v>926800</v>
       </c>
       <c r="J60" s="3">
+        <v>931700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1033400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>993600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>835000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>805300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>787000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>787500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>799000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>835100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>862400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>884000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2161700</v>
+        <v>2042600</v>
       </c>
       <c r="E61" s="3">
-        <v>2202100</v>
+        <v>2125900</v>
       </c>
       <c r="F61" s="3">
-        <v>2228900</v>
+        <v>2165600</v>
       </c>
       <c r="G61" s="3">
-        <v>2210100</v>
+        <v>2192000</v>
       </c>
       <c r="H61" s="3">
-        <v>2237400</v>
+        <v>2173500</v>
       </c>
       <c r="I61" s="3">
-        <v>2196200</v>
+        <v>2200300</v>
       </c>
       <c r="J61" s="3">
+        <v>2159900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2219100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2061700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1952500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1933700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1624100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1565300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1575000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1596100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1703400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1704100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>860100</v>
+        <v>934900</v>
       </c>
       <c r="E62" s="3">
-        <v>822000</v>
+        <v>845800</v>
       </c>
       <c r="F62" s="3">
-        <v>762900</v>
+        <v>808400</v>
       </c>
       <c r="G62" s="3">
-        <v>809900</v>
+        <v>750300</v>
       </c>
       <c r="H62" s="3">
-        <v>808000</v>
+        <v>796500</v>
       </c>
       <c r="I62" s="3">
-        <v>807000</v>
+        <v>794700</v>
       </c>
       <c r="J62" s="3">
+        <v>793600</v>
+      </c>
+      <c r="K62" s="3">
         <v>764400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>826600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>767600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>720500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>734000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>731600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>725600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>699100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>707100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>706800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4094400</v>
+        <v>4055400</v>
       </c>
       <c r="E66" s="3">
-        <v>4082900</v>
+        <v>4026600</v>
       </c>
       <c r="F66" s="3">
-        <v>3995700</v>
+        <v>4015300</v>
       </c>
       <c r="G66" s="3">
-        <v>4003200</v>
+        <v>3929500</v>
       </c>
       <c r="H66" s="3">
-        <v>3986500</v>
+        <v>3936900</v>
       </c>
       <c r="I66" s="3">
-        <v>3949300</v>
+        <v>3920500</v>
       </c>
       <c r="J66" s="3">
+        <v>3883900</v>
+      </c>
+      <c r="K66" s="3">
         <v>4015800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3881000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3554500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3459500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3145100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3084500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3099600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3130400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3272900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3294900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2556400</v>
+        <v>2430300</v>
       </c>
       <c r="E72" s="3">
-        <v>2973500</v>
+        <v>2514100</v>
       </c>
       <c r="F72" s="3">
-        <v>2942200</v>
+        <v>2924300</v>
       </c>
       <c r="G72" s="3">
-        <v>2962200</v>
+        <v>2893500</v>
       </c>
       <c r="H72" s="3">
-        <v>2883800</v>
+        <v>2913100</v>
       </c>
       <c r="I72" s="3">
-        <v>2857100</v>
+        <v>2836100</v>
       </c>
       <c r="J72" s="3">
+        <v>2809800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2813700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2321600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2110600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2048900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2011800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1988600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1959700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2006100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2182600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2124700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2648100</v>
+        <v>2501100</v>
       </c>
       <c r="E76" s="3">
-        <v>3077900</v>
+        <v>2604300</v>
       </c>
       <c r="F76" s="3">
-        <v>3056100</v>
+        <v>3027000</v>
       </c>
       <c r="G76" s="3">
-        <v>3059800</v>
+        <v>3005500</v>
       </c>
       <c r="H76" s="3">
-        <v>2985200</v>
+        <v>3009100</v>
       </c>
       <c r="I76" s="3">
-        <v>2953100</v>
+        <v>2935800</v>
       </c>
       <c r="J76" s="3">
+        <v>2904200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2926600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2436700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2219500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2158000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2104300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2078600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2040700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2096300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2283100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2233200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>67500</v>
+        <v>69100</v>
       </c>
       <c r="E81" s="3">
-        <v>74900</v>
+        <v>66300</v>
       </c>
       <c r="F81" s="3">
-        <v>56800</v>
+        <v>73600</v>
       </c>
       <c r="G81" s="3">
-        <v>55000</v>
+        <v>55900</v>
       </c>
       <c r="H81" s="3">
-        <v>46900</v>
+        <v>54100</v>
       </c>
       <c r="I81" s="3">
-        <v>55500</v>
+        <v>46100</v>
       </c>
       <c r="J81" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K81" s="3">
         <v>26800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>40600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>68500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>30600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>21700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>56300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20200</v>
+        <v>18800</v>
       </c>
       <c r="E83" s="3">
-        <v>20200</v>
+        <v>19900</v>
       </c>
       <c r="F83" s="3">
-        <v>21300</v>
+        <v>19900</v>
       </c>
       <c r="G83" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="H83" s="3">
-        <v>20000</v>
+        <v>21500</v>
       </c>
       <c r="I83" s="3">
-        <v>20000</v>
+        <v>19600</v>
       </c>
       <c r="J83" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K83" s="3">
         <v>19900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24300</v>
+        <v>159600</v>
       </c>
       <c r="E89" s="3">
-        <v>245600</v>
+        <v>23900</v>
       </c>
       <c r="F89" s="3">
-        <v>114500</v>
+        <v>241500</v>
       </c>
       <c r="G89" s="3">
-        <v>167300</v>
+        <v>112600</v>
       </c>
       <c r="H89" s="3">
-        <v>59300</v>
+        <v>164600</v>
       </c>
       <c r="I89" s="3">
-        <v>30000</v>
+        <v>58300</v>
       </c>
       <c r="J89" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K89" s="3">
         <v>120600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>249100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>89500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>82200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>78100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>80600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>115200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16400</v>
+        <v>-25200</v>
       </c>
       <c r="E91" s="3">
-        <v>-16700</v>
+        <v>-16100</v>
       </c>
       <c r="F91" s="3">
-        <v>-11500</v>
+        <v>-16500</v>
       </c>
       <c r="G91" s="3">
-        <v>-25000</v>
+        <v>-11300</v>
       </c>
       <c r="H91" s="3">
-        <v>-13300</v>
+        <v>-24600</v>
       </c>
       <c r="I91" s="3">
-        <v>-11400</v>
+        <v>-13100</v>
       </c>
       <c r="J91" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-28400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>13800</v>
+        <v>-186200</v>
       </c>
       <c r="E94" s="3">
-        <v>-16700</v>
+        <v>13500</v>
       </c>
       <c r="F94" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-264600</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-266000</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="R94" s="3">
         <v>-12700</v>
       </c>
-      <c r="G94" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-44100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-32200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-264600</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-266000</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-492400</v>
+        <v>-177800</v>
       </c>
       <c r="E100" s="3">
-        <v>-67900</v>
+        <v>-484200</v>
       </c>
       <c r="F100" s="3">
-        <v>-114000</v>
+        <v>-66800</v>
       </c>
       <c r="G100" s="3">
-        <v>-27200</v>
+        <v>-112100</v>
       </c>
       <c r="H100" s="3">
-        <v>-15200</v>
+        <v>-26700</v>
       </c>
       <c r="I100" s="3">
-        <v>-52500</v>
+        <v>-14900</v>
       </c>
       <c r="J100" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="K100" s="3">
         <v>395600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>248700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>106500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-105400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-131000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3800</v>
       </c>
-      <c r="E101" s="3">
-        <v>-2200</v>
-      </c>
       <c r="F101" s="3">
-        <v>-14400</v>
+        <v>-2100</v>
       </c>
       <c r="G101" s="3">
-        <v>4800</v>
+        <v>-14100</v>
       </c>
       <c r="H101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-14100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-458100</v>
+        <v>-199800</v>
       </c>
       <c r="E102" s="3">
-        <v>158700</v>
+        <v>-450600</v>
       </c>
       <c r="F102" s="3">
-        <v>-26600</v>
+        <v>156100</v>
       </c>
       <c r="G102" s="3">
-        <v>123600</v>
+        <v>-26100</v>
       </c>
       <c r="H102" s="3">
+        <v>121500</v>
+      </c>
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
-        <v>-40000</v>
-      </c>
       <c r="J102" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="K102" s="3">
         <v>509100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>201900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-273400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>191700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>46100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-137300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-79800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>49400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>71300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>773700</v>
+        <v>866600</v>
       </c>
       <c r="E8" s="3">
-        <v>678000</v>
+        <v>805700</v>
       </c>
       <c r="F8" s="3">
-        <v>704700</v>
+        <v>706000</v>
       </c>
       <c r="G8" s="3">
-        <v>803400</v>
+        <v>733800</v>
       </c>
       <c r="H8" s="3">
-        <v>739200</v>
+        <v>836500</v>
       </c>
       <c r="I8" s="3">
-        <v>635600</v>
+        <v>769800</v>
       </c>
       <c r="J8" s="3">
+        <v>661900</v>
+      </c>
+      <c r="K8" s="3">
         <v>632700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>739000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>727200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>587700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>536000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>592000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>570200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>515000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>514000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>623600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>569500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>530100</v>
+        <v>605900</v>
       </c>
       <c r="E9" s="3">
-        <v>471900</v>
+        <v>552000</v>
       </c>
       <c r="F9" s="3">
-        <v>491400</v>
+        <v>491300</v>
       </c>
       <c r="G9" s="3">
-        <v>569400</v>
+        <v>511700</v>
       </c>
       <c r="H9" s="3">
-        <v>518400</v>
+        <v>592900</v>
       </c>
       <c r="I9" s="3">
-        <v>448300</v>
+        <v>539900</v>
       </c>
       <c r="J9" s="3">
+        <v>466800</v>
+      </c>
+      <c r="K9" s="3">
         <v>444100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>510900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>509900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>424900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>369700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>404000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>390700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>359000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>352100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>440400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>410000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>243600</v>
+        <v>260700</v>
       </c>
       <c r="E10" s="3">
-        <v>206100</v>
+        <v>253700</v>
       </c>
       <c r="F10" s="3">
-        <v>213300</v>
+        <v>214600</v>
       </c>
       <c r="G10" s="3">
-        <v>234000</v>
+        <v>222100</v>
       </c>
       <c r="H10" s="3">
-        <v>220800</v>
+        <v>243700</v>
       </c>
       <c r="I10" s="3">
-        <v>187300</v>
+        <v>229900</v>
       </c>
       <c r="J10" s="3">
+        <v>195000</v>
+      </c>
+      <c r="K10" s="3">
         <v>188600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>228100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>217300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>162800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>166300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>188100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>179500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>156000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>161900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>183200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>159500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,67 +1084,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-7900</v>
+        <v>28400</v>
       </c>
       <c r="E14" s="3">
-        <v>2900</v>
+        <v>-8200</v>
       </c>
       <c r="F14" s="3">
-        <v>4900</v>
+        <v>3100</v>
       </c>
       <c r="G14" s="3">
-        <v>24200</v>
+        <v>5100</v>
       </c>
       <c r="H14" s="3">
-        <v>5400</v>
+        <v>25200</v>
       </c>
       <c r="I14" s="3">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="J14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>53600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>23800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>656200</v>
+        <v>754300</v>
       </c>
       <c r="E17" s="3">
-        <v>575600</v>
+        <v>683300</v>
       </c>
       <c r="F17" s="3">
-        <v>592300</v>
+        <v>599400</v>
       </c>
       <c r="G17" s="3">
-        <v>713000</v>
+        <v>616800</v>
       </c>
       <c r="H17" s="3">
-        <v>637400</v>
+        <v>742500</v>
       </c>
       <c r="I17" s="3">
-        <v>555500</v>
+        <v>663700</v>
       </c>
       <c r="J17" s="3">
+        <v>578400</v>
+      </c>
+      <c r="K17" s="3">
         <v>545500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>673600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>634900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>523000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>470600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>496500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>516500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>445200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>449500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>535300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>538800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>117500</v>
+        <v>112200</v>
       </c>
       <c r="E18" s="3">
-        <v>102300</v>
+        <v>122400</v>
       </c>
       <c r="F18" s="3">
-        <v>112300</v>
+        <v>106600</v>
       </c>
       <c r="G18" s="3">
-        <v>90300</v>
+        <v>117000</v>
       </c>
       <c r="H18" s="3">
-        <v>101900</v>
+        <v>94100</v>
       </c>
       <c r="I18" s="3">
-        <v>80100</v>
+        <v>106100</v>
       </c>
       <c r="J18" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K18" s="3">
         <v>87200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>65400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>92400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>64700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>65400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>95500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>53700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>69800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>64500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>88400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>30800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1600</v>
+        <v>-17100</v>
       </c>
       <c r="E20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
-        <v>3600</v>
-      </c>
       <c r="H20" s="3">
-        <v>13800</v>
+        <v>3800</v>
       </c>
       <c r="I20" s="3">
-        <v>-3900</v>
+        <v>14300</v>
       </c>
       <c r="J20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>138000</v>
+        <v>115600</v>
       </c>
       <c r="E21" s="3">
+        <v>143700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>126500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>136600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>119700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>142800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>99800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>106200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>85200</v>
+      </c>
+      <c r="M21" s="3">
         <v>121500</v>
       </c>
-      <c r="F21" s="3">
-        <v>131200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>114900</v>
-      </c>
-      <c r="H21" s="3">
-        <v>137200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>95900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>106200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>85200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>121500</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>77600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>71000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>112000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>63300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>84600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>75500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>103300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>43300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24600</v>
+        <v>17000</v>
       </c>
       <c r="E22" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>18500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>19100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>18500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>17400</v>
+      </c>
+      <c r="L22" s="3">
+        <v>17600</v>
+      </c>
+      <c r="M22" s="3">
+        <v>37600</v>
+      </c>
+      <c r="N22" s="3">
+        <v>12600</v>
+      </c>
+      <c r="O22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="P22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>17800</v>
       </c>
-      <c r="F22" s="3">
-        <v>18400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>17800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>43400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>17200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>17400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>17600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>37600</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="R22" s="3">
         <v>12600</v>
       </c>
-      <c r="N22" s="3">
-        <v>13000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>12200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>17800</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>12600</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>36600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>19400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>94600</v>
+        <v>78000</v>
       </c>
       <c r="E23" s="3">
-        <v>83900</v>
+        <v>98500</v>
       </c>
       <c r="F23" s="3">
-        <v>92900</v>
+        <v>87300</v>
       </c>
       <c r="G23" s="3">
-        <v>76200</v>
+        <v>96800</v>
       </c>
       <c r="H23" s="3">
-        <v>72200</v>
+        <v>79400</v>
       </c>
       <c r="I23" s="3">
-        <v>59100</v>
+        <v>75200</v>
       </c>
       <c r="J23" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K23" s="3">
         <v>69200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>47700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>68800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>51300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>45800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>88800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>60100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>28300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>69500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25500</v>
+        <v>17600</v>
       </c>
       <c r="E24" s="3">
-        <v>17500</v>
+        <v>26600</v>
       </c>
       <c r="F24" s="3">
-        <v>19300</v>
+        <v>18300</v>
       </c>
       <c r="G24" s="3">
-        <v>20500</v>
+        <v>20100</v>
       </c>
       <c r="H24" s="3">
-        <v>18200</v>
+        <v>21300</v>
       </c>
       <c r="I24" s="3">
-        <v>12900</v>
+        <v>19000</v>
       </c>
       <c r="J24" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K24" s="3">
         <v>14800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>71900</v>
+      </c>
+      <c r="F26" s="3">
         <v>69100</v>
       </c>
-      <c r="E26" s="3">
-        <v>66300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>73600</v>
-      </c>
       <c r="G26" s="3">
-        <v>55800</v>
+        <v>76700</v>
       </c>
       <c r="H26" s="3">
-        <v>54000</v>
+        <v>58100</v>
       </c>
       <c r="I26" s="3">
-        <v>46100</v>
+        <v>56200</v>
       </c>
       <c r="J26" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K26" s="3">
         <v>54300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>40200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>68500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>47000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>56300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>71900</v>
+      </c>
+      <c r="F27" s="3">
         <v>69100</v>
       </c>
-      <c r="E27" s="3">
-        <v>66300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>73600</v>
-      </c>
       <c r="G27" s="3">
-        <v>55900</v>
+        <v>76700</v>
       </c>
       <c r="H27" s="3">
-        <v>54100</v>
+        <v>58200</v>
       </c>
       <c r="I27" s="3">
-        <v>46100</v>
+        <v>56300</v>
       </c>
       <c r="J27" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K27" s="3">
         <v>54600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>40600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>34000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>68500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>47000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>56300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1600</v>
+        <v>17100</v>
       </c>
       <c r="E32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-3600</v>
-      </c>
       <c r="H32" s="3">
-        <v>-13800</v>
+        <v>-3800</v>
       </c>
       <c r="I32" s="3">
-        <v>3900</v>
+        <v>-14300</v>
       </c>
       <c r="J32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>71900</v>
+      </c>
+      <c r="F33" s="3">
         <v>69100</v>
       </c>
-      <c r="E33" s="3">
-        <v>66300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>73600</v>
-      </c>
       <c r="G33" s="3">
-        <v>55900</v>
+        <v>76700</v>
       </c>
       <c r="H33" s="3">
-        <v>54100</v>
+        <v>58200</v>
       </c>
       <c r="I33" s="3">
-        <v>46100</v>
+        <v>56300</v>
       </c>
       <c r="J33" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K33" s="3">
         <v>54600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>40600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>34000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>68500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>30600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>47000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>21700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>56300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>71900</v>
+      </c>
+      <c r="F35" s="3">
         <v>69100</v>
       </c>
-      <c r="E35" s="3">
-        <v>66300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>73600</v>
-      </c>
       <c r="G35" s="3">
-        <v>55900</v>
+        <v>76700</v>
       </c>
       <c r="H35" s="3">
-        <v>54100</v>
+        <v>58200</v>
       </c>
       <c r="I35" s="3">
-        <v>46100</v>
+        <v>56300</v>
       </c>
       <c r="J35" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K35" s="3">
         <v>54600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>40600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>34000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>68500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>30600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>47000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>21700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>56300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,90 +2486,94 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>462400</v>
+        <v>523900</v>
       </c>
       <c r="E41" s="3">
-        <v>649600</v>
+        <v>481500</v>
       </c>
       <c r="F41" s="3">
-        <v>1100200</v>
+        <v>676400</v>
       </c>
       <c r="G41" s="3">
-        <v>944100</v>
+        <v>1145600</v>
       </c>
       <c r="H41" s="3">
-        <v>971700</v>
+        <v>983100</v>
       </c>
       <c r="I41" s="3">
-        <v>848700</v>
+        <v>1011800</v>
       </c>
       <c r="J41" s="3">
+        <v>883700</v>
+      </c>
+      <c r="K41" s="3">
         <v>846700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>387400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>173700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>443200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>432100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>245900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>199800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>337200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>436200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>386800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29400</v>
+        <v>5900</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>30600</v>
       </c>
       <c r="F42" s="3">
-        <v>29500</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>29400</v>
+        <v>30700</v>
       </c>
       <c r="H42" s="3">
-        <v>29400</v>
+        <v>30600</v>
       </c>
       <c r="I42" s="3">
-        <v>29400</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+        <v>30600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>30600</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2500,8 +2590,8 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2518,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>217600</v>
+        <v>240600</v>
       </c>
       <c r="E43" s="3">
-        <v>238900</v>
+        <v>226600</v>
       </c>
       <c r="F43" s="3">
-        <v>234900</v>
+        <v>248800</v>
       </c>
       <c r="G43" s="3">
-        <v>326800</v>
+        <v>244600</v>
       </c>
       <c r="H43" s="3">
-        <v>243200</v>
+        <v>340300</v>
       </c>
       <c r="I43" s="3">
-        <v>181200</v>
+        <v>253200</v>
       </c>
       <c r="J43" s="3">
+        <v>188600</v>
+      </c>
+      <c r="K43" s="3">
         <v>223900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>228000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>205700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>227600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>181300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>189800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>165000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>159700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>143100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>170000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>159300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>403700</v>
+        <v>380400</v>
       </c>
       <c r="E44" s="3">
-        <v>421600</v>
+        <v>420400</v>
       </c>
       <c r="F44" s="3">
-        <v>347000</v>
+        <v>439000</v>
       </c>
       <c r="G44" s="3">
-        <v>309500</v>
+        <v>361400</v>
       </c>
       <c r="H44" s="3">
-        <v>380200</v>
+        <v>322300</v>
       </c>
       <c r="I44" s="3">
-        <v>461500</v>
+        <v>395900</v>
       </c>
       <c r="J44" s="3">
+        <v>480600</v>
+      </c>
+      <c r="K44" s="3">
         <v>405500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>406100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>405100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>418200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>366200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>315000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>344300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>370900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>346900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>350700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>381500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24700</v>
+        <v>49900</v>
       </c>
       <c r="E45" s="3">
-        <v>33500</v>
+        <v>25700</v>
       </c>
       <c r="F45" s="3">
-        <v>36600</v>
+        <v>34900</v>
       </c>
       <c r="G45" s="3">
-        <v>43500</v>
+        <v>38100</v>
       </c>
       <c r="H45" s="3">
-        <v>46400</v>
+        <v>45300</v>
       </c>
       <c r="I45" s="3">
-        <v>58300</v>
+        <v>48300</v>
       </c>
       <c r="J45" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K45" s="3">
         <v>51100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>55500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>109900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>101500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>103300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>86400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>85200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>89500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>86700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>102500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>98100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1137900</v>
+        <v>1200600</v>
       </c>
       <c r="E46" s="3">
-        <v>1343700</v>
+        <v>1184900</v>
       </c>
       <c r="F46" s="3">
-        <v>1748200</v>
+        <v>1399200</v>
       </c>
       <c r="G46" s="3">
-        <v>1653300</v>
+        <v>1820500</v>
       </c>
       <c r="H46" s="3">
-        <v>1670800</v>
+        <v>1721600</v>
       </c>
       <c r="I46" s="3">
-        <v>1579100</v>
+        <v>1739900</v>
       </c>
       <c r="J46" s="3">
+        <v>1644300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1527100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1590500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1108100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>921000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1093900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1023300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>840500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>820000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>913900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1059400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1025700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E47" s="3">
         <v>1300</v>
       </c>
-      <c r="E47" s="3">
-        <v>1400</v>
-      </c>
       <c r="F47" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="H47" s="3">
-        <v>2200</v>
-      </c>
       <c r="I47" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="J47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4800</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>1500</v>
       </c>
       <c r="R47" s="3">
         <v>1500</v>
       </c>
       <c r="S47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="T47" s="3">
         <v>500</v>
       </c>
       <c r="U47" s="3">
+        <v>500</v>
+      </c>
+      <c r="V47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>496700</v>
+        <v>517600</v>
       </c>
       <c r="E48" s="3">
-        <v>488600</v>
+        <v>517200</v>
       </c>
       <c r="F48" s="3">
-        <v>488200</v>
+        <v>508700</v>
       </c>
       <c r="G48" s="3">
-        <v>487400</v>
+        <v>508400</v>
       </c>
       <c r="H48" s="3">
-        <v>496900</v>
+        <v>507500</v>
       </c>
       <c r="I48" s="3">
-        <v>490100</v>
+        <v>517400</v>
       </c>
       <c r="J48" s="3">
+        <v>510300</v>
+      </c>
+      <c r="K48" s="3">
         <v>493300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>511500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>412600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>379500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>352500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>315600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>331400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>329400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>327400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>345700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>350000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4766900</v>
+        <v>4965500</v>
       </c>
       <c r="E49" s="3">
-        <v>4643500</v>
+        <v>4963800</v>
       </c>
       <c r="F49" s="3">
-        <v>4644400</v>
+        <v>4835300</v>
       </c>
       <c r="G49" s="3">
-        <v>4646500</v>
+        <v>4836300</v>
       </c>
       <c r="H49" s="3">
-        <v>4642100</v>
+        <v>4838500</v>
       </c>
       <c r="I49" s="3">
-        <v>4641500</v>
+        <v>4833800</v>
       </c>
       <c r="J49" s="3">
+        <v>4833200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4643100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4721200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4670300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4370100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4073100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3809500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3893300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3892200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3894300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4074200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4075700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>153800</v>
+        <v>134700</v>
       </c>
       <c r="E52" s="3">
-        <v>153800</v>
+        <v>160100</v>
       </c>
       <c r="F52" s="3">
-        <v>159800</v>
+        <v>160100</v>
       </c>
       <c r="G52" s="3">
-        <v>146000</v>
+        <v>166400</v>
       </c>
       <c r="H52" s="3">
-        <v>134000</v>
+        <v>152000</v>
       </c>
       <c r="I52" s="3">
-        <v>143200</v>
+        <v>139500</v>
       </c>
       <c r="J52" s="3">
+        <v>149100</v>
+      </c>
+      <c r="K52" s="3">
         <v>121900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>116300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>123500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>94400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>97200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>93000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>97300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>89600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>76300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>76200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6556500</v>
+        <v>6819500</v>
       </c>
       <c r="E54" s="3">
-        <v>6630900</v>
+        <v>6827400</v>
       </c>
       <c r="F54" s="3">
-        <v>7042300</v>
+        <v>6904800</v>
       </c>
       <c r="G54" s="3">
-        <v>6935000</v>
+        <v>7333200</v>
       </c>
       <c r="H54" s="3">
-        <v>6946100</v>
+        <v>7221400</v>
       </c>
       <c r="I54" s="3">
-        <v>6856300</v>
+        <v>7233000</v>
       </c>
       <c r="J54" s="3">
+        <v>7139500</v>
+      </c>
+      <c r="K54" s="3">
         <v>6788100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6942400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6317600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5774000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5617500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5249400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5163100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5140300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5226700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5556000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5528100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>760400</v>
+        <v>770000</v>
       </c>
       <c r="E57" s="3">
-        <v>664400</v>
+        <v>791800</v>
       </c>
       <c r="F57" s="3">
-        <v>670000</v>
+        <v>691900</v>
       </c>
       <c r="G57" s="3">
-        <v>639600</v>
+        <v>697600</v>
       </c>
       <c r="H57" s="3">
-        <v>617800</v>
+        <v>666000</v>
       </c>
       <c r="I57" s="3">
-        <v>590600</v>
+        <v>643400</v>
       </c>
       <c r="J57" s="3">
+        <v>614900</v>
+      </c>
+      <c r="K57" s="3">
         <v>610600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>687500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>676100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>545700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>529300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>521400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>535800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>515200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>534900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>540500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>554900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26500</v>
+        <v>26600</v>
       </c>
       <c r="E58" s="3">
-        <v>28000</v>
+        <v>27600</v>
       </c>
       <c r="F58" s="3">
-        <v>27600</v>
+        <v>29200</v>
       </c>
       <c r="G58" s="3">
-        <v>27800</v>
+        <v>28800</v>
       </c>
       <c r="H58" s="3">
+        <v>28900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>33900</v>
+      </c>
+      <c r="J58" s="3">
         <v>32600</v>
       </c>
-      <c r="I58" s="3">
-        <v>31300</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>30800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4900</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>291000</v>
+        <v>266800</v>
       </c>
       <c r="E59" s="3">
-        <v>362400</v>
+        <v>303100</v>
       </c>
       <c r="F59" s="3">
-        <v>343600</v>
+        <v>377400</v>
       </c>
       <c r="G59" s="3">
-        <v>319900</v>
+        <v>357800</v>
       </c>
       <c r="H59" s="3">
-        <v>317900</v>
+        <v>333100</v>
       </c>
       <c r="I59" s="3">
-        <v>304900</v>
+        <v>331000</v>
       </c>
       <c r="J59" s="3">
+        <v>317500</v>
+      </c>
+      <c r="K59" s="3">
         <v>290300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>297100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>292200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>282000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>269100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>261700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>248100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>279200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>295300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>321900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>329100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1077900</v>
+        <v>1063400</v>
       </c>
       <c r="E60" s="3">
-        <v>1054900</v>
+        <v>1122500</v>
       </c>
       <c r="F60" s="3">
-        <v>1041200</v>
+        <v>1098400</v>
       </c>
       <c r="G60" s="3">
-        <v>987200</v>
+        <v>1084200</v>
       </c>
       <c r="H60" s="3">
-        <v>968300</v>
+        <v>1028000</v>
       </c>
       <c r="I60" s="3">
-        <v>926800</v>
+        <v>1008300</v>
       </c>
       <c r="J60" s="3">
+        <v>965000</v>
+      </c>
+      <c r="K60" s="3">
         <v>931700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1033400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>993600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>835000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>805300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>787000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>787500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>799000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>835100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>862400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>884000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2042600</v>
+        <v>2169000</v>
       </c>
       <c r="E61" s="3">
-        <v>2125900</v>
+        <v>2127000</v>
       </c>
       <c r="F61" s="3">
-        <v>2165600</v>
+        <v>2213700</v>
       </c>
       <c r="G61" s="3">
-        <v>2192000</v>
+        <v>2255100</v>
       </c>
       <c r="H61" s="3">
-        <v>2173500</v>
+        <v>2282500</v>
       </c>
       <c r="I61" s="3">
-        <v>2200300</v>
+        <v>2263300</v>
       </c>
       <c r="J61" s="3">
+        <v>2291200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2159900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2219100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2061700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1952500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1933700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1624100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1565300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1575000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1596100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1703400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1704100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>934900</v>
+        <v>912500</v>
       </c>
       <c r="E62" s="3">
-        <v>845800</v>
+        <v>973500</v>
       </c>
       <c r="F62" s="3">
-        <v>808400</v>
+        <v>880800</v>
       </c>
       <c r="G62" s="3">
-        <v>750300</v>
+        <v>841800</v>
       </c>
       <c r="H62" s="3">
-        <v>796500</v>
+        <v>781300</v>
       </c>
       <c r="I62" s="3">
-        <v>794700</v>
+        <v>829400</v>
       </c>
       <c r="J62" s="3">
+        <v>827500</v>
+      </c>
+      <c r="K62" s="3">
         <v>793600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>764400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>826600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>767600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>720500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>734000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>731600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>725600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>699100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>707100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>706800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4055400</v>
+        <v>4144900</v>
       </c>
       <c r="E66" s="3">
-        <v>4026600</v>
+        <v>4222900</v>
       </c>
       <c r="F66" s="3">
-        <v>4015300</v>
+        <v>4192900</v>
       </c>
       <c r="G66" s="3">
-        <v>3929500</v>
+        <v>4181100</v>
       </c>
       <c r="H66" s="3">
-        <v>3936900</v>
+        <v>4091800</v>
       </c>
       <c r="I66" s="3">
-        <v>3920500</v>
+        <v>4099600</v>
       </c>
       <c r="J66" s="3">
+        <v>4082400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3883900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4015800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3881000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3554500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3459500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3145100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3084500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3099600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3130400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3272900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3294900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2430300</v>
+        <v>2581700</v>
       </c>
       <c r="E72" s="3">
-        <v>2514100</v>
+        <v>2530700</v>
       </c>
       <c r="F72" s="3">
-        <v>2924300</v>
+        <v>2617900</v>
       </c>
       <c r="G72" s="3">
-        <v>2893500</v>
+        <v>3045100</v>
       </c>
       <c r="H72" s="3">
-        <v>2913100</v>
+        <v>3013000</v>
       </c>
       <c r="I72" s="3">
-        <v>2836100</v>
+        <v>3033400</v>
       </c>
       <c r="J72" s="3">
+        <v>2953200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2809800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2813700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2321600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2110600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2048900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2011800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1988600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1959700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2006100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2182600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2124700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2501100</v>
+        <v>2674600</v>
       </c>
       <c r="E76" s="3">
-        <v>2604300</v>
+        <v>2604500</v>
       </c>
       <c r="F76" s="3">
-        <v>3027000</v>
+        <v>2711900</v>
       </c>
       <c r="G76" s="3">
-        <v>3005500</v>
+        <v>3152000</v>
       </c>
       <c r="H76" s="3">
-        <v>3009100</v>
+        <v>3129600</v>
       </c>
       <c r="I76" s="3">
-        <v>2935800</v>
+        <v>3133400</v>
       </c>
       <c r="J76" s="3">
+        <v>3057100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2904200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2926600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2436700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2219500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2158000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2104300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2078600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2040700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2096300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2283100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2233200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>71900</v>
+      </c>
+      <c r="F81" s="3">
         <v>69100</v>
       </c>
-      <c r="E81" s="3">
-        <v>66300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>73600</v>
-      </c>
       <c r="G81" s="3">
-        <v>55900</v>
+        <v>76700</v>
       </c>
       <c r="H81" s="3">
-        <v>54100</v>
+        <v>58200</v>
       </c>
       <c r="I81" s="3">
-        <v>46100</v>
+        <v>56300</v>
       </c>
       <c r="J81" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K81" s="3">
         <v>54600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>40600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>34000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>68500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>30600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>47000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>21700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>56300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18800</v>
+        <v>20600</v>
       </c>
       <c r="E83" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>20700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>20700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K83" s="3">
+        <v>19600</v>
+      </c>
+      <c r="L83" s="3">
         <v>19900</v>
       </c>
-      <c r="F83" s="3">
-        <v>19900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>20900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>21500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>19600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>19600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>19900</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>159600</v>
+        <v>144400</v>
       </c>
       <c r="E89" s="3">
-        <v>23900</v>
+        <v>166200</v>
       </c>
       <c r="F89" s="3">
-        <v>241500</v>
+        <v>24900</v>
       </c>
       <c r="G89" s="3">
-        <v>112600</v>
+        <v>251500</v>
       </c>
       <c r="H89" s="3">
-        <v>164600</v>
+        <v>117200</v>
       </c>
       <c r="I89" s="3">
-        <v>58300</v>
+        <v>171400</v>
       </c>
       <c r="J89" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K89" s="3">
         <v>29500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>120600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>249100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>89500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>82200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-20000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>78100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>80600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>115200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25200</v>
+        <v>-23900</v>
       </c>
       <c r="E91" s="3">
-        <v>-16100</v>
+        <v>-26200</v>
       </c>
       <c r="F91" s="3">
-        <v>-16500</v>
+        <v>-16800</v>
       </c>
       <c r="G91" s="3">
-        <v>-11300</v>
+        <v>-17100</v>
       </c>
       <c r="H91" s="3">
-        <v>-24600</v>
+        <v>-11800</v>
       </c>
       <c r="I91" s="3">
-        <v>-13100</v>
+        <v>-25600</v>
       </c>
       <c r="J91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-11200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-28400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-186200</v>
+        <v>-14300</v>
       </c>
       <c r="E94" s="3">
-        <v>13500</v>
+        <v>-193900</v>
       </c>
       <c r="F94" s="3">
-        <v>-16500</v>
+        <v>14100</v>
       </c>
       <c r="G94" s="3">
-        <v>-12500</v>
+        <v>-17100</v>
       </c>
       <c r="H94" s="3">
-        <v>-21100</v>
+        <v>-13000</v>
       </c>
       <c r="I94" s="3">
-        <v>-43400</v>
+        <v>-21900</v>
       </c>
       <c r="J94" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-264600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-266000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-28400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-177800</v>
+        <v>-49200</v>
       </c>
       <c r="E100" s="3">
-        <v>-484200</v>
+        <v>-185100</v>
       </c>
       <c r="F100" s="3">
-        <v>-66800</v>
+        <v>-504200</v>
       </c>
       <c r="G100" s="3">
-        <v>-112100</v>
+        <v>-69600</v>
       </c>
       <c r="H100" s="3">
-        <v>-26700</v>
+        <v>-116700</v>
       </c>
       <c r="I100" s="3">
-        <v>-14900</v>
+        <v>-27800</v>
       </c>
       <c r="J100" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-51600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>395600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>248700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>106500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-105400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-131000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="E101" s="3">
-        <v>-3800</v>
+        <v>4800</v>
       </c>
       <c r="F101" s="3">
-        <v>-2100</v>
+        <v>-3900</v>
       </c>
       <c r="G101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S101" s="3">
         <v>-14100</v>
       </c>
-      <c r="H101" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="K101" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="O101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-199800</v>
+        <v>86400</v>
       </c>
       <c r="E102" s="3">
-        <v>-450600</v>
+        <v>-208000</v>
       </c>
       <c r="F102" s="3">
-        <v>156100</v>
+        <v>-469200</v>
       </c>
       <c r="G102" s="3">
-        <v>-26100</v>
+        <v>162600</v>
       </c>
       <c r="H102" s="3">
-        <v>121500</v>
+        <v>-27200</v>
       </c>
       <c r="I102" s="3">
-        <v>2000</v>
+        <v>126500</v>
       </c>
       <c r="J102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-39300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>509100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>201900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-273400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>191700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>46100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-137300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-79800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>49400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>71300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>866600</v>
+        <v>695500</v>
       </c>
       <c r="E8" s="3">
-        <v>805700</v>
+        <v>825800</v>
       </c>
       <c r="F8" s="3">
-        <v>706000</v>
+        <v>767800</v>
       </c>
       <c r="G8" s="3">
-        <v>733800</v>
+        <v>672800</v>
       </c>
       <c r="H8" s="3">
-        <v>836500</v>
+        <v>699300</v>
       </c>
       <c r="I8" s="3">
-        <v>769800</v>
+        <v>797200</v>
       </c>
       <c r="J8" s="3">
+        <v>733600</v>
+      </c>
+      <c r="K8" s="3">
         <v>661900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>632700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>739000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>727200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>587700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>536000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>592000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>570200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>515000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>514000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>623600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>569500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>605900</v>
+        <v>481200</v>
       </c>
       <c r="E9" s="3">
-        <v>552000</v>
+        <v>577400</v>
       </c>
       <c r="F9" s="3">
-        <v>491300</v>
+        <v>526000</v>
       </c>
       <c r="G9" s="3">
-        <v>511700</v>
+        <v>468200</v>
       </c>
       <c r="H9" s="3">
-        <v>592900</v>
+        <v>487600</v>
       </c>
       <c r="I9" s="3">
-        <v>539900</v>
+        <v>565000</v>
       </c>
       <c r="J9" s="3">
+        <v>514500</v>
+      </c>
+      <c r="K9" s="3">
         <v>466800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>444100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>510900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>509900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>424900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>369700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>404000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>390700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>359000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>352100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>440400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>410000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>260700</v>
+        <v>214300</v>
       </c>
       <c r="E10" s="3">
-        <v>253700</v>
+        <v>248400</v>
       </c>
       <c r="F10" s="3">
-        <v>214600</v>
+        <v>241800</v>
       </c>
       <c r="G10" s="3">
-        <v>222100</v>
+        <v>204500</v>
       </c>
       <c r="H10" s="3">
-        <v>243700</v>
+        <v>211700</v>
       </c>
       <c r="I10" s="3">
-        <v>229900</v>
+        <v>232200</v>
       </c>
       <c r="J10" s="3">
+        <v>219100</v>
+      </c>
+      <c r="K10" s="3">
         <v>195000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>188600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>228100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>217300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>162800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>166300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>188100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>179500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>156000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>161900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>183200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>159500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>28400</v>
+        <v>25900</v>
       </c>
       <c r="E14" s="3">
-        <v>-8200</v>
+        <v>27100</v>
       </c>
       <c r="F14" s="3">
-        <v>3100</v>
+        <v>-7800</v>
       </c>
       <c r="G14" s="3">
-        <v>5100</v>
+        <v>2900</v>
       </c>
       <c r="H14" s="3">
-        <v>25200</v>
+        <v>4900</v>
       </c>
       <c r="I14" s="3">
-        <v>5600</v>
+        <v>24000</v>
       </c>
       <c r="J14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>53600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>22900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>23800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>754300</v>
+        <v>599500</v>
       </c>
       <c r="E17" s="3">
-        <v>683300</v>
+        <v>718900</v>
       </c>
       <c r="F17" s="3">
-        <v>599400</v>
+        <v>651200</v>
       </c>
       <c r="G17" s="3">
-        <v>616800</v>
+        <v>571200</v>
       </c>
       <c r="H17" s="3">
-        <v>742500</v>
+        <v>587800</v>
       </c>
       <c r="I17" s="3">
-        <v>663700</v>
+        <v>707600</v>
       </c>
       <c r="J17" s="3">
+        <v>632500</v>
+      </c>
+      <c r="K17" s="3">
         <v>578400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>545500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>673600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>634900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>523000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>470600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>496500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>516500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>445200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>449500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>535300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>538800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>112200</v>
+        <v>96100</v>
       </c>
       <c r="E18" s="3">
-        <v>122400</v>
+        <v>106900</v>
       </c>
       <c r="F18" s="3">
-        <v>106600</v>
+        <v>116600</v>
       </c>
       <c r="G18" s="3">
-        <v>117000</v>
+        <v>101600</v>
       </c>
       <c r="H18" s="3">
-        <v>94100</v>
+        <v>111500</v>
       </c>
       <c r="I18" s="3">
-        <v>106100</v>
+        <v>89700</v>
       </c>
       <c r="J18" s="3">
+        <v>101100</v>
+      </c>
+      <c r="K18" s="3">
         <v>83400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>87200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>65400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>92400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>64700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>65400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>95500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>53700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>69800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>64500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>88400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>30800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-17100</v>
+        <v>-2900</v>
       </c>
       <c r="E20" s="3">
-        <v>1700</v>
+        <v>-16300</v>
       </c>
       <c r="F20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
-        <v>3800</v>
-      </c>
       <c r="I20" s="3">
-        <v>14300</v>
+        <v>3600</v>
       </c>
       <c r="J20" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>115600</v>
+        <v>112800</v>
       </c>
       <c r="E21" s="3">
-        <v>143700</v>
+        <v>110200</v>
       </c>
       <c r="F21" s="3">
-        <v>126500</v>
+        <v>136900</v>
       </c>
       <c r="G21" s="3">
-        <v>136600</v>
+        <v>120600</v>
       </c>
       <c r="H21" s="3">
-        <v>119700</v>
+        <v>130200</v>
       </c>
       <c r="I21" s="3">
-        <v>142800</v>
+        <v>114100</v>
       </c>
       <c r="J21" s="3">
+        <v>136100</v>
+      </c>
+      <c r="K21" s="3">
         <v>99800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>106200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>85200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>121500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>77600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>71000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>112000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>63300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>84600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>75500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>103300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>43300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17000</v>
+        <v>17200</v>
       </c>
       <c r="E22" s="3">
-        <v>25600</v>
+        <v>16200</v>
       </c>
       <c r="F22" s="3">
-        <v>18500</v>
+        <v>24400</v>
       </c>
       <c r="G22" s="3">
-        <v>19100</v>
+        <v>17600</v>
       </c>
       <c r="H22" s="3">
-        <v>18500</v>
+        <v>18200</v>
       </c>
       <c r="I22" s="3">
-        <v>45200</v>
+        <v>17600</v>
       </c>
       <c r="J22" s="3">
+        <v>43100</v>
+      </c>
+      <c r="K22" s="3">
         <v>17900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>37600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>36600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>19400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>23000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>78000</v>
+        <v>76000</v>
       </c>
       <c r="E23" s="3">
-        <v>98500</v>
+        <v>74400</v>
       </c>
       <c r="F23" s="3">
-        <v>87300</v>
+        <v>93900</v>
       </c>
       <c r="G23" s="3">
-        <v>96800</v>
+        <v>83200</v>
       </c>
       <c r="H23" s="3">
-        <v>79400</v>
+        <v>92200</v>
       </c>
       <c r="I23" s="3">
-        <v>75200</v>
+        <v>75600</v>
       </c>
       <c r="J23" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K23" s="3">
         <v>61500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>69200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>47700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>68800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>51300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>45800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>88800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>34200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>60100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>28300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>69500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17600</v>
+        <v>16200</v>
       </c>
       <c r="E24" s="3">
-        <v>26600</v>
+        <v>16800</v>
       </c>
       <c r="F24" s="3">
-        <v>18300</v>
+        <v>25300</v>
       </c>
       <c r="G24" s="3">
-        <v>20100</v>
+        <v>17400</v>
       </c>
       <c r="H24" s="3">
-        <v>21300</v>
+        <v>19100</v>
       </c>
       <c r="I24" s="3">
-        <v>19000</v>
+        <v>20300</v>
       </c>
       <c r="J24" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K24" s="3">
         <v>13500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>60400</v>
+        <v>59800</v>
       </c>
       <c r="E26" s="3">
-        <v>71900</v>
+        <v>57600</v>
       </c>
       <c r="F26" s="3">
-        <v>69100</v>
+        <v>68500</v>
       </c>
       <c r="G26" s="3">
-        <v>76700</v>
+        <v>65800</v>
       </c>
       <c r="H26" s="3">
-        <v>58100</v>
+        <v>73100</v>
       </c>
       <c r="I26" s="3">
-        <v>56200</v>
+        <v>55300</v>
       </c>
       <c r="J26" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K26" s="3">
         <v>48000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>54300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>40200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>68500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>30600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>47000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>56300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>60400</v>
+        <v>59800</v>
       </c>
       <c r="E27" s="3">
-        <v>71900</v>
+        <v>57600</v>
       </c>
       <c r="F27" s="3">
-        <v>69100</v>
+        <v>68500</v>
       </c>
       <c r="G27" s="3">
-        <v>76700</v>
+        <v>65800</v>
       </c>
       <c r="H27" s="3">
-        <v>58200</v>
+        <v>73100</v>
       </c>
       <c r="I27" s="3">
+        <v>55500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>48000</v>
+      </c>
+      <c r="L27" s="3">
+        <v>54600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>26800</v>
+      </c>
+      <c r="N27" s="3">
+        <v>48600</v>
+      </c>
+      <c r="O27" s="3">
+        <v>40600</v>
+      </c>
+      <c r="P27" s="3">
+        <v>34000</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>68500</v>
+      </c>
+      <c r="R27" s="3">
+        <v>30600</v>
+      </c>
+      <c r="S27" s="3">
+        <v>47000</v>
+      </c>
+      <c r="T27" s="3">
+        <v>21700</v>
+      </c>
+      <c r="U27" s="3">
         <v>56300</v>
       </c>
-      <c r="J27" s="3">
-        <v>48000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>54600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>26800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>48600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>40600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>34000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>68500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>30600</v>
-      </c>
-      <c r="R27" s="3">
-        <v>47000</v>
-      </c>
-      <c r="S27" s="3">
-        <v>21700</v>
-      </c>
-      <c r="T27" s="3">
-        <v>56300</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>17100</v>
+        <v>2900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1700</v>
+        <v>16300</v>
       </c>
       <c r="F32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-3800</v>
-      </c>
       <c r="I32" s="3">
-        <v>-14300</v>
+        <v>-3600</v>
       </c>
       <c r="J32" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K32" s="3">
         <v>4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>60400</v>
+        <v>59800</v>
       </c>
       <c r="E33" s="3">
-        <v>71900</v>
+        <v>57600</v>
       </c>
       <c r="F33" s="3">
-        <v>69100</v>
+        <v>68500</v>
       </c>
       <c r="G33" s="3">
-        <v>76700</v>
+        <v>65800</v>
       </c>
       <c r="H33" s="3">
-        <v>58200</v>
+        <v>73100</v>
       </c>
       <c r="I33" s="3">
+        <v>55500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>48000</v>
+      </c>
+      <c r="L33" s="3">
+        <v>54600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>26800</v>
+      </c>
+      <c r="N33" s="3">
+        <v>48600</v>
+      </c>
+      <c r="O33" s="3">
+        <v>40600</v>
+      </c>
+      <c r="P33" s="3">
+        <v>34000</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>68500</v>
+      </c>
+      <c r="R33" s="3">
+        <v>30600</v>
+      </c>
+      <c r="S33" s="3">
+        <v>47000</v>
+      </c>
+      <c r="T33" s="3">
+        <v>21700</v>
+      </c>
+      <c r="U33" s="3">
         <v>56300</v>
       </c>
-      <c r="J33" s="3">
-        <v>48000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>54600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>26800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>48600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>40600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>34000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>68500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>30600</v>
-      </c>
-      <c r="R33" s="3">
-        <v>47000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>21700</v>
-      </c>
-      <c r="T33" s="3">
-        <v>56300</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>60400</v>
+        <v>59800</v>
       </c>
       <c r="E35" s="3">
-        <v>71900</v>
+        <v>57600</v>
       </c>
       <c r="F35" s="3">
-        <v>69100</v>
+        <v>68500</v>
       </c>
       <c r="G35" s="3">
-        <v>76700</v>
+        <v>65800</v>
       </c>
       <c r="H35" s="3">
-        <v>58200</v>
+        <v>73100</v>
       </c>
       <c r="I35" s="3">
+        <v>55500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>48000</v>
+      </c>
+      <c r="L35" s="3">
+        <v>54600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>26800</v>
+      </c>
+      <c r="N35" s="3">
+        <v>48600</v>
+      </c>
+      <c r="O35" s="3">
+        <v>40600</v>
+      </c>
+      <c r="P35" s="3">
+        <v>34000</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>68500</v>
+      </c>
+      <c r="R35" s="3">
+        <v>30600</v>
+      </c>
+      <c r="S35" s="3">
+        <v>47000</v>
+      </c>
+      <c r="T35" s="3">
+        <v>21700</v>
+      </c>
+      <c r="U35" s="3">
         <v>56300</v>
       </c>
-      <c r="J35" s="3">
-        <v>48000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>54600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>26800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>48600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>40600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>34000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>68500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>30600</v>
-      </c>
-      <c r="R35" s="3">
-        <v>47000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>21700</v>
-      </c>
-      <c r="T35" s="3">
-        <v>56300</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,96 +2573,100 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>523900</v>
+        <v>871600</v>
       </c>
       <c r="E41" s="3">
-        <v>481500</v>
+        <v>499300</v>
       </c>
       <c r="F41" s="3">
-        <v>676400</v>
+        <v>458900</v>
       </c>
       <c r="G41" s="3">
-        <v>1145600</v>
+        <v>644600</v>
       </c>
       <c r="H41" s="3">
-        <v>983100</v>
+        <v>1091800</v>
       </c>
       <c r="I41" s="3">
-        <v>1011800</v>
+        <v>936800</v>
       </c>
       <c r="J41" s="3">
+        <v>964300</v>
+      </c>
+      <c r="K41" s="3">
         <v>883700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>846700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>387400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>173700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>443200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>432100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>245900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>199800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>337200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>436200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>386800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>29200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>29300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>29200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K42" s="3">
         <v>30600</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>30700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>30600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>30600</v>
-      </c>
-      <c r="J42" s="3">
-        <v>30600</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -2593,8 +2683,8 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>240600</v>
+        <v>193800</v>
       </c>
       <c r="E43" s="3">
-        <v>226600</v>
+        <v>229300</v>
       </c>
       <c r="F43" s="3">
-        <v>248800</v>
+        <v>216000</v>
       </c>
       <c r="G43" s="3">
-        <v>244600</v>
+        <v>237100</v>
       </c>
       <c r="H43" s="3">
-        <v>340300</v>
+        <v>233100</v>
       </c>
       <c r="I43" s="3">
-        <v>253200</v>
+        <v>324300</v>
       </c>
       <c r="J43" s="3">
+        <v>241300</v>
+      </c>
+      <c r="K43" s="3">
         <v>188600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>223900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>228000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>205700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>227600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>181300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>189800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>165000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>159700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>143100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>170000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>159300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>380400</v>
+        <v>390000</v>
       </c>
       <c r="E44" s="3">
-        <v>420400</v>
+        <v>362500</v>
       </c>
       <c r="F44" s="3">
-        <v>439000</v>
+        <v>401900</v>
       </c>
       <c r="G44" s="3">
-        <v>361400</v>
+        <v>418400</v>
       </c>
       <c r="H44" s="3">
-        <v>322300</v>
+        <v>344400</v>
       </c>
       <c r="I44" s="3">
-        <v>395900</v>
+        <v>307100</v>
       </c>
       <c r="J44" s="3">
+        <v>377300</v>
+      </c>
+      <c r="K44" s="3">
         <v>480600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>405500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>406100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>405100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>418200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>366200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>315000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>344300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>370900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>346900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>350700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>381500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>49900</v>
+        <v>53400</v>
       </c>
       <c r="E45" s="3">
-        <v>25700</v>
+        <v>47500</v>
       </c>
       <c r="F45" s="3">
-        <v>34900</v>
+        <v>24500</v>
       </c>
       <c r="G45" s="3">
-        <v>38100</v>
+        <v>33300</v>
       </c>
       <c r="H45" s="3">
-        <v>45300</v>
+        <v>36300</v>
       </c>
       <c r="I45" s="3">
-        <v>48300</v>
+        <v>43200</v>
       </c>
       <c r="J45" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K45" s="3">
         <v>60800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>51100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>55500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>109900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>101500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>103300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>86400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>85200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>89500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>86700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>102500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>98100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1200600</v>
+        <v>1508800</v>
       </c>
       <c r="E46" s="3">
-        <v>1184900</v>
+        <v>1144200</v>
       </c>
       <c r="F46" s="3">
-        <v>1399200</v>
+        <v>1130500</v>
       </c>
       <c r="G46" s="3">
-        <v>1820500</v>
+        <v>1333400</v>
       </c>
       <c r="H46" s="3">
-        <v>1721600</v>
+        <v>1734900</v>
       </c>
       <c r="I46" s="3">
-        <v>1739900</v>
+        <v>1640700</v>
       </c>
       <c r="J46" s="3">
+        <v>1658100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1644300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1527100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1590500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1108100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>921000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1093900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1023300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>840500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>820000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>913900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1059400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1025700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>800</v>
+      </c>
+      <c r="E47" s="3">
         <v>1100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1300</v>
       </c>
-      <c r="F47" s="3">
-        <v>1500</v>
-      </c>
       <c r="G47" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="H47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3">
-        <v>2300</v>
-      </c>
       <c r="J47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4800</v>
-      </c>
-      <c r="R47" s="3">
-        <v>1500</v>
       </c>
       <c r="S47" s="3">
         <v>1500</v>
       </c>
       <c r="T47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="U47" s="3">
         <v>500</v>
       </c>
       <c r="V47" s="3">
+        <v>500</v>
+      </c>
+      <c r="W47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>517600</v>
+        <v>495800</v>
       </c>
       <c r="E48" s="3">
-        <v>517200</v>
+        <v>493200</v>
       </c>
       <c r="F48" s="3">
-        <v>508700</v>
+        <v>492900</v>
       </c>
       <c r="G48" s="3">
-        <v>508400</v>
+        <v>484800</v>
       </c>
       <c r="H48" s="3">
-        <v>507500</v>
+        <v>484500</v>
       </c>
       <c r="I48" s="3">
-        <v>517400</v>
+        <v>483700</v>
       </c>
       <c r="J48" s="3">
+        <v>493100</v>
+      </c>
+      <c r="K48" s="3">
         <v>510300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>493300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>511500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>412600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>379500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>352500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>315600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>331400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>329400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>327400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>345700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>350000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4965500</v>
+        <v>4732900</v>
       </c>
       <c r="E49" s="3">
-        <v>4963800</v>
+        <v>4732100</v>
       </c>
       <c r="F49" s="3">
-        <v>4835300</v>
+        <v>4737600</v>
       </c>
       <c r="G49" s="3">
-        <v>4836300</v>
+        <v>4608000</v>
       </c>
       <c r="H49" s="3">
-        <v>4838500</v>
+        <v>4608900</v>
       </c>
       <c r="I49" s="3">
-        <v>4833800</v>
+        <v>4611000</v>
       </c>
       <c r="J49" s="3">
+        <v>4606600</v>
+      </c>
+      <c r="K49" s="3">
         <v>4833200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4643100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4721200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4670300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4370100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4073100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3809500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3893300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3892200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3894300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4074200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4075700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>134700</v>
+        <v>146600</v>
       </c>
       <c r="E52" s="3">
-        <v>160100</v>
+        <v>128400</v>
       </c>
       <c r="F52" s="3">
-        <v>160100</v>
+        <v>152600</v>
       </c>
       <c r="G52" s="3">
-        <v>166400</v>
+        <v>152600</v>
       </c>
       <c r="H52" s="3">
-        <v>152000</v>
+        <v>158500</v>
       </c>
       <c r="I52" s="3">
-        <v>139500</v>
+        <v>144900</v>
       </c>
       <c r="J52" s="3">
+        <v>133000</v>
+      </c>
+      <c r="K52" s="3">
         <v>149100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>121900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>116300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>123500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>94400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>97200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>93000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>97300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>89600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>76300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>76200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6819500</v>
+        <v>6884900</v>
       </c>
       <c r="E54" s="3">
-        <v>6827400</v>
+        <v>6499000</v>
       </c>
       <c r="F54" s="3">
-        <v>6904800</v>
+        <v>6514800</v>
       </c>
       <c r="G54" s="3">
-        <v>7333200</v>
+        <v>6580200</v>
       </c>
       <c r="H54" s="3">
-        <v>7221400</v>
+        <v>6988500</v>
       </c>
       <c r="I54" s="3">
-        <v>7233000</v>
+        <v>6882000</v>
       </c>
       <c r="J54" s="3">
+        <v>6893000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7139500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6788100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6942400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6317600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5774000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5617500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5249400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5163100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5140300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5226700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5556000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5528100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>770000</v>
+        <v>638000</v>
       </c>
       <c r="E57" s="3">
-        <v>791800</v>
+        <v>733800</v>
       </c>
       <c r="F57" s="3">
-        <v>691900</v>
+        <v>755500</v>
       </c>
       <c r="G57" s="3">
-        <v>697600</v>
+        <v>659400</v>
       </c>
       <c r="H57" s="3">
-        <v>666000</v>
+        <v>664800</v>
       </c>
       <c r="I57" s="3">
-        <v>643400</v>
+        <v>634700</v>
       </c>
       <c r="J57" s="3">
+        <v>613100</v>
+      </c>
+      <c r="K57" s="3">
         <v>614900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>610600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>687500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>676100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>545700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>529300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>521400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>535800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>515200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>534900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>540500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>554900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26600</v>
+        <v>25600</v>
       </c>
       <c r="E58" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>26300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>27800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>27400</v>
+      </c>
+      <c r="I58" s="3">
         <v>27600</v>
       </c>
-      <c r="F58" s="3">
-        <v>29200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>28800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>28900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>33900</v>
-      </c>
       <c r="J58" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K58" s="3">
         <v>32600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>48800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4900</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>266800</v>
+        <v>414000</v>
       </c>
       <c r="E59" s="3">
-        <v>303100</v>
+        <v>254300</v>
       </c>
       <c r="F59" s="3">
-        <v>377400</v>
+        <v>288800</v>
       </c>
       <c r="G59" s="3">
-        <v>357800</v>
+        <v>359700</v>
       </c>
       <c r="H59" s="3">
-        <v>333100</v>
+        <v>341000</v>
       </c>
       <c r="I59" s="3">
-        <v>331000</v>
+        <v>317400</v>
       </c>
       <c r="J59" s="3">
+        <v>315400</v>
+      </c>
+      <c r="K59" s="3">
         <v>317500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>290300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>297100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>292200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>282000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>269100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>261700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>248100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>279200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>295300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>321900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>329100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1063400</v>
+        <v>1077500</v>
       </c>
       <c r="E60" s="3">
-        <v>1122500</v>
+        <v>1013400</v>
       </c>
       <c r="F60" s="3">
-        <v>1098400</v>
+        <v>1070600</v>
       </c>
       <c r="G60" s="3">
-        <v>1084200</v>
+        <v>1046800</v>
       </c>
       <c r="H60" s="3">
-        <v>1028000</v>
+        <v>1033300</v>
       </c>
       <c r="I60" s="3">
-        <v>1008300</v>
+        <v>979700</v>
       </c>
       <c r="J60" s="3">
+        <v>960900</v>
+      </c>
+      <c r="K60" s="3">
         <v>965000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>931700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1033400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>993600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>835000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>805300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>787000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>787500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>799000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>835100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>862400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>884000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2169000</v>
+        <v>2451600</v>
       </c>
       <c r="E61" s="3">
-        <v>2127000</v>
+        <v>2067000</v>
       </c>
       <c r="F61" s="3">
-        <v>2213700</v>
+        <v>2027000</v>
       </c>
       <c r="G61" s="3">
-        <v>2255100</v>
+        <v>2109600</v>
       </c>
       <c r="H61" s="3">
-        <v>2282500</v>
+        <v>2149100</v>
       </c>
       <c r="I61" s="3">
-        <v>2263300</v>
+        <v>2175200</v>
       </c>
       <c r="J61" s="3">
+        <v>2156900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2291200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2159900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2219100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2061700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1952500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1933700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1624100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1565300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1575000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1596100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1703400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1704100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>912500</v>
+        <v>735500</v>
       </c>
       <c r="E62" s="3">
-        <v>973500</v>
+        <v>869600</v>
       </c>
       <c r="F62" s="3">
-        <v>880800</v>
+        <v>935200</v>
       </c>
       <c r="G62" s="3">
-        <v>841800</v>
+        <v>839400</v>
       </c>
       <c r="H62" s="3">
-        <v>781300</v>
+        <v>802200</v>
       </c>
       <c r="I62" s="3">
-        <v>829400</v>
+        <v>744600</v>
       </c>
       <c r="J62" s="3">
+        <v>790500</v>
+      </c>
+      <c r="K62" s="3">
         <v>827500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>793600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>764400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>826600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>767600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>720500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>734000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>731600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>725600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>699100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>707100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>706800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4144900</v>
+        <v>4264500</v>
       </c>
       <c r="E66" s="3">
-        <v>4222900</v>
+        <v>3950000</v>
       </c>
       <c r="F66" s="3">
-        <v>4192900</v>
+        <v>4032800</v>
       </c>
       <c r="G66" s="3">
-        <v>4181100</v>
+        <v>3995800</v>
       </c>
       <c r="H66" s="3">
-        <v>4091800</v>
+        <v>3984600</v>
       </c>
       <c r="I66" s="3">
-        <v>4099600</v>
+        <v>3899500</v>
       </c>
       <c r="J66" s="3">
+        <v>3906900</v>
+      </c>
+      <c r="K66" s="3">
         <v>4082400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3883900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4015800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3881000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3554500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3459500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3145100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3084500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3099600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3130400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3272900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3294900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2581700</v>
+        <v>2521400</v>
       </c>
       <c r="E72" s="3">
-        <v>2530700</v>
+        <v>2460300</v>
       </c>
       <c r="F72" s="3">
-        <v>2617900</v>
+        <v>2411800</v>
       </c>
       <c r="G72" s="3">
-        <v>3045100</v>
+        <v>2494900</v>
       </c>
       <c r="H72" s="3">
-        <v>3013000</v>
+        <v>2901900</v>
       </c>
       <c r="I72" s="3">
-        <v>3033400</v>
+        <v>2871400</v>
       </c>
       <c r="J72" s="3">
+        <v>2890900</v>
+      </c>
+      <c r="K72" s="3">
         <v>2953200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2809800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2813700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2321600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2110600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2048900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2011800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1988600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1959700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2006100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2182600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2124700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2674600</v>
+        <v>2620400</v>
       </c>
       <c r="E76" s="3">
-        <v>2604500</v>
+        <v>2548900</v>
       </c>
       <c r="F76" s="3">
-        <v>2711900</v>
+        <v>2482000</v>
       </c>
       <c r="G76" s="3">
-        <v>3152000</v>
+        <v>2584400</v>
       </c>
       <c r="H76" s="3">
-        <v>3129600</v>
+        <v>3003900</v>
       </c>
       <c r="I76" s="3">
-        <v>3133400</v>
+        <v>2982500</v>
       </c>
       <c r="J76" s="3">
+        <v>2986100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3057100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2904200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2926600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2436700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2219500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2158000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2104300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2078600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2040700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2096300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2283100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2233200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>60400</v>
+        <v>59800</v>
       </c>
       <c r="E81" s="3">
-        <v>71900</v>
+        <v>57600</v>
       </c>
       <c r="F81" s="3">
-        <v>69100</v>
+        <v>68500</v>
       </c>
       <c r="G81" s="3">
-        <v>76700</v>
+        <v>65800</v>
       </c>
       <c r="H81" s="3">
-        <v>58200</v>
+        <v>73100</v>
       </c>
       <c r="I81" s="3">
+        <v>55500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>48000</v>
+      </c>
+      <c r="L81" s="3">
+        <v>54600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>26800</v>
+      </c>
+      <c r="N81" s="3">
+        <v>48600</v>
+      </c>
+      <c r="O81" s="3">
+        <v>40600</v>
+      </c>
+      <c r="P81" s="3">
+        <v>34000</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>68500</v>
+      </c>
+      <c r="R81" s="3">
+        <v>30600</v>
+      </c>
+      <c r="S81" s="3">
+        <v>47000</v>
+      </c>
+      <c r="T81" s="3">
+        <v>21700</v>
+      </c>
+      <c r="U81" s="3">
         <v>56300</v>
       </c>
-      <c r="J81" s="3">
-        <v>48000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>54600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>26800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>48600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>40600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>34000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>68500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>30600</v>
-      </c>
-      <c r="R81" s="3">
-        <v>47000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>21700</v>
-      </c>
-      <c r="T81" s="3">
-        <v>56300</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20600</v>
+        <v>19600</v>
       </c>
       <c r="E83" s="3">
         <v>19600</v>
       </c>
       <c r="F83" s="3">
-        <v>20700</v>
+        <v>18700</v>
       </c>
       <c r="G83" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="H83" s="3">
-        <v>21800</v>
+        <v>19700</v>
       </c>
       <c r="I83" s="3">
-        <v>22400</v>
+        <v>20800</v>
       </c>
       <c r="J83" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K83" s="3">
         <v>20500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>144400</v>
+        <v>42000</v>
       </c>
       <c r="E89" s="3">
-        <v>166200</v>
+        <v>137600</v>
       </c>
       <c r="F89" s="3">
-        <v>24900</v>
+        <v>158400</v>
       </c>
       <c r="G89" s="3">
-        <v>251500</v>
+        <v>23700</v>
       </c>
       <c r="H89" s="3">
-        <v>117200</v>
+        <v>239700</v>
       </c>
       <c r="I89" s="3">
-        <v>171400</v>
+        <v>111700</v>
       </c>
       <c r="J89" s="3">
+        <v>163300</v>
+      </c>
+      <c r="K89" s="3">
         <v>60800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>120600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>249100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>89500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>82200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-20000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>78100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>80600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>115200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23900</v>
+        <v>-17200</v>
       </c>
       <c r="E91" s="3">
-        <v>-26200</v>
+        <v>-22800</v>
       </c>
       <c r="F91" s="3">
-        <v>-16800</v>
+        <v>-25000</v>
       </c>
       <c r="G91" s="3">
-        <v>-17100</v>
+        <v>-16000</v>
       </c>
       <c r="H91" s="3">
-        <v>-11800</v>
+        <v>-16300</v>
       </c>
       <c r="I91" s="3">
-        <v>-25600</v>
+        <v>-11200</v>
       </c>
       <c r="J91" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-13600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-28400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14300</v>
+        <v>-12400</v>
       </c>
       <c r="E94" s="3">
-        <v>-193900</v>
+        <v>-13700</v>
       </c>
       <c r="F94" s="3">
-        <v>14100</v>
+        <v>-184800</v>
       </c>
       <c r="G94" s="3">
-        <v>-17100</v>
+        <v>13400</v>
       </c>
       <c r="H94" s="3">
-        <v>-13000</v>
+        <v>-16300</v>
       </c>
       <c r="I94" s="3">
-        <v>-21900</v>
+        <v>-12400</v>
       </c>
       <c r="J94" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-45200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-264600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-266000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-28400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-49200</v>
+        <v>348000</v>
       </c>
       <c r="E100" s="3">
-        <v>-185100</v>
+        <v>-46900</v>
       </c>
       <c r="F100" s="3">
-        <v>-504200</v>
+        <v>-176400</v>
       </c>
       <c r="G100" s="3">
-        <v>-69600</v>
+        <v>-480500</v>
       </c>
       <c r="H100" s="3">
-        <v>-116700</v>
+        <v>-66300</v>
       </c>
       <c r="I100" s="3">
-        <v>-27800</v>
+        <v>-111300</v>
       </c>
       <c r="J100" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-15600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-51600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>395600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>248700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>106500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-105400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-131000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-18900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5500</v>
+        <v>-5100</v>
       </c>
       <c r="E101" s="3">
-        <v>4800</v>
+        <v>5300</v>
       </c>
       <c r="F101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-3900</v>
       </c>
-      <c r="G101" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-14100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>86400</v>
+        <v>372500</v>
       </c>
       <c r="E102" s="3">
-        <v>-208000</v>
+        <v>82300</v>
       </c>
       <c r="F102" s="3">
-        <v>-469200</v>
+        <v>-198200</v>
       </c>
       <c r="G102" s="3">
-        <v>162600</v>
+        <v>-447100</v>
       </c>
       <c r="H102" s="3">
-        <v>-27200</v>
+        <v>154900</v>
       </c>
       <c r="I102" s="3">
-        <v>126500</v>
+        <v>-25900</v>
       </c>
       <c r="J102" s="3">
+        <v>120600</v>
+      </c>
+      <c r="K102" s="3">
         <v>2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>509100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>201900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-273400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>191700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>46100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-137300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-79800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>49400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>71300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>695500</v>
+        <v>676800</v>
       </c>
       <c r="E8" s="3">
-        <v>825800</v>
+        <v>672700</v>
       </c>
       <c r="F8" s="3">
-        <v>767800</v>
+        <v>798700</v>
       </c>
       <c r="G8" s="3">
-        <v>672800</v>
+        <v>742600</v>
       </c>
       <c r="H8" s="3">
-        <v>699300</v>
+        <v>650700</v>
       </c>
       <c r="I8" s="3">
-        <v>797200</v>
+        <v>676300</v>
       </c>
       <c r="J8" s="3">
+        <v>771100</v>
+      </c>
+      <c r="K8" s="3">
         <v>733600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>661900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>632700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>739000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>727200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>587700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>536000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>592000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>570200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>515000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>514000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>623600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>569500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>481200</v>
+        <v>487500</v>
       </c>
       <c r="E9" s="3">
-        <v>577400</v>
+        <v>465400</v>
       </c>
       <c r="F9" s="3">
-        <v>526000</v>
+        <v>558500</v>
       </c>
       <c r="G9" s="3">
-        <v>468200</v>
+        <v>508800</v>
       </c>
       <c r="H9" s="3">
-        <v>487600</v>
+        <v>452900</v>
       </c>
       <c r="I9" s="3">
-        <v>565000</v>
+        <v>471600</v>
       </c>
       <c r="J9" s="3">
+        <v>546500</v>
+      </c>
+      <c r="K9" s="3">
         <v>514500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>466800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>444100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>510900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>509900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>424900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>369700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>404000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>390700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>359000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>352100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>440400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>410000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>214300</v>
+        <v>189200</v>
       </c>
       <c r="E10" s="3">
-        <v>248400</v>
+        <v>207300</v>
       </c>
       <c r="F10" s="3">
-        <v>241800</v>
+        <v>240300</v>
       </c>
       <c r="G10" s="3">
-        <v>204500</v>
+        <v>233800</v>
       </c>
       <c r="H10" s="3">
-        <v>211700</v>
+        <v>197800</v>
       </c>
       <c r="I10" s="3">
-        <v>232200</v>
+        <v>204700</v>
       </c>
       <c r="J10" s="3">
+        <v>224600</v>
+      </c>
+      <c r="K10" s="3">
         <v>219100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>195000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>188600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>228100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>217300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>162800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>166300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>188100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>179500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>156000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>161900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>183200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>159500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>25900</v>
+        <v>4200</v>
       </c>
       <c r="E14" s="3">
-        <v>27100</v>
+        <v>25100</v>
       </c>
       <c r="F14" s="3">
-        <v>-7800</v>
+        <v>26200</v>
       </c>
       <c r="G14" s="3">
-        <v>2900</v>
+        <v>-7600</v>
       </c>
       <c r="H14" s="3">
-        <v>4900</v>
+        <v>2800</v>
       </c>
       <c r="I14" s="3">
-        <v>24000</v>
+        <v>4700</v>
       </c>
       <c r="J14" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K14" s="3">
         <v>5400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>53600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>22900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>23800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>599500</v>
+        <v>582600</v>
       </c>
       <c r="E17" s="3">
-        <v>718900</v>
+        <v>579800</v>
       </c>
       <c r="F17" s="3">
-        <v>651200</v>
+        <v>695300</v>
       </c>
       <c r="G17" s="3">
-        <v>571200</v>
+        <v>629800</v>
       </c>
       <c r="H17" s="3">
-        <v>587800</v>
+        <v>552500</v>
       </c>
       <c r="I17" s="3">
-        <v>707600</v>
+        <v>568500</v>
       </c>
       <c r="J17" s="3">
+        <v>684300</v>
+      </c>
+      <c r="K17" s="3">
         <v>632500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>578400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>545500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>673600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>634900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>523000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>470600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>496500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>516500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>445200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>449500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>535300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>538800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>96100</v>
+        <v>94200</v>
       </c>
       <c r="E18" s="3">
-        <v>106900</v>
+        <v>92900</v>
       </c>
       <c r="F18" s="3">
-        <v>116600</v>
+        <v>103400</v>
       </c>
       <c r="G18" s="3">
-        <v>101600</v>
+        <v>112800</v>
       </c>
       <c r="H18" s="3">
-        <v>111500</v>
+        <v>98200</v>
       </c>
       <c r="I18" s="3">
-        <v>89700</v>
+        <v>107800</v>
       </c>
       <c r="J18" s="3">
+        <v>86700</v>
+      </c>
+      <c r="K18" s="3">
         <v>101100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>83400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>87200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>65400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>92400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>64700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>65400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>95500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>53700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>69800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>64500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>88400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>30800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2900</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
-        <v>-16300</v>
+        <v>-2800</v>
       </c>
       <c r="F20" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
-        <v>-1100</v>
-      </c>
       <c r="I20" s="3">
-        <v>3600</v>
+        <v>-1000</v>
       </c>
       <c r="J20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K20" s="3">
         <v>13700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>112800</v>
+        <v>111300</v>
       </c>
       <c r="E21" s="3">
-        <v>110200</v>
+        <v>109100</v>
       </c>
       <c r="F21" s="3">
-        <v>136900</v>
+        <v>106600</v>
       </c>
       <c r="G21" s="3">
-        <v>120600</v>
+        <v>132400</v>
       </c>
       <c r="H21" s="3">
-        <v>130200</v>
+        <v>116600</v>
       </c>
       <c r="I21" s="3">
-        <v>114100</v>
+        <v>125900</v>
       </c>
       <c r="J21" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K21" s="3">
         <v>136100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>99800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>106200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>85200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>121500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>77600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>71000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>112000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>63300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>84600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>75500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>103300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>43300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17200</v>
+        <v>18000</v>
       </c>
       <c r="E22" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="F22" s="3">
-        <v>24400</v>
+        <v>15700</v>
       </c>
       <c r="G22" s="3">
-        <v>17600</v>
+        <v>23600</v>
       </c>
       <c r="H22" s="3">
-        <v>18200</v>
+        <v>17000</v>
       </c>
       <c r="I22" s="3">
         <v>17600</v>
       </c>
       <c r="J22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K22" s="3">
         <v>43100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>37600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>36600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>19400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>23000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>76000</v>
+        <v>74100</v>
       </c>
       <c r="E23" s="3">
-        <v>74400</v>
+        <v>73500</v>
       </c>
       <c r="F23" s="3">
-        <v>93900</v>
+        <v>71900</v>
       </c>
       <c r="G23" s="3">
-        <v>83200</v>
+        <v>90800</v>
       </c>
       <c r="H23" s="3">
-        <v>92200</v>
+        <v>80500</v>
       </c>
       <c r="I23" s="3">
-        <v>75600</v>
+        <v>89200</v>
       </c>
       <c r="J23" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K23" s="3">
         <v>71700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>61500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>69200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>47700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>68800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>51300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>45800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>88800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>34200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>60100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>28300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>69500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="E24" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>24500</v>
+      </c>
+      <c r="H24" s="3">
         <v>16800</v>
       </c>
-      <c r="F24" s="3">
-        <v>25300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>17400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>19100</v>
-      </c>
       <c r="I24" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>18100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>13500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>14800</v>
+      </c>
+      <c r="N24" s="3">
+        <v>21100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>20600</v>
+      </c>
+      <c r="P24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>11700</v>
+      </c>
+      <c r="R24" s="3">
         <v>20300</v>
       </c>
-      <c r="J24" s="3">
-        <v>18100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>13500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>14800</v>
-      </c>
-      <c r="M24" s="3">
-        <v>21100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>20600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>11100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>11700</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>20300</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>59800</v>
+        <v>58400</v>
       </c>
       <c r="E26" s="3">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="F26" s="3">
+        <v>55700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>66300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>63700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>70700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>53600</v>
+      </c>
+      <c r="L26" s="3">
+        <v>48000</v>
+      </c>
+      <c r="M26" s="3">
+        <v>54300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>26700</v>
+      </c>
+      <c r="O26" s="3">
+        <v>48300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>40200</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>34000</v>
+      </c>
+      <c r="R26" s="3">
         <v>68500</v>
       </c>
-      <c r="G26" s="3">
-        <v>65800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>73100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>55300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>53600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>48000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>54300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>26700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>48300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>40200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>34000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>68500</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>30600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>47000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>21700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>56300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>59800</v>
+        <v>58400</v>
       </c>
       <c r="E27" s="3">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="F27" s="3">
+        <v>55700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>66300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>63700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>70700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K27" s="3">
+        <v>53700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>48000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>54600</v>
+      </c>
+      <c r="N27" s="3">
+        <v>26800</v>
+      </c>
+      <c r="O27" s="3">
+        <v>48600</v>
+      </c>
+      <c r="P27" s="3">
+        <v>40600</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>34000</v>
+      </c>
+      <c r="R27" s="3">
         <v>68500</v>
       </c>
-      <c r="G27" s="3">
-        <v>65800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>73100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>55500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>53700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>48000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>54600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>26800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>48600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>40600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>34000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>68500</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>47000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>21700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>56300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
-        <v>16300</v>
+        <v>2800</v>
       </c>
       <c r="F32" s="3">
+        <v>15800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
-        <v>1100</v>
-      </c>
       <c r="I32" s="3">
-        <v>-3600</v>
+        <v>1000</v>
       </c>
       <c r="J32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>59800</v>
+        <v>58400</v>
       </c>
       <c r="E33" s="3">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="F33" s="3">
+        <v>55700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>66300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>63700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>70700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K33" s="3">
+        <v>53700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>48000</v>
+      </c>
+      <c r="M33" s="3">
+        <v>54600</v>
+      </c>
+      <c r="N33" s="3">
+        <v>26800</v>
+      </c>
+      <c r="O33" s="3">
+        <v>48600</v>
+      </c>
+      <c r="P33" s="3">
+        <v>40600</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>34000</v>
+      </c>
+      <c r="R33" s="3">
         <v>68500</v>
       </c>
-      <c r="G33" s="3">
-        <v>65800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>73100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>55500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>53700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>48000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>54600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>26800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>48600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>40600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>34000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>68500</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>30600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>47000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>21700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>56300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>59800</v>
+        <v>58400</v>
       </c>
       <c r="E35" s="3">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="F35" s="3">
+        <v>55700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>66300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>63700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>70700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K35" s="3">
+        <v>53700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>48000</v>
+      </c>
+      <c r="M35" s="3">
+        <v>54600</v>
+      </c>
+      <c r="N35" s="3">
+        <v>26800</v>
+      </c>
+      <c r="O35" s="3">
+        <v>48600</v>
+      </c>
+      <c r="P35" s="3">
+        <v>40600</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>34000</v>
+      </c>
+      <c r="R35" s="3">
         <v>68500</v>
       </c>
-      <c r="G35" s="3">
-        <v>65800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>73100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>55500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>53700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>48000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>54600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>26800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>48600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>40600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>34000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>68500</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>30600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>47000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>21700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>56300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>871600</v>
+        <v>238900</v>
       </c>
       <c r="E41" s="3">
-        <v>499300</v>
+        <v>843000</v>
       </c>
       <c r="F41" s="3">
-        <v>458900</v>
+        <v>482900</v>
       </c>
       <c r="G41" s="3">
-        <v>644600</v>
+        <v>443800</v>
       </c>
       <c r="H41" s="3">
-        <v>1091800</v>
+        <v>623500</v>
       </c>
       <c r="I41" s="3">
-        <v>936800</v>
+        <v>1055900</v>
       </c>
       <c r="J41" s="3">
+        <v>906100</v>
+      </c>
+      <c r="K41" s="3">
         <v>964300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>883700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>846700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>387400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>173700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>443200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>432100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>245900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>199800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>337200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>436200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>386800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2648,28 +2738,28 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G42" s="3">
+        <v>28200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>28300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K42" s="3">
         <v>29200</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>29300</v>
-      </c>
-      <c r="I42" s="3">
-        <v>29200</v>
-      </c>
-      <c r="J42" s="3">
-        <v>29200</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>30600</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2686,8 +2776,8 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2704,463 +2794,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>193800</v>
+        <v>273500</v>
       </c>
       <c r="E43" s="3">
+        <v>187400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>221800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>208900</v>
+      </c>
+      <c r="H43" s="3">
         <v>229300</v>
       </c>
-      <c r="F43" s="3">
-        <v>216000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>237100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>233100</v>
-      </c>
       <c r="I43" s="3">
-        <v>324300</v>
+        <v>225500</v>
       </c>
       <c r="J43" s="3">
+        <v>313700</v>
+      </c>
+      <c r="K43" s="3">
         <v>241300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>188600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>223900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>228000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>205700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>227600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>181300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>189800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>165000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>159700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>143100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>170000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>159300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>390000</v>
+        <v>482700</v>
       </c>
       <c r="E44" s="3">
-        <v>362500</v>
+        <v>377200</v>
       </c>
       <c r="F44" s="3">
-        <v>401900</v>
+        <v>350600</v>
       </c>
       <c r="G44" s="3">
-        <v>418400</v>
+        <v>388700</v>
       </c>
       <c r="H44" s="3">
-        <v>344400</v>
+        <v>404700</v>
       </c>
       <c r="I44" s="3">
-        <v>307100</v>
+        <v>333100</v>
       </c>
       <c r="J44" s="3">
+        <v>297100</v>
+      </c>
+      <c r="K44" s="3">
         <v>377300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>480600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>405500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>406100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>405100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>418200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>366200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>315000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>344300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>370900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>346900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>350700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>381500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>53400</v>
+        <v>26100</v>
       </c>
       <c r="E45" s="3">
-        <v>47500</v>
+        <v>51600</v>
       </c>
       <c r="F45" s="3">
-        <v>24500</v>
+        <v>46000</v>
       </c>
       <c r="G45" s="3">
-        <v>33300</v>
+        <v>23700</v>
       </c>
       <c r="H45" s="3">
-        <v>36300</v>
+        <v>32200</v>
       </c>
       <c r="I45" s="3">
-        <v>43200</v>
+        <v>35100</v>
       </c>
       <c r="J45" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K45" s="3">
         <v>46000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>55500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>109900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>101500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>103300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>86400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>85200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>89500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>86700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>102500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>98100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1508800</v>
+        <v>1021200</v>
       </c>
       <c r="E46" s="3">
-        <v>1144200</v>
+        <v>1459200</v>
       </c>
       <c r="F46" s="3">
-        <v>1130500</v>
+        <v>1106600</v>
       </c>
       <c r="G46" s="3">
-        <v>1333400</v>
+        <v>1093400</v>
       </c>
       <c r="H46" s="3">
-        <v>1734900</v>
+        <v>1289700</v>
       </c>
       <c r="I46" s="3">
-        <v>1640700</v>
+        <v>1678000</v>
       </c>
       <c r="J46" s="3">
+        <v>1586800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1658100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1644300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1527100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1590500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1108100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>921000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1093900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1023300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>840500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>820000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>913900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1059400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1025700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E47" s="3">
         <v>800</v>
       </c>
-      <c r="E47" s="3">
-        <v>1100</v>
-      </c>
       <c r="F47" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H47" s="3">
         <v>1400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1600</v>
       </c>
-      <c r="I47" s="3">
-        <v>1800</v>
-      </c>
       <c r="J47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4800</v>
-      </c>
-      <c r="S47" s="3">
-        <v>1500</v>
       </c>
       <c r="T47" s="3">
         <v>1500</v>
       </c>
       <c r="U47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="V47" s="3">
         <v>500</v>
       </c>
       <c r="W47" s="3">
+        <v>500</v>
+      </c>
+      <c r="X47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>495800</v>
+        <v>571700</v>
       </c>
       <c r="E48" s="3">
-        <v>493200</v>
+        <v>479500</v>
       </c>
       <c r="F48" s="3">
-        <v>492900</v>
+        <v>477000</v>
       </c>
       <c r="G48" s="3">
-        <v>484800</v>
+        <v>476700</v>
       </c>
       <c r="H48" s="3">
-        <v>484500</v>
+        <v>468900</v>
       </c>
       <c r="I48" s="3">
-        <v>483700</v>
+        <v>468600</v>
       </c>
       <c r="J48" s="3">
+        <v>467800</v>
+      </c>
+      <c r="K48" s="3">
         <v>493100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>510300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>493300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>511500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>412600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>379500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>352500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>315600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>331400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>329400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>327400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>345700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>350000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4732900</v>
+        <v>5115000</v>
       </c>
       <c r="E49" s="3">
-        <v>4732100</v>
+        <v>4577600</v>
       </c>
       <c r="F49" s="3">
-        <v>4737600</v>
+        <v>4576800</v>
       </c>
       <c r="G49" s="3">
-        <v>4608000</v>
+        <v>4582100</v>
       </c>
       <c r="H49" s="3">
-        <v>4608900</v>
+        <v>4456800</v>
       </c>
       <c r="I49" s="3">
-        <v>4611000</v>
+        <v>4457700</v>
       </c>
       <c r="J49" s="3">
+        <v>4459700</v>
+      </c>
+      <c r="K49" s="3">
         <v>4606600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4833200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4643100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4721200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4670300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4370100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4073100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3809500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3893300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3892200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3894300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4074200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4075700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>146600</v>
+        <v>142500</v>
       </c>
       <c r="E52" s="3">
-        <v>128400</v>
+        <v>141800</v>
       </c>
       <c r="F52" s="3">
-        <v>152600</v>
+        <v>124200</v>
       </c>
       <c r="G52" s="3">
-        <v>152600</v>
+        <v>147600</v>
       </c>
       <c r="H52" s="3">
-        <v>158500</v>
+        <v>147600</v>
       </c>
       <c r="I52" s="3">
-        <v>144900</v>
+        <v>153300</v>
       </c>
       <c r="J52" s="3">
+        <v>140100</v>
+      </c>
+      <c r="K52" s="3">
         <v>133000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>149100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>121900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>116300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>123500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>94400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>97200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>93000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>97300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>89600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>76300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>76200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6884900</v>
+        <v>6858800</v>
       </c>
       <c r="E54" s="3">
-        <v>6499000</v>
+        <v>6659000</v>
       </c>
       <c r="F54" s="3">
-        <v>6514800</v>
+        <v>6285700</v>
       </c>
       <c r="G54" s="3">
-        <v>6580200</v>
+        <v>6301100</v>
       </c>
       <c r="H54" s="3">
-        <v>6988500</v>
+        <v>6364300</v>
       </c>
       <c r="I54" s="3">
-        <v>6882000</v>
+        <v>6759100</v>
       </c>
       <c r="J54" s="3">
+        <v>6656200</v>
+      </c>
+      <c r="K54" s="3">
         <v>6893000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7139500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6788100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6942400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6317600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5774000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5617500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5249400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5163100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5140300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5226700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5556000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5528100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>638000</v>
+        <v>686900</v>
       </c>
       <c r="E57" s="3">
-        <v>733800</v>
+        <v>617100</v>
       </c>
       <c r="F57" s="3">
-        <v>755500</v>
+        <v>709800</v>
       </c>
       <c r="G57" s="3">
-        <v>659400</v>
+        <v>730800</v>
       </c>
       <c r="H57" s="3">
-        <v>664800</v>
+        <v>637700</v>
       </c>
       <c r="I57" s="3">
-        <v>634700</v>
+        <v>643000</v>
       </c>
       <c r="J57" s="3">
+        <v>613900</v>
+      </c>
+      <c r="K57" s="3">
         <v>613100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>614900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>610600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>687500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>676100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>545700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>529300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>521400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>535800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>515200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>534900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>540500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>554900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25600</v>
+        <v>30900</v>
       </c>
       <c r="E58" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>24500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>25400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>26900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>26500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K58" s="3">
+        <v>32300</v>
+      </c>
+      <c r="L58" s="3">
+        <v>32600</v>
+      </c>
+      <c r="M58" s="3">
+        <v>30800</v>
+      </c>
+      <c r="N58" s="3">
+        <v>48800</v>
+      </c>
+      <c r="O58" s="3">
         <v>25300</v>
       </c>
-      <c r="F58" s="3">
-        <v>26300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>27800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>27400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>27600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>32300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>32600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>30800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>48800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>25300</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4900</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>414000</v>
+        <v>308700</v>
       </c>
       <c r="E59" s="3">
-        <v>254300</v>
+        <v>400400</v>
       </c>
       <c r="F59" s="3">
-        <v>288800</v>
+        <v>245900</v>
       </c>
       <c r="G59" s="3">
-        <v>359700</v>
+        <v>279300</v>
       </c>
       <c r="H59" s="3">
-        <v>341000</v>
+        <v>347900</v>
       </c>
       <c r="I59" s="3">
-        <v>317400</v>
+        <v>329800</v>
       </c>
       <c r="J59" s="3">
+        <v>307000</v>
+      </c>
+      <c r="K59" s="3">
         <v>315400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>317500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>290300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>297100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>292200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>282000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>269100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>261700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>248100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>279200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>295300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>321900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>329100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1077500</v>
+        <v>1026600</v>
       </c>
       <c r="E60" s="3">
-        <v>1013400</v>
+        <v>1042200</v>
       </c>
       <c r="F60" s="3">
-        <v>1070600</v>
+        <v>980200</v>
       </c>
       <c r="G60" s="3">
-        <v>1046800</v>
+        <v>1035500</v>
       </c>
       <c r="H60" s="3">
-        <v>1033300</v>
+        <v>1012500</v>
       </c>
       <c r="I60" s="3">
-        <v>979700</v>
+        <v>999400</v>
       </c>
       <c r="J60" s="3">
+        <v>947500</v>
+      </c>
+      <c r="K60" s="3">
         <v>960900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>965000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>931700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1033400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>993600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>835000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>805300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>787000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>787500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>799000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>835100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>862400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>884000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2451600</v>
+        <v>2461000</v>
       </c>
       <c r="E61" s="3">
-        <v>2067000</v>
+        <v>2371100</v>
       </c>
       <c r="F61" s="3">
-        <v>2027000</v>
+        <v>1999200</v>
       </c>
       <c r="G61" s="3">
-        <v>2109600</v>
+        <v>1960500</v>
       </c>
       <c r="H61" s="3">
-        <v>2149100</v>
+        <v>2040400</v>
       </c>
       <c r="I61" s="3">
-        <v>2175200</v>
+        <v>2078600</v>
       </c>
       <c r="J61" s="3">
+        <v>2103900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2156900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2291200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2159900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2219100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2061700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1952500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1933700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1624100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1565300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1575000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1596100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1703400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1704100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>735500</v>
+        <v>759900</v>
       </c>
       <c r="E62" s="3">
-        <v>869600</v>
+        <v>711300</v>
       </c>
       <c r="F62" s="3">
-        <v>935200</v>
+        <v>841100</v>
       </c>
       <c r="G62" s="3">
-        <v>839400</v>
+        <v>904500</v>
       </c>
       <c r="H62" s="3">
-        <v>802200</v>
+        <v>811800</v>
       </c>
       <c r="I62" s="3">
-        <v>744600</v>
+        <v>775900</v>
       </c>
       <c r="J62" s="3">
+        <v>720100</v>
+      </c>
+      <c r="K62" s="3">
         <v>790500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>827500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>793600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>764400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>826600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>767600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>720500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>734000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>731600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>725600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>699100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>707100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>706800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4264500</v>
+        <v>4247400</v>
       </c>
       <c r="E66" s="3">
-        <v>3950000</v>
+        <v>4124600</v>
       </c>
       <c r="F66" s="3">
-        <v>4032800</v>
+        <v>3820400</v>
       </c>
       <c r="G66" s="3">
-        <v>3995800</v>
+        <v>3900500</v>
       </c>
       <c r="H66" s="3">
-        <v>3984600</v>
+        <v>3864700</v>
       </c>
       <c r="I66" s="3">
-        <v>3899500</v>
+        <v>3853800</v>
       </c>
       <c r="J66" s="3">
+        <v>3771500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3906900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4082400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3883900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4015800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3881000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3554500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3459500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3145100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3084500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3099600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3130400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3272900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3294900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2521400</v>
+        <v>2500700</v>
       </c>
       <c r="E72" s="3">
-        <v>2460300</v>
+        <v>2438600</v>
       </c>
       <c r="F72" s="3">
-        <v>2411800</v>
+        <v>2379600</v>
       </c>
       <c r="G72" s="3">
-        <v>2494900</v>
+        <v>2332600</v>
       </c>
       <c r="H72" s="3">
-        <v>2901900</v>
+        <v>2413000</v>
       </c>
       <c r="I72" s="3">
-        <v>2871400</v>
+        <v>2806700</v>
       </c>
       <c r="J72" s="3">
+        <v>2777100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2890900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2953200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2809800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2813700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2321600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2110600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2048900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2011800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1988600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1959700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2006100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2182600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2124700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2620400</v>
+        <v>2611400</v>
       </c>
       <c r="E76" s="3">
-        <v>2548900</v>
+        <v>2534400</v>
       </c>
       <c r="F76" s="3">
-        <v>2482000</v>
+        <v>2465300</v>
       </c>
       <c r="G76" s="3">
-        <v>2584400</v>
+        <v>2400600</v>
       </c>
       <c r="H76" s="3">
-        <v>3003900</v>
+        <v>2499600</v>
       </c>
       <c r="I76" s="3">
-        <v>2982500</v>
+        <v>2905300</v>
       </c>
       <c r="J76" s="3">
+        <v>2884600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2986100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3057100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2904200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2926600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2436700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2219500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2158000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2104300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2078600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2040700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2096300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2283100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2233200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>59800</v>
+        <v>58400</v>
       </c>
       <c r="E81" s="3">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="F81" s="3">
+        <v>55700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>66300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>63700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>70700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K81" s="3">
+        <v>53700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>48000</v>
+      </c>
+      <c r="M81" s="3">
+        <v>54600</v>
+      </c>
+      <c r="N81" s="3">
+        <v>26800</v>
+      </c>
+      <c r="O81" s="3">
+        <v>48600</v>
+      </c>
+      <c r="P81" s="3">
+        <v>40600</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>34000</v>
+      </c>
+      <c r="R81" s="3">
         <v>68500</v>
       </c>
-      <c r="G81" s="3">
-        <v>65800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>73100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>55500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>53700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>48000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>54600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>26800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>48600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>40600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>34000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>68500</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>30600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>47000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>21700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>56300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>18100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>21400</v>
+      </c>
+      <c r="L83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="M83" s="3">
         <v>19600</v>
       </c>
-      <c r="E83" s="3">
-        <v>19600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>18700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>19700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>19700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>20800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>21400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>20500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>19600</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>14400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>42000</v>
+        <v>8700</v>
       </c>
       <c r="E89" s="3">
-        <v>137600</v>
+        <v>40600</v>
       </c>
       <c r="F89" s="3">
-        <v>158400</v>
+        <v>133100</v>
       </c>
       <c r="G89" s="3">
-        <v>23700</v>
+        <v>153200</v>
       </c>
       <c r="H89" s="3">
-        <v>239700</v>
+        <v>22900</v>
       </c>
       <c r="I89" s="3">
-        <v>111700</v>
+        <v>231800</v>
       </c>
       <c r="J89" s="3">
+        <v>108100</v>
+      </c>
+      <c r="K89" s="3">
         <v>163300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>60800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>29500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>120600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>249100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>89500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>82200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-20000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>78100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>80600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>115200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17200</v>
+        <v>-18600</v>
       </c>
       <c r="E91" s="3">
-        <v>-22800</v>
+        <v>-16600</v>
       </c>
       <c r="F91" s="3">
-        <v>-25000</v>
+        <v>-22000</v>
       </c>
       <c r="G91" s="3">
-        <v>-16000</v>
+        <v>-24200</v>
       </c>
       <c r="H91" s="3">
-        <v>-16300</v>
+        <v>-15500</v>
       </c>
       <c r="I91" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="M91" s="3">
         <v>-11200</v>
       </c>
-      <c r="J91" s="3">
-        <v>-24400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="U91" s="3">
         <v>-11200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="V91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="X91" s="3">
         <v>-6900</v>
       </c>
-      <c r="N91" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-6900</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12400</v>
+        <v>-689000</v>
       </c>
       <c r="E94" s="3">
-        <v>-13700</v>
+        <v>-12000</v>
       </c>
       <c r="F94" s="3">
-        <v>-184800</v>
+        <v>-13200</v>
       </c>
       <c r="G94" s="3">
-        <v>13400</v>
+        <v>-178700</v>
       </c>
       <c r="H94" s="3">
-        <v>-16300</v>
+        <v>13000</v>
       </c>
       <c r="I94" s="3">
-        <v>-12400</v>
+        <v>-15800</v>
       </c>
       <c r="J94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-45200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-264600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-266000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-28400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>348000</v>
+        <v>39700</v>
       </c>
       <c r="E100" s="3">
-        <v>-46900</v>
+        <v>336600</v>
       </c>
       <c r="F100" s="3">
-        <v>-176400</v>
+        <v>-45400</v>
       </c>
       <c r="G100" s="3">
-        <v>-480500</v>
+        <v>-170600</v>
       </c>
       <c r="H100" s="3">
-        <v>-66300</v>
+        <v>-464700</v>
       </c>
       <c r="I100" s="3">
-        <v>-111300</v>
+        <v>-64100</v>
       </c>
       <c r="J100" s="3">
+        <v>-107600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-26500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-51600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>395600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>248700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>106500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-105400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-131000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-18900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-22200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5100</v>
+        <v>7700</v>
       </c>
       <c r="E101" s="3">
-        <v>5300</v>
+        <v>-5000</v>
       </c>
       <c r="F101" s="3">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="G101" s="3">
-        <v>-3700</v>
+        <v>4400</v>
       </c>
       <c r="H101" s="3">
-        <v>-2100</v>
+        <v>-3600</v>
       </c>
       <c r="I101" s="3">
-        <v>-14000</v>
+        <v>-2000</v>
       </c>
       <c r="J101" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K101" s="3">
         <v>4700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-14100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>372500</v>
+        <v>-632900</v>
       </c>
       <c r="E102" s="3">
-        <v>82300</v>
+        <v>360300</v>
       </c>
       <c r="F102" s="3">
-        <v>-198200</v>
+        <v>79600</v>
       </c>
       <c r="G102" s="3">
-        <v>-447100</v>
+        <v>-191700</v>
       </c>
       <c r="H102" s="3">
-        <v>154900</v>
+        <v>-432400</v>
       </c>
       <c r="I102" s="3">
-        <v>-25900</v>
+        <v>149800</v>
       </c>
       <c r="J102" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K102" s="3">
         <v>120600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>509100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>201900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-273400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>191700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>46100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-137300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-79800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>49400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>71300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>676800</v>
+        <v>768000</v>
       </c>
       <c r="E8" s="3">
-        <v>672700</v>
+        <v>653900</v>
       </c>
       <c r="F8" s="3">
-        <v>798700</v>
+        <v>650000</v>
       </c>
       <c r="G8" s="3">
-        <v>742600</v>
+        <v>771700</v>
       </c>
       <c r="H8" s="3">
-        <v>650700</v>
+        <v>717500</v>
       </c>
       <c r="I8" s="3">
-        <v>676300</v>
+        <v>628700</v>
       </c>
       <c r="J8" s="3">
+        <v>653500</v>
+      </c>
+      <c r="K8" s="3">
         <v>771100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>733600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>661900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>632700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>739000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>727200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>587700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>536000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>592000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>570200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>515000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>514000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>623600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>569500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>487500</v>
+        <v>571300</v>
       </c>
       <c r="E9" s="3">
-        <v>465400</v>
+        <v>471100</v>
       </c>
       <c r="F9" s="3">
-        <v>558500</v>
+        <v>449700</v>
       </c>
       <c r="G9" s="3">
-        <v>508800</v>
+        <v>539600</v>
       </c>
       <c r="H9" s="3">
-        <v>452900</v>
+        <v>491600</v>
       </c>
       <c r="I9" s="3">
-        <v>471600</v>
+        <v>437600</v>
       </c>
       <c r="J9" s="3">
+        <v>455700</v>
+      </c>
+      <c r="K9" s="3">
         <v>546500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>514500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>466800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>444100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>510900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>509900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>424900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>369700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>404000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>390700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>359000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>352100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>440400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>410000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>189200</v>
+        <v>196700</v>
       </c>
       <c r="E10" s="3">
-        <v>207300</v>
+        <v>182800</v>
       </c>
       <c r="F10" s="3">
-        <v>240300</v>
+        <v>200300</v>
       </c>
       <c r="G10" s="3">
-        <v>233800</v>
+        <v>232100</v>
       </c>
       <c r="H10" s="3">
+        <v>225900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>191100</v>
+      </c>
+      <c r="J10" s="3">
         <v>197800</v>
       </c>
-      <c r="I10" s="3">
-        <v>204700</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>224600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>219100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>195000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>188600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>228100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>217300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>162800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>166300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>188100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>179500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>156000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>161900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>183200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>159500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,76 +1143,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4200</v>
+        <v>24800</v>
       </c>
       <c r="E14" s="3">
-        <v>25100</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="3">
-        <v>26200</v>
+        <v>24200</v>
       </c>
       <c r="G14" s="3">
-        <v>-7600</v>
+        <v>25300</v>
       </c>
       <c r="H14" s="3">
-        <v>2800</v>
+        <v>-7300</v>
       </c>
       <c r="I14" s="3">
-        <v>4700</v>
+        <v>2700</v>
       </c>
       <c r="J14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K14" s="3">
         <v>23300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>53600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>22900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>23800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>582600</v>
+        <v>703700</v>
       </c>
       <c r="E17" s="3">
-        <v>579800</v>
+        <v>562900</v>
       </c>
       <c r="F17" s="3">
-        <v>695300</v>
+        <v>560200</v>
       </c>
       <c r="G17" s="3">
-        <v>629800</v>
+        <v>671800</v>
       </c>
       <c r="H17" s="3">
-        <v>552500</v>
+        <v>608500</v>
       </c>
       <c r="I17" s="3">
-        <v>568500</v>
+        <v>533800</v>
       </c>
       <c r="J17" s="3">
+        <v>549300</v>
+      </c>
+      <c r="K17" s="3">
         <v>684300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>632500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>578400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>545500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>673600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>634900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>523000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>470600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>496500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>516500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>445200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>449500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>535300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>538800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>94200</v>
+        <v>64300</v>
       </c>
       <c r="E18" s="3">
-        <v>92900</v>
+        <v>91000</v>
       </c>
       <c r="F18" s="3">
-        <v>103400</v>
+        <v>89800</v>
       </c>
       <c r="G18" s="3">
-        <v>112800</v>
+        <v>99900</v>
       </c>
       <c r="H18" s="3">
-        <v>98200</v>
+        <v>109000</v>
       </c>
       <c r="I18" s="3">
-        <v>107800</v>
+        <v>94900</v>
       </c>
       <c r="J18" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K18" s="3">
         <v>86700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>101100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>83400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>87200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>65400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>92400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>64700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>65400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>95500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>53700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>69800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>64500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>88400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>30800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
-        <v>-2800</v>
-      </c>
       <c r="F20" s="3">
-        <v>-15800</v>
+        <v>-2700</v>
       </c>
       <c r="G20" s="3">
-        <v>1600</v>
+        <v>-15300</v>
       </c>
       <c r="H20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>111300</v>
+        <v>87800</v>
       </c>
       <c r="E21" s="3">
-        <v>109100</v>
+        <v>107600</v>
       </c>
       <c r="F21" s="3">
-        <v>106600</v>
+        <v>105400</v>
       </c>
       <c r="G21" s="3">
-        <v>132400</v>
+        <v>103000</v>
       </c>
       <c r="H21" s="3">
-        <v>116600</v>
+        <v>128000</v>
       </c>
       <c r="I21" s="3">
-        <v>125900</v>
+        <v>112700</v>
       </c>
       <c r="J21" s="3">
+        <v>121600</v>
+      </c>
+      <c r="K21" s="3">
         <v>110300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>136100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>99800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>106200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>85200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>121500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>77600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>71000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>112000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>63300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>84600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>75500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>103300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>43300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18000</v>
+        <v>18900</v>
       </c>
       <c r="E22" s="3">
-        <v>16600</v>
+        <v>17300</v>
       </c>
       <c r="F22" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="G22" s="3">
-        <v>23600</v>
+        <v>15200</v>
       </c>
       <c r="H22" s="3">
-        <v>17000</v>
+        <v>22800</v>
       </c>
       <c r="I22" s="3">
-        <v>17600</v>
+        <v>16500</v>
       </c>
       <c r="J22" s="3">
         <v>17000</v>
       </c>
       <c r="K22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="L22" s="3">
         <v>43100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>37600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>36600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>19400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>23000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>74100</v>
+        <v>46100</v>
       </c>
       <c r="E23" s="3">
-        <v>73500</v>
+        <v>71600</v>
       </c>
       <c r="F23" s="3">
-        <v>71900</v>
+        <v>71000</v>
       </c>
       <c r="G23" s="3">
-        <v>90800</v>
+        <v>69500</v>
       </c>
       <c r="H23" s="3">
-        <v>80500</v>
+        <v>87700</v>
       </c>
       <c r="I23" s="3">
-        <v>89200</v>
+        <v>77800</v>
       </c>
       <c r="J23" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K23" s="3">
         <v>73200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>71700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>61500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>69200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>47700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>68800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>51300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>45800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>88800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>34200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>60100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>28300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>69500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G24" s="3">
         <v>15700</v>
       </c>
-      <c r="E24" s="3">
-        <v>15700</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
+        <v>23700</v>
+      </c>
+      <c r="I24" s="3">
         <v>16300</v>
       </c>
-      <c r="G24" s="3">
-        <v>24500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>16800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>18500</v>
-      </c>
       <c r="J24" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K24" s="3">
         <v>19600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>58400</v>
+        <v>31400</v>
       </c>
       <c r="E26" s="3">
-        <v>57800</v>
+        <v>56400</v>
       </c>
       <c r="F26" s="3">
-        <v>55700</v>
+        <v>55900</v>
       </c>
       <c r="G26" s="3">
-        <v>66300</v>
+        <v>53800</v>
       </c>
       <c r="H26" s="3">
-        <v>63700</v>
+        <v>64000</v>
       </c>
       <c r="I26" s="3">
-        <v>70700</v>
+        <v>61500</v>
       </c>
       <c r="J26" s="3">
+        <v>68300</v>
+      </c>
+      <c r="K26" s="3">
         <v>53500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>54300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>34000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>68500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>30600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>47000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>21700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>56300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>58400</v>
+        <v>31400</v>
       </c>
       <c r="E27" s="3">
-        <v>57800</v>
+        <v>56400</v>
       </c>
       <c r="F27" s="3">
-        <v>55700</v>
+        <v>55900</v>
       </c>
       <c r="G27" s="3">
-        <v>66300</v>
+        <v>53800</v>
       </c>
       <c r="H27" s="3">
-        <v>63700</v>
+        <v>64000</v>
       </c>
       <c r="I27" s="3">
-        <v>70700</v>
+        <v>61500</v>
       </c>
       <c r="J27" s="3">
+        <v>68300</v>
+      </c>
+      <c r="K27" s="3">
         <v>53600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>53700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>54600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>40600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>34000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>68500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>47000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>21700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>56300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
-        <v>2800</v>
-      </c>
       <c r="F32" s="3">
-        <v>15800</v>
+        <v>2700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1600</v>
+        <v>15300</v>
       </c>
       <c r="H32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>58400</v>
+        <v>31400</v>
       </c>
       <c r="E33" s="3">
-        <v>57800</v>
+        <v>56400</v>
       </c>
       <c r="F33" s="3">
-        <v>55700</v>
+        <v>55900</v>
       </c>
       <c r="G33" s="3">
-        <v>66300</v>
+        <v>53800</v>
       </c>
       <c r="H33" s="3">
-        <v>63700</v>
+        <v>64000</v>
       </c>
       <c r="I33" s="3">
-        <v>70700</v>
+        <v>61500</v>
       </c>
       <c r="J33" s="3">
+        <v>68300</v>
+      </c>
+      <c r="K33" s="3">
         <v>53600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>53700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>54600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>40600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>34000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>68500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>30600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>47000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>21700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>56300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>58400</v>
+        <v>31400</v>
       </c>
       <c r="E35" s="3">
-        <v>57800</v>
+        <v>56400</v>
       </c>
       <c r="F35" s="3">
-        <v>55700</v>
+        <v>55900</v>
       </c>
       <c r="G35" s="3">
-        <v>66300</v>
+        <v>53800</v>
       </c>
       <c r="H35" s="3">
-        <v>63700</v>
+        <v>64000</v>
       </c>
       <c r="I35" s="3">
-        <v>70700</v>
+        <v>61500</v>
       </c>
       <c r="J35" s="3">
+        <v>68300</v>
+      </c>
+      <c r="K35" s="3">
         <v>53600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>53700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>54600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>40600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>68500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>30600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>47000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>21700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>56300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>238900</v>
+        <v>277100</v>
       </c>
       <c r="E41" s="3">
-        <v>843000</v>
+        <v>230800</v>
       </c>
       <c r="F41" s="3">
-        <v>482900</v>
+        <v>814500</v>
       </c>
       <c r="G41" s="3">
-        <v>443800</v>
+        <v>466600</v>
       </c>
       <c r="H41" s="3">
-        <v>623500</v>
+        <v>428800</v>
       </c>
       <c r="I41" s="3">
-        <v>1055900</v>
+        <v>602400</v>
       </c>
       <c r="J41" s="3">
+        <v>1020200</v>
+      </c>
+      <c r="K41" s="3">
         <v>906100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>964300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>883700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>846700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>387400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>173700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>443200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>432100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>245900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>199800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>337200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>436200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>386800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2741,28 +2830,28 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>27300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K42" s="3">
         <v>28200</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>28300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>28200</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>29200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>30600</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
@@ -2779,8 +2868,8 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2797,484 +2886,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>273500</v>
+        <v>255900</v>
       </c>
       <c r="E43" s="3">
-        <v>187400</v>
+        <v>264200</v>
       </c>
       <c r="F43" s="3">
-        <v>221800</v>
+        <v>181100</v>
       </c>
       <c r="G43" s="3">
-        <v>208900</v>
+        <v>214300</v>
       </c>
       <c r="H43" s="3">
-        <v>229300</v>
+        <v>201800</v>
       </c>
       <c r="I43" s="3">
-        <v>225500</v>
+        <v>221600</v>
       </c>
       <c r="J43" s="3">
+        <v>217900</v>
+      </c>
+      <c r="K43" s="3">
         <v>313700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>241300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>188600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>223900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>228000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>205700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>227600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>181300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>189800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>165000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>159700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>143100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>170000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>159300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>482700</v>
+        <v>447900</v>
       </c>
       <c r="E44" s="3">
-        <v>377200</v>
+        <v>466400</v>
       </c>
       <c r="F44" s="3">
-        <v>350600</v>
+        <v>364500</v>
       </c>
       <c r="G44" s="3">
-        <v>388700</v>
+        <v>338700</v>
       </c>
       <c r="H44" s="3">
-        <v>404700</v>
+        <v>375600</v>
       </c>
       <c r="I44" s="3">
-        <v>333100</v>
+        <v>391000</v>
       </c>
       <c r="J44" s="3">
+        <v>321800</v>
+      </c>
+      <c r="K44" s="3">
         <v>297100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>377300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>480600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>405500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>406100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>405100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>418200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>366200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>315000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>344300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>370900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>346900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>350700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>381500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26100</v>
+        <v>32600</v>
       </c>
       <c r="E45" s="3">
-        <v>51600</v>
+        <v>25200</v>
       </c>
       <c r="F45" s="3">
+        <v>49900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>44400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>22900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>31100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K45" s="3">
+        <v>41800</v>
+      </c>
+      <c r="L45" s="3">
         <v>46000</v>
       </c>
-      <c r="G45" s="3">
-        <v>23700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>32200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>35100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>41800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>46000</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>60800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>55500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>109900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>101500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>103300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>86400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>85200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>89500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>86700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>102500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>98100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1021200</v>
+        <v>1013600</v>
       </c>
       <c r="E46" s="3">
-        <v>1459200</v>
+        <v>986600</v>
       </c>
       <c r="F46" s="3">
-        <v>1106600</v>
+        <v>1409900</v>
       </c>
       <c r="G46" s="3">
-        <v>1093400</v>
+        <v>1069200</v>
       </c>
       <c r="H46" s="3">
-        <v>1289700</v>
+        <v>1056400</v>
       </c>
       <c r="I46" s="3">
-        <v>1678000</v>
+        <v>1246000</v>
       </c>
       <c r="J46" s="3">
+        <v>1621200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1586800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1658100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1644300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1527100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1590500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1108100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>921000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1093900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1023300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>840500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>820000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>913900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1059400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1025700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8500</v>
+        <v>9700</v>
       </c>
       <c r="E47" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="H47" s="3">
-        <v>1400</v>
-      </c>
       <c r="I47" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="J47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4800</v>
-      </c>
-      <c r="T47" s="3">
-        <v>1500</v>
       </c>
       <c r="U47" s="3">
         <v>1500</v>
       </c>
       <c r="V47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="W47" s="3">
         <v>500</v>
       </c>
       <c r="X47" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>571700</v>
+        <v>599300</v>
       </c>
       <c r="E48" s="3">
-        <v>479500</v>
+        <v>552300</v>
       </c>
       <c r="F48" s="3">
-        <v>477000</v>
+        <v>463300</v>
       </c>
       <c r="G48" s="3">
-        <v>476700</v>
+        <v>460900</v>
       </c>
       <c r="H48" s="3">
-        <v>468900</v>
+        <v>460600</v>
       </c>
       <c r="I48" s="3">
-        <v>468600</v>
+        <v>453100</v>
       </c>
       <c r="J48" s="3">
+        <v>452700</v>
+      </c>
+      <c r="K48" s="3">
         <v>467800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>493100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>510300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>493300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>511500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>412600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>379500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>352500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>315600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>331400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>329400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>327400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>345700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>350000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5115000</v>
+        <v>4969200</v>
       </c>
       <c r="E49" s="3">
-        <v>4577600</v>
+        <v>4942000</v>
       </c>
       <c r="F49" s="3">
-        <v>4576800</v>
+        <v>4422800</v>
       </c>
       <c r="G49" s="3">
-        <v>4582100</v>
+        <v>4422000</v>
       </c>
       <c r="H49" s="3">
-        <v>4456800</v>
+        <v>4427100</v>
       </c>
       <c r="I49" s="3">
-        <v>4457700</v>
+        <v>4306000</v>
       </c>
       <c r="J49" s="3">
+        <v>4306900</v>
+      </c>
+      <c r="K49" s="3">
         <v>4459700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4606600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4833200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4643100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4721200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4670300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4370100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4073100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3809500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3893300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3892200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3894300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4074200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4075700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>142500</v>
+        <v>140000</v>
       </c>
       <c r="E52" s="3">
-        <v>141800</v>
+        <v>137700</v>
       </c>
       <c r="F52" s="3">
-        <v>124200</v>
+        <v>137000</v>
       </c>
       <c r="G52" s="3">
-        <v>147600</v>
+        <v>120000</v>
       </c>
       <c r="H52" s="3">
-        <v>147600</v>
+        <v>142600</v>
       </c>
       <c r="I52" s="3">
-        <v>153300</v>
+        <v>142600</v>
       </c>
       <c r="J52" s="3">
+        <v>148100</v>
+      </c>
+      <c r="K52" s="3">
         <v>140100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>133000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>149100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>121900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>116300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>123500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>94400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>97200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>93000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>97300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>89600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>76300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>76200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6858800</v>
+        <v>6731800</v>
       </c>
       <c r="E54" s="3">
-        <v>6659000</v>
+        <v>6626800</v>
       </c>
       <c r="F54" s="3">
-        <v>6285700</v>
+        <v>6433800</v>
       </c>
       <c r="G54" s="3">
-        <v>6301100</v>
+        <v>6073100</v>
       </c>
       <c r="H54" s="3">
-        <v>6364300</v>
+        <v>6087900</v>
       </c>
       <c r="I54" s="3">
-        <v>6759100</v>
+        <v>6149000</v>
       </c>
       <c r="J54" s="3">
+        <v>6530500</v>
+      </c>
+      <c r="K54" s="3">
         <v>6656200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6893000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7139500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6788100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6942400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6317600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5774000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5617500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5249400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5163100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5140300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5226700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5556000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5528100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>686900</v>
+        <v>754900</v>
       </c>
       <c r="E57" s="3">
-        <v>617100</v>
+        <v>663700</v>
       </c>
       <c r="F57" s="3">
-        <v>709800</v>
+        <v>596200</v>
       </c>
       <c r="G57" s="3">
-        <v>730800</v>
+        <v>685700</v>
       </c>
       <c r="H57" s="3">
-        <v>637700</v>
+        <v>706000</v>
       </c>
       <c r="I57" s="3">
-        <v>643000</v>
+        <v>616100</v>
       </c>
       <c r="J57" s="3">
+        <v>621300</v>
+      </c>
+      <c r="K57" s="3">
         <v>613900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>613100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>614900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>610600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>687500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>676100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>545700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>529300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>521400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>535800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>515200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>534900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>540500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>554900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30900</v>
+        <v>31700</v>
       </c>
       <c r="E58" s="3">
-        <v>24700</v>
+        <v>29900</v>
       </c>
       <c r="F58" s="3">
+        <v>23900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>23700</v>
+      </c>
+      <c r="H58" s="3">
         <v>24500</v>
       </c>
-      <c r="G58" s="3">
-        <v>25400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>26900</v>
-      </c>
       <c r="I58" s="3">
-        <v>26500</v>
+        <v>26000</v>
       </c>
       <c r="J58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K58" s="3">
         <v>26600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>32300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>32600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>30800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>48800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4900</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>308700</v>
+        <v>267400</v>
       </c>
       <c r="E59" s="3">
-        <v>400400</v>
+        <v>298300</v>
       </c>
       <c r="F59" s="3">
-        <v>245900</v>
+        <v>386800</v>
       </c>
       <c r="G59" s="3">
-        <v>279300</v>
+        <v>237600</v>
       </c>
       <c r="H59" s="3">
-        <v>347900</v>
+        <v>269900</v>
       </c>
       <c r="I59" s="3">
-        <v>329800</v>
+        <v>336100</v>
       </c>
       <c r="J59" s="3">
+        <v>318700</v>
+      </c>
+      <c r="K59" s="3">
         <v>307000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>315400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>317500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>290300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>297100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>292200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>282000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>269100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>261700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>248100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>279200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>295300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>321900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>329100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1026600</v>
+        <v>1054000</v>
       </c>
       <c r="E60" s="3">
-        <v>1042200</v>
+        <v>991900</v>
       </c>
       <c r="F60" s="3">
-        <v>980200</v>
+        <v>1006900</v>
       </c>
       <c r="G60" s="3">
-        <v>1035500</v>
+        <v>947000</v>
       </c>
       <c r="H60" s="3">
-        <v>1012500</v>
+        <v>1000500</v>
       </c>
       <c r="I60" s="3">
-        <v>999400</v>
+        <v>978200</v>
       </c>
       <c r="J60" s="3">
+        <v>965600</v>
+      </c>
+      <c r="K60" s="3">
         <v>947500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>960900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>965000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>931700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1033400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>993600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>835000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>805300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>787000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>787500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>799000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>835100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>862400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>884000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2461000</v>
+        <v>2398100</v>
       </c>
       <c r="E61" s="3">
-        <v>2371100</v>
+        <v>2377700</v>
       </c>
       <c r="F61" s="3">
-        <v>1999200</v>
+        <v>2290900</v>
       </c>
       <c r="G61" s="3">
-        <v>1960500</v>
+        <v>1931600</v>
       </c>
       <c r="H61" s="3">
-        <v>2040400</v>
+        <v>1894100</v>
       </c>
       <c r="I61" s="3">
-        <v>2078600</v>
+        <v>1971400</v>
       </c>
       <c r="J61" s="3">
+        <v>2008300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2103900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2156900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2291200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2159900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2219100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2061700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1952500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1933700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1624100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1565300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1575000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1596100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1703400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1704100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>759900</v>
+        <v>771600</v>
       </c>
       <c r="E62" s="3">
-        <v>711300</v>
+        <v>734200</v>
       </c>
       <c r="F62" s="3">
-        <v>841100</v>
+        <v>687300</v>
       </c>
       <c r="G62" s="3">
-        <v>904500</v>
+        <v>812600</v>
       </c>
       <c r="H62" s="3">
-        <v>811800</v>
+        <v>873900</v>
       </c>
       <c r="I62" s="3">
-        <v>775900</v>
+        <v>784400</v>
       </c>
       <c r="J62" s="3">
+        <v>749700</v>
+      </c>
+      <c r="K62" s="3">
         <v>720100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>790500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>827500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>793600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>764400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>826600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>767600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>720500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>734000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>731600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>725600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>699100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>707100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>706800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4247400</v>
+        <v>4223800</v>
       </c>
       <c r="E66" s="3">
-        <v>4124600</v>
+        <v>4103800</v>
       </c>
       <c r="F66" s="3">
-        <v>3820400</v>
+        <v>3985100</v>
       </c>
       <c r="G66" s="3">
-        <v>3900500</v>
+        <v>3691200</v>
       </c>
       <c r="H66" s="3">
-        <v>3864700</v>
+        <v>3768500</v>
       </c>
       <c r="I66" s="3">
-        <v>3853800</v>
+        <v>3734000</v>
       </c>
       <c r="J66" s="3">
+        <v>3723500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3771500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3906900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4082400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3883900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4015800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3881000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3554500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3459500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3145100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3084500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3099600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3130400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3272900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3294900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2500700</v>
+        <v>2381900</v>
       </c>
       <c r="E72" s="3">
-        <v>2438600</v>
+        <v>2416100</v>
       </c>
       <c r="F72" s="3">
-        <v>2379600</v>
+        <v>2356100</v>
       </c>
       <c r="G72" s="3">
-        <v>2332600</v>
+        <v>2299100</v>
       </c>
       <c r="H72" s="3">
-        <v>2413000</v>
+        <v>2253700</v>
       </c>
       <c r="I72" s="3">
-        <v>2806700</v>
+        <v>2331400</v>
       </c>
       <c r="J72" s="3">
+        <v>2711800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2777100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2890900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2953200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2809800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2813700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2321600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2110600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2048900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2011800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1988600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1959700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2006100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2182600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2124700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2611400</v>
+        <v>2508000</v>
       </c>
       <c r="E76" s="3">
-        <v>2534400</v>
+        <v>2523100</v>
       </c>
       <c r="F76" s="3">
-        <v>2465300</v>
+        <v>2448700</v>
       </c>
       <c r="G76" s="3">
-        <v>2400600</v>
+        <v>2381900</v>
       </c>
       <c r="H76" s="3">
-        <v>2499600</v>
+        <v>2319400</v>
       </c>
       <c r="I76" s="3">
-        <v>2905300</v>
+        <v>2415100</v>
       </c>
       <c r="J76" s="3">
+        <v>2807000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2884600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2986100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3057100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2904200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2926600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2436700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2219500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2158000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2104300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2078600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2040700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2096300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2283100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2233200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>58400</v>
+        <v>31400</v>
       </c>
       <c r="E81" s="3">
-        <v>57800</v>
+        <v>56400</v>
       </c>
       <c r="F81" s="3">
-        <v>55700</v>
+        <v>55900</v>
       </c>
       <c r="G81" s="3">
-        <v>66300</v>
+        <v>53800</v>
       </c>
       <c r="H81" s="3">
-        <v>63700</v>
+        <v>64000</v>
       </c>
       <c r="I81" s="3">
-        <v>70700</v>
+        <v>61500</v>
       </c>
       <c r="J81" s="3">
+        <v>68300</v>
+      </c>
+      <c r="K81" s="3">
         <v>53600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>53700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>54600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>40600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>34000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>68500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>30600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>47000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>21700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>56300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19300</v>
+        <v>22800</v>
       </c>
       <c r="E83" s="3">
-        <v>19000</v>
+        <v>18700</v>
       </c>
       <c r="F83" s="3">
-        <v>19000</v>
+        <v>18300</v>
       </c>
       <c r="G83" s="3">
-        <v>18100</v>
+        <v>18300</v>
       </c>
       <c r="H83" s="3">
-        <v>19100</v>
+        <v>17500</v>
       </c>
       <c r="I83" s="3">
-        <v>19100</v>
+        <v>18400</v>
       </c>
       <c r="J83" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K83" s="3">
         <v>20100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>14400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8700</v>
+        <v>157900</v>
       </c>
       <c r="E89" s="3">
-        <v>40600</v>
+        <v>8400</v>
       </c>
       <c r="F89" s="3">
-        <v>133100</v>
+        <v>39300</v>
       </c>
       <c r="G89" s="3">
-        <v>153200</v>
+        <v>128600</v>
       </c>
       <c r="H89" s="3">
-        <v>22900</v>
+        <v>148000</v>
       </c>
       <c r="I89" s="3">
-        <v>231800</v>
+        <v>22100</v>
       </c>
       <c r="J89" s="3">
+        <v>224000</v>
+      </c>
+      <c r="K89" s="3">
         <v>108100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>163300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>60800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>29500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>120600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>249100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>89500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>82200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-20000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>78100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>80600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>115200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-18600</v>
+        <v>-31100</v>
       </c>
       <c r="E91" s="3">
-        <v>-16600</v>
+        <v>-18000</v>
       </c>
       <c r="F91" s="3">
-        <v>-22000</v>
+        <v>-16000</v>
       </c>
       <c r="G91" s="3">
-        <v>-24200</v>
+        <v>-21300</v>
       </c>
       <c r="H91" s="3">
-        <v>-15500</v>
+        <v>-23300</v>
       </c>
       <c r="I91" s="3">
-        <v>-15800</v>
+        <v>-14900</v>
       </c>
       <c r="J91" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-28400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-689000</v>
+        <v>-30000</v>
       </c>
       <c r="E94" s="3">
+        <v>-665700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-172700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-12000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-178700</v>
-      </c>
-      <c r="H94" s="3">
-        <v>13000</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-264600</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-266000</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="T94" s="3">
         <v>-15800</v>
       </c>
-      <c r="J94" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-45200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-32200</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-264600</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-266000</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-28400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>39700</v>
+        <v>-85900</v>
       </c>
       <c r="E100" s="3">
-        <v>336600</v>
+        <v>38400</v>
       </c>
       <c r="F100" s="3">
-        <v>-45400</v>
+        <v>325200</v>
       </c>
       <c r="G100" s="3">
-        <v>-170600</v>
+        <v>-43900</v>
       </c>
       <c r="H100" s="3">
-        <v>-464700</v>
+        <v>-164800</v>
       </c>
       <c r="I100" s="3">
-        <v>-64100</v>
+        <v>-449000</v>
       </c>
       <c r="J100" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-107600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-51600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>395600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>248700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>106500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-105400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-131000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-18900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-22200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7700</v>
+        <v>4500</v>
       </c>
       <c r="E101" s="3">
-        <v>-5000</v>
+        <v>7400</v>
       </c>
       <c r="F101" s="3">
-        <v>5100</v>
+        <v>-4800</v>
       </c>
       <c r="G101" s="3">
-        <v>4400</v>
+        <v>4900</v>
       </c>
       <c r="H101" s="3">
-        <v>-3600</v>
+        <v>4300</v>
       </c>
       <c r="I101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-13500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-14100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-632900</v>
+        <v>46500</v>
       </c>
       <c r="E102" s="3">
-        <v>360300</v>
+        <v>-611500</v>
       </c>
       <c r="F102" s="3">
-        <v>79600</v>
+        <v>348100</v>
       </c>
       <c r="G102" s="3">
-        <v>-191700</v>
+        <v>76900</v>
       </c>
       <c r="H102" s="3">
-        <v>-432400</v>
+        <v>-185200</v>
       </c>
       <c r="I102" s="3">
-        <v>149800</v>
+        <v>-417800</v>
       </c>
       <c r="J102" s="3">
+        <v>144800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-25100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>120600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>509100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>201900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-273400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>191700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>46100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-137300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-79800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>49400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>71300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>768000</v>
+        <v>760700</v>
       </c>
       <c r="E8" s="3">
-        <v>653900</v>
+        <v>730700</v>
       </c>
       <c r="F8" s="3">
-        <v>650000</v>
+        <v>622100</v>
       </c>
       <c r="G8" s="3">
-        <v>771700</v>
+        <v>618400</v>
       </c>
       <c r="H8" s="3">
-        <v>717500</v>
+        <v>734200</v>
       </c>
       <c r="I8" s="3">
-        <v>628700</v>
+        <v>682600</v>
       </c>
       <c r="J8" s="3">
+        <v>598100</v>
+      </c>
+      <c r="K8" s="3">
         <v>653500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>771100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>733600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>661900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>632700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>739000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>727200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>587700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>536000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>592000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>570200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>515000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>514000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>623600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>569500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>571300</v>
+        <v>548200</v>
       </c>
       <c r="E9" s="3">
-        <v>471100</v>
+        <v>543500</v>
       </c>
       <c r="F9" s="3">
-        <v>449700</v>
+        <v>448200</v>
       </c>
       <c r="G9" s="3">
-        <v>539600</v>
+        <v>427800</v>
       </c>
       <c r="H9" s="3">
-        <v>491600</v>
+        <v>513300</v>
       </c>
       <c r="I9" s="3">
-        <v>437600</v>
+        <v>467700</v>
       </c>
       <c r="J9" s="3">
+        <v>416300</v>
+      </c>
+      <c r="K9" s="3">
         <v>455700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>546500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>514500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>466800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>444100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>510900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>509900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>424900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>369700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>404000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>390700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>359000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>352100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>440400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>410000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>196700</v>
+        <v>212500</v>
       </c>
       <c r="E10" s="3">
-        <v>182800</v>
+        <v>187100</v>
       </c>
       <c r="F10" s="3">
-        <v>200300</v>
+        <v>174000</v>
       </c>
       <c r="G10" s="3">
-        <v>232100</v>
+        <v>190600</v>
       </c>
       <c r="H10" s="3">
-        <v>225900</v>
+        <v>220900</v>
       </c>
       <c r="I10" s="3">
-        <v>191100</v>
+        <v>214900</v>
       </c>
       <c r="J10" s="3">
+        <v>181800</v>
+      </c>
+      <c r="K10" s="3">
         <v>197800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>224600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>219100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>195000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>188600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>228100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>217300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>162800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>166300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>188100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>179500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>156000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>161900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>183200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>159500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,79 +1163,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24800</v>
+        <v>19700</v>
       </c>
       <c r="E14" s="3">
-        <v>4000</v>
+        <v>23600</v>
       </c>
       <c r="F14" s="3">
-        <v>24200</v>
+        <v>3800</v>
       </c>
       <c r="G14" s="3">
-        <v>25300</v>
+        <v>23000</v>
       </c>
       <c r="H14" s="3">
-        <v>-7300</v>
+        <v>24100</v>
       </c>
       <c r="I14" s="3">
-        <v>2700</v>
+        <v>-7000</v>
       </c>
       <c r="J14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K14" s="3">
         <v>4600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>53600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>22900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>12900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>23800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>703700</v>
+        <v>669800</v>
       </c>
       <c r="E17" s="3">
-        <v>562900</v>
+        <v>669500</v>
       </c>
       <c r="F17" s="3">
-        <v>560200</v>
+        <v>535600</v>
       </c>
       <c r="G17" s="3">
-        <v>671800</v>
+        <v>533000</v>
       </c>
       <c r="H17" s="3">
-        <v>608500</v>
+        <v>639100</v>
       </c>
       <c r="I17" s="3">
-        <v>533800</v>
+        <v>578900</v>
       </c>
       <c r="J17" s="3">
+        <v>507800</v>
+      </c>
+      <c r="K17" s="3">
         <v>549300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>684300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>632500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>578400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>545500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>673600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>634900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>523000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>470600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>496500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>516500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>445200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>449500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>535300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>538800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>64300</v>
+        <v>90900</v>
       </c>
       <c r="E18" s="3">
-        <v>91000</v>
+        <v>61100</v>
       </c>
       <c r="F18" s="3">
-        <v>89800</v>
+        <v>86600</v>
       </c>
       <c r="G18" s="3">
-        <v>99900</v>
+        <v>85400</v>
       </c>
       <c r="H18" s="3">
-        <v>109000</v>
+        <v>95100</v>
       </c>
       <c r="I18" s="3">
-        <v>94900</v>
+        <v>103700</v>
       </c>
       <c r="J18" s="3">
+        <v>90300</v>
+      </c>
+      <c r="K18" s="3">
         <v>104200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>86700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>101100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>83400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>87200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>65400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>92400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>64700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>65400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>95500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>53700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>69800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>64500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>88400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>30800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>800</v>
+        <v>-15200</v>
       </c>
       <c r="E20" s="3">
-        <v>-2100</v>
+        <v>700</v>
       </c>
       <c r="F20" s="3">
-        <v>-2700</v>
+        <v>-2000</v>
       </c>
       <c r="G20" s="3">
-        <v>-15300</v>
+        <v>-2600</v>
       </c>
       <c r="H20" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
-        <v>-700</v>
-      </c>
       <c r="J20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>13700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>87800</v>
+        <v>97800</v>
       </c>
       <c r="E21" s="3">
-        <v>107600</v>
+        <v>83600</v>
       </c>
       <c r="F21" s="3">
-        <v>105400</v>
+        <v>102300</v>
       </c>
       <c r="G21" s="3">
-        <v>103000</v>
+        <v>100300</v>
       </c>
       <c r="H21" s="3">
-        <v>128000</v>
+        <v>98000</v>
       </c>
       <c r="I21" s="3">
-        <v>112700</v>
+        <v>121700</v>
       </c>
       <c r="J21" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K21" s="3">
         <v>121600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>110300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>136100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>99800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>106200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>85200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>121500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>77600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>71000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>112000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>63300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>84600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>75500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>103300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>43300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>18900</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="F22" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="G22" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="H22" s="3">
-        <v>22800</v>
+        <v>14400</v>
       </c>
       <c r="I22" s="3">
-        <v>16500</v>
+        <v>21700</v>
       </c>
       <c r="J22" s="3">
-        <v>17000</v>
+        <v>15700</v>
       </c>
       <c r="K22" s="3">
         <v>17000</v>
       </c>
       <c r="L22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="M22" s="3">
         <v>43100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>37600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>36600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>19400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>23000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>46100</v>
+        <v>75800</v>
       </c>
       <c r="E23" s="3">
-        <v>71600</v>
+        <v>43900</v>
       </c>
       <c r="F23" s="3">
-        <v>71000</v>
+        <v>68100</v>
       </c>
       <c r="G23" s="3">
+        <v>67600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>66100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>83400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>86200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>73200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>71700</v>
+      </c>
+      <c r="N23" s="3">
+        <v>61500</v>
+      </c>
+      <c r="O23" s="3">
+        <v>69200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>47700</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>68800</v>
+      </c>
+      <c r="R23" s="3">
+        <v>51300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>45800</v>
+      </c>
+      <c r="T23" s="3">
+        <v>88800</v>
+      </c>
+      <c r="U23" s="3">
+        <v>34200</v>
+      </c>
+      <c r="V23" s="3">
+        <v>60100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>28300</v>
+      </c>
+      <c r="X23" s="3">
         <v>69500</v>
       </c>
-      <c r="H23" s="3">
-        <v>87700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>77800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>86200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>73200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>71700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>61500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>69200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>47700</v>
-      </c>
-      <c r="P23" s="3">
-        <v>68800</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>51300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>45800</v>
-      </c>
-      <c r="S23" s="3">
-        <v>88800</v>
-      </c>
-      <c r="T23" s="3">
-        <v>34200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>60100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>28300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>69500</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14700</v>
+        <v>17600</v>
       </c>
       <c r="E24" s="3">
-        <v>15200</v>
+        <v>14000</v>
       </c>
       <c r="F24" s="3">
-        <v>15200</v>
+        <v>14400</v>
       </c>
       <c r="G24" s="3">
-        <v>15700</v>
+        <v>14400</v>
       </c>
       <c r="H24" s="3">
-        <v>23700</v>
+        <v>14900</v>
       </c>
       <c r="I24" s="3">
-        <v>16300</v>
+        <v>22500</v>
       </c>
       <c r="J24" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K24" s="3">
         <v>17900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>31400</v>
+        <v>58100</v>
       </c>
       <c r="E26" s="3">
-        <v>56400</v>
+        <v>29900</v>
       </c>
       <c r="F26" s="3">
-        <v>55900</v>
+        <v>53700</v>
       </c>
       <c r="G26" s="3">
-        <v>53800</v>
+        <v>53100</v>
       </c>
       <c r="H26" s="3">
-        <v>64000</v>
+        <v>51200</v>
       </c>
       <c r="I26" s="3">
-        <v>61500</v>
+        <v>60900</v>
       </c>
       <c r="J26" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K26" s="3">
         <v>68300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>54300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>34000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>68500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>30600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>47000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>21700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>56300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>31400</v>
+        <v>58100</v>
       </c>
       <c r="E27" s="3">
-        <v>56400</v>
+        <v>29900</v>
       </c>
       <c r="F27" s="3">
-        <v>55900</v>
+        <v>53700</v>
       </c>
       <c r="G27" s="3">
-        <v>53800</v>
+        <v>53100</v>
       </c>
       <c r="H27" s="3">
-        <v>64000</v>
+        <v>51200</v>
       </c>
       <c r="I27" s="3">
-        <v>61500</v>
+        <v>60900</v>
       </c>
       <c r="J27" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K27" s="3">
         <v>68300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>53600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>53700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>54600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>34000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>68500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>30600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>47000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>21700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>56300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-800</v>
+        <v>15200</v>
       </c>
       <c r="E32" s="3">
-        <v>2100</v>
+        <v>-700</v>
       </c>
       <c r="F32" s="3">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="3">
-        <v>15300</v>
+        <v>2600</v>
       </c>
       <c r="H32" s="3">
+        <v>14500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
-        <v>700</v>
-      </c>
       <c r="J32" s="3">
+        <v>600</v>
+      </c>
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-13700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>31400</v>
+        <v>58100</v>
       </c>
       <c r="E33" s="3">
-        <v>56400</v>
+        <v>29900</v>
       </c>
       <c r="F33" s="3">
-        <v>55900</v>
+        <v>53700</v>
       </c>
       <c r="G33" s="3">
-        <v>53800</v>
+        <v>53100</v>
       </c>
       <c r="H33" s="3">
-        <v>64000</v>
+        <v>51200</v>
       </c>
       <c r="I33" s="3">
-        <v>61500</v>
+        <v>60900</v>
       </c>
       <c r="J33" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K33" s="3">
         <v>68300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>53600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>53700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>54600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>34000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>68500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>30600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>47000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>21700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>56300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>31400</v>
+        <v>58100</v>
       </c>
       <c r="E35" s="3">
-        <v>56400</v>
+        <v>29900</v>
       </c>
       <c r="F35" s="3">
-        <v>55900</v>
+        <v>53700</v>
       </c>
       <c r="G35" s="3">
-        <v>53800</v>
+        <v>53100</v>
       </c>
       <c r="H35" s="3">
-        <v>64000</v>
+        <v>51200</v>
       </c>
       <c r="I35" s="3">
-        <v>61500</v>
+        <v>60900</v>
       </c>
       <c r="J35" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K35" s="3">
         <v>68300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>53600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>53700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>54600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>34000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>68500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>30600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>47000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>21700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>56300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,84 +2833,88 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>277100</v>
+        <v>265500</v>
       </c>
       <c r="E41" s="3">
-        <v>230800</v>
+        <v>263600</v>
       </c>
       <c r="F41" s="3">
-        <v>814500</v>
+        <v>219600</v>
       </c>
       <c r="G41" s="3">
-        <v>466600</v>
+        <v>774900</v>
       </c>
       <c r="H41" s="3">
-        <v>428800</v>
+        <v>443900</v>
       </c>
       <c r="I41" s="3">
-        <v>602400</v>
+        <v>408000</v>
       </c>
       <c r="J41" s="3">
+        <v>573100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1020200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>906100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>964300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>883700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>846700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>387400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>173700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>443200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>432100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>245900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>199800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>337200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>436200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>386800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2833,28 +2923,28 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>27300</v>
+        <v>5000</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>25900</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>27400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>28200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>30600</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2871,8 +2961,8 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2889,505 +2979,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>255900</v>
+        <v>299200</v>
       </c>
       <c r="E43" s="3">
-        <v>264200</v>
+        <v>243500</v>
       </c>
       <c r="F43" s="3">
-        <v>181100</v>
+        <v>251400</v>
       </c>
       <c r="G43" s="3">
-        <v>214300</v>
+        <v>172300</v>
       </c>
       <c r="H43" s="3">
-        <v>201800</v>
+        <v>203800</v>
       </c>
       <c r="I43" s="3">
-        <v>221600</v>
+        <v>192000</v>
       </c>
       <c r="J43" s="3">
+        <v>210800</v>
+      </c>
+      <c r="K43" s="3">
         <v>217900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>313700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>241300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>188600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>223900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>228000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>205700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>227600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>181300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>189800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>165000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>159700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>143100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>170000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>159300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>447900</v>
+        <v>444300</v>
       </c>
       <c r="E44" s="3">
-        <v>466400</v>
+        <v>426200</v>
       </c>
       <c r="F44" s="3">
-        <v>364500</v>
+        <v>443700</v>
       </c>
       <c r="G44" s="3">
-        <v>338700</v>
+        <v>346800</v>
       </c>
       <c r="H44" s="3">
-        <v>375600</v>
+        <v>322300</v>
       </c>
       <c r="I44" s="3">
-        <v>391000</v>
+        <v>357300</v>
       </c>
       <c r="J44" s="3">
+        <v>372000</v>
+      </c>
+      <c r="K44" s="3">
         <v>321800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>297100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>377300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>480600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>405500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>406100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>405100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>418200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>366200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>315000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>344300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>370900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>346900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>350700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>381500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32600</v>
+        <v>26900</v>
       </c>
       <c r="E45" s="3">
-        <v>25200</v>
+        <v>31000</v>
       </c>
       <c r="F45" s="3">
-        <v>49900</v>
+        <v>24000</v>
       </c>
       <c r="G45" s="3">
-        <v>44400</v>
+        <v>47400</v>
       </c>
       <c r="H45" s="3">
-        <v>22900</v>
+        <v>42200</v>
       </c>
       <c r="I45" s="3">
-        <v>31100</v>
+        <v>21800</v>
       </c>
       <c r="J45" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K45" s="3">
         <v>33900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>41800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>60800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>55500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>109900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>101500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>103300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>86400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>85200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>89500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>86700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>102500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>98100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1013600</v>
+        <v>1035900</v>
       </c>
       <c r="E46" s="3">
-        <v>986600</v>
+        <v>964300</v>
       </c>
       <c r="F46" s="3">
-        <v>1409900</v>
+        <v>938700</v>
       </c>
       <c r="G46" s="3">
-        <v>1069200</v>
+        <v>1341400</v>
       </c>
       <c r="H46" s="3">
-        <v>1056400</v>
+        <v>1017200</v>
       </c>
       <c r="I46" s="3">
-        <v>1246000</v>
+        <v>1005100</v>
       </c>
       <c r="J46" s="3">
+        <v>1185500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1621200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1586800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1658100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1644300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1527100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1590500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1108100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>921000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1093900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1023300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>840500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>820000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>913900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1059400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1025700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9700</v>
+        <v>8100</v>
       </c>
       <c r="E47" s="3">
-        <v>8200</v>
+        <v>9200</v>
       </c>
       <c r="F47" s="3">
-        <v>800</v>
+        <v>7800</v>
       </c>
       <c r="G47" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H47" s="3">
+        <v>900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J47" s="3">
         <v>1200</v>
       </c>
-      <c r="I47" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4800</v>
-      </c>
-      <c r="U47" s="3">
-        <v>1500</v>
       </c>
       <c r="V47" s="3">
         <v>1500</v>
       </c>
       <c r="W47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="X47" s="3">
         <v>500</v>
       </c>
       <c r="Y47" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>599300</v>
+        <v>563600</v>
       </c>
       <c r="E48" s="3">
-        <v>552300</v>
+        <v>570200</v>
       </c>
       <c r="F48" s="3">
-        <v>463300</v>
+        <v>525500</v>
       </c>
       <c r="G48" s="3">
-        <v>460900</v>
+        <v>440800</v>
       </c>
       <c r="H48" s="3">
-        <v>460600</v>
+        <v>438500</v>
       </c>
       <c r="I48" s="3">
-        <v>453100</v>
+        <v>438200</v>
       </c>
       <c r="J48" s="3">
+        <v>431000</v>
+      </c>
+      <c r="K48" s="3">
         <v>452700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>467800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>493100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>510300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>493300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>511500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>412600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>379500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>352500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>315600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>331400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>329400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>327400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>345700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>350000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4969200</v>
+        <v>4729100</v>
       </c>
       <c r="E49" s="3">
-        <v>4942000</v>
+        <v>4727700</v>
       </c>
       <c r="F49" s="3">
-        <v>4422800</v>
+        <v>4701900</v>
       </c>
       <c r="G49" s="3">
-        <v>4422000</v>
+        <v>4207900</v>
       </c>
       <c r="H49" s="3">
-        <v>4427100</v>
+        <v>4207100</v>
       </c>
       <c r="I49" s="3">
-        <v>4306000</v>
+        <v>4212000</v>
       </c>
       <c r="J49" s="3">
+        <v>4096800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4306900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4459700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4606600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4833200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4643100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4721200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4670300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4370100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4073100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3809500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3893300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3892200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3894300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4074200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4075700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>140000</v>
+        <v>131100</v>
       </c>
       <c r="E52" s="3">
-        <v>137700</v>
+        <v>133200</v>
       </c>
       <c r="F52" s="3">
-        <v>137000</v>
+        <v>131000</v>
       </c>
       <c r="G52" s="3">
-        <v>120000</v>
+        <v>130400</v>
       </c>
       <c r="H52" s="3">
-        <v>142600</v>
+        <v>114200</v>
       </c>
       <c r="I52" s="3">
-        <v>142600</v>
+        <v>135700</v>
       </c>
       <c r="J52" s="3">
+        <v>135700</v>
+      </c>
+      <c r="K52" s="3">
         <v>148100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>140100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>133000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>149100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>121900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>116300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>123500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>94400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>97200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>93000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>97300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>89600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>76300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>76200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6731800</v>
+        <v>6467800</v>
       </c>
       <c r="E54" s="3">
-        <v>6626800</v>
+        <v>6404700</v>
       </c>
       <c r="F54" s="3">
-        <v>6433800</v>
+        <v>6304800</v>
       </c>
       <c r="G54" s="3">
-        <v>6073100</v>
+        <v>6121100</v>
       </c>
       <c r="H54" s="3">
-        <v>6087900</v>
+        <v>5778000</v>
       </c>
       <c r="I54" s="3">
-        <v>6149000</v>
+        <v>5792100</v>
       </c>
       <c r="J54" s="3">
+        <v>5850200</v>
+      </c>
+      <c r="K54" s="3">
         <v>6530500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6656200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6893000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7139500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6788100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6942400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6317600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5774000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5617500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5249400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5163100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5140300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5226700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5556000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5528100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>754900</v>
+        <v>746100</v>
       </c>
       <c r="E57" s="3">
-        <v>663700</v>
+        <v>718200</v>
       </c>
       <c r="F57" s="3">
-        <v>596200</v>
+        <v>631500</v>
       </c>
       <c r="G57" s="3">
-        <v>685700</v>
+        <v>567200</v>
       </c>
       <c r="H57" s="3">
-        <v>706000</v>
+        <v>652400</v>
       </c>
       <c r="I57" s="3">
-        <v>616100</v>
+        <v>671700</v>
       </c>
       <c r="J57" s="3">
+        <v>586200</v>
+      </c>
+      <c r="K57" s="3">
         <v>621300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>613900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>613100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>614900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>610600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>687500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>676100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>545700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>529300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>521400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>535800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>515200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>534900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>540500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>554900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31700</v>
+        <v>30500</v>
       </c>
       <c r="E58" s="3">
-        <v>29900</v>
+        <v>30200</v>
       </c>
       <c r="F58" s="3">
-        <v>23900</v>
+        <v>28400</v>
       </c>
       <c r="G58" s="3">
-        <v>23700</v>
+        <v>22700</v>
       </c>
       <c r="H58" s="3">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="I58" s="3">
-        <v>26000</v>
+        <v>23400</v>
       </c>
       <c r="J58" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K58" s="3">
         <v>25600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>32300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>32600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>30800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>48800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>25300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4900</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>267400</v>
+        <v>261400</v>
       </c>
       <c r="E59" s="3">
-        <v>298300</v>
+        <v>254400</v>
       </c>
       <c r="F59" s="3">
-        <v>386800</v>
+        <v>283800</v>
       </c>
       <c r="G59" s="3">
-        <v>237600</v>
+        <v>368000</v>
       </c>
       <c r="H59" s="3">
-        <v>269900</v>
+        <v>226100</v>
       </c>
       <c r="I59" s="3">
-        <v>336100</v>
+        <v>256800</v>
       </c>
       <c r="J59" s="3">
+        <v>319800</v>
+      </c>
+      <c r="K59" s="3">
         <v>318700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>307000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>315400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>317500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>290300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>297100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>292200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>282000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>269100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>261700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>248100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>279200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>295300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>321900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>329100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1054000</v>
+        <v>1038100</v>
       </c>
       <c r="E60" s="3">
-        <v>991900</v>
+        <v>1002800</v>
       </c>
       <c r="F60" s="3">
-        <v>1006900</v>
+        <v>943700</v>
       </c>
       <c r="G60" s="3">
-        <v>947000</v>
+        <v>958000</v>
       </c>
       <c r="H60" s="3">
-        <v>1000500</v>
+        <v>901000</v>
       </c>
       <c r="I60" s="3">
-        <v>978200</v>
+        <v>951900</v>
       </c>
       <c r="J60" s="3">
+        <v>930700</v>
+      </c>
+      <c r="K60" s="3">
         <v>965600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>947500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>960900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>965000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>931700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1033400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>993600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>835000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>805300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>787000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>787500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>799000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>835100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>862400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>884000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2398100</v>
+        <v>2296500</v>
       </c>
       <c r="E61" s="3">
-        <v>2377700</v>
+        <v>2281600</v>
       </c>
       <c r="F61" s="3">
-        <v>2290900</v>
+        <v>2262200</v>
       </c>
       <c r="G61" s="3">
-        <v>1931600</v>
+        <v>2179600</v>
       </c>
       <c r="H61" s="3">
-        <v>1894100</v>
+        <v>1837700</v>
       </c>
       <c r="I61" s="3">
-        <v>1971400</v>
+        <v>1802100</v>
       </c>
       <c r="J61" s="3">
+        <v>1875600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2008300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2103900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2156900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2291200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2159900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2219100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2061700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1952500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1933700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1624100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1565300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1575000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1596100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1703400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1704100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>771600</v>
+        <v>688000</v>
       </c>
       <c r="E62" s="3">
-        <v>734200</v>
+        <v>734100</v>
       </c>
       <c r="F62" s="3">
-        <v>687300</v>
+        <v>698500</v>
       </c>
       <c r="G62" s="3">
-        <v>812600</v>
+        <v>653900</v>
       </c>
       <c r="H62" s="3">
-        <v>873900</v>
+        <v>773100</v>
       </c>
       <c r="I62" s="3">
-        <v>784400</v>
+        <v>831500</v>
       </c>
       <c r="J62" s="3">
+        <v>746300</v>
+      </c>
+      <c r="K62" s="3">
         <v>749700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>720100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>790500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>827500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>793600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>764400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>826600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>767600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>720500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>734000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>731600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>725600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>699100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>707100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>706800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4223800</v>
+        <v>4022600</v>
       </c>
       <c r="E66" s="3">
-        <v>4103800</v>
+        <v>4018500</v>
       </c>
       <c r="F66" s="3">
-        <v>3985100</v>
+        <v>3904400</v>
       </c>
       <c r="G66" s="3">
-        <v>3691200</v>
+        <v>3791400</v>
       </c>
       <c r="H66" s="3">
-        <v>3768500</v>
+        <v>3511800</v>
       </c>
       <c r="I66" s="3">
-        <v>3734000</v>
+        <v>3585400</v>
       </c>
       <c r="J66" s="3">
+        <v>3552500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3723500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3771500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3906900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4082400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3883900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4015800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3881000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3554500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3459500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3145100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3084500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3099600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3130400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3272900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3294900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2381900</v>
+        <v>2316400</v>
       </c>
       <c r="E72" s="3">
-        <v>2416100</v>
+        <v>2266200</v>
       </c>
       <c r="F72" s="3">
-        <v>2356100</v>
+        <v>2298700</v>
       </c>
       <c r="G72" s="3">
-        <v>2299100</v>
+        <v>2241700</v>
       </c>
       <c r="H72" s="3">
-        <v>2253700</v>
+        <v>2187400</v>
       </c>
       <c r="I72" s="3">
-        <v>2331400</v>
+        <v>2144200</v>
       </c>
       <c r="J72" s="3">
+        <v>2218100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2711800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2777100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2890900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2953200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2809800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2813700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2321600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2110600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2048900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2011800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1988600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1959700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2006100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2182600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2124700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2508000</v>
+        <v>2445200</v>
       </c>
       <c r="E76" s="3">
-        <v>2523100</v>
+        <v>2386100</v>
       </c>
       <c r="F76" s="3">
-        <v>2448700</v>
+        <v>2400500</v>
       </c>
       <c r="G76" s="3">
-        <v>2381900</v>
+        <v>2329700</v>
       </c>
       <c r="H76" s="3">
-        <v>2319400</v>
+        <v>2266200</v>
       </c>
       <c r="I76" s="3">
-        <v>2415100</v>
+        <v>2206700</v>
       </c>
       <c r="J76" s="3">
+        <v>2297700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2807000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2884600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2986100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3057100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2904200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2926600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2436700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2219500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2158000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2104300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2078600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2040700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2096300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2283100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2233200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>31400</v>
+        <v>58100</v>
       </c>
       <c r="E81" s="3">
-        <v>56400</v>
+        <v>29900</v>
       </c>
       <c r="F81" s="3">
-        <v>55900</v>
+        <v>53700</v>
       </c>
       <c r="G81" s="3">
-        <v>53800</v>
+        <v>53100</v>
       </c>
       <c r="H81" s="3">
-        <v>64000</v>
+        <v>51200</v>
       </c>
       <c r="I81" s="3">
-        <v>61500</v>
+        <v>60900</v>
       </c>
       <c r="J81" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K81" s="3">
         <v>68300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>53600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>53700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>54600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>34000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>68500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>30600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>47000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>21700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>56300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22800</v>
+        <v>22000</v>
       </c>
       <c r="E83" s="3">
-        <v>18700</v>
+        <v>21700</v>
       </c>
       <c r="F83" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="G83" s="3">
-        <v>18300</v>
+        <v>17400</v>
       </c>
       <c r="H83" s="3">
+        <v>17400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J83" s="3">
         <v>17500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>18400</v>
       </c>
-      <c r="J83" s="3">
-        <v>18400</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>157900</v>
+        <v>81200</v>
       </c>
       <c r="E89" s="3">
-        <v>8400</v>
+        <v>150200</v>
       </c>
       <c r="F89" s="3">
-        <v>39300</v>
+        <v>8000</v>
       </c>
       <c r="G89" s="3">
-        <v>128600</v>
+        <v>37400</v>
       </c>
       <c r="H89" s="3">
-        <v>148000</v>
+        <v>122400</v>
       </c>
       <c r="I89" s="3">
-        <v>22100</v>
+        <v>140800</v>
       </c>
       <c r="J89" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K89" s="3">
         <v>224000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>108100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>163300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>60800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>29500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>120600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>249100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>89500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>82200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-20000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>78100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>80600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>115200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31100</v>
+        <v>-21200</v>
       </c>
       <c r="E91" s="3">
-        <v>-18000</v>
+        <v>-29600</v>
       </c>
       <c r="F91" s="3">
-        <v>-16000</v>
+        <v>-17100</v>
       </c>
       <c r="G91" s="3">
-        <v>-21300</v>
+        <v>-15300</v>
       </c>
       <c r="H91" s="3">
-        <v>-23300</v>
+        <v>-20200</v>
       </c>
       <c r="I91" s="3">
-        <v>-14900</v>
+        <v>-22200</v>
       </c>
       <c r="J91" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-15300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-28400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30000</v>
+        <v>-21200</v>
       </c>
       <c r="E94" s="3">
-        <v>-665700</v>
+        <v>-28500</v>
       </c>
       <c r="F94" s="3">
-        <v>-11600</v>
+        <v>-633300</v>
       </c>
       <c r="G94" s="3">
-        <v>-12800</v>
+        <v>-11000</v>
       </c>
       <c r="H94" s="3">
-        <v>-172700</v>
+        <v>-12100</v>
       </c>
       <c r="I94" s="3">
-        <v>12500</v>
+        <v>-164300</v>
       </c>
       <c r="J94" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-15300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-45200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-264600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-266000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-28400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-85900</v>
+        <v>-55300</v>
       </c>
       <c r="E100" s="3">
-        <v>38400</v>
+        <v>-81700</v>
       </c>
       <c r="F100" s="3">
-        <v>325200</v>
+        <v>36500</v>
       </c>
       <c r="G100" s="3">
-        <v>-43900</v>
+        <v>309400</v>
       </c>
       <c r="H100" s="3">
-        <v>-164800</v>
+        <v>-41700</v>
       </c>
       <c r="I100" s="3">
-        <v>-449000</v>
+        <v>-156800</v>
       </c>
       <c r="J100" s="3">
+        <v>-427200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-62000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-107600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-26500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-51600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>395600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>248700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>106500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-16800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-105400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-131000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-18900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-22200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4500</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
-        <v>7400</v>
+        <v>4300</v>
       </c>
       <c r="F101" s="3">
-        <v>-4800</v>
+        <v>7100</v>
       </c>
       <c r="G101" s="3">
-        <v>4900</v>
+        <v>-4600</v>
       </c>
       <c r="H101" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="I101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="M101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="P101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="T101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U101" s="3">
         <v>-3500</v>
       </c>
-      <c r="J101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>4700</v>
-      </c>
-      <c r="M101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="O101" s="3">
-        <v>2200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="S101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-14100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>46500</v>
+        <v>1700</v>
       </c>
       <c r="E102" s="3">
-        <v>-611500</v>
+        <v>44200</v>
       </c>
       <c r="F102" s="3">
-        <v>348100</v>
+        <v>-581700</v>
       </c>
       <c r="G102" s="3">
-        <v>76900</v>
+        <v>331200</v>
       </c>
       <c r="H102" s="3">
-        <v>-185200</v>
+        <v>73200</v>
       </c>
       <c r="I102" s="3">
-        <v>-417800</v>
+        <v>-176200</v>
       </c>
       <c r="J102" s="3">
+        <v>-397500</v>
+      </c>
+      <c r="K102" s="3">
         <v>144800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-25100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>120600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-39300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>509100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>201900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-273400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>191700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>46100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-137300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-79800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>49400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>71300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>760700</v>
+        <v>695200</v>
       </c>
       <c r="E8" s="3">
-        <v>730700</v>
+        <v>731000</v>
       </c>
       <c r="F8" s="3">
-        <v>622100</v>
+        <v>702200</v>
       </c>
       <c r="G8" s="3">
-        <v>618400</v>
+        <v>597800</v>
       </c>
       <c r="H8" s="3">
-        <v>734200</v>
+        <v>594300</v>
       </c>
       <c r="I8" s="3">
-        <v>682600</v>
+        <v>705600</v>
       </c>
       <c r="J8" s="3">
+        <v>656000</v>
+      </c>
+      <c r="K8" s="3">
         <v>598100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>653500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>771100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>733600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>661900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>632700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>739000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>727200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>587700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>536000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>592000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>570200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>515000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>514000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>623600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>569500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>548200</v>
+        <v>498900</v>
       </c>
       <c r="E9" s="3">
-        <v>543500</v>
+        <v>526800</v>
       </c>
       <c r="F9" s="3">
-        <v>448200</v>
+        <v>522300</v>
       </c>
       <c r="G9" s="3">
-        <v>427800</v>
+        <v>430700</v>
       </c>
       <c r="H9" s="3">
-        <v>513300</v>
+        <v>411100</v>
       </c>
       <c r="I9" s="3">
-        <v>467700</v>
+        <v>493300</v>
       </c>
       <c r="J9" s="3">
+        <v>449400</v>
+      </c>
+      <c r="K9" s="3">
         <v>416300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>455700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>546500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>514500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>466800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>444100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>510900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>509900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>424900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>369700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>404000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>390700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>359000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>352100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>440400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>410000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>212500</v>
+        <v>196300</v>
       </c>
       <c r="E10" s="3">
-        <v>187100</v>
+        <v>204200</v>
       </c>
       <c r="F10" s="3">
-        <v>174000</v>
+        <v>179800</v>
       </c>
       <c r="G10" s="3">
-        <v>190600</v>
+        <v>167200</v>
       </c>
       <c r="H10" s="3">
-        <v>220900</v>
+        <v>183100</v>
       </c>
       <c r="I10" s="3">
-        <v>214900</v>
+        <v>212200</v>
       </c>
       <c r="J10" s="3">
+        <v>206600</v>
+      </c>
+      <c r="K10" s="3">
         <v>181800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>197800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>224600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>219100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>195000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>188600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>228100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>217300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>162800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>166300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>188100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>179500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>156000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>161900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>183200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>159500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,82 +1183,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>19700</v>
+        <v>-12700</v>
       </c>
       <c r="E14" s="3">
-        <v>23600</v>
+        <v>19000</v>
       </c>
       <c r="F14" s="3">
-        <v>3800</v>
+        <v>22600</v>
       </c>
       <c r="G14" s="3">
-        <v>23000</v>
+        <v>3700</v>
       </c>
       <c r="H14" s="3">
-        <v>24100</v>
+        <v>22100</v>
       </c>
       <c r="I14" s="3">
-        <v>-7000</v>
+        <v>23100</v>
       </c>
       <c r="J14" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K14" s="3">
         <v>2600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>53600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>22900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>23800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>669800</v>
+        <v>582100</v>
       </c>
       <c r="E17" s="3">
-        <v>669500</v>
+        <v>643600</v>
       </c>
       <c r="F17" s="3">
-        <v>535600</v>
+        <v>643400</v>
       </c>
       <c r="G17" s="3">
-        <v>533000</v>
+        <v>514700</v>
       </c>
       <c r="H17" s="3">
-        <v>639100</v>
+        <v>512200</v>
       </c>
       <c r="I17" s="3">
-        <v>578900</v>
+        <v>614200</v>
       </c>
       <c r="J17" s="3">
+        <v>556300</v>
+      </c>
+      <c r="K17" s="3">
         <v>507800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>549300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>684300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>632500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>578400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>545500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>673600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>634900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>523000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>470600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>496500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>516500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>445200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>449500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>535300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>538800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>90900</v>
+        <v>113100</v>
       </c>
       <c r="E18" s="3">
-        <v>61100</v>
+        <v>87400</v>
       </c>
       <c r="F18" s="3">
-        <v>86600</v>
+        <v>58700</v>
       </c>
       <c r="G18" s="3">
-        <v>85400</v>
+        <v>83200</v>
       </c>
       <c r="H18" s="3">
-        <v>95100</v>
+        <v>82100</v>
       </c>
       <c r="I18" s="3">
-        <v>103700</v>
+        <v>91400</v>
       </c>
       <c r="J18" s="3">
+        <v>99600</v>
+      </c>
+      <c r="K18" s="3">
         <v>90300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>104200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>86700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>101100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>83400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>87200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>65400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>92400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>64700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>65400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>95500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>53700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>69800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>64500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>88400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>30800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15200</v>
+        <v>-1200</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
-        <v>-2000</v>
-      </c>
       <c r="G20" s="3">
-        <v>-2600</v>
+        <v>-1900</v>
       </c>
       <c r="H20" s="3">
-        <v>-14500</v>
+        <v>-2500</v>
       </c>
       <c r="I20" s="3">
-        <v>1500</v>
+        <v>-14000</v>
       </c>
       <c r="J20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>13700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>97800</v>
+        <v>133900</v>
       </c>
       <c r="E21" s="3">
-        <v>83600</v>
+        <v>108700</v>
       </c>
       <c r="F21" s="3">
-        <v>102300</v>
+        <v>80300</v>
       </c>
       <c r="G21" s="3">
-        <v>100300</v>
+        <v>98300</v>
       </c>
       <c r="H21" s="3">
-        <v>98000</v>
+        <v>96300</v>
       </c>
       <c r="I21" s="3">
-        <v>121700</v>
+        <v>94200</v>
       </c>
       <c r="J21" s="3">
+        <v>117000</v>
+      </c>
+      <c r="K21" s="3">
         <v>107200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>121600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>110300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>136100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>99800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>106200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>85200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>121500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>77600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>71000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>112000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>63300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>84600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>75500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>103300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>43300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>14900</v>
       </c>
       <c r="E22" s="3">
-        <v>18000</v>
+        <v>14800</v>
       </c>
       <c r="F22" s="3">
-        <v>16500</v>
+        <v>17300</v>
       </c>
       <c r="G22" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="H22" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="I22" s="3">
-        <v>21700</v>
+        <v>13900</v>
       </c>
       <c r="J22" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K22" s="3">
         <v>15700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>17000</v>
       </c>
       <c r="L22" s="3">
         <v>17000</v>
       </c>
       <c r="M22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="N22" s="3">
         <v>43100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>37600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>36600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>19400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>23000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>75800</v>
+        <v>97000</v>
       </c>
       <c r="E23" s="3">
-        <v>43900</v>
+        <v>72800</v>
       </c>
       <c r="F23" s="3">
-        <v>68100</v>
+        <v>42200</v>
       </c>
       <c r="G23" s="3">
-        <v>67600</v>
+        <v>65400</v>
       </c>
       <c r="H23" s="3">
-        <v>66100</v>
+        <v>64900</v>
       </c>
       <c r="I23" s="3">
-        <v>83400</v>
+        <v>63500</v>
       </c>
       <c r="J23" s="3">
+        <v>80200</v>
+      </c>
+      <c r="K23" s="3">
         <v>74000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>86200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>73200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>71700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>61500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>69200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>68800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>51300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>45800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>88800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>34200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>60100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>28300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>69500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17600</v>
+        <v>22600</v>
       </c>
       <c r="E24" s="3">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="F24" s="3">
+        <v>13500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>13900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I24" s="3">
         <v>14400</v>
       </c>
-      <c r="G24" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>14900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>22500</v>
-      </c>
       <c r="J24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K24" s="3">
         <v>15500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>58100</v>
+        <v>74400</v>
       </c>
       <c r="E26" s="3">
-        <v>29900</v>
+        <v>55900</v>
       </c>
       <c r="F26" s="3">
-        <v>53700</v>
+        <v>28700</v>
       </c>
       <c r="G26" s="3">
-        <v>53100</v>
+        <v>51600</v>
       </c>
       <c r="H26" s="3">
-        <v>51200</v>
+        <v>51100</v>
       </c>
       <c r="I26" s="3">
-        <v>60900</v>
+        <v>49200</v>
       </c>
       <c r="J26" s="3">
         <v>58500</v>
       </c>
       <c r="K26" s="3">
+        <v>58500</v>
+      </c>
+      <c r="L26" s="3">
         <v>68300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>54300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>34000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>68500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>30600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>47000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>21700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>56300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>58100</v>
+        <v>74400</v>
       </c>
       <c r="E27" s="3">
-        <v>29900</v>
+        <v>55900</v>
       </c>
       <c r="F27" s="3">
-        <v>53700</v>
+        <v>28700</v>
       </c>
       <c r="G27" s="3">
-        <v>53100</v>
+        <v>51600</v>
       </c>
       <c r="H27" s="3">
-        <v>51200</v>
+        <v>51100</v>
       </c>
       <c r="I27" s="3">
-        <v>60900</v>
+        <v>49200</v>
       </c>
       <c r="J27" s="3">
         <v>58500</v>
       </c>
       <c r="K27" s="3">
+        <v>58500</v>
+      </c>
+      <c r="L27" s="3">
         <v>68300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>53600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>53700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>54600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>34000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>68500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>30600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>47000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>21700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>56300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15200</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
-        <v>2000</v>
-      </c>
       <c r="G32" s="3">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="H32" s="3">
-        <v>14500</v>
+        <v>2500</v>
       </c>
       <c r="I32" s="3">
-        <v>-1500</v>
+        <v>14000</v>
       </c>
       <c r="J32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-13700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>58100</v>
+        <v>74400</v>
       </c>
       <c r="E33" s="3">
-        <v>29900</v>
+        <v>55900</v>
       </c>
       <c r="F33" s="3">
-        <v>53700</v>
+        <v>28700</v>
       </c>
       <c r="G33" s="3">
-        <v>53100</v>
+        <v>51600</v>
       </c>
       <c r="H33" s="3">
-        <v>51200</v>
+        <v>51100</v>
       </c>
       <c r="I33" s="3">
-        <v>60900</v>
+        <v>49200</v>
       </c>
       <c r="J33" s="3">
         <v>58500</v>
       </c>
       <c r="K33" s="3">
+        <v>58500</v>
+      </c>
+      <c r="L33" s="3">
         <v>68300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>53600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>53700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>54600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>34000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>68500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>30600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>47000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>21700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>56300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>58100</v>
+        <v>74400</v>
       </c>
       <c r="E35" s="3">
-        <v>29900</v>
+        <v>55900</v>
       </c>
       <c r="F35" s="3">
-        <v>53700</v>
+        <v>28700</v>
       </c>
       <c r="G35" s="3">
-        <v>53100</v>
+        <v>51600</v>
       </c>
       <c r="H35" s="3">
-        <v>51200</v>
+        <v>51100</v>
       </c>
       <c r="I35" s="3">
-        <v>60900</v>
+        <v>49200</v>
       </c>
       <c r="J35" s="3">
         <v>58500</v>
       </c>
       <c r="K35" s="3">
+        <v>58500</v>
+      </c>
+      <c r="L35" s="3">
         <v>68300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>53600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>53700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>54600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>34000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>68500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>30600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>47000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>21700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>56300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,90 +2920,94 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>265500</v>
+        <v>220100</v>
       </c>
       <c r="E41" s="3">
-        <v>263600</v>
+        <v>254800</v>
       </c>
       <c r="F41" s="3">
-        <v>219600</v>
+        <v>253300</v>
       </c>
       <c r="G41" s="3">
-        <v>774900</v>
+        <v>211000</v>
       </c>
       <c r="H41" s="3">
-        <v>443900</v>
+        <v>744700</v>
       </c>
       <c r="I41" s="3">
-        <v>408000</v>
+        <v>426600</v>
       </c>
       <c r="J41" s="3">
+        <v>392100</v>
+      </c>
+      <c r="K41" s="3">
         <v>573100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1020200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>906100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>964300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>883700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>846700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>387400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>173700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>443200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>432100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>245900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>199800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>337200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>436200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>386800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2926,28 +3016,28 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>25900</v>
+        <v>4800</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>24900</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>27400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>28200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>30600</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2964,8 +3054,8 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2982,526 +3072,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>299200</v>
+        <v>347400</v>
       </c>
       <c r="E43" s="3">
-        <v>243500</v>
+        <v>287600</v>
       </c>
       <c r="F43" s="3">
-        <v>251400</v>
+        <v>234000</v>
       </c>
       <c r="G43" s="3">
-        <v>172300</v>
+        <v>241600</v>
       </c>
       <c r="H43" s="3">
-        <v>203800</v>
+        <v>165600</v>
       </c>
       <c r="I43" s="3">
-        <v>192000</v>
+        <v>195900</v>
       </c>
       <c r="J43" s="3">
+        <v>184500</v>
+      </c>
+      <c r="K43" s="3">
         <v>210800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>217900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>313700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>241300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>188600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>223900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>228000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>205700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>227600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>181300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>189800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>165000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>159700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>143100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>170000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>159300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>444300</v>
+        <v>471000</v>
       </c>
       <c r="E44" s="3">
-        <v>426200</v>
+        <v>427000</v>
       </c>
       <c r="F44" s="3">
-        <v>443700</v>
+        <v>409500</v>
       </c>
       <c r="G44" s="3">
-        <v>346800</v>
+        <v>426400</v>
       </c>
       <c r="H44" s="3">
-        <v>322300</v>
+        <v>333200</v>
       </c>
       <c r="I44" s="3">
-        <v>357300</v>
+        <v>309700</v>
       </c>
       <c r="J44" s="3">
+        <v>343400</v>
+      </c>
+      <c r="K44" s="3">
         <v>372000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>321800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>297100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>377300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>480600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>405500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>406100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>405100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>418200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>366200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>315000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>344300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>370900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>346900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>350700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>381500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26900</v>
+        <v>40200</v>
       </c>
       <c r="E45" s="3">
-        <v>31000</v>
+        <v>26100</v>
       </c>
       <c r="F45" s="3">
-        <v>24000</v>
+        <v>29800</v>
       </c>
       <c r="G45" s="3">
-        <v>47400</v>
+        <v>23000</v>
       </c>
       <c r="H45" s="3">
-        <v>42200</v>
+        <v>45600</v>
       </c>
       <c r="I45" s="3">
-        <v>21800</v>
+        <v>40600</v>
       </c>
       <c r="J45" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K45" s="3">
         <v>29600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>46000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>60800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>55500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>109900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>101500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>103300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>86400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>85200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>89500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>86700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>102500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>98100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1035900</v>
+        <v>1078700</v>
       </c>
       <c r="E46" s="3">
-        <v>964300</v>
+        <v>995500</v>
       </c>
       <c r="F46" s="3">
-        <v>938700</v>
+        <v>926700</v>
       </c>
       <c r="G46" s="3">
-        <v>1341400</v>
+        <v>902000</v>
       </c>
       <c r="H46" s="3">
-        <v>1017200</v>
+        <v>1289000</v>
       </c>
       <c r="I46" s="3">
-        <v>1005100</v>
+        <v>977600</v>
       </c>
       <c r="J46" s="3">
+        <v>965900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1185500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1621200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1586800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1658100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1644300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1527100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1590500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1108100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>921000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1093900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1023300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>840500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>820000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>913900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1059400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1025700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>1200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4800</v>
-      </c>
-      <c r="V47" s="3">
-        <v>1500</v>
       </c>
       <c r="W47" s="3">
         <v>1500</v>
       </c>
       <c r="X47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="Y47" s="3">
         <v>500</v>
       </c>
       <c r="Z47" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>563600</v>
+        <v>540100</v>
       </c>
       <c r="E48" s="3">
-        <v>570200</v>
+        <v>541600</v>
       </c>
       <c r="F48" s="3">
-        <v>525500</v>
+        <v>548000</v>
       </c>
       <c r="G48" s="3">
-        <v>440800</v>
+        <v>505000</v>
       </c>
       <c r="H48" s="3">
-        <v>438500</v>
+        <v>423600</v>
       </c>
       <c r="I48" s="3">
-        <v>438200</v>
+        <v>421400</v>
       </c>
       <c r="J48" s="3">
+        <v>421100</v>
+      </c>
+      <c r="K48" s="3">
         <v>431000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>452700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>467800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>493100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>510300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>493300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>511500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>412600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>379500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>352500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>315600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>331400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>329400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>327400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>345700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>350000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4729100</v>
+        <v>4549600</v>
       </c>
       <c r="E49" s="3">
-        <v>4727700</v>
+        <v>4544600</v>
       </c>
       <c r="F49" s="3">
-        <v>4701900</v>
+        <v>4543300</v>
       </c>
       <c r="G49" s="3">
-        <v>4207900</v>
+        <v>4518400</v>
       </c>
       <c r="H49" s="3">
-        <v>4207100</v>
+        <v>4043700</v>
       </c>
       <c r="I49" s="3">
-        <v>4212000</v>
+        <v>4043000</v>
       </c>
       <c r="J49" s="3">
+        <v>4047600</v>
+      </c>
+      <c r="K49" s="3">
         <v>4096800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4306900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4459700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4606600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4833200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4643100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4721200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4670300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4370100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4073100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3809500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3893300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3892200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3894300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4074200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4075700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>131100</v>
+        <v>203100</v>
       </c>
       <c r="E52" s="3">
-        <v>133200</v>
+        <v>133800</v>
       </c>
       <c r="F52" s="3">
-        <v>131000</v>
+        <v>136800</v>
       </c>
       <c r="G52" s="3">
-        <v>130400</v>
+        <v>133400</v>
       </c>
       <c r="H52" s="3">
-        <v>114200</v>
+        <v>126000</v>
       </c>
       <c r="I52" s="3">
+        <v>110600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>131500</v>
+      </c>
+      <c r="K52" s="3">
         <v>135700</v>
       </c>
-      <c r="J52" s="3">
-        <v>135700</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>148100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>140100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>133000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>149100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>121900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>116300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>123500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>100200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>94400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>97200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>93000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>97300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>89600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>76300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>76200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6467800</v>
+        <v>6371500</v>
       </c>
       <c r="E54" s="3">
-        <v>6404700</v>
+        <v>6215400</v>
       </c>
       <c r="F54" s="3">
-        <v>6304800</v>
+        <v>6154800</v>
       </c>
       <c r="G54" s="3">
-        <v>6121100</v>
+        <v>6058800</v>
       </c>
       <c r="H54" s="3">
-        <v>5778000</v>
+        <v>5882300</v>
       </c>
       <c r="I54" s="3">
-        <v>5792100</v>
+        <v>5552500</v>
       </c>
       <c r="J54" s="3">
+        <v>5566100</v>
+      </c>
+      <c r="K54" s="3">
         <v>5850200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6530500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6656200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6893000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7139500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6788100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6942400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6317600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5774000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5617500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5249400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5163100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5140300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5226700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5556000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5528100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>746100</v>
+        <v>729200</v>
       </c>
       <c r="E57" s="3">
-        <v>718200</v>
+        <v>717000</v>
       </c>
       <c r="F57" s="3">
-        <v>631500</v>
+        <v>690200</v>
       </c>
       <c r="G57" s="3">
-        <v>567200</v>
+        <v>606800</v>
       </c>
       <c r="H57" s="3">
-        <v>652400</v>
+        <v>545100</v>
       </c>
       <c r="I57" s="3">
-        <v>671700</v>
+        <v>627000</v>
       </c>
       <c r="J57" s="3">
+        <v>645500</v>
+      </c>
+      <c r="K57" s="3">
         <v>586200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>621300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>613900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>613100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>614900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>610600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>687500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>676100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>545700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>529300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>521400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>535800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>515200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>534900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>540500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>554900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30500</v>
+        <v>30100</v>
       </c>
       <c r="E58" s="3">
-        <v>30200</v>
+        <v>29300</v>
       </c>
       <c r="F58" s="3">
-        <v>28400</v>
+        <v>29000</v>
       </c>
       <c r="G58" s="3">
-        <v>22700</v>
+        <v>27300</v>
       </c>
       <c r="H58" s="3">
-        <v>22500</v>
+        <v>21800</v>
       </c>
       <c r="I58" s="3">
-        <v>23400</v>
+        <v>21600</v>
       </c>
       <c r="J58" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K58" s="3">
         <v>24700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>32300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>32600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>30800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>48800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>25300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4900</v>
       </c>
-      <c r="X58" s="3" t="s">
+      <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>261400</v>
+        <v>252700</v>
       </c>
       <c r="E59" s="3">
-        <v>254400</v>
+        <v>251200</v>
       </c>
       <c r="F59" s="3">
-        <v>283800</v>
+        <v>244500</v>
       </c>
       <c r="G59" s="3">
-        <v>368000</v>
+        <v>272700</v>
       </c>
       <c r="H59" s="3">
-        <v>226100</v>
+        <v>353700</v>
       </c>
       <c r="I59" s="3">
-        <v>256800</v>
+        <v>217200</v>
       </c>
       <c r="J59" s="3">
+        <v>246800</v>
+      </c>
+      <c r="K59" s="3">
         <v>319800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>318700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>307000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>315400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>317500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>290300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>297100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>292200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>282000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>269100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>261700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>248100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>279200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>295300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>321900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>329100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1038100</v>
+        <v>1012100</v>
       </c>
       <c r="E60" s="3">
-        <v>1002800</v>
+        <v>997600</v>
       </c>
       <c r="F60" s="3">
-        <v>943700</v>
+        <v>963700</v>
       </c>
       <c r="G60" s="3">
-        <v>958000</v>
+        <v>906800</v>
       </c>
       <c r="H60" s="3">
-        <v>901000</v>
+        <v>920600</v>
       </c>
       <c r="I60" s="3">
-        <v>951900</v>
+        <v>865800</v>
       </c>
       <c r="J60" s="3">
+        <v>914700</v>
+      </c>
+      <c r="K60" s="3">
         <v>930700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>965600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>947500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>960900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>965000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>931700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1033400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>993600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>835000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>805300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>787000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>787500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>799000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>835100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>862400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>884000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2296500</v>
+        <v>2248600</v>
       </c>
       <c r="E61" s="3">
-        <v>2281600</v>
+        <v>2206800</v>
       </c>
       <c r="F61" s="3">
-        <v>2262200</v>
+        <v>2192600</v>
       </c>
       <c r="G61" s="3">
-        <v>2179600</v>
+        <v>2173900</v>
       </c>
       <c r="H61" s="3">
-        <v>1837700</v>
+        <v>2094500</v>
       </c>
       <c r="I61" s="3">
-        <v>1802100</v>
+        <v>1766000</v>
       </c>
       <c r="J61" s="3">
+        <v>1731800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1875600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2008300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2103900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2156900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2291200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2159900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2219100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2061700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1952500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1933700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1624100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1565300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1575000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1596100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1703400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1704100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>688000</v>
+        <v>626900</v>
       </c>
       <c r="E62" s="3">
-        <v>734100</v>
+        <v>661200</v>
       </c>
       <c r="F62" s="3">
-        <v>698500</v>
+        <v>705500</v>
       </c>
       <c r="G62" s="3">
-        <v>653900</v>
+        <v>671300</v>
       </c>
       <c r="H62" s="3">
-        <v>773100</v>
+        <v>628400</v>
       </c>
       <c r="I62" s="3">
-        <v>831500</v>
+        <v>743000</v>
       </c>
       <c r="J62" s="3">
+        <v>799000</v>
+      </c>
+      <c r="K62" s="3">
         <v>746300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>749700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>720100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>790500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>827500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>793600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>764400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>826600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>767600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>720500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>734000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>731600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>725600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>699100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>707100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>706800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4022600</v>
+        <v>3887600</v>
       </c>
       <c r="E66" s="3">
-        <v>4018500</v>
+        <v>3865600</v>
       </c>
       <c r="F66" s="3">
-        <v>3904400</v>
+        <v>3861700</v>
       </c>
       <c r="G66" s="3">
-        <v>3791400</v>
+        <v>3752000</v>
       </c>
       <c r="H66" s="3">
-        <v>3511800</v>
+        <v>3643500</v>
       </c>
       <c r="I66" s="3">
-        <v>3585400</v>
+        <v>3374800</v>
       </c>
       <c r="J66" s="3">
+        <v>3445500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3552500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3723500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3771500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3906900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4082400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3883900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4015800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3881000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3554500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3459500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3145100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3084500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3099600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3130400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3272900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3294900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2316400</v>
+        <v>2345400</v>
       </c>
       <c r="E72" s="3">
-        <v>2266200</v>
+        <v>2226000</v>
       </c>
       <c r="F72" s="3">
-        <v>2298700</v>
+        <v>2177700</v>
       </c>
       <c r="G72" s="3">
-        <v>2241700</v>
+        <v>2209000</v>
       </c>
       <c r="H72" s="3">
-        <v>2187400</v>
+        <v>2154200</v>
       </c>
       <c r="I72" s="3">
-        <v>2144200</v>
+        <v>2102000</v>
       </c>
       <c r="J72" s="3">
+        <v>2060500</v>
+      </c>
+      <c r="K72" s="3">
         <v>2218100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2711800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2777100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2890900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2953200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2809800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2813700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2321600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2110600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2048900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2011800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1988600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1959700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2006100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2182600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2124700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2445200</v>
+        <v>2483900</v>
       </c>
       <c r="E76" s="3">
-        <v>2386100</v>
+        <v>2349800</v>
       </c>
       <c r="F76" s="3">
-        <v>2400500</v>
+        <v>2293000</v>
       </c>
       <c r="G76" s="3">
-        <v>2329700</v>
+        <v>2306800</v>
       </c>
       <c r="H76" s="3">
-        <v>2266200</v>
+        <v>2238800</v>
       </c>
       <c r="I76" s="3">
-        <v>2206700</v>
+        <v>2177700</v>
       </c>
       <c r="J76" s="3">
+        <v>2120600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2297700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2807000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2884600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2986100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3057100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2904200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2926600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2436700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2219500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2158000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2104300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2078600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2040700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2096300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2283100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2233200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>58100</v>
+        <v>74400</v>
       </c>
       <c r="E81" s="3">
-        <v>29900</v>
+        <v>55900</v>
       </c>
       <c r="F81" s="3">
-        <v>53700</v>
+        <v>28700</v>
       </c>
       <c r="G81" s="3">
-        <v>53100</v>
+        <v>51600</v>
       </c>
       <c r="H81" s="3">
-        <v>51200</v>
+        <v>51100</v>
       </c>
       <c r="I81" s="3">
-        <v>60900</v>
+        <v>49200</v>
       </c>
       <c r="J81" s="3">
         <v>58500</v>
       </c>
       <c r="K81" s="3">
+        <v>58500</v>
+      </c>
+      <c r="L81" s="3">
         <v>68300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>53600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>53700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>54600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>34000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>68500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>30600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>47000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>21700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>56300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22000</v>
+        <v>21900</v>
       </c>
       <c r="E83" s="3">
-        <v>21700</v>
+        <v>21100</v>
       </c>
       <c r="F83" s="3">
-        <v>17700</v>
+        <v>20800</v>
       </c>
       <c r="G83" s="3">
-        <v>17400</v>
+        <v>17100</v>
       </c>
       <c r="H83" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="I83" s="3">
-        <v>16600</v>
+        <v>16800</v>
       </c>
       <c r="J83" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K83" s="3">
         <v>17500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>10700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>14400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>81200</v>
+        <v>-2900</v>
       </c>
       <c r="E89" s="3">
-        <v>150200</v>
+        <v>78000</v>
       </c>
       <c r="F89" s="3">
-        <v>8000</v>
+        <v>144300</v>
       </c>
       <c r="G89" s="3">
-        <v>37400</v>
+        <v>7700</v>
       </c>
       <c r="H89" s="3">
-        <v>122400</v>
+        <v>35900</v>
       </c>
       <c r="I89" s="3">
-        <v>140800</v>
+        <v>117600</v>
       </c>
       <c r="J89" s="3">
+        <v>135300</v>
+      </c>
+      <c r="K89" s="3">
         <v>21100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>224000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>108100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>163300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>60800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>29500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>120600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>249100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>30100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>89500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>82200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-20000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>78100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>80600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>115200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21200</v>
+        <v>-13500</v>
       </c>
       <c r="E91" s="3">
-        <v>-29600</v>
+        <v>-20300</v>
       </c>
       <c r="F91" s="3">
-        <v>-17100</v>
+        <v>-28400</v>
       </c>
       <c r="G91" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-15300</v>
       </c>
-      <c r="H91" s="3">
-        <v>-20200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-22200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-28400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21200</v>
+        <v>-12900</v>
       </c>
       <c r="E94" s="3">
-        <v>-28500</v>
+        <v>-20300</v>
       </c>
       <c r="F94" s="3">
-        <v>-633300</v>
+        <v>-27400</v>
       </c>
       <c r="G94" s="3">
-        <v>-11000</v>
+        <v>-608600</v>
       </c>
       <c r="H94" s="3">
-        <v>-12100</v>
+        <v>-10600</v>
       </c>
       <c r="I94" s="3">
-        <v>-164300</v>
+        <v>-11700</v>
       </c>
       <c r="J94" s="3">
+        <v>-157900</v>
+      </c>
+      <c r="K94" s="3">
         <v>11900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-45200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-264600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-266000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-28400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-55300</v>
+        <v>-20300</v>
       </c>
       <c r="E100" s="3">
-        <v>-81700</v>
+        <v>-53200</v>
       </c>
       <c r="F100" s="3">
-        <v>36500</v>
+        <v>-78500</v>
       </c>
       <c r="G100" s="3">
-        <v>309400</v>
+        <v>35100</v>
       </c>
       <c r="H100" s="3">
-        <v>-41700</v>
+        <v>297300</v>
       </c>
       <c r="I100" s="3">
-        <v>-156800</v>
+        <v>-40100</v>
       </c>
       <c r="J100" s="3">
+        <v>-150700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-427200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-107600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-26500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-51600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>395600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>248700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>106500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-105400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-131000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-18900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-22200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3000</v>
+        <v>1400</v>
       </c>
       <c r="E101" s="3">
-        <v>4300</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
-        <v>7100</v>
+        <v>4100</v>
       </c>
       <c r="G101" s="3">
-        <v>-4600</v>
+        <v>6800</v>
       </c>
       <c r="H101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="N101" s="3">
         <v>4700</v>
       </c>
-      <c r="I101" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="M101" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-14100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>6700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1700</v>
+        <v>-34700</v>
       </c>
       <c r="E102" s="3">
-        <v>44200</v>
+        <v>1600</v>
       </c>
       <c r="F102" s="3">
-        <v>-581700</v>
+        <v>42500</v>
       </c>
       <c r="G102" s="3">
-        <v>331200</v>
+        <v>-559000</v>
       </c>
       <c r="H102" s="3">
-        <v>73200</v>
+        <v>318300</v>
       </c>
       <c r="I102" s="3">
-        <v>-176200</v>
+        <v>70300</v>
       </c>
       <c r="J102" s="3">
+        <v>-169400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-397500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>144800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-25100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>120600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-39300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>509100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>201900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-273400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>191700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>46100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-137300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-79800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>49400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>71300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>695200</v>
+        <v>775400</v>
       </c>
       <c r="E8" s="3">
-        <v>731000</v>
+        <v>711500</v>
       </c>
       <c r="F8" s="3">
-        <v>702200</v>
+        <v>748100</v>
       </c>
       <c r="G8" s="3">
-        <v>597800</v>
+        <v>718600</v>
       </c>
       <c r="H8" s="3">
-        <v>594300</v>
+        <v>611900</v>
       </c>
       <c r="I8" s="3">
-        <v>705600</v>
+        <v>608200</v>
       </c>
       <c r="J8" s="3">
+        <v>722100</v>
+      </c>
+      <c r="K8" s="3">
         <v>656000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>598100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>653500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>771100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>733600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>661900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>632700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>739000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>727200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>587700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>536000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>592000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>570200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>515000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>514000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>623600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>569500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>498900</v>
+        <v>549700</v>
       </c>
       <c r="E9" s="3">
-        <v>526800</v>
+        <v>510600</v>
       </c>
       <c r="F9" s="3">
-        <v>522300</v>
+        <v>539200</v>
       </c>
       <c r="G9" s="3">
-        <v>430700</v>
+        <v>534600</v>
       </c>
       <c r="H9" s="3">
-        <v>411100</v>
+        <v>440800</v>
       </c>
       <c r="I9" s="3">
-        <v>493300</v>
+        <v>420800</v>
       </c>
       <c r="J9" s="3">
+        <v>504900</v>
+      </c>
+      <c r="K9" s="3">
         <v>449400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>416300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>455700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>546500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>514500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>466800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>444100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>510900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>509900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>424900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>369700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>404000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>390700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>359000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>352100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>440400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>410000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>196300</v>
+        <v>225700</v>
       </c>
       <c r="E10" s="3">
-        <v>204200</v>
+        <v>200900</v>
       </c>
       <c r="F10" s="3">
-        <v>179800</v>
+        <v>209000</v>
       </c>
       <c r="G10" s="3">
-        <v>167200</v>
+        <v>184100</v>
       </c>
       <c r="H10" s="3">
-        <v>183100</v>
+        <v>171100</v>
       </c>
       <c r="I10" s="3">
-        <v>212200</v>
+        <v>187400</v>
       </c>
       <c r="J10" s="3">
+        <v>217200</v>
+      </c>
+      <c r="K10" s="3">
         <v>206600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>181800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>197800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>224600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>219100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>195000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>188600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>228100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>217300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>162800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>166300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>188100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>179500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>156000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>161900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>183200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>159500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,85 +1203,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-12700</v>
+        <v>19300</v>
       </c>
       <c r="E14" s="3">
-        <v>19000</v>
+        <v>-13000</v>
       </c>
       <c r="F14" s="3">
-        <v>22600</v>
+        <v>19400</v>
       </c>
       <c r="G14" s="3">
-        <v>3700</v>
+        <v>23200</v>
       </c>
       <c r="H14" s="3">
-        <v>22100</v>
+        <v>3800</v>
       </c>
       <c r="I14" s="3">
-        <v>23100</v>
+        <v>22700</v>
       </c>
       <c r="J14" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-6700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>53600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>22900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>12900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>23800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>582100</v>
+        <v>664300</v>
       </c>
       <c r="E17" s="3">
-        <v>643600</v>
+        <v>595700</v>
       </c>
       <c r="F17" s="3">
-        <v>643400</v>
+        <v>658700</v>
       </c>
       <c r="G17" s="3">
-        <v>514700</v>
+        <v>658500</v>
       </c>
       <c r="H17" s="3">
-        <v>512200</v>
+        <v>526700</v>
       </c>
       <c r="I17" s="3">
-        <v>614200</v>
+        <v>524200</v>
       </c>
       <c r="J17" s="3">
+        <v>628600</v>
+      </c>
+      <c r="K17" s="3">
         <v>556300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>507800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>549300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>684300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>632500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>578400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>545500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>673600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>634900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>523000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>470600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>496500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>516500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>445200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>449500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>535300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>538800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>113100</v>
+        <v>111100</v>
       </c>
       <c r="E18" s="3">
-        <v>87400</v>
+        <v>115800</v>
       </c>
       <c r="F18" s="3">
-        <v>58700</v>
+        <v>89400</v>
       </c>
       <c r="G18" s="3">
-        <v>83200</v>
+        <v>60100</v>
       </c>
       <c r="H18" s="3">
-        <v>82100</v>
+        <v>85100</v>
       </c>
       <c r="I18" s="3">
-        <v>91400</v>
+        <v>84000</v>
       </c>
       <c r="J18" s="3">
+        <v>93500</v>
+      </c>
+      <c r="K18" s="3">
         <v>99600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>90300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>104200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>86700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>101100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>83400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>87200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>65400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>92400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>64700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>65400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>95500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>53700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>69800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>64500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>88400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>30800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
-        <v>-2500</v>
-      </c>
       <c r="I20" s="3">
-        <v>-14000</v>
+        <v>-2600</v>
       </c>
       <c r="J20" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>13700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>133900</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>108700</v>
+        <v>158600</v>
       </c>
       <c r="F21" s="3">
-        <v>80300</v>
+        <v>38200</v>
       </c>
       <c r="G21" s="3">
-        <v>98300</v>
+        <v>82200</v>
       </c>
       <c r="H21" s="3">
-        <v>96300</v>
+        <v>100700</v>
       </c>
       <c r="I21" s="3">
-        <v>94200</v>
+        <v>115800</v>
       </c>
       <c r="J21" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K21" s="3">
         <v>117000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>107200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>121600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>110300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>136100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>99800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>106200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>85200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>121500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>77600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>71000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>112000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>63300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>84600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>75500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>103300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>43300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>14900</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="F22" s="3">
-        <v>17300</v>
+        <v>15100</v>
       </c>
       <c r="G22" s="3">
-        <v>15900</v>
+        <v>17700</v>
       </c>
       <c r="H22" s="3">
-        <v>14700</v>
+        <v>16200</v>
       </c>
       <c r="I22" s="3">
-        <v>13900</v>
+        <v>15000</v>
       </c>
       <c r="J22" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K22" s="3">
         <v>20800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>17000</v>
       </c>
       <c r="M22" s="3">
         <v>17000</v>
       </c>
       <c r="N22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O22" s="3">
         <v>43100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>37600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>17800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>36600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>19400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>23000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>97000</v>
+        <v>106600</v>
       </c>
       <c r="E23" s="3">
-        <v>72800</v>
+        <v>99300</v>
       </c>
       <c r="F23" s="3">
-        <v>42200</v>
+        <v>74500</v>
       </c>
       <c r="G23" s="3">
-        <v>65400</v>
+        <v>43200</v>
       </c>
       <c r="H23" s="3">
-        <v>64900</v>
+        <v>67000</v>
       </c>
       <c r="I23" s="3">
-        <v>63500</v>
+        <v>66500</v>
       </c>
       <c r="J23" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K23" s="3">
         <v>80200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>74000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>86200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>73200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>71700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>61500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>69200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>47700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>68800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>51300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>45800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>88800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>34200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>60100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>28300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>69500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22600</v>
+        <v>22800</v>
       </c>
       <c r="E24" s="3">
-        <v>17000</v>
+        <v>23200</v>
       </c>
       <c r="F24" s="3">
+        <v>17400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>13800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>15500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>17900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>19600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>18100</v>
+      </c>
+      <c r="P24" s="3">
         <v>13500</v>
       </c>
-      <c r="G24" s="3">
-        <v>13900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>13900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>14400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>21600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>15500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>17900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>19600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>18100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>13500</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>74400</v>
+        <v>83800</v>
       </c>
       <c r="E26" s="3">
-        <v>55900</v>
+        <v>76200</v>
       </c>
       <c r="F26" s="3">
-        <v>28700</v>
+        <v>57200</v>
       </c>
       <c r="G26" s="3">
-        <v>51600</v>
+        <v>29400</v>
       </c>
       <c r="H26" s="3">
-        <v>51100</v>
+        <v>52800</v>
       </c>
       <c r="I26" s="3">
-        <v>49200</v>
+        <v>52300</v>
       </c>
       <c r="J26" s="3">
-        <v>58500</v>
+        <v>50300</v>
       </c>
       <c r="K26" s="3">
         <v>58500</v>
       </c>
       <c r="L26" s="3">
+        <v>58500</v>
+      </c>
+      <c r="M26" s="3">
         <v>68300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>54300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>40200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>34000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>68500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>30600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>47000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>21700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>56300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>74400</v>
+        <v>83800</v>
       </c>
       <c r="E27" s="3">
-        <v>55900</v>
+        <v>76200</v>
       </c>
       <c r="F27" s="3">
-        <v>28700</v>
+        <v>57200</v>
       </c>
       <c r="G27" s="3">
-        <v>51600</v>
+        <v>29400</v>
       </c>
       <c r="H27" s="3">
-        <v>51100</v>
+        <v>52800</v>
       </c>
       <c r="I27" s="3">
-        <v>49200</v>
+        <v>52300</v>
       </c>
       <c r="J27" s="3">
-        <v>58500</v>
+        <v>50300</v>
       </c>
       <c r="K27" s="3">
         <v>58500</v>
       </c>
       <c r="L27" s="3">
+        <v>58500</v>
+      </c>
+      <c r="M27" s="3">
         <v>68300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>53600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>53700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>54600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>40600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>34000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>68500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>30600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>47000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>21700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>56300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
-        <v>2500</v>
-      </c>
       <c r="I32" s="3">
-        <v>14000</v>
+        <v>2600</v>
       </c>
       <c r="J32" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-13700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>74400</v>
+        <v>83800</v>
       </c>
       <c r="E33" s="3">
-        <v>55900</v>
+        <v>76200</v>
       </c>
       <c r="F33" s="3">
-        <v>28700</v>
+        <v>57200</v>
       </c>
       <c r="G33" s="3">
-        <v>51600</v>
+        <v>29400</v>
       </c>
       <c r="H33" s="3">
-        <v>51100</v>
+        <v>52800</v>
       </c>
       <c r="I33" s="3">
-        <v>49200</v>
+        <v>52300</v>
       </c>
       <c r="J33" s="3">
-        <v>58500</v>
+        <v>50300</v>
       </c>
       <c r="K33" s="3">
         <v>58500</v>
       </c>
       <c r="L33" s="3">
+        <v>58500</v>
+      </c>
+      <c r="M33" s="3">
         <v>68300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>53600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>53700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>54600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>26800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>40600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>34000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>68500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>30600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>47000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>21700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>56300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>74400</v>
+        <v>83800</v>
       </c>
       <c r="E35" s="3">
-        <v>55900</v>
+        <v>76200</v>
       </c>
       <c r="F35" s="3">
-        <v>28700</v>
+        <v>57200</v>
       </c>
       <c r="G35" s="3">
-        <v>51600</v>
+        <v>29400</v>
       </c>
       <c r="H35" s="3">
-        <v>51100</v>
+        <v>52800</v>
       </c>
       <c r="I35" s="3">
-        <v>49200</v>
+        <v>52300</v>
       </c>
       <c r="J35" s="3">
-        <v>58500</v>
+        <v>50300</v>
       </c>
       <c r="K35" s="3">
         <v>58500</v>
       </c>
       <c r="L35" s="3">
+        <v>58500</v>
+      </c>
+      <c r="M35" s="3">
         <v>68300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>53600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>53700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>54600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>26800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>40600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>34000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>68500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>30600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>47000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>21700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>56300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>220100</v>
+        <v>225300</v>
       </c>
       <c r="E41" s="3">
-        <v>254800</v>
+        <v>260800</v>
       </c>
       <c r="F41" s="3">
-        <v>253300</v>
+        <v>259300</v>
       </c>
       <c r="G41" s="3">
-        <v>211000</v>
+        <v>216000</v>
       </c>
       <c r="H41" s="3">
-        <v>744700</v>
+        <v>762100</v>
       </c>
       <c r="I41" s="3">
-        <v>426600</v>
+        <v>436600</v>
       </c>
       <c r="J41" s="3">
+        <v>401300</v>
+      </c>
+      <c r="K41" s="3">
         <v>392100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>573100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1020200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>906100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>964300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>883700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>846700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>387400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>173700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>443200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>432100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>245900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>199800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>337200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>436200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>386800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3019,28 +3109,28 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J42" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K42" s="3">
         <v>24900</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>27400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>28200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>30600</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -3057,8 +3147,8 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3075,316 +3165,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>347400</v>
+        <v>355500</v>
       </c>
       <c r="E43" s="3">
-        <v>287600</v>
+        <v>294300</v>
       </c>
       <c r="F43" s="3">
-        <v>234000</v>
+        <v>239500</v>
       </c>
       <c r="G43" s="3">
-        <v>241600</v>
+        <v>247200</v>
       </c>
       <c r="H43" s="3">
-        <v>165600</v>
+        <v>169500</v>
       </c>
       <c r="I43" s="3">
-        <v>195900</v>
+        <v>200500</v>
       </c>
       <c r="J43" s="3">
+        <v>188800</v>
+      </c>
+      <c r="K43" s="3">
         <v>184500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>210800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>217900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>313700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>241300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>188600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>223900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>228000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>205700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>227600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>181300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>189800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>165000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>159700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>143100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>170000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>159300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>471000</v>
+        <v>482000</v>
       </c>
       <c r="E44" s="3">
-        <v>427000</v>
+        <v>437000</v>
       </c>
       <c r="F44" s="3">
-        <v>409500</v>
+        <v>419100</v>
       </c>
       <c r="G44" s="3">
-        <v>426400</v>
+        <v>436400</v>
       </c>
       <c r="H44" s="3">
-        <v>333200</v>
+        <v>341000</v>
       </c>
       <c r="I44" s="3">
-        <v>309700</v>
+        <v>317000</v>
       </c>
       <c r="J44" s="3">
+        <v>351500</v>
+      </c>
+      <c r="K44" s="3">
         <v>343400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>372000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>321800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>297100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>377300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>480600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>405500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>406100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>405100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>418200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>366200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>315000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>344300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>370900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>346900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>350700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>381500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40200</v>
+        <v>41100</v>
       </c>
       <c r="E45" s="3">
-        <v>26100</v>
+        <v>26700</v>
       </c>
       <c r="F45" s="3">
-        <v>29800</v>
+        <v>30500</v>
       </c>
       <c r="G45" s="3">
-        <v>23000</v>
+        <v>23600</v>
       </c>
       <c r="H45" s="3">
-        <v>45600</v>
+        <v>46700</v>
       </c>
       <c r="I45" s="3">
-        <v>40600</v>
+        <v>41500</v>
       </c>
       <c r="J45" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K45" s="3">
         <v>20900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>41800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>46000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>60800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>51100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>55500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>109900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>101500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>103300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>86400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>85200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>89500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>86700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>102500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>98100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1078700</v>
+        <v>1104000</v>
       </c>
       <c r="E46" s="3">
-        <v>995500</v>
+        <v>1018900</v>
       </c>
       <c r="F46" s="3">
-        <v>926700</v>
+        <v>948400</v>
       </c>
       <c r="G46" s="3">
-        <v>902000</v>
+        <v>923200</v>
       </c>
       <c r="H46" s="3">
-        <v>1289000</v>
+        <v>1319300</v>
       </c>
       <c r="I46" s="3">
-        <v>977600</v>
+        <v>1000500</v>
       </c>
       <c r="J46" s="3">
+        <v>988500</v>
+      </c>
+      <c r="K46" s="3">
         <v>965900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1185500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1621200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1586800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1658100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1644300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1527100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1590500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1108100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>921000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1093900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1023300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>840500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>820000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>913900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1059400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1025700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3410,212 +3515,221 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>1200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4800</v>
-      </c>
-      <c r="W47" s="3">
-        <v>1500</v>
       </c>
       <c r="X47" s="3">
         <v>1500</v>
       </c>
       <c r="Y47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="Z47" s="3">
         <v>500</v>
       </c>
       <c r="AA47" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>540100</v>
+        <v>552800</v>
       </c>
       <c r="E48" s="3">
-        <v>541600</v>
+        <v>554300</v>
       </c>
       <c r="F48" s="3">
-        <v>548000</v>
+        <v>560800</v>
       </c>
       <c r="G48" s="3">
-        <v>505000</v>
+        <v>516800</v>
       </c>
       <c r="H48" s="3">
-        <v>423600</v>
+        <v>433500</v>
       </c>
       <c r="I48" s="3">
-        <v>421400</v>
+        <v>431300</v>
       </c>
       <c r="J48" s="3">
+        <v>431000</v>
+      </c>
+      <c r="K48" s="3">
         <v>421100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>431000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>452700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>467800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>493100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>510300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>493300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>511500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>412600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>379500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>352500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>315600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>331400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>329400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>327400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>345700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>350000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4549600</v>
+        <v>4656400</v>
       </c>
       <c r="E49" s="3">
-        <v>4544600</v>
+        <v>4651200</v>
       </c>
       <c r="F49" s="3">
-        <v>4543300</v>
+        <v>4649800</v>
       </c>
       <c r="G49" s="3">
-        <v>4518400</v>
+        <v>4624400</v>
       </c>
       <c r="H49" s="3">
-        <v>4043700</v>
+        <v>4138500</v>
       </c>
       <c r="I49" s="3">
-        <v>4043000</v>
+        <v>4137800</v>
       </c>
       <c r="J49" s="3">
+        <v>4142600</v>
+      </c>
+      <c r="K49" s="3">
         <v>4047600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4096800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4306900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4459700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4606600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4833200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4643100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4721200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4670300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4370100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4073100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3809500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3893300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3892200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3894300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4074200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4075700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>203100</v>
+        <v>207800</v>
       </c>
       <c r="E52" s="3">
-        <v>133800</v>
+        <v>136900</v>
       </c>
       <c r="F52" s="3">
-        <v>136800</v>
+        <v>140100</v>
       </c>
       <c r="G52" s="3">
-        <v>133400</v>
+        <v>136500</v>
       </c>
       <c r="H52" s="3">
-        <v>126000</v>
+        <v>128900</v>
       </c>
       <c r="I52" s="3">
-        <v>110600</v>
+        <v>113200</v>
       </c>
       <c r="J52" s="3">
+        <v>134500</v>
+      </c>
+      <c r="K52" s="3">
         <v>131500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>135700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>148100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>140100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>133000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>149100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>121900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>116300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>123500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>100200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>94400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>97200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>93000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>97300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>89600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>76300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>76200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6371500</v>
+        <v>6521000</v>
       </c>
       <c r="E54" s="3">
-        <v>6215400</v>
+        <v>6361200</v>
       </c>
       <c r="F54" s="3">
-        <v>6154800</v>
+        <v>6299200</v>
       </c>
       <c r="G54" s="3">
-        <v>6058800</v>
+        <v>6201000</v>
       </c>
       <c r="H54" s="3">
-        <v>5882300</v>
+        <v>6020300</v>
       </c>
       <c r="I54" s="3">
-        <v>5552500</v>
+        <v>5682800</v>
       </c>
       <c r="J54" s="3">
+        <v>5696700</v>
+      </c>
+      <c r="K54" s="3">
         <v>5566100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5850200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6530500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6656200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6893000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7139500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6788100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6942400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6317600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5774000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5617500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5249400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5163100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5140300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5226700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5556000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5528100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>729200</v>
+        <v>746300</v>
       </c>
       <c r="E57" s="3">
-        <v>717000</v>
+        <v>733900</v>
       </c>
       <c r="F57" s="3">
-        <v>690200</v>
+        <v>706400</v>
       </c>
       <c r="G57" s="3">
-        <v>606800</v>
+        <v>621100</v>
       </c>
       <c r="H57" s="3">
-        <v>545100</v>
+        <v>557900</v>
       </c>
       <c r="I57" s="3">
-        <v>627000</v>
+        <v>641700</v>
       </c>
       <c r="J57" s="3">
+        <v>660700</v>
+      </c>
+      <c r="K57" s="3">
         <v>645500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>586200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>621300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>613900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>613100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>614900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>610600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>687500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>676100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>545700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>529300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>521400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>535800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>515200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>534900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>540500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>554900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30100</v>
+        <v>30800</v>
       </c>
       <c r="E58" s="3">
-        <v>29300</v>
+        <v>30000</v>
       </c>
       <c r="F58" s="3">
-        <v>29000</v>
+        <v>29700</v>
       </c>
       <c r="G58" s="3">
-        <v>27300</v>
+        <v>28000</v>
       </c>
       <c r="H58" s="3">
-        <v>21800</v>
+        <v>22400</v>
       </c>
       <c r="I58" s="3">
-        <v>21600</v>
+        <v>22200</v>
       </c>
       <c r="J58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K58" s="3">
         <v>22400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>32300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>32600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>30800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>48800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>25300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4900</v>
       </c>
-      <c r="Y58" s="3" t="s">
+      <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>252700</v>
+        <v>258700</v>
       </c>
       <c r="E59" s="3">
-        <v>251200</v>
+        <v>257100</v>
       </c>
       <c r="F59" s="3">
-        <v>244500</v>
+        <v>250200</v>
       </c>
       <c r="G59" s="3">
-        <v>272700</v>
+        <v>279100</v>
       </c>
       <c r="H59" s="3">
-        <v>353700</v>
+        <v>362000</v>
       </c>
       <c r="I59" s="3">
-        <v>217200</v>
+        <v>222300</v>
       </c>
       <c r="J59" s="3">
+        <v>252500</v>
+      </c>
+      <c r="K59" s="3">
         <v>246800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>319800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>318700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>307000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>315400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>317500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>290300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>297100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>292200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>282000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>269100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>261700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>248100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>279200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>295300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>321900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>329100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1012100</v>
+        <v>1035800</v>
       </c>
       <c r="E60" s="3">
-        <v>997600</v>
+        <v>1021000</v>
       </c>
       <c r="F60" s="3">
-        <v>963700</v>
+        <v>986300</v>
       </c>
       <c r="G60" s="3">
-        <v>906800</v>
+        <v>928100</v>
       </c>
       <c r="H60" s="3">
-        <v>920600</v>
+        <v>942200</v>
       </c>
       <c r="I60" s="3">
-        <v>865800</v>
+        <v>886200</v>
       </c>
       <c r="J60" s="3">
+        <v>936200</v>
+      </c>
+      <c r="K60" s="3">
         <v>914700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>930700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>965600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>947500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>960900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>965000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>931700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1033400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>993600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>835000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>805300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>787000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>787500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>799000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>835100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>862400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>884000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2248600</v>
+        <v>2301400</v>
       </c>
       <c r="E61" s="3">
-        <v>2206800</v>
+        <v>2258600</v>
       </c>
       <c r="F61" s="3">
-        <v>2192600</v>
+        <v>2244000</v>
       </c>
       <c r="G61" s="3">
-        <v>2173900</v>
+        <v>2224900</v>
       </c>
       <c r="H61" s="3">
-        <v>2094500</v>
+        <v>2143700</v>
       </c>
       <c r="I61" s="3">
-        <v>1766000</v>
+        <v>1807400</v>
       </c>
       <c r="J61" s="3">
+        <v>1772400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1731800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1875600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2008300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2103900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2156900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2291200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2159900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2219100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2061700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1952500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1933700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1624100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1565300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1575000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1596100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1703400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1704100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>626900</v>
+        <v>641600</v>
       </c>
       <c r="E62" s="3">
-        <v>661200</v>
+        <v>676700</v>
       </c>
       <c r="F62" s="3">
-        <v>705500</v>
+        <v>722000</v>
       </c>
       <c r="G62" s="3">
-        <v>671300</v>
+        <v>687000</v>
       </c>
       <c r="H62" s="3">
-        <v>628400</v>
+        <v>643100</v>
       </c>
       <c r="I62" s="3">
-        <v>743000</v>
+        <v>760400</v>
       </c>
       <c r="J62" s="3">
+        <v>817800</v>
+      </c>
+      <c r="K62" s="3">
         <v>799000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>746300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>749700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>720100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>790500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>827500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>793600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>764400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>826600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>767600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>720500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>734000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>731600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>725600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>699100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>707100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>706800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3887600</v>
+        <v>3978800</v>
       </c>
       <c r="E66" s="3">
-        <v>3865600</v>
+        <v>3956300</v>
       </c>
       <c r="F66" s="3">
-        <v>3861700</v>
+        <v>3952300</v>
       </c>
       <c r="G66" s="3">
-        <v>3752000</v>
+        <v>3840000</v>
       </c>
       <c r="H66" s="3">
-        <v>3643500</v>
+        <v>3729000</v>
       </c>
       <c r="I66" s="3">
-        <v>3374800</v>
+        <v>3454000</v>
       </c>
       <c r="J66" s="3">
+        <v>3526400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3445500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3552500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3723500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3771500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3906900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4082400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3883900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4015800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3881000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3554500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3459500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3145100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3084500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3099600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3130400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3272900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3294900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2345400</v>
+        <v>2400400</v>
       </c>
       <c r="E72" s="3">
-        <v>2226000</v>
+        <v>2278200</v>
       </c>
       <c r="F72" s="3">
-        <v>2177700</v>
+        <v>2228800</v>
       </c>
       <c r="G72" s="3">
-        <v>2209000</v>
+        <v>2260900</v>
       </c>
       <c r="H72" s="3">
-        <v>2154200</v>
+        <v>2204700</v>
       </c>
       <c r="I72" s="3">
-        <v>2102000</v>
+        <v>2151300</v>
       </c>
       <c r="J72" s="3">
+        <v>2108900</v>
+      </c>
+      <c r="K72" s="3">
         <v>2060500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2218100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2711800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2777100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2890900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2953200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2809800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2813700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2321600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2110600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2048900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2011800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1988600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1959700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2006100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2182600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2124700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2483900</v>
+        <v>2542200</v>
       </c>
       <c r="E76" s="3">
-        <v>2349800</v>
+        <v>2404900</v>
       </c>
       <c r="F76" s="3">
-        <v>2293000</v>
+        <v>2346800</v>
       </c>
       <c r="G76" s="3">
-        <v>2306800</v>
+        <v>2360900</v>
       </c>
       <c r="H76" s="3">
-        <v>2238800</v>
+        <v>2291300</v>
       </c>
       <c r="I76" s="3">
-        <v>2177700</v>
+        <v>2228800</v>
       </c>
       <c r="J76" s="3">
+        <v>2170300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2120600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2297700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2807000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2884600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2986100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3057100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2904200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2926600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2436700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2219500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2158000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2104300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2078600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2040700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2096300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2283100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2233200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>74400</v>
+        <v>83800</v>
       </c>
       <c r="E81" s="3">
-        <v>55900</v>
+        <v>76200</v>
       </c>
       <c r="F81" s="3">
-        <v>28700</v>
+        <v>57200</v>
       </c>
       <c r="G81" s="3">
-        <v>51600</v>
+        <v>29400</v>
       </c>
       <c r="H81" s="3">
-        <v>51100</v>
+        <v>52800</v>
       </c>
       <c r="I81" s="3">
-        <v>49200</v>
+        <v>52300</v>
       </c>
       <c r="J81" s="3">
-        <v>58500</v>
+        <v>50300</v>
       </c>
       <c r="K81" s="3">
         <v>58500</v>
       </c>
       <c r="L81" s="3">
+        <v>58500</v>
+      </c>
+      <c r="M81" s="3">
         <v>68300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>53600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>53700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>54600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>26800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>40600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>34000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>68500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>30600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>47000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>21700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>56300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>21900</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>21100</v>
+        <v>44100</v>
       </c>
       <c r="F83" s="3">
-        <v>20800</v>
+        <v>-51400</v>
       </c>
       <c r="G83" s="3">
-        <v>17100</v>
+        <v>21300</v>
       </c>
       <c r="H83" s="3">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="I83" s="3">
-        <v>16800</v>
+        <v>34300</v>
       </c>
       <c r="J83" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="K83" s="3">
         <v>16000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>10700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>14400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-2900</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3">
-        <v>78000</v>
+        <v>76900</v>
       </c>
       <c r="F89" s="3">
-        <v>144300</v>
+        <v>-232800</v>
       </c>
       <c r="G89" s="3">
-        <v>7700</v>
+        <v>147700</v>
       </c>
       <c r="H89" s="3">
-        <v>35900</v>
+        <v>7900</v>
       </c>
       <c r="I89" s="3">
-        <v>117600</v>
+        <v>157100</v>
       </c>
       <c r="J89" s="3">
+        <v>-346200</v>
+      </c>
+      <c r="K89" s="3">
         <v>135300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>224000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>108100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>163300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>60800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>29500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>120600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>249100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>30100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>89500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>82200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-20000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>78100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>80600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>115200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="W91" s="3">
         <v>-13500</v>
       </c>
-      <c r="E91" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="X91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-28400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-19400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-24400</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="AB91" s="3">
         <v>-6900</v>
       </c>
-      <c r="R91" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-6900</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-12900</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>-20300</v>
+        <v>-34000</v>
       </c>
       <c r="F94" s="3">
-        <v>-27400</v>
+        <v>652900</v>
       </c>
       <c r="G94" s="3">
-        <v>-608600</v>
+        <v>-28100</v>
       </c>
       <c r="H94" s="3">
-        <v>-10600</v>
+        <v>-622900</v>
       </c>
       <c r="I94" s="3">
-        <v>-11700</v>
+        <v>-22800</v>
       </c>
       <c r="J94" s="3">
+        <v>163000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-157900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>11900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-45200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-264600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-266000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-15800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-28400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-20300</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
-        <v>-53200</v>
+        <v>-75200</v>
       </c>
       <c r="F100" s="3">
-        <v>-78500</v>
+        <v>-273300</v>
       </c>
       <c r="G100" s="3">
-        <v>35100</v>
+        <v>-80300</v>
       </c>
       <c r="H100" s="3">
-        <v>297300</v>
+        <v>35900</v>
       </c>
       <c r="I100" s="3">
-        <v>-40100</v>
+        <v>263300</v>
       </c>
       <c r="J100" s="3">
+        <v>688600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-150700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-427200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-107600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-26500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-51600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>395600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>248700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>106500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-16800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-105400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-131000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-18900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-22200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>1400</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K101" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="O101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="R101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="X101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-2900</v>
       </c>
-      <c r="F101" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="N101" s="3">
-        <v>4700</v>
-      </c>
-      <c r="O101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>2200</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="U101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="X101" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>6700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-34700</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>1600</v>
+        <v>-33900</v>
       </c>
       <c r="F102" s="3">
-        <v>42500</v>
+        <v>132600</v>
       </c>
       <c r="G102" s="3">
-        <v>-559000</v>
+        <v>43500</v>
       </c>
       <c r="H102" s="3">
-        <v>318300</v>
+        <v>-572200</v>
       </c>
       <c r="I102" s="3">
-        <v>70300</v>
+        <v>397700</v>
       </c>
       <c r="J102" s="3">
+        <v>523500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-169400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-397500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>144800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>120600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-39300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>509100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>201900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-273400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>10900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>191700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>46100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-137300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-79800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>49400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>71300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>793700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>803700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>737400</v>
+      </c>
+      <c r="G8" s="3">
         <v>775400</v>
       </c>
-      <c r="E8" s="3">
-        <v>711500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>748100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>718600</v>
-      </c>
       <c r="H8" s="3">
-        <v>611900</v>
+        <v>744800</v>
       </c>
       <c r="I8" s="3">
-        <v>608200</v>
+        <v>634200</v>
       </c>
       <c r="J8" s="3">
+        <v>630400</v>
+      </c>
+      <c r="K8" s="3">
         <v>722100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>656000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>598100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>653500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>771100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>733600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>661900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>632700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>739000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>727200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>587700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>536000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>592000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>570200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>515000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>514000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>623600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>569500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>549700</v>
+        <v>589800</v>
       </c>
       <c r="E9" s="3">
-        <v>510600</v>
+        <v>569700</v>
       </c>
       <c r="F9" s="3">
-        <v>539200</v>
+        <v>529200</v>
       </c>
       <c r="G9" s="3">
-        <v>534600</v>
+        <v>558800</v>
       </c>
       <c r="H9" s="3">
-        <v>440800</v>
+        <v>554100</v>
       </c>
       <c r="I9" s="3">
-        <v>420800</v>
+        <v>456800</v>
       </c>
       <c r="J9" s="3">
+        <v>436100</v>
+      </c>
+      <c r="K9" s="3">
         <v>504900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>449400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>416300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>455700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>546500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>514500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>466800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>444100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>510900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>509900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>424900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>369700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>404000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>390700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>359000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>352100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>440400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>410000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>225700</v>
+        <v>203900</v>
       </c>
       <c r="E10" s="3">
-        <v>200900</v>
+        <v>233900</v>
       </c>
       <c r="F10" s="3">
-        <v>209000</v>
+        <v>208200</v>
       </c>
       <c r="G10" s="3">
-        <v>184100</v>
+        <v>216600</v>
       </c>
       <c r="H10" s="3">
-        <v>171100</v>
+        <v>190800</v>
       </c>
       <c r="I10" s="3">
-        <v>187400</v>
+        <v>177300</v>
       </c>
       <c r="J10" s="3">
+        <v>194200</v>
+      </c>
+      <c r="K10" s="3">
         <v>217200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>206600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>181800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>197800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>224600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>219100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>195000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>188600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>228100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>217300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>162800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>166300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>188100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>179500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>156000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>161900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>183200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>159500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,88 +1222,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>19300</v>
+        <v>24900</v>
       </c>
       <c r="E14" s="3">
-        <v>-13000</v>
+        <v>20000</v>
       </c>
       <c r="F14" s="3">
-        <v>19400</v>
+        <v>-13400</v>
       </c>
       <c r="G14" s="3">
-        <v>23200</v>
+        <v>20100</v>
       </c>
       <c r="H14" s="3">
-        <v>3800</v>
+        <v>24000</v>
       </c>
       <c r="I14" s="3">
-        <v>22700</v>
+        <v>3900</v>
       </c>
       <c r="J14" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K14" s="3">
         <v>23700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-6700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>23300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>53600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>22900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>12900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>23800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>664300</v>
+        <v>724300</v>
       </c>
       <c r="E17" s="3">
-        <v>595700</v>
+        <v>688500</v>
       </c>
       <c r="F17" s="3">
-        <v>658700</v>
+        <v>617400</v>
       </c>
       <c r="G17" s="3">
-        <v>658500</v>
+        <v>682700</v>
       </c>
       <c r="H17" s="3">
-        <v>526700</v>
+        <v>682500</v>
       </c>
       <c r="I17" s="3">
-        <v>524200</v>
+        <v>545900</v>
       </c>
       <c r="J17" s="3">
+        <v>543300</v>
+      </c>
+      <c r="K17" s="3">
         <v>628600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>556300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>507800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>549300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>684300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>632500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>578400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>545500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>673600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>634900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>523000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>470600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>496500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>516500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>445200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>449500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>535300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>538800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>111100</v>
+        <v>69400</v>
       </c>
       <c r="E18" s="3">
-        <v>115800</v>
+        <v>115100</v>
       </c>
       <c r="F18" s="3">
-        <v>89400</v>
+        <v>120000</v>
       </c>
       <c r="G18" s="3">
-        <v>60100</v>
+        <v>92700</v>
       </c>
       <c r="H18" s="3">
-        <v>85100</v>
+        <v>62300</v>
       </c>
       <c r="I18" s="3">
-        <v>84000</v>
+        <v>88200</v>
       </c>
       <c r="J18" s="3">
+        <v>87100</v>
+      </c>
+      <c r="K18" s="3">
         <v>93500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>99600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>90300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>104200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>86700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>101100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>83400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>87200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>65400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>92400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>64700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>65400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>95500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>53700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>69800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>64500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>88400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>30800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4500</v>
+        <v>18600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1200</v>
+        <v>12200</v>
       </c>
       <c r="F20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>13700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>112100</v>
       </c>
       <c r="E21" s="3">
-        <v>158600</v>
+        <v>151200</v>
       </c>
       <c r="F21" s="3">
-        <v>38200</v>
+        <v>142000</v>
       </c>
       <c r="G21" s="3">
-        <v>82200</v>
+        <v>115300</v>
       </c>
       <c r="H21" s="3">
-        <v>100700</v>
+        <v>85200</v>
       </c>
       <c r="I21" s="3">
-        <v>115800</v>
+        <v>104300</v>
       </c>
       <c r="J21" s="3">
+        <v>102200</v>
+      </c>
+      <c r="K21" s="3">
         <v>27400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>117000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>107200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>121600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>110300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>136100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>99800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>106200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>85200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>121500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>77600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>71000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>112000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>63300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>84600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>75500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>103300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>43300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>39000</v>
       </c>
       <c r="E22" s="3">
-        <v>15200</v>
+        <v>16800</v>
       </c>
       <c r="F22" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="G22" s="3">
-        <v>17700</v>
+        <v>15700</v>
       </c>
       <c r="H22" s="3">
-        <v>16200</v>
+        <v>18300</v>
       </c>
       <c r="I22" s="3">
-        <v>15000</v>
+        <v>16800</v>
       </c>
       <c r="J22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K22" s="3">
         <v>14200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>17000</v>
       </c>
       <c r="N22" s="3">
         <v>17000</v>
       </c>
       <c r="O22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="P22" s="3">
         <v>43100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>37600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>17800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>12600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>36600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>19400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>23000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>106600</v>
+        <v>49000</v>
       </c>
       <c r="E23" s="3">
-        <v>99300</v>
+        <v>110500</v>
       </c>
       <c r="F23" s="3">
-        <v>74500</v>
+        <v>102900</v>
       </c>
       <c r="G23" s="3">
-        <v>43200</v>
+        <v>77200</v>
       </c>
       <c r="H23" s="3">
-        <v>67000</v>
+        <v>44800</v>
       </c>
       <c r="I23" s="3">
-        <v>66500</v>
+        <v>69400</v>
       </c>
       <c r="J23" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K23" s="3">
         <v>65000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>80200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>74000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>86200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>73200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>71700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>61500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>69200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>47700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>68800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>51300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>45800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>88800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>34200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>60100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>28300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>69500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22800</v>
+        <v>9700</v>
       </c>
       <c r="E24" s="3">
-        <v>23200</v>
+        <v>23600</v>
       </c>
       <c r="F24" s="3">
-        <v>17400</v>
+        <v>24000</v>
       </c>
       <c r="G24" s="3">
-        <v>13800</v>
+        <v>18000</v>
       </c>
       <c r="H24" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="I24" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="J24" s="3">
         <v>14700</v>
       </c>
       <c r="K24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="L24" s="3">
         <v>21600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>7200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>83800</v>
+        <v>39300</v>
       </c>
       <c r="E26" s="3">
-        <v>76200</v>
+        <v>86900</v>
       </c>
       <c r="F26" s="3">
-        <v>57200</v>
+        <v>78900</v>
       </c>
       <c r="G26" s="3">
-        <v>29400</v>
+        <v>59200</v>
       </c>
       <c r="H26" s="3">
-        <v>52800</v>
+        <v>30500</v>
       </c>
       <c r="I26" s="3">
-        <v>52300</v>
+        <v>54700</v>
       </c>
       <c r="J26" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K26" s="3">
         <v>50300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>58500</v>
       </c>
       <c r="L26" s="3">
         <v>58500</v>
       </c>
       <c r="M26" s="3">
+        <v>58500</v>
+      </c>
+      <c r="N26" s="3">
         <v>68300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>54300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>26700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>40200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>34000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>68500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>30600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>47000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>21700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>56300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>83800</v>
+        <v>39300</v>
       </c>
       <c r="E27" s="3">
-        <v>76200</v>
+        <v>86900</v>
       </c>
       <c r="F27" s="3">
-        <v>57200</v>
+        <v>78900</v>
       </c>
       <c r="G27" s="3">
-        <v>29400</v>
+        <v>59200</v>
       </c>
       <c r="H27" s="3">
-        <v>52800</v>
+        <v>30500</v>
       </c>
       <c r="I27" s="3">
-        <v>52300</v>
+        <v>54700</v>
       </c>
       <c r="J27" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K27" s="3">
         <v>50300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>58500</v>
       </c>
       <c r="L27" s="3">
         <v>58500</v>
       </c>
       <c r="M27" s="3">
+        <v>58500</v>
+      </c>
+      <c r="N27" s="3">
         <v>68300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>53600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>53700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>54600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>26800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>48600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>40600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>34000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>68500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>30600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>47000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>21700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>56300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4500</v>
+        <v>-18600</v>
       </c>
       <c r="E32" s="3">
-        <v>1200</v>
+        <v>-12200</v>
       </c>
       <c r="F32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
-        <v>1900</v>
-      </c>
       <c r="I32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-13700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>83800</v>
+        <v>39300</v>
       </c>
       <c r="E33" s="3">
-        <v>76200</v>
+        <v>86900</v>
       </c>
       <c r="F33" s="3">
-        <v>57200</v>
+        <v>78900</v>
       </c>
       <c r="G33" s="3">
-        <v>29400</v>
+        <v>59200</v>
       </c>
       <c r="H33" s="3">
-        <v>52800</v>
+        <v>30500</v>
       </c>
       <c r="I33" s="3">
-        <v>52300</v>
+        <v>54700</v>
       </c>
       <c r="J33" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K33" s="3">
         <v>50300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>58500</v>
       </c>
       <c r="L33" s="3">
         <v>58500</v>
       </c>
       <c r="M33" s="3">
+        <v>58500</v>
+      </c>
+      <c r="N33" s="3">
         <v>68300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>53600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>53700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>54600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>26800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>48600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>40600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>34000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>68500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>30600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>47000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>21700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>56300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>83800</v>
+        <v>39300</v>
       </c>
       <c r="E35" s="3">
-        <v>76200</v>
+        <v>86900</v>
       </c>
       <c r="F35" s="3">
-        <v>57200</v>
+        <v>78900</v>
       </c>
       <c r="G35" s="3">
-        <v>29400</v>
+        <v>59200</v>
       </c>
       <c r="H35" s="3">
-        <v>52800</v>
+        <v>30500</v>
       </c>
       <c r="I35" s="3">
-        <v>52300</v>
+        <v>54700</v>
       </c>
       <c r="J35" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K35" s="3">
         <v>50300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>58500</v>
       </c>
       <c r="L35" s="3">
         <v>58500</v>
       </c>
       <c r="M35" s="3">
+        <v>58500</v>
+      </c>
+      <c r="N35" s="3">
         <v>68300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>53600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>53700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>54600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>26800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>48600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>40600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>34000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>68500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>30600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>47000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>21700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>56300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>225300</v>
+        <v>390800</v>
       </c>
       <c r="E41" s="3">
-        <v>260800</v>
+        <v>205100</v>
       </c>
       <c r="F41" s="3">
-        <v>259300</v>
+        <v>233500</v>
       </c>
       <c r="G41" s="3">
-        <v>216000</v>
+        <v>270300</v>
       </c>
       <c r="H41" s="3">
-        <v>762100</v>
+        <v>268700</v>
       </c>
       <c r="I41" s="3">
-        <v>436600</v>
+        <v>223900</v>
       </c>
       <c r="J41" s="3">
+        <v>789900</v>
+      </c>
+      <c r="K41" s="3">
         <v>401300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>392100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>573100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1020200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>906100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>964300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>883700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>846700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>387400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>173700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>443200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>432100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>245900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>199800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>337200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>436200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>386800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3099,41 +3188,41 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>25500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24900</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>27400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>28200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>30600</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
@@ -3150,8 +3239,8 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3168,328 +3257,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>355500</v>
+        <v>282300</v>
       </c>
       <c r="E43" s="3">
-        <v>294300</v>
+        <v>362300</v>
       </c>
       <c r="F43" s="3">
-        <v>239500</v>
+        <v>368500</v>
       </c>
       <c r="G43" s="3">
-        <v>247200</v>
+        <v>305000</v>
       </c>
       <c r="H43" s="3">
-        <v>169500</v>
+        <v>248200</v>
       </c>
       <c r="I43" s="3">
-        <v>200500</v>
+        <v>256200</v>
       </c>
       <c r="J43" s="3">
+        <v>175600</v>
+      </c>
+      <c r="K43" s="3">
         <v>188800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>184500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>210800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>217900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>313700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>241300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>188600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>223900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>228000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>205700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>227600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>181300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>189800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>165000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>159700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>143100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>170000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>159300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>482000</v>
+        <v>483600</v>
       </c>
       <c r="E44" s="3">
-        <v>437000</v>
+        <v>533800</v>
       </c>
       <c r="F44" s="3">
-        <v>419100</v>
+        <v>499600</v>
       </c>
       <c r="G44" s="3">
-        <v>436400</v>
+        <v>452900</v>
       </c>
       <c r="H44" s="3">
-        <v>341000</v>
+        <v>434400</v>
       </c>
       <c r="I44" s="3">
-        <v>317000</v>
+        <v>452300</v>
       </c>
       <c r="J44" s="3">
+        <v>353500</v>
+      </c>
+      <c r="K44" s="3">
         <v>351500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>343400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>372000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>321800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>297100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>377300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>480600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>405500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>406100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>405100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>418200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>366200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>315000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>344300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>370900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>346900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>350700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>381500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41100</v>
+        <v>23300</v>
       </c>
       <c r="E45" s="3">
-        <v>26700</v>
+        <v>64900</v>
       </c>
       <c r="F45" s="3">
-        <v>30500</v>
+        <v>42600</v>
       </c>
       <c r="G45" s="3">
-        <v>23600</v>
+        <v>27700</v>
       </c>
       <c r="H45" s="3">
-        <v>46700</v>
+        <v>31600</v>
       </c>
       <c r="I45" s="3">
-        <v>41500</v>
+        <v>24400</v>
       </c>
       <c r="J45" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K45" s="3">
         <v>21400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>33900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>41800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>46000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>60800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>51100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>55500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>109900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>101500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>103300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>86400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>85200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>89500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>86700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>102500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>98100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1104000</v>
+        <v>1180000</v>
       </c>
       <c r="E46" s="3">
-        <v>1018900</v>
+        <v>1166000</v>
       </c>
       <c r="F46" s="3">
-        <v>948400</v>
+        <v>1144200</v>
       </c>
       <c r="G46" s="3">
-        <v>923200</v>
+        <v>1056000</v>
       </c>
       <c r="H46" s="3">
-        <v>1319300</v>
+        <v>983000</v>
       </c>
       <c r="I46" s="3">
-        <v>1000500</v>
+        <v>956900</v>
       </c>
       <c r="J46" s="3">
+        <v>1367400</v>
+      </c>
+      <c r="K46" s="3">
         <v>988500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>965900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1185500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1621200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1586800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1658100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1644300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1527100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1590500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1108100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>921000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1093900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1023300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>840500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>820000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>913900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1059400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1025700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3518,218 +3622,227 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>1200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4800</v>
-      </c>
-      <c r="X47" s="3">
-        <v>1500</v>
       </c>
       <c r="Y47" s="3">
         <v>1500</v>
       </c>
       <c r="Z47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="AA47" s="3">
         <v>500</v>
       </c>
       <c r="AB47" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>552800</v>
+        <v>574400</v>
       </c>
       <c r="E48" s="3">
-        <v>554300</v>
+        <v>567800</v>
       </c>
       <c r="F48" s="3">
-        <v>560800</v>
+        <v>572900</v>
       </c>
       <c r="G48" s="3">
-        <v>516800</v>
+        <v>574500</v>
       </c>
       <c r="H48" s="3">
-        <v>433500</v>
+        <v>581300</v>
       </c>
       <c r="I48" s="3">
-        <v>431300</v>
+        <v>535700</v>
       </c>
       <c r="J48" s="3">
+        <v>449300</v>
+      </c>
+      <c r="K48" s="3">
         <v>431000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>421100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>431000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>452700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>467800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>493100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>510300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>493300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>511500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>412600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>379500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>352500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>315600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>331400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>329400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>327400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>345700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>350000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4656400</v>
+        <v>4823600</v>
       </c>
       <c r="E49" s="3">
-        <v>4651200</v>
+        <v>4832000</v>
       </c>
       <c r="F49" s="3">
-        <v>4649800</v>
+        <v>4826100</v>
       </c>
       <c r="G49" s="3">
-        <v>4624400</v>
+        <v>4820700</v>
       </c>
       <c r="H49" s="3">
-        <v>4138500</v>
+        <v>4819300</v>
       </c>
       <c r="I49" s="3">
-        <v>4137800</v>
+        <v>4793000</v>
       </c>
       <c r="J49" s="3">
+        <v>4289300</v>
+      </c>
+      <c r="K49" s="3">
         <v>4142600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4047600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4096800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4306900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4459700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4606600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4833200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4643100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4721200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4670300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4370100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4073100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3809500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3893300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3892200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3894300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4074200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4075700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>207800</v>
+        <v>115000</v>
       </c>
       <c r="E52" s="3">
-        <v>136900</v>
+        <v>277300</v>
       </c>
       <c r="F52" s="3">
+        <v>215400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>141900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>145200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>141500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>133600</v>
+      </c>
+      <c r="K52" s="3">
+        <v>134500</v>
+      </c>
+      <c r="L52" s="3">
+        <v>131500</v>
+      </c>
+      <c r="M52" s="3">
+        <v>135700</v>
+      </c>
+      <c r="N52" s="3">
+        <v>148100</v>
+      </c>
+      <c r="O52" s="3">
         <v>140100</v>
       </c>
-      <c r="G52" s="3">
-        <v>136500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>128900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>113200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>134500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>131500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>135700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>148100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>140100</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>133000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>149100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>121900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>116300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>123500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>100200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>94400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>97200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>93000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>97300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>89600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>76300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>76200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6521000</v>
+        <v>6693000</v>
       </c>
       <c r="E54" s="3">
-        <v>6361200</v>
+        <v>6843100</v>
       </c>
       <c r="F54" s="3">
-        <v>6299200</v>
+        <v>6758600</v>
       </c>
       <c r="G54" s="3">
-        <v>6201000</v>
+        <v>6593000</v>
       </c>
       <c r="H54" s="3">
-        <v>6020300</v>
+        <v>6528700</v>
       </c>
       <c r="I54" s="3">
-        <v>5682800</v>
+        <v>6426900</v>
       </c>
       <c r="J54" s="3">
+        <v>6239700</v>
+      </c>
+      <c r="K54" s="3">
         <v>5696700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5566100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5850200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6530500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6656200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6893000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7139500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6788100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6942400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6317600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5774000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5617500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5249400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5163100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5140300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5226700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5556000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5528100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>746300</v>
+        <v>735700</v>
       </c>
       <c r="E57" s="3">
-        <v>733900</v>
+        <v>706200</v>
       </c>
       <c r="F57" s="3">
-        <v>706400</v>
+        <v>773500</v>
       </c>
       <c r="G57" s="3">
-        <v>621100</v>
+        <v>760600</v>
       </c>
       <c r="H57" s="3">
-        <v>557900</v>
+        <v>732100</v>
       </c>
       <c r="I57" s="3">
-        <v>641700</v>
+        <v>643700</v>
       </c>
       <c r="J57" s="3">
+        <v>578200</v>
+      </c>
+      <c r="K57" s="3">
         <v>660700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>645500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>586200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>621300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>613900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>613100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>614900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>610600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>687500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>676100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>545700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>529300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>521400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>535800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>515200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>534900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>540500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>554900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>31700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>32000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>31100</v>
+      </c>
+      <c r="H58" s="3">
         <v>30800</v>
       </c>
-      <c r="E58" s="3">
-        <v>30000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>29700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>28000</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>29000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="L58" s="3">
         <v>22400</v>
       </c>
-      <c r="I58" s="3">
-        <v>22200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>23000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>22400</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>32300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>32600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>30800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>48800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>25300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4900</v>
       </c>
-      <c r="Z58" s="3" t="s">
+      <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>258700</v>
+        <v>235700</v>
       </c>
       <c r="E59" s="3">
-        <v>257100</v>
+        <v>272900</v>
       </c>
       <c r="F59" s="3">
-        <v>250200</v>
+        <v>268100</v>
       </c>
       <c r="G59" s="3">
-        <v>279100</v>
+        <v>266500</v>
       </c>
       <c r="H59" s="3">
-        <v>362000</v>
+        <v>259300</v>
       </c>
       <c r="I59" s="3">
-        <v>222300</v>
+        <v>289300</v>
       </c>
       <c r="J59" s="3">
+        <v>375200</v>
+      </c>
+      <c r="K59" s="3">
         <v>252500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>246800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>319800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>318700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>307000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>315400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>317500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>290300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>297100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>292200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>282000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>269100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>261700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>248100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>279200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>295300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>321900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>329100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1035800</v>
+        <v>995400</v>
       </c>
       <c r="E60" s="3">
-        <v>1021000</v>
+        <v>1010800</v>
       </c>
       <c r="F60" s="3">
-        <v>986300</v>
+        <v>1073600</v>
       </c>
       <c r="G60" s="3">
-        <v>928100</v>
+        <v>1058200</v>
       </c>
       <c r="H60" s="3">
-        <v>942200</v>
+        <v>1022200</v>
       </c>
       <c r="I60" s="3">
-        <v>886200</v>
+        <v>961900</v>
       </c>
       <c r="J60" s="3">
+        <v>976500</v>
+      </c>
+      <c r="K60" s="3">
         <v>936200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>914700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>930700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>965600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>947500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>960900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>965000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>931700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1033400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>993600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>835000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>805300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>787000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>787500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>799000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>835100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>862400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>884000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2301400</v>
+        <v>2266600</v>
       </c>
       <c r="E61" s="3">
-        <v>2258600</v>
+        <v>2444000</v>
       </c>
       <c r="F61" s="3">
-        <v>2244000</v>
+        <v>2385300</v>
       </c>
       <c r="G61" s="3">
-        <v>2224900</v>
+        <v>2340900</v>
       </c>
       <c r="H61" s="3">
-        <v>2143700</v>
+        <v>2325800</v>
       </c>
       <c r="I61" s="3">
-        <v>1807400</v>
+        <v>2306000</v>
       </c>
       <c r="J61" s="3">
+        <v>2221800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1772400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1731800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1875600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2008300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2103900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2156900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2291200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2159900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2219100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2061700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1952500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1933700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1624100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1565300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1575000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1596100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1703400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1704100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>641600</v>
+        <v>673700</v>
       </c>
       <c r="E62" s="3">
-        <v>676700</v>
+        <v>634300</v>
       </c>
       <c r="F62" s="3">
-        <v>722000</v>
+        <v>665000</v>
       </c>
       <c r="G62" s="3">
-        <v>687000</v>
+        <v>701300</v>
       </c>
       <c r="H62" s="3">
-        <v>643100</v>
+        <v>748300</v>
       </c>
       <c r="I62" s="3">
-        <v>760400</v>
+        <v>712000</v>
       </c>
       <c r="J62" s="3">
+        <v>666500</v>
+      </c>
+      <c r="K62" s="3">
         <v>817800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>799000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>746300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>749700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>720100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>790500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>827500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>793600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>764400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>826600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>767600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>720500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>734000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>731600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>725600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>699100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>707100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>706800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3978800</v>
+        <v>3935700</v>
       </c>
       <c r="E66" s="3">
-        <v>3956300</v>
+        <v>4089100</v>
       </c>
       <c r="F66" s="3">
-        <v>3952300</v>
+        <v>4123800</v>
       </c>
       <c r="G66" s="3">
-        <v>3840000</v>
+        <v>4100500</v>
       </c>
       <c r="H66" s="3">
-        <v>3729000</v>
+        <v>4096400</v>
       </c>
       <c r="I66" s="3">
-        <v>3454000</v>
+        <v>3980000</v>
       </c>
       <c r="J66" s="3">
+        <v>3864900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3526400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3445500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3552500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3723500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3771500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3906900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4082400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3883900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4015800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3881000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3554500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3459500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3145100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3084500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3099600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3130400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3272900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3294900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2400400</v>
+        <v>2641900</v>
       </c>
       <c r="E72" s="3">
-        <v>2278200</v>
+        <v>2594900</v>
       </c>
       <c r="F72" s="3">
-        <v>2228800</v>
+        <v>2487900</v>
       </c>
       <c r="G72" s="3">
-        <v>2260900</v>
+        <v>2361200</v>
       </c>
       <c r="H72" s="3">
-        <v>2204700</v>
+        <v>2310000</v>
       </c>
       <c r="I72" s="3">
-        <v>2151300</v>
+        <v>2343300</v>
       </c>
       <c r="J72" s="3">
+        <v>2285100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2108900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2060500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2218100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2711800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2777100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2890900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2953200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2809800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2813700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2321600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2110600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2048900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2011800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1988600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1959700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2006100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2182600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2124700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2542200</v>
+        <v>2757400</v>
       </c>
       <c r="E76" s="3">
-        <v>2404900</v>
+        <v>2754100</v>
       </c>
       <c r="F76" s="3">
-        <v>2346800</v>
+        <v>2634800</v>
       </c>
       <c r="G76" s="3">
-        <v>2360900</v>
+        <v>2492500</v>
       </c>
       <c r="H76" s="3">
-        <v>2291300</v>
+        <v>2432300</v>
       </c>
       <c r="I76" s="3">
-        <v>2228800</v>
+        <v>2446900</v>
       </c>
       <c r="J76" s="3">
+        <v>2374800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2170300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2120600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2297700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2807000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2884600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2986100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3057100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2904200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2926600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2436700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2219500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2158000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2104300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2078600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2040700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2096300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2283100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2233200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>83800</v>
+        <v>39300</v>
       </c>
       <c r="E81" s="3">
-        <v>76200</v>
+        <v>86900</v>
       </c>
       <c r="F81" s="3">
-        <v>57200</v>
+        <v>78900</v>
       </c>
       <c r="G81" s="3">
-        <v>29400</v>
+        <v>59200</v>
       </c>
       <c r="H81" s="3">
-        <v>52800</v>
+        <v>30500</v>
       </c>
       <c r="I81" s="3">
-        <v>52300</v>
+        <v>54700</v>
       </c>
       <c r="J81" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K81" s="3">
         <v>50300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>58500</v>
       </c>
       <c r="L81" s="3">
         <v>58500</v>
       </c>
       <c r="M81" s="3">
+        <v>58500</v>
+      </c>
+      <c r="N81" s="3">
         <v>68300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>53600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>53700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>54600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>26800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>48600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>40600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>34000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>68500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>30600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>47000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>21700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>56300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>24100</v>
       </c>
       <c r="E83" s="3">
-        <v>44100</v>
+        <v>23900</v>
       </c>
       <c r="F83" s="3">
-        <v>-51400</v>
+        <v>23300</v>
       </c>
       <c r="G83" s="3">
-        <v>21300</v>
+        <v>22400</v>
       </c>
       <c r="H83" s="3">
+        <v>22100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K83" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="L83" s="3">
+        <v>16000</v>
+      </c>
+      <c r="M83" s="3">
         <v>17500</v>
       </c>
-      <c r="I83" s="3">
-        <v>34300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>16000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>17500</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>10700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>14400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>218900</v>
       </c>
       <c r="E89" s="3">
-        <v>76900</v>
+        <v>22900</v>
       </c>
       <c r="F89" s="3">
-        <v>-232800</v>
+        <v>-3100</v>
       </c>
       <c r="G89" s="3">
-        <v>147700</v>
+        <v>82700</v>
       </c>
       <c r="H89" s="3">
-        <v>7900</v>
+        <v>153100</v>
       </c>
       <c r="I89" s="3">
-        <v>157100</v>
+        <v>8100</v>
       </c>
       <c r="J89" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-346200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>135300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>224000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>108100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>163300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>60800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>29500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>120600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>249100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>30100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>89500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>82200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>78100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>80600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>115200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-25100</v>
       </c>
       <c r="E91" s="3">
-        <v>-34600</v>
+        <v>-22700</v>
       </c>
       <c r="F91" s="3">
-        <v>60000</v>
+        <v>-14300</v>
       </c>
       <c r="G91" s="3">
-        <v>-29100</v>
+        <v>-21600</v>
       </c>
       <c r="H91" s="3">
-        <v>-16800</v>
+        <v>-30200</v>
       </c>
       <c r="I91" s="3">
-        <v>-34900</v>
+        <v>-17500</v>
       </c>
       <c r="J91" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K91" s="3">
         <v>40000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-9400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-28400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-25100</v>
       </c>
       <c r="E94" s="3">
-        <v>-34000</v>
+        <v>-23000</v>
       </c>
       <c r="F94" s="3">
-        <v>652900</v>
+        <v>-13600</v>
       </c>
       <c r="G94" s="3">
-        <v>-28100</v>
+        <v>-21600</v>
       </c>
       <c r="H94" s="3">
-        <v>-622900</v>
+        <v>-29100</v>
       </c>
       <c r="I94" s="3">
-        <v>-22800</v>
+        <v>-645600</v>
       </c>
       <c r="J94" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K94" s="3">
         <v>163000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-157900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>11900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-20900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-45200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-264600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-266000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-15800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-28400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-1400</v>
       </c>
       <c r="E100" s="3">
-        <v>-75200</v>
+        <v>-35000</v>
       </c>
       <c r="F100" s="3">
-        <v>-273300</v>
+        <v>-21600</v>
       </c>
       <c r="G100" s="3">
-        <v>-80300</v>
+        <v>-56400</v>
       </c>
       <c r="H100" s="3">
-        <v>35900</v>
+        <v>-83300</v>
       </c>
       <c r="I100" s="3">
-        <v>263300</v>
+        <v>37200</v>
       </c>
       <c r="J100" s="3">
+        <v>315400</v>
+      </c>
+      <c r="K100" s="3">
         <v>688600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-150700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-427200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-62000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-107600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-26500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-51600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>395600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>248700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>106500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-16800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-105400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-131000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-18900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-22200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>-9300</v>
       </c>
       <c r="E101" s="3">
-        <v>-1500</v>
+        <v>6200</v>
       </c>
       <c r="F101" s="3">
-        <v>-14200</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="3">
-        <v>4200</v>
+        <v>-3100</v>
       </c>
       <c r="H101" s="3">
-        <v>6900</v>
+        <v>4300</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>7200</v>
       </c>
       <c r="J101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K101" s="3">
         <v>18000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-13500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-14100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>6700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>183100</v>
       </c>
       <c r="E102" s="3">
-        <v>-33900</v>
+        <v>-28900</v>
       </c>
       <c r="F102" s="3">
-        <v>132600</v>
+        <v>-36800</v>
       </c>
       <c r="G102" s="3">
-        <v>43500</v>
+        <v>1700</v>
       </c>
       <c r="H102" s="3">
-        <v>-572200</v>
+        <v>45100</v>
       </c>
       <c r="I102" s="3">
-        <v>397700</v>
+        <v>-593000</v>
       </c>
       <c r="J102" s="3">
+        <v>337600</v>
+      </c>
+      <c r="K102" s="3">
         <v>523500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-169400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-397500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>144800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>120600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-39300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>509100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>201900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-273400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>10900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>191700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>46100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-137300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-79800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>49400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>71300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>793700</v>
+        <v>834700</v>
       </c>
       <c r="E8" s="3">
-        <v>803700</v>
+        <v>807900</v>
       </c>
       <c r="F8" s="3">
-        <v>737400</v>
+        <v>818000</v>
       </c>
       <c r="G8" s="3">
-        <v>775400</v>
+        <v>750600</v>
       </c>
       <c r="H8" s="3">
-        <v>744800</v>
+        <v>789300</v>
       </c>
       <c r="I8" s="3">
-        <v>634200</v>
+        <v>758100</v>
       </c>
       <c r="J8" s="3">
+        <v>645500</v>
+      </c>
+      <c r="K8" s="3">
         <v>630400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>722100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>656000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>598100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>653500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>771100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>733600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>661900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>632700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>739000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>727200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>587700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>536000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>592000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>570200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>515000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>514000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>623600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>569500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>589800</v>
+        <v>593300</v>
       </c>
       <c r="E9" s="3">
-        <v>569700</v>
+        <v>600400</v>
       </c>
       <c r="F9" s="3">
-        <v>529200</v>
+        <v>579900</v>
       </c>
       <c r="G9" s="3">
-        <v>558800</v>
+        <v>538700</v>
       </c>
       <c r="H9" s="3">
-        <v>554100</v>
+        <v>568800</v>
       </c>
       <c r="I9" s="3">
-        <v>456800</v>
+        <v>564000</v>
       </c>
       <c r="J9" s="3">
+        <v>465000</v>
+      </c>
+      <c r="K9" s="3">
         <v>436100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>504900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>449400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>416300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>455700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>546500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>514500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>466800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>444100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>510900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>509900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>424900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>369700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>404000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>390700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>359000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>352100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>440400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>410000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>203900</v>
+        <v>241400</v>
       </c>
       <c r="E10" s="3">
-        <v>233900</v>
+        <v>207500</v>
       </c>
       <c r="F10" s="3">
-        <v>208200</v>
+        <v>238100</v>
       </c>
       <c r="G10" s="3">
-        <v>216600</v>
+        <v>211900</v>
       </c>
       <c r="H10" s="3">
-        <v>190800</v>
+        <v>220400</v>
       </c>
       <c r="I10" s="3">
-        <v>177300</v>
+        <v>194200</v>
       </c>
       <c r="J10" s="3">
+        <v>180500</v>
+      </c>
+      <c r="K10" s="3">
         <v>194200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>217200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>206600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>181800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>197800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>224600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>219100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>195000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>188600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>228100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>217300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>162800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>166300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>188100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>179500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>156000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>161900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>183200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>159500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,91 +1242,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24900</v>
+        <v>32400</v>
       </c>
       <c r="E14" s="3">
-        <v>20000</v>
+        <v>25300</v>
       </c>
       <c r="F14" s="3">
-        <v>-13400</v>
+        <v>20400</v>
       </c>
       <c r="G14" s="3">
-        <v>20100</v>
+        <v>-13700</v>
       </c>
       <c r="H14" s="3">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="I14" s="3">
-        <v>3900</v>
+        <v>24400</v>
       </c>
       <c r="J14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K14" s="3">
         <v>23500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-6700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>23300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>53600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>22900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>12900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>23800</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>724300</v>
+        <v>749000</v>
       </c>
       <c r="E17" s="3">
-        <v>688500</v>
+        <v>737200</v>
       </c>
       <c r="F17" s="3">
-        <v>617400</v>
+        <v>700800</v>
       </c>
       <c r="G17" s="3">
-        <v>682700</v>
+        <v>628500</v>
       </c>
       <c r="H17" s="3">
-        <v>682500</v>
+        <v>694900</v>
       </c>
       <c r="I17" s="3">
-        <v>545900</v>
+        <v>694700</v>
       </c>
       <c r="J17" s="3">
+        <v>555700</v>
+      </c>
+      <c r="K17" s="3">
         <v>543300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>628600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>556300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>507800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>549300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>684300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>632500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>578400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>545500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>673600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>634900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>523000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>470600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>496500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>516500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>445200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>449500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>535300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>538800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>69400</v>
+        <v>85700</v>
       </c>
       <c r="E18" s="3">
-        <v>115100</v>
+        <v>70600</v>
       </c>
       <c r="F18" s="3">
-        <v>120000</v>
+        <v>117200</v>
       </c>
       <c r="G18" s="3">
-        <v>92700</v>
+        <v>122100</v>
       </c>
       <c r="H18" s="3">
-        <v>62300</v>
+        <v>94300</v>
       </c>
       <c r="I18" s="3">
-        <v>88200</v>
+        <v>63400</v>
       </c>
       <c r="J18" s="3">
+        <v>89800</v>
+      </c>
+      <c r="K18" s="3">
         <v>87100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>93500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>99600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>104200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>86700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>101100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>83400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>87200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>65400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>92400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>64700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>65400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>95500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>53700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>69800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>64500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>88400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>30800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1649,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18600</v>
+        <v>-31200</v>
       </c>
       <c r="E20" s="3">
-        <v>12200</v>
+        <v>19000</v>
       </c>
       <c r="F20" s="3">
+        <v>12400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>700</v>
-      </c>
       <c r="I20" s="3">
+        <v>800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>13700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>112100</v>
+        <v>78500</v>
       </c>
       <c r="E21" s="3">
-        <v>151200</v>
+        <v>114200</v>
       </c>
       <c r="F21" s="3">
-        <v>142000</v>
+        <v>153900</v>
       </c>
       <c r="G21" s="3">
-        <v>115300</v>
+        <v>144500</v>
       </c>
       <c r="H21" s="3">
+        <v>117400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>86700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>106200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>102200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>27400</v>
+      </c>
+      <c r="M21" s="3">
+        <v>117000</v>
+      </c>
+      <c r="N21" s="3">
+        <v>107200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>121600</v>
+      </c>
+      <c r="P21" s="3">
+        <v>110300</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>136100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>99800</v>
+      </c>
+      <c r="S21" s="3">
+        <v>106200</v>
+      </c>
+      <c r="T21" s="3">
         <v>85200</v>
       </c>
-      <c r="I21" s="3">
-        <v>104300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>102200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>27400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>117000</v>
-      </c>
-      <c r="M21" s="3">
-        <v>107200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>121600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>110300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>136100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>99800</v>
-      </c>
-      <c r="R21" s="3">
-        <v>106200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>85200</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>121500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>77600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>71000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>112000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>63300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>84600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>75500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>103300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>43300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>39000</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>16800</v>
+        <v>39700</v>
       </c>
       <c r="F22" s="3">
-        <v>15800</v>
+        <v>17100</v>
       </c>
       <c r="G22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>18600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="L22" s="3">
+        <v>14200</v>
+      </c>
+      <c r="M22" s="3">
+        <v>20800</v>
+      </c>
+      <c r="N22" s="3">
         <v>15700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>18300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>16800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>15600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>14200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>20800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>15700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>17000</v>
       </c>
       <c r="O22" s="3">
         <v>17000</v>
       </c>
       <c r="P22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>43100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>37600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>17800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>12600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>36600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>19400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>23000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>49000</v>
+        <v>54500</v>
       </c>
       <c r="E23" s="3">
-        <v>110500</v>
+        <v>49900</v>
       </c>
       <c r="F23" s="3">
-        <v>102900</v>
+        <v>112400</v>
       </c>
       <c r="G23" s="3">
-        <v>77200</v>
+        <v>104800</v>
       </c>
       <c r="H23" s="3">
-        <v>44800</v>
+        <v>78600</v>
       </c>
       <c r="I23" s="3">
-        <v>69400</v>
+        <v>45600</v>
       </c>
       <c r="J23" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K23" s="3">
         <v>68900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>65000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>80200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>74000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>86200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>73200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>71700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>61500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>69200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>47700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>68800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>51300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>45800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>88800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>34200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>60100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>28300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>69500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="E24" s="3">
-        <v>23600</v>
+        <v>9900</v>
       </c>
       <c r="F24" s="3">
         <v>24000</v>
       </c>
       <c r="G24" s="3">
-        <v>18000</v>
+        <v>24400</v>
       </c>
       <c r="H24" s="3">
-        <v>14300</v>
+        <v>18300</v>
       </c>
       <c r="I24" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="J24" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="K24" s="3">
         <v>14700</v>
       </c>
       <c r="L24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="M24" s="3">
         <v>21600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>7200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39300</v>
+        <v>44400</v>
       </c>
       <c r="E26" s="3">
-        <v>86900</v>
+        <v>40000</v>
       </c>
       <c r="F26" s="3">
-        <v>78900</v>
+        <v>88400</v>
       </c>
       <c r="G26" s="3">
-        <v>59200</v>
+        <v>80300</v>
       </c>
       <c r="H26" s="3">
-        <v>30500</v>
+        <v>60300</v>
       </c>
       <c r="I26" s="3">
-        <v>54700</v>
+        <v>31000</v>
       </c>
       <c r="J26" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K26" s="3">
         <v>54200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>58500</v>
       </c>
       <c r="M26" s="3">
         <v>58500</v>
       </c>
       <c r="N26" s="3">
+        <v>58500</v>
+      </c>
+      <c r="O26" s="3">
         <v>68300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>54300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>26700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>48300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>40200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>34000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>68500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>30600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>47000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>21700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>56300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>39300</v>
+        <v>44400</v>
       </c>
       <c r="E27" s="3">
-        <v>86900</v>
+        <v>40000</v>
       </c>
       <c r="F27" s="3">
-        <v>78900</v>
+        <v>88400</v>
       </c>
       <c r="G27" s="3">
-        <v>59200</v>
+        <v>80300</v>
       </c>
       <c r="H27" s="3">
-        <v>30500</v>
+        <v>60300</v>
       </c>
       <c r="I27" s="3">
-        <v>54700</v>
+        <v>31000</v>
       </c>
       <c r="J27" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K27" s="3">
         <v>54200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>50300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>58500</v>
       </c>
       <c r="M27" s="3">
         <v>58500</v>
       </c>
       <c r="N27" s="3">
+        <v>58500</v>
+      </c>
+      <c r="O27" s="3">
         <v>68300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>53600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>53700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>54600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>26800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>48600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>40600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>34000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>68500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>30600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>47000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>21700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>56300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18600</v>
+        <v>31200</v>
       </c>
       <c r="E32" s="3">
-        <v>-12200</v>
+        <v>-19000</v>
       </c>
       <c r="F32" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-700</v>
-      </c>
       <c r="I32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>39300</v>
+        <v>44400</v>
       </c>
       <c r="E33" s="3">
-        <v>86900</v>
+        <v>40000</v>
       </c>
       <c r="F33" s="3">
-        <v>78900</v>
+        <v>88400</v>
       </c>
       <c r="G33" s="3">
-        <v>59200</v>
+        <v>80300</v>
       </c>
       <c r="H33" s="3">
-        <v>30500</v>
+        <v>60300</v>
       </c>
       <c r="I33" s="3">
-        <v>54700</v>
+        <v>31000</v>
       </c>
       <c r="J33" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K33" s="3">
         <v>54200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>50300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>58500</v>
       </c>
       <c r="M33" s="3">
         <v>58500</v>
       </c>
       <c r="N33" s="3">
+        <v>58500</v>
+      </c>
+      <c r="O33" s="3">
         <v>68300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>53600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>53700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>54600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>26800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>48600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>40600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>34000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>68500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>30600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>47000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>21700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>56300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>39300</v>
+        <v>44400</v>
       </c>
       <c r="E35" s="3">
-        <v>86900</v>
+        <v>40000</v>
       </c>
       <c r="F35" s="3">
-        <v>78900</v>
+        <v>88400</v>
       </c>
       <c r="G35" s="3">
-        <v>59200</v>
+        <v>80300</v>
       </c>
       <c r="H35" s="3">
-        <v>30500</v>
+        <v>60300</v>
       </c>
       <c r="I35" s="3">
-        <v>54700</v>
+        <v>31000</v>
       </c>
       <c r="J35" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K35" s="3">
         <v>54200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>50300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>58500</v>
       </c>
       <c r="M35" s="3">
         <v>58500</v>
       </c>
       <c r="N35" s="3">
+        <v>58500</v>
+      </c>
+      <c r="O35" s="3">
         <v>68300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>53600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>53700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>54600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>26800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>48600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>40600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>34000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>68500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>30600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>47000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>21700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>56300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,105 +3180,109 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>390800</v>
+        <v>399400</v>
       </c>
       <c r="E41" s="3">
-        <v>205100</v>
+        <v>397800</v>
       </c>
       <c r="F41" s="3">
-        <v>233500</v>
+        <v>208800</v>
       </c>
       <c r="G41" s="3">
-        <v>270300</v>
+        <v>237700</v>
       </c>
       <c r="H41" s="3">
-        <v>268700</v>
+        <v>275100</v>
       </c>
       <c r="I41" s="3">
-        <v>223900</v>
+        <v>273500</v>
       </c>
       <c r="J41" s="3">
+        <v>227900</v>
+      </c>
+      <c r="K41" s="3">
         <v>789900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>401300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>392100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>573100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1020200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>906100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>964300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>883700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>846700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>387400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>173700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>443200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>432100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>245900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>199800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>337200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>436200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>386800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3204,28 +3294,28 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>25500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>24900</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>27400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>28200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>29200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>30600</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -3242,8 +3332,8 @@
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3260,340 +3350,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>282300</v>
+        <v>343500</v>
       </c>
       <c r="E43" s="3">
-        <v>362300</v>
+        <v>287300</v>
       </c>
       <c r="F43" s="3">
-        <v>368500</v>
+        <v>368700</v>
       </c>
       <c r="G43" s="3">
-        <v>305000</v>
+        <v>375100</v>
       </c>
       <c r="H43" s="3">
-        <v>248200</v>
+        <v>310500</v>
       </c>
       <c r="I43" s="3">
-        <v>256200</v>
+        <v>252600</v>
       </c>
       <c r="J43" s="3">
+        <v>260800</v>
+      </c>
+      <c r="K43" s="3">
         <v>175600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>188800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>184500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>210800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>217900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>313700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>241300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>188600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>223900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>228000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>205700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>227600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>181300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>189800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>165000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>159700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>143100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>170000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>159300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>483600</v>
+        <v>531100</v>
       </c>
       <c r="E44" s="3">
-        <v>533800</v>
+        <v>492300</v>
       </c>
       <c r="F44" s="3">
-        <v>499600</v>
+        <v>543300</v>
       </c>
       <c r="G44" s="3">
-        <v>452900</v>
+        <v>508500</v>
       </c>
       <c r="H44" s="3">
-        <v>434400</v>
+        <v>461000</v>
       </c>
       <c r="I44" s="3">
-        <v>452300</v>
+        <v>442200</v>
       </c>
       <c r="J44" s="3">
+        <v>460400</v>
+      </c>
+      <c r="K44" s="3">
         <v>353500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>351500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>343400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>372000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>321800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>297100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>377300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>480600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>405500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>406100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>405100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>418200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>366200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>315000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>344300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>370900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>346900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>350700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>381500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23300</v>
+        <v>15600</v>
       </c>
       <c r="E45" s="3">
-        <v>64900</v>
+        <v>23700</v>
       </c>
       <c r="F45" s="3">
-        <v>42600</v>
+        <v>66000</v>
       </c>
       <c r="G45" s="3">
-        <v>27700</v>
+        <v>43400</v>
       </c>
       <c r="H45" s="3">
-        <v>31600</v>
+        <v>28200</v>
       </c>
       <c r="I45" s="3">
-        <v>24400</v>
+        <v>32200</v>
       </c>
       <c r="J45" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K45" s="3">
         <v>48400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>41800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>46000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>60800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>51100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>55500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>109900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>101500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>103300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>86400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>85200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>89500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>86700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>102500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>98100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1180000</v>
+        <v>1289700</v>
       </c>
       <c r="E46" s="3">
-        <v>1166000</v>
+        <v>1201100</v>
       </c>
       <c r="F46" s="3">
-        <v>1144200</v>
+        <v>1186900</v>
       </c>
       <c r="G46" s="3">
-        <v>1056000</v>
+        <v>1164700</v>
       </c>
       <c r="H46" s="3">
-        <v>983000</v>
+        <v>1074900</v>
       </c>
       <c r="I46" s="3">
-        <v>956900</v>
+        <v>1000500</v>
       </c>
       <c r="J46" s="3">
+        <v>973900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1367400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>988500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>965900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1185500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1621200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1586800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1658100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1644300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1527100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1590500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1108100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>921000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1093900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1023300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>840500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>820000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>913900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1059400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1025700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3625,224 +3730,233 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>1200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4800</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>1500</v>
       </c>
       <c r="Z47" s="3">
         <v>1500</v>
       </c>
       <c r="AA47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="AB47" s="3">
         <v>500</v>
       </c>
       <c r="AC47" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>574400</v>
+        <v>595800</v>
       </c>
       <c r="E48" s="3">
-        <v>567800</v>
+        <v>584600</v>
       </c>
       <c r="F48" s="3">
-        <v>572900</v>
+        <v>578000</v>
       </c>
       <c r="G48" s="3">
-        <v>574500</v>
+        <v>583100</v>
       </c>
       <c r="H48" s="3">
-        <v>581300</v>
+        <v>584800</v>
       </c>
       <c r="I48" s="3">
-        <v>535700</v>
+        <v>591600</v>
       </c>
       <c r="J48" s="3">
+        <v>545200</v>
+      </c>
+      <c r="K48" s="3">
         <v>449300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>431000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>421100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>431000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>452700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>467800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>493100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>510300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>493300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>511500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>412600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>379500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>352500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>315600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>331400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>329400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>327400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>345700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>350000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4823600</v>
+        <v>4908800</v>
       </c>
       <c r="E49" s="3">
-        <v>4832000</v>
+        <v>4909800</v>
       </c>
       <c r="F49" s="3">
-        <v>4826100</v>
+        <v>4918300</v>
       </c>
       <c r="G49" s="3">
-        <v>4820700</v>
+        <v>4912300</v>
       </c>
       <c r="H49" s="3">
-        <v>4819300</v>
+        <v>4906800</v>
       </c>
       <c r="I49" s="3">
-        <v>4793000</v>
+        <v>4905400</v>
       </c>
       <c r="J49" s="3">
+        <v>4878600</v>
+      </c>
+      <c r="K49" s="3">
         <v>4289300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4142600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4047600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4096800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4306900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4459700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4606600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4833200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4643100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4721200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4670300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4370100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4073100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3809500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3893300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3892200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3894300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4074200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4075700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>115000</v>
+        <v>121300</v>
       </c>
       <c r="E52" s="3">
-        <v>277300</v>
+        <v>117100</v>
       </c>
       <c r="F52" s="3">
-        <v>215400</v>
+        <v>282300</v>
       </c>
       <c r="G52" s="3">
-        <v>141900</v>
+        <v>219300</v>
       </c>
       <c r="H52" s="3">
-        <v>145200</v>
+        <v>144400</v>
       </c>
       <c r="I52" s="3">
-        <v>141500</v>
+        <v>147800</v>
       </c>
       <c r="J52" s="3">
+        <v>144000</v>
+      </c>
+      <c r="K52" s="3">
         <v>133600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>134500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>131500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>135700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>148100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>140100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>133000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>149100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>121900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>116300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>123500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>100200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>94400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>97200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>93000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>97300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>89600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>76300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>76200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6693000</v>
+        <v>6915600</v>
       </c>
       <c r="E54" s="3">
-        <v>6843100</v>
+        <v>6812600</v>
       </c>
       <c r="F54" s="3">
-        <v>6758600</v>
+        <v>6965400</v>
       </c>
       <c r="G54" s="3">
-        <v>6593000</v>
+        <v>6879300</v>
       </c>
       <c r="H54" s="3">
-        <v>6528700</v>
+        <v>6710800</v>
       </c>
       <c r="I54" s="3">
-        <v>6426900</v>
+        <v>6645300</v>
       </c>
       <c r="J54" s="3">
+        <v>6541700</v>
+      </c>
+      <c r="K54" s="3">
         <v>6239700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5696700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5566100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5850200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6530500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6656200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6893000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7139500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6788100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6942400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6317600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5774000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5617500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5249400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5163100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5140300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5226700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5556000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5528100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>735700</v>
+        <v>781800</v>
       </c>
       <c r="E57" s="3">
-        <v>706200</v>
+        <v>748900</v>
       </c>
       <c r="F57" s="3">
-        <v>773500</v>
+        <v>718800</v>
       </c>
       <c r="G57" s="3">
-        <v>760600</v>
+        <v>787300</v>
       </c>
       <c r="H57" s="3">
-        <v>732100</v>
+        <v>774200</v>
       </c>
       <c r="I57" s="3">
-        <v>643700</v>
+        <v>745200</v>
       </c>
       <c r="J57" s="3">
+        <v>655200</v>
+      </c>
+      <c r="K57" s="3">
         <v>578200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>660700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>645500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>586200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>621300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>613900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>613100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>614900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>610600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>687500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>676100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>545700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>529300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>521400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>535800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>515200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>534900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>540500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>554900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23900</v>
+        <v>26200</v>
       </c>
       <c r="E58" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>32300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>32500</v>
+      </c>
+      <c r="H58" s="3">
         <v>31700</v>
       </c>
-      <c r="F58" s="3">
-        <v>32000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>31100</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>31300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K58" s="3">
+        <v>23200</v>
+      </c>
+      <c r="L58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="M58" s="3">
+        <v>22400</v>
+      </c>
+      <c r="N58" s="3">
+        <v>24700</v>
+      </c>
+      <c r="O58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="P58" s="3">
+        <v>26600</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>32300</v>
+      </c>
+      <c r="R58" s="3">
+        <v>32600</v>
+      </c>
+      <c r="S58" s="3">
         <v>30800</v>
       </c>
-      <c r="I58" s="3">
-        <v>29000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>23200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>23000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>22400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>24700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>25600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>26600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>32300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>32600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>30800</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>48800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>25300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4900</v>
       </c>
-      <c r="AA58" s="3" t="s">
+      <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
       <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>235700</v>
+        <v>258600</v>
       </c>
       <c r="E59" s="3">
+        <v>239900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>277700</v>
+      </c>
+      <c r="G59" s="3">
         <v>272900</v>
       </c>
-      <c r="F59" s="3">
-        <v>268100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>266500</v>
-      </c>
       <c r="H59" s="3">
-        <v>259300</v>
+        <v>271300</v>
       </c>
       <c r="I59" s="3">
-        <v>289300</v>
+        <v>263900</v>
       </c>
       <c r="J59" s="3">
+        <v>294400</v>
+      </c>
+      <c r="K59" s="3">
         <v>375200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>252500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>246800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>319800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>318700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>307000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>315400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>317500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>290300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>297100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>292200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>282000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>269100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>261700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>248100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>279200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>295300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>321900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>329100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>995400</v>
+        <v>1066600</v>
       </c>
       <c r="E60" s="3">
-        <v>1010800</v>
+        <v>1013100</v>
       </c>
       <c r="F60" s="3">
-        <v>1073600</v>
+        <v>1028900</v>
       </c>
       <c r="G60" s="3">
-        <v>1058200</v>
+        <v>1092700</v>
       </c>
       <c r="H60" s="3">
-        <v>1022200</v>
+        <v>1077100</v>
       </c>
       <c r="I60" s="3">
-        <v>961900</v>
+        <v>1040500</v>
       </c>
       <c r="J60" s="3">
+        <v>979100</v>
+      </c>
+      <c r="K60" s="3">
         <v>976500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>936200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>914700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>930700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>965600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>947500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>960900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>965000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>931700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1033400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>993600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>835000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>805300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>787000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>787500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>799000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>835100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>862400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>884000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2266600</v>
+        <v>2302700</v>
       </c>
       <c r="E61" s="3">
-        <v>2444000</v>
+        <v>2307000</v>
       </c>
       <c r="F61" s="3">
-        <v>2385300</v>
+        <v>2487600</v>
       </c>
       <c r="G61" s="3">
-        <v>2340900</v>
+        <v>2427900</v>
       </c>
       <c r="H61" s="3">
-        <v>2325800</v>
+        <v>2382700</v>
       </c>
       <c r="I61" s="3">
-        <v>2306000</v>
+        <v>2367300</v>
       </c>
       <c r="J61" s="3">
+        <v>2347200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2221800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1772400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1731800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1875600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2008300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2103900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2156900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2291200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2159900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2219100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2061700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1952500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1933700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1624100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1565300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1575000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1596100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1703400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1704100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>673700</v>
+        <v>699400</v>
       </c>
       <c r="E62" s="3">
-        <v>634300</v>
+        <v>685800</v>
       </c>
       <c r="F62" s="3">
-        <v>665000</v>
+        <v>645600</v>
       </c>
       <c r="G62" s="3">
-        <v>701300</v>
+        <v>676800</v>
       </c>
       <c r="H62" s="3">
-        <v>748300</v>
+        <v>713900</v>
       </c>
       <c r="I62" s="3">
-        <v>712000</v>
+        <v>761700</v>
       </c>
       <c r="J62" s="3">
+        <v>724800</v>
+      </c>
+      <c r="K62" s="3">
         <v>666500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>817800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>799000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>746300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>749700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>720100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>790500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>827500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>793600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>764400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>826600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>767600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>720500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>734000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>731600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>725600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>699100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>707100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>706800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3935700</v>
+        <v>4068700</v>
       </c>
       <c r="E66" s="3">
-        <v>4089100</v>
+        <v>4006000</v>
       </c>
       <c r="F66" s="3">
-        <v>4123800</v>
+        <v>4162100</v>
       </c>
       <c r="G66" s="3">
-        <v>4100500</v>
+        <v>4197400</v>
       </c>
       <c r="H66" s="3">
-        <v>4096400</v>
+        <v>4173700</v>
       </c>
       <c r="I66" s="3">
-        <v>3980000</v>
+        <v>4169500</v>
       </c>
       <c r="J66" s="3">
+        <v>4051100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3864900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3526400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3445500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3552500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3723500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3771500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3906900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4082400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3883900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4015800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3881000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3554500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3459500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3145100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3084500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3099600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3130400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3272900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3294900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2641900</v>
+        <v>2739100</v>
       </c>
       <c r="E72" s="3">
-        <v>2594900</v>
+        <v>2689100</v>
       </c>
       <c r="F72" s="3">
-        <v>2487900</v>
+        <v>2641200</v>
       </c>
       <c r="G72" s="3">
-        <v>2361200</v>
+        <v>2532300</v>
       </c>
       <c r="H72" s="3">
-        <v>2310000</v>
+        <v>2403400</v>
       </c>
       <c r="I72" s="3">
-        <v>2343300</v>
+        <v>2351300</v>
       </c>
       <c r="J72" s="3">
+        <v>2385100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2285100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2108900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2060500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2218100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2711800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2777100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2890900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2953200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2809800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2813700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2321600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2110600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2048900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2011800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1988600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1959700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2006100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2182600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2124700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2757400</v>
+        <v>2846900</v>
       </c>
       <c r="E76" s="3">
-        <v>2754100</v>
+        <v>2806600</v>
       </c>
       <c r="F76" s="3">
-        <v>2634800</v>
+        <v>2803300</v>
       </c>
       <c r="G76" s="3">
-        <v>2492500</v>
+        <v>2681900</v>
       </c>
       <c r="H76" s="3">
-        <v>2432300</v>
+        <v>2537100</v>
       </c>
       <c r="I76" s="3">
-        <v>2446900</v>
+        <v>2475800</v>
       </c>
       <c r="J76" s="3">
+        <v>2490700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2374800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2170300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2120600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2297700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2807000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2884600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2986100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3057100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2904200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2926600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2436700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2219500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2158000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2104300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2078600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2040700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2096300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2283100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2233200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>39300</v>
+        <v>44400</v>
       </c>
       <c r="E81" s="3">
-        <v>86900</v>
+        <v>40000</v>
       </c>
       <c r="F81" s="3">
-        <v>78900</v>
+        <v>88400</v>
       </c>
       <c r="G81" s="3">
-        <v>59200</v>
+        <v>80300</v>
       </c>
       <c r="H81" s="3">
-        <v>30500</v>
+        <v>60300</v>
       </c>
       <c r="I81" s="3">
-        <v>54700</v>
+        <v>31000</v>
       </c>
       <c r="J81" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K81" s="3">
         <v>54200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>50300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>58500</v>
       </c>
       <c r="M81" s="3">
         <v>58500</v>
       </c>
       <c r="N81" s="3">
+        <v>58500</v>
+      </c>
+      <c r="O81" s="3">
         <v>68300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>53600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>53700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>54600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>26800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>48600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>40600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>34000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>68500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>30600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>47000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>21700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>56300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="E83" s="3">
-        <v>23900</v>
+        <v>24600</v>
       </c>
       <c r="F83" s="3">
-        <v>23300</v>
+        <v>24300</v>
       </c>
       <c r="G83" s="3">
-        <v>22400</v>
+        <v>23700</v>
       </c>
       <c r="H83" s="3">
-        <v>22100</v>
+        <v>22800</v>
       </c>
       <c r="I83" s="3">
-        <v>18100</v>
+        <v>22500</v>
       </c>
       <c r="J83" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K83" s="3">
         <v>17800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-51900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>11900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>10700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>14400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>15600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>218900</v>
+        <v>59600</v>
       </c>
       <c r="E89" s="3">
-        <v>22900</v>
+        <v>222800</v>
       </c>
       <c r="F89" s="3">
+        <v>23300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
-        <v>82700</v>
-      </c>
       <c r="H89" s="3">
-        <v>153100</v>
+        <v>84200</v>
       </c>
       <c r="I89" s="3">
-        <v>8100</v>
+        <v>155800</v>
       </c>
       <c r="J89" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K89" s="3">
         <v>38100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-346200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>135300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>224000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>108100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>163300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>60800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>29500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>120600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>249100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>30100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>89500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>82200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>78100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>80600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>115200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25100</v>
+        <v>-20600</v>
       </c>
       <c r="E91" s="3">
-        <v>-22700</v>
+        <v>-23700</v>
       </c>
       <c r="F91" s="3">
-        <v>-14300</v>
+        <v>-21500</v>
       </c>
       <c r="G91" s="3">
-        <v>-21600</v>
+        <v>-13500</v>
       </c>
       <c r="H91" s="3">
-        <v>-30200</v>
+        <v>-20400</v>
       </c>
       <c r="I91" s="3">
-        <v>-17500</v>
+        <v>-28500</v>
       </c>
       <c r="J91" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-15600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>40000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-9400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-28400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25100</v>
+        <v>-21000</v>
       </c>
       <c r="E94" s="3">
-        <v>-23000</v>
+        <v>-25500</v>
       </c>
       <c r="F94" s="3">
-        <v>-13600</v>
+        <v>-23400</v>
       </c>
       <c r="G94" s="3">
-        <v>-21600</v>
+        <v>-13900</v>
       </c>
       <c r="H94" s="3">
-        <v>-29100</v>
+        <v>-22000</v>
       </c>
       <c r="I94" s="3">
-        <v>-645600</v>
+        <v>-29600</v>
       </c>
       <c r="J94" s="3">
+        <v>-657100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>163000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-157900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>11900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-45200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-264600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-266000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-15800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-28400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
-        <v>-35000</v>
-      </c>
       <c r="F100" s="3">
-        <v>-21600</v>
+        <v>-35600</v>
       </c>
       <c r="G100" s="3">
-        <v>-56400</v>
+        <v>-22000</v>
       </c>
       <c r="H100" s="3">
-        <v>-83300</v>
+        <v>-57400</v>
       </c>
       <c r="I100" s="3">
-        <v>37200</v>
+        <v>-84800</v>
       </c>
       <c r="J100" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K100" s="3">
         <v>315400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>688600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-150700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-427200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-62000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-107600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-51600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>395600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>248700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>106500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-16800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-105400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-131000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-18900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-22200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9300</v>
+        <v>-5300</v>
       </c>
       <c r="E101" s="3">
-        <v>6200</v>
+        <v>-9500</v>
       </c>
       <c r="F101" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
-        <v>4300</v>
-      </c>
       <c r="I101" s="3">
-        <v>7200</v>
+        <v>4400</v>
       </c>
       <c r="J101" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>18000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-13500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-14100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>6700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>183100</v>
+        <v>4400</v>
       </c>
       <c r="E102" s="3">
-        <v>-28900</v>
+        <v>186400</v>
       </c>
       <c r="F102" s="3">
-        <v>-36800</v>
+        <v>-29400</v>
       </c>
       <c r="G102" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
-        <v>45100</v>
-      </c>
       <c r="I102" s="3">
-        <v>-593000</v>
+        <v>45900</v>
       </c>
       <c r="J102" s="3">
+        <v>-603600</v>
+      </c>
+      <c r="K102" s="3">
         <v>337600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>523500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-169400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-397500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>144800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-25100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>120600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-39300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>509100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>201900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-273400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>10900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>191700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>46100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-137300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-79800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>49400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>71300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>834700</v>
+        <v>807800</v>
       </c>
       <c r="E8" s="3">
-        <v>807900</v>
+        <v>840300</v>
       </c>
       <c r="F8" s="3">
-        <v>818000</v>
+        <v>813300</v>
       </c>
       <c r="G8" s="3">
-        <v>750600</v>
+        <v>823500</v>
       </c>
       <c r="H8" s="3">
-        <v>789300</v>
+        <v>755600</v>
       </c>
       <c r="I8" s="3">
-        <v>758100</v>
+        <v>794500</v>
       </c>
       <c r="J8" s="3">
+        <v>763200</v>
+      </c>
+      <c r="K8" s="3">
         <v>645500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>630400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>722100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>656000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>598100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>653500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>771100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>733600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>661900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>632700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>739000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>727200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>587700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>536000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>592000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>570200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>515000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>514000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>623600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>569500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>593300</v>
+        <v>580000</v>
       </c>
       <c r="E9" s="3">
-        <v>600400</v>
+        <v>597200</v>
       </c>
       <c r="F9" s="3">
-        <v>579900</v>
+        <v>604400</v>
       </c>
       <c r="G9" s="3">
-        <v>538700</v>
+        <v>583800</v>
       </c>
       <c r="H9" s="3">
-        <v>568800</v>
+        <v>542300</v>
       </c>
       <c r="I9" s="3">
-        <v>564000</v>
+        <v>572600</v>
       </c>
       <c r="J9" s="3">
+        <v>567700</v>
+      </c>
+      <c r="K9" s="3">
         <v>465000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>436100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>504900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>449400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>416300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>455700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>546500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>514500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>466800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>444100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>510900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>509900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>424900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>369700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>404000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>390700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>359000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>352100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>440400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>410000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>241400</v>
+        <v>227800</v>
       </c>
       <c r="E10" s="3">
-        <v>207500</v>
+        <v>243100</v>
       </c>
       <c r="F10" s="3">
-        <v>238100</v>
+        <v>208900</v>
       </c>
       <c r="G10" s="3">
-        <v>211900</v>
+        <v>239700</v>
       </c>
       <c r="H10" s="3">
-        <v>220400</v>
+        <v>213400</v>
       </c>
       <c r="I10" s="3">
+        <v>221900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>195500</v>
+      </c>
+      <c r="K10" s="3">
+        <v>180500</v>
+      </c>
+      <c r="L10" s="3">
         <v>194200</v>
       </c>
-      <c r="J10" s="3">
-        <v>180500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>194200</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>217200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>206600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>181800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>197800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>224600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>219100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>195000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>188600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>228100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>217300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>162800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>166300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>188100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>179500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>156000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>161900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>183200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>159500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,94 +1262,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>32400</v>
+        <v>11400</v>
       </c>
       <c r="E14" s="3">
-        <v>25300</v>
+        <v>32600</v>
       </c>
       <c r="F14" s="3">
-        <v>20400</v>
+        <v>25500</v>
       </c>
       <c r="G14" s="3">
-        <v>-13700</v>
+        <v>20500</v>
       </c>
       <c r="H14" s="3">
-        <v>20500</v>
+        <v>-13800</v>
       </c>
       <c r="I14" s="3">
-        <v>24400</v>
+        <v>20600</v>
       </c>
       <c r="J14" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-6700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>23300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>53600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>22900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>12900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>23800</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>749000</v>
+        <v>704000</v>
       </c>
       <c r="E17" s="3">
-        <v>737200</v>
+        <v>754000</v>
       </c>
       <c r="F17" s="3">
-        <v>700800</v>
+        <v>742200</v>
       </c>
       <c r="G17" s="3">
-        <v>628500</v>
+        <v>705500</v>
       </c>
       <c r="H17" s="3">
-        <v>694900</v>
+        <v>632700</v>
       </c>
       <c r="I17" s="3">
-        <v>694700</v>
+        <v>699600</v>
       </c>
       <c r="J17" s="3">
+        <v>699400</v>
+      </c>
+      <c r="K17" s="3">
         <v>555700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>543300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>628600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>556300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>507800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>549300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>684300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>632500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>578400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>545500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>673600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>634900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>523000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>470600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>496500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>516500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>445200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>449500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>535300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>538800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>85700</v>
+        <v>103700</v>
       </c>
       <c r="E18" s="3">
-        <v>70600</v>
+        <v>86300</v>
       </c>
       <c r="F18" s="3">
-        <v>117200</v>
+        <v>71100</v>
       </c>
       <c r="G18" s="3">
-        <v>122100</v>
+        <v>118000</v>
       </c>
       <c r="H18" s="3">
-        <v>94300</v>
+        <v>122900</v>
       </c>
       <c r="I18" s="3">
-        <v>63400</v>
+        <v>95000</v>
       </c>
       <c r="J18" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K18" s="3">
         <v>89800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>87100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>93500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>99600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>90300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>104200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>86700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>101100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>83400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>87200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>65400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>92400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>64700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>65400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>95500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>53700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>69800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>64500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>88400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>30800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-31200</v>
+        <v>-38300</v>
       </c>
       <c r="E20" s="3">
-        <v>19000</v>
+        <v>-6400</v>
       </c>
       <c r="F20" s="3">
-        <v>12400</v>
+        <v>19100</v>
       </c>
       <c r="G20" s="3">
+        <v>12500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>13700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>78500</v>
+        <v>90700</v>
       </c>
       <c r="E21" s="3">
-        <v>114200</v>
+        <v>104100</v>
       </c>
       <c r="F21" s="3">
-        <v>153900</v>
+        <v>114900</v>
       </c>
       <c r="G21" s="3">
-        <v>144500</v>
+        <v>154900</v>
       </c>
       <c r="H21" s="3">
-        <v>117400</v>
+        <v>145500</v>
       </c>
       <c r="I21" s="3">
-        <v>86700</v>
+        <v>118200</v>
       </c>
       <c r="J21" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K21" s="3">
         <v>106200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>102200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>117000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>107200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>121600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>110300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>136100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>99800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>106200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>85200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>121500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>77600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>71000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>112000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>63300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>84600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>75500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>103300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>43300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1831,257 +1871,266 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>39700</v>
+        <v>25000</v>
       </c>
       <c r="F22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>17200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>16200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K22" s="3">
         <v>17100</v>
       </c>
-      <c r="G22" s="3">
-        <v>16000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>18600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>17100</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>17000</v>
       </c>
       <c r="P22" s="3">
         <v>17000</v>
       </c>
       <c r="Q22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="R22" s="3">
         <v>43100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>37600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>13000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>12200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>17800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>12600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>36600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>19400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>23000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>54500</v>
+        <v>65500</v>
       </c>
       <c r="E23" s="3">
-        <v>49900</v>
+        <v>54900</v>
       </c>
       <c r="F23" s="3">
-        <v>112400</v>
+        <v>50200</v>
       </c>
       <c r="G23" s="3">
-        <v>104800</v>
+        <v>113200</v>
       </c>
       <c r="H23" s="3">
-        <v>78600</v>
+        <v>105500</v>
       </c>
       <c r="I23" s="3">
-        <v>45600</v>
+        <v>79100</v>
       </c>
       <c r="J23" s="3">
+        <v>45900</v>
+      </c>
+      <c r="K23" s="3">
         <v>70600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>65000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>80200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>86200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>73200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>71700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>61500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>69200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>47700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>68800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>51300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>45800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>88800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>34200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>60100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>28300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>69500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>4700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10100</v>
+        <v>12100</v>
       </c>
       <c r="E24" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="F24" s="3">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="G24" s="3">
-        <v>24400</v>
+        <v>24200</v>
       </c>
       <c r="H24" s="3">
-        <v>18300</v>
+        <v>24600</v>
       </c>
       <c r="I24" s="3">
-        <v>14500</v>
+        <v>18400</v>
       </c>
       <c r="J24" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K24" s="3">
         <v>15000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>14700</v>
       </c>
       <c r="L24" s="3">
         <v>14700</v>
       </c>
       <c r="M24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="N24" s="3">
         <v>21600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>20300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>13100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>7200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>44400</v>
+        <v>53300</v>
       </c>
       <c r="E26" s="3">
-        <v>40000</v>
+        <v>44700</v>
       </c>
       <c r="F26" s="3">
-        <v>88400</v>
+        <v>40200</v>
       </c>
       <c r="G26" s="3">
-        <v>80300</v>
+        <v>89000</v>
       </c>
       <c r="H26" s="3">
-        <v>60300</v>
+        <v>80900</v>
       </c>
       <c r="I26" s="3">
-        <v>31000</v>
+        <v>60700</v>
       </c>
       <c r="J26" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K26" s="3">
         <v>55700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>54200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>50300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>58500</v>
       </c>
       <c r="N26" s="3">
         <v>58500</v>
       </c>
       <c r="O26" s="3">
+        <v>58500</v>
+      </c>
+      <c r="P26" s="3">
         <v>68300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>54300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>26700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>48300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>40200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>34000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>68500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>30600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>47000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>21700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>56300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>44400</v>
+        <v>53300</v>
       </c>
       <c r="E27" s="3">
-        <v>40000</v>
+        <v>44700</v>
       </c>
       <c r="F27" s="3">
-        <v>88400</v>
+        <v>40200</v>
       </c>
       <c r="G27" s="3">
-        <v>80300</v>
+        <v>89000</v>
       </c>
       <c r="H27" s="3">
-        <v>60300</v>
+        <v>80900</v>
       </c>
       <c r="I27" s="3">
-        <v>31000</v>
+        <v>60700</v>
       </c>
       <c r="J27" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K27" s="3">
         <v>55700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>54200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>50300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>58500</v>
       </c>
       <c r="N27" s="3">
         <v>58500</v>
       </c>
       <c r="O27" s="3">
+        <v>58500</v>
+      </c>
+      <c r="P27" s="3">
         <v>68300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>53600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>53700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>54600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>26800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>48600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>40600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>34000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>68500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>30600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>47000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>21700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>56300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>31200</v>
+        <v>38300</v>
       </c>
       <c r="E32" s="3">
-        <v>-19000</v>
+        <v>6400</v>
       </c>
       <c r="F32" s="3">
-        <v>-12400</v>
+        <v>-19100</v>
       </c>
       <c r="G32" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-13700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>3100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>44400</v>
+        <v>53300</v>
       </c>
       <c r="E33" s="3">
-        <v>40000</v>
+        <v>44700</v>
       </c>
       <c r="F33" s="3">
-        <v>88400</v>
+        <v>40200</v>
       </c>
       <c r="G33" s="3">
-        <v>80300</v>
+        <v>89000</v>
       </c>
       <c r="H33" s="3">
-        <v>60300</v>
+        <v>80900</v>
       </c>
       <c r="I33" s="3">
-        <v>31000</v>
+        <v>60700</v>
       </c>
       <c r="J33" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K33" s="3">
         <v>55700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>54200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>50300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>58500</v>
       </c>
       <c r="N33" s="3">
         <v>58500</v>
       </c>
       <c r="O33" s="3">
+        <v>58500</v>
+      </c>
+      <c r="P33" s="3">
         <v>68300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>53600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>53700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>54600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>26800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>48600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>40600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>34000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>68500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>30600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>47000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>21700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>56300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>44400</v>
+        <v>53300</v>
       </c>
       <c r="E35" s="3">
-        <v>40000</v>
+        <v>44700</v>
       </c>
       <c r="F35" s="3">
-        <v>88400</v>
+        <v>40200</v>
       </c>
       <c r="G35" s="3">
-        <v>80300</v>
+        <v>89000</v>
       </c>
       <c r="H35" s="3">
-        <v>60300</v>
+        <v>80900</v>
       </c>
       <c r="I35" s="3">
-        <v>31000</v>
+        <v>60700</v>
       </c>
       <c r="J35" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K35" s="3">
         <v>55700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>54200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>50300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>58500</v>
       </c>
       <c r="N35" s="3">
         <v>58500</v>
       </c>
       <c r="O35" s="3">
+        <v>58500</v>
+      </c>
+      <c r="P35" s="3">
         <v>68300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>53600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>53700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>54600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>26800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>48600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>40600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>34000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>68500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>30600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>47000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>21700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>56300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>399400</v>
+        <v>384500</v>
       </c>
       <c r="E41" s="3">
-        <v>397800</v>
+        <v>401800</v>
       </c>
       <c r="F41" s="3">
-        <v>208800</v>
+        <v>400500</v>
       </c>
       <c r="G41" s="3">
-        <v>237700</v>
+        <v>210200</v>
       </c>
       <c r="H41" s="3">
-        <v>275100</v>
+        <v>239300</v>
       </c>
       <c r="I41" s="3">
-        <v>273500</v>
+        <v>277000</v>
       </c>
       <c r="J41" s="3">
+        <v>275400</v>
+      </c>
+      <c r="K41" s="3">
         <v>227900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>789900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>401300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>392100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>573100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1020200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>906100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>964300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>883700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>846700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>387400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>173700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>443200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>432100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>245900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>199800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>337200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>436200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>386800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3297,28 +3387,28 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>25500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>24900</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>27400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>28200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>29200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>30600</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -3335,8 +3425,8 @@
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3353,352 +3443,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>343500</v>
+        <v>333000</v>
       </c>
       <c r="E43" s="3">
-        <v>287300</v>
+        <v>345800</v>
       </c>
       <c r="F43" s="3">
-        <v>368700</v>
+        <v>289200</v>
       </c>
       <c r="G43" s="3">
-        <v>375100</v>
+        <v>371200</v>
       </c>
       <c r="H43" s="3">
-        <v>310500</v>
+        <v>377600</v>
       </c>
       <c r="I43" s="3">
-        <v>252600</v>
+        <v>312500</v>
       </c>
       <c r="J43" s="3">
+        <v>254300</v>
+      </c>
+      <c r="K43" s="3">
         <v>260800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>175600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>188800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>184500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>210800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>217900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>313700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>241300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>188600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>223900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>228000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>205700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>227600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>181300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>189800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>165000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>159700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>143100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>170000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>159300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>531100</v>
+        <v>526300</v>
       </c>
       <c r="E44" s="3">
-        <v>492300</v>
+        <v>534700</v>
       </c>
       <c r="F44" s="3">
-        <v>543300</v>
+        <v>495500</v>
       </c>
       <c r="G44" s="3">
-        <v>508500</v>
+        <v>546900</v>
       </c>
       <c r="H44" s="3">
-        <v>461000</v>
+        <v>511900</v>
       </c>
       <c r="I44" s="3">
-        <v>442200</v>
+        <v>464100</v>
       </c>
       <c r="J44" s="3">
+        <v>445100</v>
+      </c>
+      <c r="K44" s="3">
         <v>460400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>353500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>351500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>343400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>372000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>321800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>297100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>377300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>480600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>405500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>406100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>405100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>418200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>366200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>315000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>344300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>370900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>346900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>350700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>381500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15600</v>
+        <v>13400</v>
       </c>
       <c r="E45" s="3">
-        <v>23700</v>
+        <v>16000</v>
       </c>
       <c r="F45" s="3">
-        <v>66000</v>
+        <v>23900</v>
       </c>
       <c r="G45" s="3">
-        <v>43400</v>
+        <v>66500</v>
       </c>
       <c r="H45" s="3">
-        <v>28200</v>
+        <v>43700</v>
       </c>
       <c r="I45" s="3">
-        <v>32200</v>
+        <v>28400</v>
       </c>
       <c r="J45" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K45" s="3">
         <v>24900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>33900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>41800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>46000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>60800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>51100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>55500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>109900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>101500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>103300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>86400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>85200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>89500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>86700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>102500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>98100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1289700</v>
+        <v>1257300</v>
       </c>
       <c r="E46" s="3">
-        <v>1201100</v>
+        <v>1298300</v>
       </c>
       <c r="F46" s="3">
-        <v>1186900</v>
+        <v>1209100</v>
       </c>
       <c r="G46" s="3">
-        <v>1164700</v>
+        <v>1194800</v>
       </c>
       <c r="H46" s="3">
-        <v>1074900</v>
+        <v>1172500</v>
       </c>
       <c r="I46" s="3">
-        <v>1000500</v>
+        <v>1082000</v>
       </c>
       <c r="J46" s="3">
+        <v>1007200</v>
+      </c>
+      <c r="K46" s="3">
         <v>973900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1367400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>988500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>965900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1185500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1621200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1586800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1658100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1644300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1527100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1590500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1108100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>921000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1093900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1023300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>840500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>820000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>913900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1059400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1025700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3733,230 +3838,239 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>1200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4800</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>1500</v>
       </c>
       <c r="AA47" s="3">
         <v>1500</v>
       </c>
       <c r="AB47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="AC47" s="3">
         <v>500</v>
       </c>
       <c r="AD47" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>595800</v>
+        <v>599700</v>
       </c>
       <c r="E48" s="3">
-        <v>584600</v>
+        <v>599800</v>
       </c>
       <c r="F48" s="3">
-        <v>578000</v>
+        <v>588600</v>
       </c>
       <c r="G48" s="3">
-        <v>583100</v>
+        <v>581800</v>
       </c>
       <c r="H48" s="3">
-        <v>584800</v>
+        <v>587000</v>
       </c>
       <c r="I48" s="3">
-        <v>591600</v>
+        <v>588700</v>
       </c>
       <c r="J48" s="3">
+        <v>595600</v>
+      </c>
+      <c r="K48" s="3">
         <v>545200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>449300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>431000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>421100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>431000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>452700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>467800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>493100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>510300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>493300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>511500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>412600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>379500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>352500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>315600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>331400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>329400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>327400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>345700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>350000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4908800</v>
+        <v>4945800</v>
       </c>
       <c r="E49" s="3">
-        <v>4909800</v>
+        <v>4941700</v>
       </c>
       <c r="F49" s="3">
-        <v>4918300</v>
+        <v>4942600</v>
       </c>
       <c r="G49" s="3">
-        <v>4912300</v>
+        <v>4951200</v>
       </c>
       <c r="H49" s="3">
-        <v>4906800</v>
+        <v>4945100</v>
       </c>
       <c r="I49" s="3">
-        <v>4905400</v>
+        <v>4939600</v>
       </c>
       <c r="J49" s="3">
+        <v>4938200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4878600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4289300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4142600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4047600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4096800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4306900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4459700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4606600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4833200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4643100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4721200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4670300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4370100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4073100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3809500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3893300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3892200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>3894300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4074200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4075700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>121300</v>
+        <v>130500</v>
       </c>
       <c r="E52" s="3">
-        <v>117100</v>
+        <v>122100</v>
       </c>
       <c r="F52" s="3">
-        <v>282300</v>
+        <v>117800</v>
       </c>
       <c r="G52" s="3">
-        <v>219300</v>
+        <v>284100</v>
       </c>
       <c r="H52" s="3">
-        <v>144400</v>
+        <v>220700</v>
       </c>
       <c r="I52" s="3">
-        <v>147800</v>
+        <v>145400</v>
       </c>
       <c r="J52" s="3">
+        <v>148700</v>
+      </c>
+      <c r="K52" s="3">
         <v>144000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>133600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>134500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>131500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>135700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>148100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>140100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>133000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>149100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>121900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>116300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>123500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>100200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>94400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>97200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>93000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>97300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>89600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>76300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>76200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6915600</v>
+        <v>6933400</v>
       </c>
       <c r="E54" s="3">
-        <v>6812600</v>
+        <v>6961900</v>
       </c>
       <c r="F54" s="3">
-        <v>6965400</v>
+        <v>6858100</v>
       </c>
       <c r="G54" s="3">
-        <v>6879300</v>
+        <v>7012000</v>
       </c>
       <c r="H54" s="3">
-        <v>6710800</v>
+        <v>6925300</v>
       </c>
       <c r="I54" s="3">
-        <v>6645300</v>
+        <v>6755700</v>
       </c>
       <c r="J54" s="3">
+        <v>6689800</v>
+      </c>
+      <c r="K54" s="3">
         <v>6541700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6239700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5696700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5566100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5850200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6530500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6656200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6893000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7139500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6788100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6942400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6317600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5774000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5617500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5249400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5163100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5140300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5226700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5556000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5528100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>781800</v>
+        <v>772500</v>
       </c>
       <c r="E57" s="3">
-        <v>748900</v>
+        <v>787100</v>
       </c>
       <c r="F57" s="3">
-        <v>718800</v>
+        <v>753900</v>
       </c>
       <c r="G57" s="3">
-        <v>787300</v>
+        <v>723600</v>
       </c>
       <c r="H57" s="3">
-        <v>774200</v>
+        <v>792600</v>
       </c>
       <c r="I57" s="3">
-        <v>745200</v>
+        <v>779400</v>
       </c>
       <c r="J57" s="3">
+        <v>750200</v>
+      </c>
+      <c r="K57" s="3">
         <v>655200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>578200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>660700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>645500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>586200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>621300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>613900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>613100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>614900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>610600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>687500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>676100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>545700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>529300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>521400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>535800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>515200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>534900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>540500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>554900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26200</v>
+        <v>31700</v>
       </c>
       <c r="E58" s="3">
-        <v>24300</v>
+        <v>26300</v>
       </c>
       <c r="F58" s="3">
-        <v>32300</v>
+        <v>24500</v>
       </c>
       <c r="G58" s="3">
         <v>32500</v>
       </c>
       <c r="H58" s="3">
-        <v>31700</v>
+        <v>32700</v>
       </c>
       <c r="I58" s="3">
-        <v>31300</v>
+        <v>31900</v>
       </c>
       <c r="J58" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K58" s="3">
         <v>29500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>32300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>32600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>30800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>48800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>25300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4900</v>
       </c>
-      <c r="AB58" s="3" t="s">
+      <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC58" s="3">
-        <v>0</v>
-      </c>
       <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>258600</v>
+        <v>237600</v>
       </c>
       <c r="E59" s="3">
-        <v>239900</v>
+        <v>260300</v>
       </c>
       <c r="F59" s="3">
-        <v>277700</v>
+        <v>241500</v>
       </c>
       <c r="G59" s="3">
-        <v>272900</v>
+        <v>279600</v>
       </c>
       <c r="H59" s="3">
-        <v>271300</v>
+        <v>274700</v>
       </c>
       <c r="I59" s="3">
-        <v>263900</v>
+        <v>273100</v>
       </c>
       <c r="J59" s="3">
+        <v>265700</v>
+      </c>
+      <c r="K59" s="3">
         <v>294400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>375200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>252500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>246800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>319800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>318700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>307000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>315400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>317500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>290300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>297100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>292200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>282000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>269100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>261700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>248100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>279200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>295300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>321900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>329100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1066600</v>
+        <v>1041800</v>
       </c>
       <c r="E60" s="3">
-        <v>1013100</v>
+        <v>1073700</v>
       </c>
       <c r="F60" s="3">
-        <v>1028900</v>
+        <v>1019900</v>
       </c>
       <c r="G60" s="3">
-        <v>1092700</v>
+        <v>1035700</v>
       </c>
       <c r="H60" s="3">
-        <v>1077100</v>
+        <v>1100000</v>
       </c>
       <c r="I60" s="3">
-        <v>1040500</v>
+        <v>1084300</v>
       </c>
       <c r="J60" s="3">
+        <v>1047500</v>
+      </c>
+      <c r="K60" s="3">
         <v>979100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>976500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>936200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>914700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>930700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>965600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>947500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>960900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>965000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>931700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1033400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>993600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>835000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>805300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>787000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>787500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>799000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>835100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>862400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>884000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2302700</v>
+        <v>2321100</v>
       </c>
       <c r="E61" s="3">
-        <v>2307000</v>
+        <v>2318100</v>
       </c>
       <c r="F61" s="3">
-        <v>2487600</v>
+        <v>2322500</v>
       </c>
       <c r="G61" s="3">
-        <v>2427900</v>
+        <v>2504300</v>
       </c>
       <c r="H61" s="3">
-        <v>2382700</v>
+        <v>2444100</v>
       </c>
       <c r="I61" s="3">
-        <v>2367300</v>
+        <v>2398700</v>
       </c>
       <c r="J61" s="3">
+        <v>2383200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2347200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2221800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1772400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1731800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1875600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2008300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2103900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2156900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2291200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2159900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2219100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2061700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1952500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1933700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1624100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1565300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1575000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1596100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1703400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1704100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>699400</v>
+        <v>703300</v>
       </c>
       <c r="E62" s="3">
-        <v>685800</v>
+        <v>704100</v>
       </c>
       <c r="F62" s="3">
-        <v>645600</v>
+        <v>690400</v>
       </c>
       <c r="G62" s="3">
-        <v>676800</v>
+        <v>649900</v>
       </c>
       <c r="H62" s="3">
-        <v>713900</v>
+        <v>681400</v>
       </c>
       <c r="I62" s="3">
-        <v>761700</v>
+        <v>718600</v>
       </c>
       <c r="J62" s="3">
+        <v>766800</v>
+      </c>
+      <c r="K62" s="3">
         <v>724800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>666500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>817800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>799000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>746300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>749700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>720100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>790500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>827500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>793600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>764400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>826600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>767600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>720500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>734000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>731600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>725600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>699100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>707100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>706800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4068700</v>
+        <v>4066100</v>
       </c>
       <c r="E66" s="3">
-        <v>4006000</v>
+        <v>4095900</v>
       </c>
       <c r="F66" s="3">
-        <v>4162100</v>
+        <v>4032700</v>
       </c>
       <c r="G66" s="3">
+        <v>4189900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>4225500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>4201600</v>
+      </c>
+      <c r="J66" s="3">
         <v>4197400</v>
       </c>
-      <c r="H66" s="3">
-        <v>4173700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4169500</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4051100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3864900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3526400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3445500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3552500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3723500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3771500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3906900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4082400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3883900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4015800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3881000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3554500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3459500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3145100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3084500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3099600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3130400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3272900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3294900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2739100</v>
+        <v>2750300</v>
       </c>
       <c r="E72" s="3">
-        <v>2689100</v>
+        <v>2757400</v>
       </c>
       <c r="F72" s="3">
-        <v>2641200</v>
+        <v>2707100</v>
       </c>
       <c r="G72" s="3">
-        <v>2532300</v>
+        <v>2658900</v>
       </c>
       <c r="H72" s="3">
-        <v>2403400</v>
+        <v>2549300</v>
       </c>
       <c r="I72" s="3">
-        <v>2351300</v>
+        <v>2419500</v>
       </c>
       <c r="J72" s="3">
+        <v>2367000</v>
+      </c>
+      <c r="K72" s="3">
         <v>2385100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2285100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2108900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2060500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2218100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2711800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2777100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2890900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2953200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2809800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2813700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2321600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2110600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2048900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2011800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1988600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1959700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2006100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2182600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2124700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2846900</v>
+        <v>2867200</v>
       </c>
       <c r="E76" s="3">
-        <v>2806600</v>
+        <v>2865900</v>
       </c>
       <c r="F76" s="3">
-        <v>2803300</v>
+        <v>2825400</v>
       </c>
       <c r="G76" s="3">
-        <v>2681900</v>
+        <v>2822000</v>
       </c>
       <c r="H76" s="3">
-        <v>2537100</v>
+        <v>2699800</v>
       </c>
       <c r="I76" s="3">
-        <v>2475800</v>
+        <v>2554000</v>
       </c>
       <c r="J76" s="3">
+        <v>2492300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2490700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2374800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2170300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2120600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2297700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2807000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2884600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2986100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3057100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2904200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2926600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2436700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2219500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2158000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2104300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2078600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2040700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2096300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2283100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2233200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>44400</v>
+        <v>53300</v>
       </c>
       <c r="E81" s="3">
-        <v>40000</v>
+        <v>44700</v>
       </c>
       <c r="F81" s="3">
-        <v>88400</v>
+        <v>40200</v>
       </c>
       <c r="G81" s="3">
-        <v>80300</v>
+        <v>89000</v>
       </c>
       <c r="H81" s="3">
-        <v>60300</v>
+        <v>80900</v>
       </c>
       <c r="I81" s="3">
-        <v>31000</v>
+        <v>60700</v>
       </c>
       <c r="J81" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K81" s="3">
         <v>55700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>54200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>50300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>58500</v>
       </c>
       <c r="N81" s="3">
         <v>58500</v>
       </c>
       <c r="O81" s="3">
+        <v>58500</v>
+      </c>
+      <c r="P81" s="3">
         <v>68300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>53600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>53700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>54600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>26800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>48600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>40600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>34000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>68500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>30600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>47000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>21700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>56300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24000</v>
+        <v>25300</v>
       </c>
       <c r="E83" s="3">
-        <v>24600</v>
+        <v>24200</v>
       </c>
       <c r="F83" s="3">
-        <v>24300</v>
+        <v>24700</v>
       </c>
       <c r="G83" s="3">
-        <v>23700</v>
+        <v>24500</v>
       </c>
       <c r="H83" s="3">
-        <v>22800</v>
+        <v>23900</v>
       </c>
       <c r="I83" s="3">
-        <v>22500</v>
+        <v>23000</v>
       </c>
       <c r="J83" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K83" s="3">
         <v>18400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>-51900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>11200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>11900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>10700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>14400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>15600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>59600</v>
+        <v>101400</v>
       </c>
       <c r="E89" s="3">
-        <v>222800</v>
+        <v>60000</v>
       </c>
       <c r="F89" s="3">
-        <v>23300</v>
+        <v>224300</v>
       </c>
       <c r="G89" s="3">
+        <v>23400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-3100</v>
       </c>
-      <c r="H89" s="3">
-        <v>84200</v>
-      </c>
       <c r="I89" s="3">
-        <v>155800</v>
+        <v>84800</v>
       </c>
       <c r="J89" s="3">
+        <v>156900</v>
+      </c>
+      <c r="K89" s="3">
         <v>8300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-346200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>135300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>224000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>108100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>163300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>60800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>29500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>120600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>249100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>30100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>89500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>82200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>78100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>80600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>115200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>40000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-13500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-11200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-9400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-28400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21000</v>
+        <v>-19000</v>
       </c>
       <c r="E94" s="3">
-        <v>-25500</v>
+        <v>-21100</v>
       </c>
       <c r="F94" s="3">
-        <v>-23400</v>
+        <v>-25700</v>
       </c>
       <c r="G94" s="3">
-        <v>-13900</v>
+        <v>-23500</v>
       </c>
       <c r="H94" s="3">
-        <v>-22000</v>
+        <v>-14000</v>
       </c>
       <c r="I94" s="3">
-        <v>-29600</v>
+        <v>-22100</v>
       </c>
       <c r="J94" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-657100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>163000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-157900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-20900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-45200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-264600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-266000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-15800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-12700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-28400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-28900</v>
+        <v>-99800</v>
       </c>
       <c r="E100" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
-        <v>-35600</v>
-      </c>
       <c r="G100" s="3">
-        <v>-22000</v>
+        <v>-35900</v>
       </c>
       <c r="H100" s="3">
-        <v>-57400</v>
+        <v>-22100</v>
       </c>
       <c r="I100" s="3">
-        <v>-84800</v>
+        <v>-57800</v>
       </c>
       <c r="J100" s="3">
+        <v>-85300</v>
+      </c>
+      <c r="K100" s="3">
         <v>37900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>315400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>688600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-150700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-427200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-62000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-107600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-26500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-51600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>395600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-14700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>248700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>106500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-16800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-105400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-131000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-18900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-22200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>18000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-14100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-2900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>6700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E102" s="3">
         <v>4400</v>
       </c>
-      <c r="E102" s="3">
-        <v>186400</v>
-      </c>
       <c r="F102" s="3">
-        <v>-29400</v>
+        <v>187700</v>
       </c>
       <c r="G102" s="3">
-        <v>-37500</v>
+        <v>-29600</v>
       </c>
       <c r="H102" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
-        <v>45900</v>
-      </c>
       <c r="J102" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-603600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>337600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>523500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-169400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-397500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>144800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>120600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-39300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>509100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>201900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-273400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>10900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>191700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>46100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-137300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-79800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>49400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>71300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-5600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NOMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>NOMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>807800</v>
+        <v>828400</v>
       </c>
       <c r="E8" s="3">
-        <v>840300</v>
+        <v>808400</v>
       </c>
       <c r="F8" s="3">
-        <v>813300</v>
+        <v>841000</v>
       </c>
       <c r="G8" s="3">
-        <v>823500</v>
+        <v>814000</v>
       </c>
       <c r="H8" s="3">
-        <v>755600</v>
+        <v>824200</v>
       </c>
       <c r="I8" s="3">
-        <v>794500</v>
+        <v>756200</v>
       </c>
       <c r="J8" s="3">
+        <v>795200</v>
+      </c>
+      <c r="K8" s="3">
         <v>763200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>645500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>630400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>722100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>656000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>598100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>653500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>771100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>733600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>661900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>632700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>739000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>727200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>587700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>536000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>592000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>570200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>515000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>514000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>623600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>569500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>515900</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>580000</v>
+        <v>593300</v>
       </c>
       <c r="E9" s="3">
-        <v>597200</v>
+        <v>580500</v>
       </c>
       <c r="F9" s="3">
-        <v>604400</v>
+        <v>597700</v>
       </c>
       <c r="G9" s="3">
-        <v>583800</v>
+        <v>604900</v>
       </c>
       <c r="H9" s="3">
-        <v>542300</v>
+        <v>584300</v>
       </c>
       <c r="I9" s="3">
-        <v>572600</v>
+        <v>542700</v>
       </c>
       <c r="J9" s="3">
+        <v>573100</v>
+      </c>
+      <c r="K9" s="3">
         <v>567700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>465000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>436100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>504900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>449400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>416300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>455700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>546500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>514500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>466800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>444100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>510900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>509900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>424900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>369700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>404000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>390700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>359000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>352100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>440400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>410000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>365600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>227800</v>
+        <v>235100</v>
       </c>
       <c r="E10" s="3">
-        <v>243100</v>
+        <v>228000</v>
       </c>
       <c r="F10" s="3">
-        <v>208900</v>
+        <v>243300</v>
       </c>
       <c r="G10" s="3">
-        <v>239700</v>
+        <v>209100</v>
       </c>
       <c r="H10" s="3">
-        <v>213400</v>
+        <v>239900</v>
       </c>
       <c r="I10" s="3">
-        <v>221900</v>
+        <v>213500</v>
       </c>
       <c r="J10" s="3">
+        <v>222100</v>
+      </c>
+      <c r="K10" s="3">
         <v>195500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>180500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>194200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>217200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>206600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>181800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>197800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>224600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>219100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>195000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>188600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>228100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>217300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>162800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>166300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>188100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>179500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>156000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>161900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>183200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>159500</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,97 +1282,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E14" s="3">
         <v>11400</v>
       </c>
-      <c r="E14" s="3">
-        <v>32600</v>
-      </c>
       <c r="F14" s="3">
+        <v>32700</v>
+      </c>
+      <c r="G14" s="3">
         <v>25500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>20500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-13800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>24600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-6700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>23300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>53600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>7100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>22900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>6100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>12900</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>23800</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>704000</v>
+        <v>721600</v>
       </c>
       <c r="E17" s="3">
-        <v>754000</v>
+        <v>704600</v>
       </c>
       <c r="F17" s="3">
-        <v>742200</v>
+        <v>754600</v>
       </c>
       <c r="G17" s="3">
-        <v>705500</v>
+        <v>742800</v>
       </c>
       <c r="H17" s="3">
-        <v>632700</v>
+        <v>706100</v>
       </c>
       <c r="I17" s="3">
-        <v>699600</v>
+        <v>633200</v>
       </c>
       <c r="J17" s="3">
+        <v>700200</v>
+      </c>
+      <c r="K17" s="3">
         <v>699400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>555700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>543300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>628600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>556300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>507800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>549300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>684300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>632500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>578400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>545500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>673600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>634900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>523000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>470600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>496500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>516500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>445200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>449500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>535300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>538800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>471500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>103700</v>
+        <v>106800</v>
       </c>
       <c r="E18" s="3">
-        <v>86300</v>
+        <v>103800</v>
       </c>
       <c r="F18" s="3">
-        <v>71100</v>
+        <v>86400</v>
       </c>
       <c r="G18" s="3">
+        <v>71200</v>
+      </c>
+      <c r="H18" s="3">
         <v>118000</v>
       </c>
-      <c r="H18" s="3">
-        <v>122900</v>
-      </c>
       <c r="I18" s="3">
+        <v>123000</v>
+      </c>
+      <c r="J18" s="3">
         <v>95000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>63900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>89800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>87100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>93500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>99600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>90300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>104200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>86700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>101100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>83400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>87200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>65400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>92400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>64700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>65400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>95500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>53700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>69800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>64500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>88400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>30800</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-38300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>19100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>13700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-3100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>90700</v>
+        <v>129800</v>
       </c>
       <c r="E21" s="3">
-        <v>104100</v>
+        <v>90800</v>
       </c>
       <c r="F21" s="3">
-        <v>114900</v>
+        <v>104200</v>
       </c>
       <c r="G21" s="3">
-        <v>154900</v>
+        <v>115000</v>
       </c>
       <c r="H21" s="3">
-        <v>145500</v>
+        <v>155000</v>
       </c>
       <c r="I21" s="3">
-        <v>118200</v>
+        <v>145600</v>
       </c>
       <c r="J21" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K21" s="3">
         <v>87300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>106200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>102200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>117000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>107200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>121600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>110300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>136100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>99800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>106200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>85200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>121500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>77600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>71000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>112000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>63300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>84600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>75500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>103300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>43300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>25000</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
+        <v>25100</v>
+      </c>
+      <c r="G22" s="3">
         <v>40000</v>
       </c>
-      <c r="G22" s="3">
-        <v>17200</v>
-      </c>
       <c r="H22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="I22" s="3">
         <v>16200</v>
       </c>
-      <c r="I22" s="3">
-        <v>16000</v>
-      </c>
       <c r="J22" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K22" s="3">
         <v>18800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>17000</v>
       </c>
       <c r="Q22" s="3">
         <v>17000</v>
       </c>
       <c r="R22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="S22" s="3">
         <v>43100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>37600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>13000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>12200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>17800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>12600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>36600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>19400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>23000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E23" s="3">
         <v>65500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>54900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>50200</v>
       </c>
-      <c r="G23" s="3">
-        <v>113200</v>
-      </c>
       <c r="H23" s="3">
-        <v>105500</v>
+        <v>113300</v>
       </c>
       <c r="I23" s="3">
-        <v>79100</v>
+        <v>105600</v>
       </c>
       <c r="J23" s="3">
+        <v>79200</v>
+      </c>
+      <c r="K23" s="3">
         <v>45900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>70600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>68900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>65000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>80200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>74000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>86200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>73200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>71700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>61500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>69200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>47700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>68800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>51300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>45800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>88800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>34200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>60100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>28300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>69500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>4700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12100</v>
+        <v>20400</v>
       </c>
       <c r="E24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F24" s="3">
         <v>10200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>24200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>14700</v>
       </c>
       <c r="M24" s="3">
         <v>14700</v>
       </c>
       <c r="N24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="O24" s="3">
         <v>21600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>20300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>6600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>13100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>7200</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>53300</v>
+        <v>84200</v>
       </c>
       <c r="E26" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F26" s="3">
         <v>44700</v>
       </c>
-      <c r="F26" s="3">
-        <v>40200</v>
-      </c>
       <c r="G26" s="3">
-        <v>89000</v>
+        <v>40300</v>
       </c>
       <c r="H26" s="3">
+        <v>89100</v>
+      </c>
+      <c r="I26" s="3">
         <v>80900</v>
       </c>
-      <c r="I26" s="3">
-        <v>60700</v>
-      </c>
       <c r="J26" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K26" s="3">
         <v>31200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>55700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>54200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>50300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>58500</v>
       </c>
       <c r="O26" s="3">
         <v>58500</v>
       </c>
       <c r="P26" s="3">
+        <v>58500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>68300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>54300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>26700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>48300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>40200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>34000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>68500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>30600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>47000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>21700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>56300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>53300</v>
+        <v>84200</v>
       </c>
       <c r="E27" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F27" s="3">
         <v>44700</v>
       </c>
-      <c r="F27" s="3">
-        <v>40200</v>
-      </c>
       <c r="G27" s="3">
-        <v>89000</v>
+        <v>40300</v>
       </c>
       <c r="H27" s="3">
+        <v>89100</v>
+      </c>
+      <c r="I27" s="3">
         <v>80900</v>
       </c>
-      <c r="I27" s="3">
-        <v>60700</v>
-      </c>
       <c r="J27" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K27" s="3">
         <v>31200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>55700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>54200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>50300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>58500</v>
       </c>
       <c r="O27" s="3">
         <v>58500</v>
       </c>
       <c r="P27" s="3">
+        <v>58500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>68300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>53600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>53700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>48000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>54600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>26800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>48600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>40600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>34000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>68500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>30600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>47000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>21700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>56300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>38300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-19100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-13700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>6700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>3100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>53300</v>
+        <v>84200</v>
       </c>
       <c r="E33" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F33" s="3">
         <v>44700</v>
       </c>
-      <c r="F33" s="3">
-        <v>40200</v>
-      </c>
       <c r="G33" s="3">
-        <v>89000</v>
+        <v>40300</v>
       </c>
       <c r="H33" s="3">
+        <v>89100</v>
+      </c>
+      <c r="I33" s="3">
         <v>80900</v>
       </c>
-      <c r="I33" s="3">
-        <v>60700</v>
-      </c>
       <c r="J33" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K33" s="3">
         <v>31200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>55700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>54200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>50300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>58500</v>
       </c>
       <c r="O33" s="3">
         <v>58500</v>
       </c>
       <c r="P33" s="3">
+        <v>58500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>68300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>53600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>53700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>48000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>54600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>26800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>48600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>40600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>34000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>68500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>30600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>47000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>21700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>56300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>53300</v>
+        <v>84200</v>
       </c>
       <c r="E35" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F35" s="3">
         <v>44700</v>
       </c>
-      <c r="F35" s="3">
-        <v>40200</v>
-      </c>
       <c r="G35" s="3">
-        <v>89000</v>
+        <v>40300</v>
       </c>
       <c r="H35" s="3">
+        <v>89100</v>
+      </c>
+      <c r="I35" s="3">
         <v>80900</v>
       </c>
-      <c r="I35" s="3">
-        <v>60700</v>
-      </c>
       <c r="J35" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K35" s="3">
         <v>31200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>55700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>54200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>50300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>58500</v>
       </c>
       <c r="O35" s="3">
         <v>58500</v>
       </c>
       <c r="P35" s="3">
+        <v>58500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>68300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>53600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>53700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>48000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>54600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>26800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>48600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>40600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>34000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>68500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>30600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>47000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>21700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>56300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>384500</v>
+        <v>331900</v>
       </c>
       <c r="E41" s="3">
-        <v>401800</v>
+        <v>384800</v>
       </c>
       <c r="F41" s="3">
-        <v>400500</v>
+        <v>402100</v>
       </c>
       <c r="G41" s="3">
-        <v>210200</v>
+        <v>400800</v>
       </c>
       <c r="H41" s="3">
-        <v>239300</v>
+        <v>210400</v>
       </c>
       <c r="I41" s="3">
-        <v>277000</v>
+        <v>239500</v>
       </c>
       <c r="J41" s="3">
+        <v>277200</v>
+      </c>
+      <c r="K41" s="3">
         <v>275400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>227900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>789900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>401300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>392100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>573100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1020200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>906100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>964300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>883700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>846700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>387400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>173700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>443200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>432100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>245900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>199800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>337200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>436200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>386800</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3390,28 +3480,28 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>25500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>24900</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>27400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>28200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>29200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>30600</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
@@ -3428,8 +3518,8 @@
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3446,364 +3536,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>333000</v>
+        <v>327300</v>
       </c>
       <c r="E43" s="3">
-        <v>345800</v>
+        <v>333300</v>
       </c>
       <c r="F43" s="3">
-        <v>289200</v>
+        <v>346100</v>
       </c>
       <c r="G43" s="3">
-        <v>371200</v>
+        <v>289500</v>
       </c>
       <c r="H43" s="3">
-        <v>377600</v>
+        <v>371500</v>
       </c>
       <c r="I43" s="3">
-        <v>312500</v>
+        <v>377900</v>
       </c>
       <c r="J43" s="3">
+        <v>312800</v>
+      </c>
+      <c r="K43" s="3">
         <v>254300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>260800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>175600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>188800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>184500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>210800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>217900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>313700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>241300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>188600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>223900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>228000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>205700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>227600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>181300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>189800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>165000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>159700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>143100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>170000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>159300</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>526300</v>
+        <v>520800</v>
       </c>
       <c r="E44" s="3">
-        <v>534700</v>
+        <v>526800</v>
       </c>
       <c r="F44" s="3">
-        <v>495500</v>
+        <v>535100</v>
       </c>
       <c r="G44" s="3">
-        <v>546900</v>
+        <v>496000</v>
       </c>
       <c r="H44" s="3">
-        <v>511900</v>
+        <v>547400</v>
       </c>
       <c r="I44" s="3">
-        <v>464100</v>
+        <v>512300</v>
       </c>
       <c r="J44" s="3">
+        <v>464500</v>
+      </c>
+      <c r="K44" s="3">
         <v>445100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>460400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>353500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>351500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>343400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>372000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>321800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>297100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>377300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>480600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>405500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>406100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>405100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>418200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>366200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>315000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>344300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>370900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>346900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>350700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>381500</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>386700</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13400</v>
+        <v>14200</v>
       </c>
       <c r="E45" s="3">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="F45" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G45" s="3">
         <v>23900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>66500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>43700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>41800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>46000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>60800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>51100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>55500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>109900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>101500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>103300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>86400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>85200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>89500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>86700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>102500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>98100</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1257300</v>
+        <v>1194300</v>
       </c>
       <c r="E46" s="3">
-        <v>1298300</v>
+        <v>1258400</v>
       </c>
       <c r="F46" s="3">
-        <v>1209100</v>
+        <v>1299400</v>
       </c>
       <c r="G46" s="3">
-        <v>1194800</v>
+        <v>1210100</v>
       </c>
       <c r="H46" s="3">
-        <v>1172500</v>
+        <v>1195800</v>
       </c>
       <c r="I46" s="3">
-        <v>1082000</v>
+        <v>1173400</v>
       </c>
       <c r="J46" s="3">
+        <v>1082900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1007200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>973900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1367400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>988500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>965900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1185500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1621200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1586800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1658100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1644300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1527100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1590500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1108100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>921000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1093900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1023300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>840500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>820000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>913900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1059400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1025700</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>958500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3841,236 +3946,245 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>1200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>4800</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>1500</v>
       </c>
       <c r="AB47" s="3">
         <v>1500</v>
       </c>
       <c r="AC47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="AD47" s="3">
         <v>500</v>
       </c>
       <c r="AE47" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>599700</v>
+        <v>599100</v>
       </c>
       <c r="E48" s="3">
-        <v>599800</v>
+        <v>600200</v>
       </c>
       <c r="F48" s="3">
-        <v>588600</v>
+        <v>600300</v>
       </c>
       <c r="G48" s="3">
-        <v>581800</v>
+        <v>589000</v>
       </c>
       <c r="H48" s="3">
-        <v>587000</v>
+        <v>582300</v>
       </c>
       <c r="I48" s="3">
-        <v>588700</v>
+        <v>587500</v>
       </c>
       <c r="J48" s="3">
+        <v>589200</v>
+      </c>
+      <c r="K48" s="3">
         <v>595600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>545200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>449300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>431000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>421100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>431000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>452700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>467800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>493100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>510300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>493300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>511500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>412600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>379500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>352500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>315600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>331400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>329400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>327400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>345700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>350000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>343800</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4953000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4949900</v>
+      </c>
+      <c r="F49" s="3">
         <v>4945800</v>
       </c>
-      <c r="E49" s="3">
-        <v>4941700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4942600</v>
-      </c>
       <c r="G49" s="3">
-        <v>4951200</v>
+        <v>4946700</v>
       </c>
       <c r="H49" s="3">
-        <v>4945100</v>
+        <v>4955300</v>
       </c>
       <c r="I49" s="3">
-        <v>4939600</v>
+        <v>4949200</v>
       </c>
       <c r="J49" s="3">
+        <v>4943700</v>
+      </c>
+      <c r="K49" s="3">
         <v>4938200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4878600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4289300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4142600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4047600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4096800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4306900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4459700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4606600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4833200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4643100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4721200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4670300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4370100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4073100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3809500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3893300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>3892200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>3894300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4074200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>4075700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>4074300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>130500</v>
+        <v>125100</v>
       </c>
       <c r="E52" s="3">
-        <v>122100</v>
+        <v>130600</v>
       </c>
       <c r="F52" s="3">
-        <v>117800</v>
+        <v>122200</v>
       </c>
       <c r="G52" s="3">
-        <v>284100</v>
+        <v>117900</v>
       </c>
       <c r="H52" s="3">
-        <v>220700</v>
+        <v>284400</v>
       </c>
       <c r="I52" s="3">
-        <v>145400</v>
+        <v>220900</v>
       </c>
       <c r="J52" s="3">
+        <v>145500</v>
+      </c>
+      <c r="K52" s="3">
         <v>148700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>144000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>133600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>134500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>131500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>135700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>148100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>140100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>133000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>149100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>121900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>116300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>123500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>100200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>94400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>97200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>93000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>97300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>89600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>76300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>76200</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6933400</v>
+        <v>6871500</v>
       </c>
       <c r="E54" s="3">
-        <v>6961900</v>
+        <v>6939100</v>
       </c>
       <c r="F54" s="3">
-        <v>6858100</v>
+        <v>6967700</v>
       </c>
       <c r="G54" s="3">
-        <v>7012000</v>
+        <v>6863800</v>
       </c>
       <c r="H54" s="3">
-        <v>6925300</v>
+        <v>7017800</v>
       </c>
       <c r="I54" s="3">
-        <v>6755700</v>
+        <v>6931100</v>
       </c>
       <c r="J54" s="3">
+        <v>6761300</v>
+      </c>
+      <c r="K54" s="3">
         <v>6689800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6541700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6239700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5696700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5566100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5850200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6530500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6656200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6893000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7139500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6788100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6942400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6317600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5774000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5617500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5249400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5163100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5140300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5226700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5556000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>5528100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>5447700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>772500</v>
+        <v>755200</v>
       </c>
       <c r="E57" s="3">
-        <v>787100</v>
+        <v>773200</v>
       </c>
       <c r="F57" s="3">
-        <v>753900</v>
+        <v>787700</v>
       </c>
       <c r="G57" s="3">
-        <v>723600</v>
+        <v>754500</v>
       </c>
       <c r="H57" s="3">
-        <v>792600</v>
+        <v>724200</v>
       </c>
       <c r="I57" s="3">
-        <v>779400</v>
+        <v>793200</v>
       </c>
       <c r="J57" s="3">
+        <v>780000</v>
+      </c>
+      <c r="K57" s="3">
         <v>750200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>655200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>578200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>660700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>645500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>586200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>621300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>613900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>613100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>614900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>610600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>687500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>676100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>545700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>529300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>521400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>535800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>515200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>534900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>540500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>554900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>481300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E58" s="3">
         <v>31700</v>
       </c>
-      <c r="E58" s="3">
-        <v>26300</v>
-      </c>
       <c r="F58" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G58" s="3">
         <v>24500</v>
       </c>
-      <c r="G58" s="3">
-        <v>32500</v>
-      </c>
       <c r="H58" s="3">
-        <v>32700</v>
+        <v>32600</v>
       </c>
       <c r="I58" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J58" s="3">
         <v>31900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>31500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>29500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>25600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>32300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>32600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>30800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>48800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>25300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4900</v>
       </c>
-      <c r="AC58" s="3" t="s">
+      <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD58" s="3">
-        <v>0</v>
-      </c>
       <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>237600</v>
+        <v>233800</v>
       </c>
       <c r="E59" s="3">
-        <v>260300</v>
+        <v>237800</v>
       </c>
       <c r="F59" s="3">
-        <v>241500</v>
+        <v>260500</v>
       </c>
       <c r="G59" s="3">
-        <v>279600</v>
+        <v>241700</v>
       </c>
       <c r="H59" s="3">
-        <v>274700</v>
+        <v>279800</v>
       </c>
       <c r="I59" s="3">
-        <v>273100</v>
+        <v>274900</v>
       </c>
       <c r="J59" s="3">
+        <v>273300</v>
+      </c>
+      <c r="K59" s="3">
         <v>265700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>294400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>375200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>252500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>246800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>319800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>318700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>307000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>315400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>317500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>290300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>297100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>292200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>282000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>269100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>261700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>248100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>279200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>295300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>321900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>329100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1041800</v>
+        <v>1011400</v>
       </c>
       <c r="E60" s="3">
-        <v>1073700</v>
+        <v>1042700</v>
       </c>
       <c r="F60" s="3">
-        <v>1019900</v>
+        <v>1074600</v>
       </c>
       <c r="G60" s="3">
-        <v>1035700</v>
+        <v>1020800</v>
       </c>
       <c r="H60" s="3">
-        <v>1100000</v>
+        <v>1036600</v>
       </c>
       <c r="I60" s="3">
-        <v>1084300</v>
+        <v>1100900</v>
       </c>
       <c r="J60" s="3">
+        <v>1085200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1047500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>979100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>976500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>936200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>914700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>930700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>965600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>947500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>960900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>965000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>931700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1033400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>993600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>835000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>805300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>787000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>787500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>799000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>835100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>862400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>884000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>777300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2321100</v>
+        <v>2322600</v>
       </c>
       <c r="E61" s="3">
-        <v>2318100</v>
+        <v>2323000</v>
       </c>
       <c r="F61" s="3">
-        <v>2322500</v>
+        <v>2320100</v>
       </c>
       <c r="G61" s="3">
-        <v>2504300</v>
+        <v>2324400</v>
       </c>
       <c r="H61" s="3">
-        <v>2444100</v>
+        <v>2506400</v>
       </c>
       <c r="I61" s="3">
-        <v>2398700</v>
+        <v>2446100</v>
       </c>
       <c r="J61" s="3">
+        <v>2400700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2383200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2347200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2221800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1772400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1731800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1875600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2008300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2103900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2156900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2291200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2159900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2219100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2061700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1952500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1933700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1624100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1565300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1575000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1596100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1703400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1704100</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1699200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>703300</v>
+        <v>653600</v>
       </c>
       <c r="E62" s="3">
-        <v>704100</v>
+        <v>703800</v>
       </c>
       <c r="F62" s="3">
-        <v>690400</v>
+        <v>704700</v>
       </c>
       <c r="G62" s="3">
-        <v>649900</v>
+        <v>690900</v>
       </c>
       <c r="H62" s="3">
-        <v>681400</v>
+        <v>650500</v>
       </c>
       <c r="I62" s="3">
-        <v>718600</v>
+        <v>681900</v>
       </c>
       <c r="J62" s="3">
+        <v>719200</v>
+      </c>
+      <c r="K62" s="3">
         <v>766800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>724800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>666500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>817800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>799000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>746300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>749700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>720100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>790500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>827500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>793600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>764400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>826600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>767600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>720500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>734000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>731600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>725600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>699100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>707100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>706800</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>747500</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4066100</v>
+        <v>3987600</v>
       </c>
       <c r="E66" s="3">
-        <v>4095900</v>
+        <v>4069500</v>
       </c>
       <c r="F66" s="3">
-        <v>4032700</v>
+        <v>4099300</v>
       </c>
       <c r="G66" s="3">
-        <v>4189900</v>
+        <v>4036100</v>
       </c>
       <c r="H66" s="3">
-        <v>4225500</v>
+        <v>4193400</v>
       </c>
       <c r="I66" s="3">
-        <v>4201600</v>
+        <v>4229000</v>
       </c>
       <c r="J66" s="3">
+        <v>4205100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4197400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4051100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3864900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3526400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3445500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3552500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3723500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3771500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3906900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4082400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3883900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4015800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3881000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3554500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3459500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3145100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3084500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3099600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3130400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3272900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3294900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2750300</v>
+        <v>2762300</v>
       </c>
       <c r="E72" s="3">
-        <v>2757400</v>
+        <v>2752500</v>
       </c>
       <c r="F72" s="3">
-        <v>2707100</v>
+        <v>2759700</v>
       </c>
       <c r="G72" s="3">
-        <v>2658900</v>
+        <v>2709400</v>
       </c>
       <c r="H72" s="3">
-        <v>2549300</v>
+        <v>2661100</v>
       </c>
       <c r="I72" s="3">
-        <v>2419500</v>
+        <v>2551400</v>
       </c>
       <c r="J72" s="3">
+        <v>2421500</v>
+      </c>
+      <c r="K72" s="3">
         <v>2367000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2385100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2285100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2108900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2060500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2218100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2711800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2777100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2890900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2953200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2809800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2813700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2321600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2110600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2048900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2011800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1988600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1959700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2006100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2182600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2124700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>2125200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2867200</v>
+        <v>2883900</v>
       </c>
       <c r="E76" s="3">
-        <v>2865900</v>
+        <v>2869600</v>
       </c>
       <c r="F76" s="3">
-        <v>2825400</v>
+        <v>2868300</v>
       </c>
       <c r="G76" s="3">
-        <v>2822000</v>
+        <v>2827700</v>
       </c>
       <c r="H76" s="3">
-        <v>2699800</v>
+        <v>2824400</v>
       </c>
       <c r="I76" s="3">
-        <v>2554000</v>
+        <v>2702100</v>
       </c>
       <c r="J76" s="3">
+        <v>2556200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2492300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2490700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2374800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2170300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2120600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2297700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2807000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2884600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2986100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3057100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2904200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2926600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2436700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2219500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2158000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2104300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2078600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2040700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2096300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2283100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2233200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>53300</v>
+        <v>84200</v>
       </c>
       <c r="E81" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F81" s="3">
         <v>44700</v>
       </c>
-      <c r="F81" s="3">
-        <v>40200</v>
-      </c>
       <c r="G81" s="3">
-        <v>89000</v>
+        <v>40300</v>
       </c>
       <c r="H81" s="3">
+        <v>89100</v>
+      </c>
+      <c r="I81" s="3">
         <v>80900</v>
       </c>
-      <c r="I81" s="3">
-        <v>60700</v>
-      </c>
       <c r="J81" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K81" s="3">
         <v>31200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>55700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>54200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>50300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>58500</v>
       </c>
       <c r="O81" s="3">
         <v>58500</v>
       </c>
       <c r="P81" s="3">
+        <v>58500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>68300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>53600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>53700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>48000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>54600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>26800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>48600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>40600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>34000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>68500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>30600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>47000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>21700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>56300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E83" s="3">
         <v>25300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>-51900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>11000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>11200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>11900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>10700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>14400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>15600</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E89" s="3">
         <v>101400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>60000</v>
       </c>
-      <c r="F89" s="3">
-        <v>224300</v>
-      </c>
       <c r="G89" s="3">
+        <v>224500</v>
+      </c>
+      <c r="H89" s="3">
         <v>23400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>84800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>156900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-346200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>135300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>224000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>108100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>163300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>60800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>29500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>120600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>249100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>30100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>89500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>82200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-20000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>78100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>80600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>115200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>37900</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>40000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-13500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-11200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-9400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-28400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-21100</v>
-      </c>
       <c r="F94" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-25700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-657100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>163000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-157900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>11900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-20900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-45200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-264600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-266000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-15800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-12700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-28400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-99800</v>
+        <v>-145100</v>
       </c>
       <c r="E100" s="3">
+        <v>-99900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-29100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-35900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-22100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-57800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-85300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>37900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>315400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>688600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-150700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-427200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-107600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-26500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-51600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>395600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-14700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>248700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>106500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-16800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-105400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-131000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-18900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-22200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-20500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>18000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-13500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-14100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-2900</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>6700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-16100</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4400</v>
       </c>
-      <c r="F102" s="3">
-        <v>187700</v>
-      </c>
       <c r="G102" s="3">
+        <v>187800</v>
+      </c>
+      <c r="H102" s="3">
         <v>-29600</v>
       </c>
-      <c r="H102" s="3">
-        <v>-37700</v>
-      </c>
       <c r="I102" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>46200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-603600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>337600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>523500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-169400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-397500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>144800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-25100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>120600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-39300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>509100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>201900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-273400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>10900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>191700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>46100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-137300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-79800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>49400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>71300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-5600</v>
       </c>
     </row>
